--- a/CLEANED_videos_count_data.xlsx
+++ b/CLEANED_videos_count_data.xlsx
@@ -30263,13 +30263,13 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>394593951</v>
+        <v>394608517</v>
       </c>
       <c r="E728" t="n">
-        <v>10138018</v>
+        <v>10138076</v>
       </c>
       <c r="F728" t="n">
-        <v>1344948</v>
+        <v>1344958</v>
       </c>
       <c r="G728" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>11:43:05.086445</t>
+          <t>11:57:22.578522</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
@@ -30304,10 +30304,10 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>525225651</v>
+        <v>525234364</v>
       </c>
       <c r="E729" t="n">
-        <v>10839815</v>
+        <v>10839844</v>
       </c>
       <c r="F729" t="n">
         <v>2238651</v>
@@ -30319,7 +30319,7 @@
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>11:43:05.086467</t>
+          <t>11:57:22.578575</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
@@ -30345,13 +30345,13 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>735553739</v>
+        <v>735564927</v>
       </c>
       <c r="E730" t="n">
-        <v>16085628</v>
+        <v>16085654</v>
       </c>
       <c r="F730" t="n">
-        <v>3567783</v>
+        <v>3567786</v>
       </c>
       <c r="G730" t="inlineStr">
         <is>
@@ -30360,7 +30360,7 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>11:43:05.086472</t>
+          <t>11:57:22.578581</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
@@ -30386,13 +30386,13 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>655276539</v>
+        <v>655281002</v>
       </c>
       <c r="E731" t="n">
-        <v>17322153</v>
+        <v>17322172</v>
       </c>
       <c r="F731" t="n">
-        <v>2815273</v>
+        <v>2815276</v>
       </c>
       <c r="G731" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>11:43:05.086476</t>
+          <t>11:57:22.578585</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
@@ -30427,13 +30427,13 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>268270271</v>
+        <v>268272222</v>
       </c>
       <c r="E732" t="n">
-        <v>7382321</v>
+        <v>7382333</v>
       </c>
       <c r="F732" t="n">
-        <v>1241212</v>
+        <v>1241215</v>
       </c>
       <c r="G732" t="inlineStr">
         <is>
@@ -30442,7 +30442,7 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>11:43:05.086479</t>
+          <t>11:57:22.578589</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
@@ -30468,13 +30468,13 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>342796235</v>
+        <v>342798373</v>
       </c>
       <c r="E733" t="n">
-        <v>11348744</v>
+        <v>11348756</v>
       </c>
       <c r="F733" t="n">
-        <v>2586975</v>
+        <v>2586984</v>
       </c>
       <c r="G733" t="inlineStr">
         <is>
@@ -30483,7 +30483,7 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>11:43:05.086483</t>
+          <t>11:57:22.578593</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
@@ -30509,10 +30509,10 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>709267489</v>
+        <v>709271956</v>
       </c>
       <c r="E734" t="n">
-        <v>15498214</v>
+        <v>15498230</v>
       </c>
       <c r="F734" t="n">
         <v>2043086</v>
@@ -30524,7 +30524,7 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>11:43:05.086487</t>
+          <t>11:57:22.578597</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
@@ -30550,10 +30550,10 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>871815408</v>
+        <v>871818662</v>
       </c>
       <c r="E735" t="n">
-        <v>19922900</v>
+        <v>19922916</v>
       </c>
       <c r="F735" t="n">
         <v>3025978</v>
@@ -30565,7 +30565,7 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>11:43:05.086490</t>
+          <t>11:57:22.578600</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
@@ -30591,10 +30591,10 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>1243220620</v>
+        <v>1243224397</v>
       </c>
       <c r="E736" t="n">
-        <v>24754513</v>
+        <v>24754528</v>
       </c>
       <c r="F736" t="n">
         <v>5098040</v>
@@ -30606,7 +30606,7 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>11:43:05.086494</t>
+          <t>11:57:22.578604</t>
         </is>
       </c>
       <c r="I736" t="inlineStr">
@@ -30632,10 +30632,10 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>1873391563</v>
+        <v>1873400586</v>
       </c>
       <c r="E737" t="n">
-        <v>25016738</v>
+        <v>25016781</v>
       </c>
       <c r="F737" t="n">
         <v>2479279</v>
@@ -30647,7 +30647,7 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>11:43:05.086498</t>
+          <t>11:57:22.578608</t>
         </is>
       </c>
       <c r="I737" t="inlineStr">
@@ -30673,13 +30673,13 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>961520432</v>
+        <v>961527842</v>
       </c>
       <c r="E738" t="n">
-        <v>14619341</v>
+        <v>14619370</v>
       </c>
       <c r="F738" t="n">
-        <v>2993603</v>
+        <v>2993674</v>
       </c>
       <c r="G738" t="inlineStr">
         <is>
@@ -30688,7 +30688,7 @@
       </c>
       <c r="H738" t="inlineStr">
         <is>
-          <t>11:43:05.086501</t>
+          <t>11:57:22.578611</t>
         </is>
       </c>
       <c r="I738" t="inlineStr">
@@ -30714,13 +30714,13 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>2124248303</v>
+        <v>2124254940</v>
       </c>
       <c r="E739" t="n">
-        <v>23430482</v>
+        <v>23430510</v>
       </c>
       <c r="F739" t="n">
-        <v>3285158</v>
+        <v>3285159</v>
       </c>
       <c r="G739" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>11:43:05.086505</t>
+          <t>11:57:22.578615</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
@@ -30755,13 +30755,13 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>1322091037</v>
+        <v>1322096807</v>
       </c>
       <c r="E740" t="n">
-        <v>13251797</v>
+        <v>13251818</v>
       </c>
       <c r="F740" t="n">
-        <v>1658890</v>
+        <v>1658892</v>
       </c>
       <c r="G740" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
       </c>
       <c r="H740" t="inlineStr">
         <is>
-          <t>11:43:05.086509</t>
+          <t>11:57:22.578619</t>
         </is>
       </c>
       <c r="I740" t="inlineStr">
@@ -30796,13 +30796,13 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>351370733</v>
+        <v>351371966</v>
       </c>
       <c r="E741" t="n">
-        <v>6130649</v>
+        <v>6130659</v>
       </c>
       <c r="F741" t="n">
-        <v>479219</v>
+        <v>479221</v>
       </c>
       <c r="G741" t="inlineStr">
         <is>
@@ -30811,7 +30811,7 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>11:43:05.086512</t>
+          <t>11:57:22.578622</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
@@ -30837,10 +30837,10 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>843222754</v>
+        <v>843225740</v>
       </c>
       <c r="E742" t="n">
-        <v>8585412</v>
+        <v>8585422</v>
       </c>
       <c r="F742" t="n">
         <v>529997</v>
@@ -30852,7 +30852,7 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>11:43:05.086516</t>
+          <t>11:57:22.578626</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
@@ -30878,10 +30878,10 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>863558813</v>
+        <v>863560608</v>
       </c>
       <c r="E743" t="n">
-        <v>9963252</v>
+        <v>9963267</v>
       </c>
       <c r="F743" t="n">
         <v>617163</v>
@@ -30893,7 +30893,7 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>11:43:05.086520</t>
+          <t>11:57:22.578630</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
@@ -30919,10 +30919,10 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>1634739143</v>
+        <v>1634745536</v>
       </c>
       <c r="E744" t="n">
-        <v>16166049</v>
+        <v>16166079</v>
       </c>
       <c r="F744" t="n">
         <v>1123282</v>
@@ -30934,7 +30934,7 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>11:43:05.086523</t>
+          <t>11:57:22.578633</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
@@ -30960,13 +30960,13 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>123642013</v>
+        <v>123645424</v>
       </c>
       <c r="E745" t="n">
-        <v>2975504</v>
+        <v>2975514</v>
       </c>
       <c r="F745" t="n">
-        <v>96874</v>
+        <v>96878</v>
       </c>
       <c r="G745" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>11:43:05.086527</t>
+          <t>11:57:22.578637</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
@@ -31001,10 +31001,10 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>206017544</v>
+        <v>206021094</v>
       </c>
       <c r="E746" t="n">
-        <v>4827569</v>
+        <v>4827586</v>
       </c>
       <c r="F746" t="n">
         <v>132893</v>
@@ -31016,7 +31016,7 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>11:43:05.086534</t>
+          <t>11:57:22.578644</t>
         </is>
       </c>
       <c r="I746" t="inlineStr">
@@ -31042,10 +31042,10 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>116648238</v>
+        <v>116649024</v>
       </c>
       <c r="E747" t="n">
-        <v>3695353</v>
+        <v>3695364</v>
       </c>
       <c r="F747" t="n">
         <v>82393</v>
@@ -31057,7 +31057,7 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>11:43:05.350940</t>
+          <t>11:57:22.813120</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
@@ -31083,10 +31083,10 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>86400474</v>
+        <v>86400801</v>
       </c>
       <c r="E748" t="n">
-        <v>3023122</v>
+        <v>3023126</v>
       </c>
       <c r="F748" t="n">
         <v>67343</v>
@@ -31098,7 +31098,7 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>11:43:05.350961</t>
+          <t>11:57:22.813140</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
@@ -31124,10 +31124,10 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>108964514</v>
+        <v>108965167</v>
       </c>
       <c r="E749" t="n">
-        <v>3340348</v>
+        <v>3340351</v>
       </c>
       <c r="F749" t="n">
         <v>145773</v>
@@ -31139,7 +31139,7 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>11:43:05.350965</t>
+          <t>11:57:22.813145</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
@@ -31165,10 +31165,10 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>289719255</v>
+        <v>289720134</v>
       </c>
       <c r="E750" t="n">
-        <v>5549674</v>
+        <v>5549681</v>
       </c>
       <c r="F750" t="n">
         <v>230028</v>
@@ -31180,7 +31180,7 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>11:43:05.350969</t>
+          <t>11:57:22.813149</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
@@ -31206,13 +31206,13 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>1499430173</v>
+        <v>1499439155</v>
       </c>
       <c r="E751" t="n">
-        <v>17793263</v>
+        <v>17793301</v>
       </c>
       <c r="F751" t="n">
-        <v>925882</v>
+        <v>925885</v>
       </c>
       <c r="G751" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>11:43:05.350973</t>
+          <t>11:57:22.813152</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
@@ -31247,7 +31247,7 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>11021558</v>
+        <v>11021582</v>
       </c>
       <c r="E752" t="n">
         <v>953057</v>
@@ -31262,7 +31262,7 @@
       </c>
       <c r="H752" t="inlineStr">
         <is>
-          <t>11:43:05.350977</t>
+          <t>11:57:22.813156</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
@@ -31288,13 +31288,13 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>311670755</v>
+        <v>311672563</v>
       </c>
       <c r="E753" t="n">
-        <v>4280338</v>
+        <v>4280347</v>
       </c>
       <c r="F753" t="n">
-        <v>118642</v>
+        <v>118643</v>
       </c>
       <c r="G753" t="inlineStr">
         <is>
@@ -31303,7 +31303,7 @@
       </c>
       <c r="H753" t="inlineStr">
         <is>
-          <t>11:43:05.350981</t>
+          <t>11:57:22.813160</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
@@ -31329,13 +31329,13 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>490802220</v>
+        <v>490803589</v>
       </c>
       <c r="E754" t="n">
-        <v>6137107</v>
+        <v>6137116</v>
       </c>
       <c r="F754" t="n">
-        <v>169504</v>
+        <v>169507</v>
       </c>
       <c r="G754" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
       </c>
       <c r="H754" t="inlineStr">
         <is>
-          <t>11:43:05.350985</t>
+          <t>11:57:22.813164</t>
         </is>
       </c>
       <c r="I754" t="inlineStr">
@@ -31370,13 +31370,13 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>16053079</v>
+        <v>16053116</v>
       </c>
       <c r="E755" t="n">
-        <v>752837</v>
+        <v>752838</v>
       </c>
       <c r="F755" t="n">
-        <v>18782</v>
+        <v>18783</v>
       </c>
       <c r="G755" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
       </c>
       <c r="H755" t="inlineStr">
         <is>
-          <t>11:43:05.350988</t>
+          <t>11:57:22.813168</t>
         </is>
       </c>
       <c r="I755" t="inlineStr">
@@ -31411,10 +31411,10 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>3969441</v>
+        <v>3969452</v>
       </c>
       <c r="E756" t="n">
-        <v>260104</v>
+        <v>260105</v>
       </c>
       <c r="F756" t="n">
         <v>4715</v>
@@ -31426,7 +31426,7 @@
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>11:43:05.350992</t>
+          <t>11:57:22.813171</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
@@ -31452,13 +31452,13 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>277537238</v>
+        <v>277537911</v>
       </c>
       <c r="E757" t="n">
-        <v>4397882</v>
+        <v>4397887</v>
       </c>
       <c r="F757" t="n">
-        <v>200089</v>
+        <v>200090</v>
       </c>
       <c r="G757" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>11:43:05.350996</t>
+          <t>11:57:22.813175</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
@@ -31493,10 +31493,10 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>233960097</v>
+        <v>233960795</v>
       </c>
       <c r="E758" t="n">
-        <v>3952473</v>
+        <v>3952481</v>
       </c>
       <c r="F758" t="n">
         <v>125686</v>
@@ -31508,7 +31508,7 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>11:43:05.350999</t>
+          <t>11:57:22.813178</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
@@ -31534,13 +31534,13 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>493445977</v>
+        <v>493446608</v>
       </c>
       <c r="E759" t="n">
-        <v>5635220</v>
+        <v>5635227</v>
       </c>
       <c r="F759" t="n">
-        <v>183861</v>
+        <v>183860</v>
       </c>
       <c r="G759" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
       </c>
       <c r="H759" t="inlineStr">
         <is>
-          <t>11:43:05.351003</t>
+          <t>11:57:22.813182</t>
         </is>
       </c>
       <c r="I759" t="inlineStr">
@@ -31575,10 +31575,10 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>282412583</v>
+        <v>282413541</v>
       </c>
       <c r="E760" t="n">
-        <v>3059600</v>
+        <v>3059603</v>
       </c>
       <c r="F760" t="n">
         <v>76117</v>
@@ -31590,7 +31590,7 @@
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>11:43:05.351006</t>
+          <t>11:57:22.813186</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
@@ -31616,10 +31616,10 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>217825089</v>
+        <v>217825688</v>
       </c>
       <c r="E761" t="n">
-        <v>2361620</v>
+        <v>2361623</v>
       </c>
       <c r="F761" t="n">
         <v>61939</v>
@@ -31631,7 +31631,7 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>11:43:05.351010</t>
+          <t>11:57:22.813189</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
@@ -31657,10 +31657,10 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>298996439</v>
+        <v>298997465</v>
       </c>
       <c r="E762" t="n">
-        <v>3120983</v>
+        <v>3120990</v>
       </c>
       <c r="F762" t="n">
         <v>76173</v>
@@ -31672,7 +31672,7 @@
       </c>
       <c r="H762" t="inlineStr">
         <is>
-          <t>11:43:05.351014</t>
+          <t>11:57:22.813193</t>
         </is>
       </c>
       <c r="I762" t="inlineStr">
@@ -31698,7 +31698,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>180141710</v>
+        <v>180142115</v>
       </c>
       <c r="E763" t="n">
         <v>2117652</v>
@@ -31713,7 +31713,7 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>11:43:05.351017</t>
+          <t>11:57:22.813196</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
@@ -31739,10 +31739,10 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>87118724</v>
+        <v>87118965</v>
       </c>
       <c r="E764" t="n">
-        <v>2893370</v>
+        <v>2893378</v>
       </c>
       <c r="F764" t="n">
         <v>90144</v>
@@ -31754,7 +31754,7 @@
       </c>
       <c r="H764" t="inlineStr">
         <is>
-          <t>11:43:05.351021</t>
+          <t>11:57:22.813200</t>
         </is>
       </c>
       <c r="I764" t="inlineStr">
@@ -31780,10 +31780,10 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>32649542</v>
+        <v>32653417</v>
       </c>
       <c r="E765" t="n">
-        <v>707304</v>
+        <v>707312</v>
       </c>
       <c r="F765" t="n">
         <v>14157</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>11:43:05.351024</t>
+          <t>11:57:22.813203</t>
         </is>
       </c>
       <c r="I765" t="inlineStr">
@@ -31821,10 +31821,10 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>56487366</v>
+        <v>56490673</v>
       </c>
       <c r="E766" t="n">
-        <v>1228792</v>
+        <v>1228813</v>
       </c>
       <c r="F766" t="n">
         <v>21876</v>
@@ -31836,7 +31836,7 @@
       </c>
       <c r="H766" t="inlineStr">
         <is>
-          <t>11:43:05.351028</t>
+          <t>11:57:22.813207</t>
         </is>
       </c>
       <c r="I766" t="inlineStr">
@@ -31862,10 +31862,10 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>23977864</v>
+        <v>23979680</v>
       </c>
       <c r="E767" t="n">
-        <v>632459</v>
+        <v>632463</v>
       </c>
       <c r="F767" t="n">
         <v>11407</v>
@@ -31877,7 +31877,7 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>11:43:05.597163</t>
+          <t>11:57:23.034490</t>
         </is>
       </c>
       <c r="I767" t="inlineStr">
@@ -31903,10 +31903,10 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>153840502</v>
+        <v>153843317</v>
       </c>
       <c r="E768" t="n">
-        <v>3740483</v>
+        <v>3740498</v>
       </c>
       <c r="F768" t="n">
         <v>98736</v>
@@ -31918,7 +31918,7 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>11:43:05.597184</t>
+          <t>11:57:23.034512</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
@@ -31944,10 +31944,10 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>44954051</v>
+        <v>44954527</v>
       </c>
       <c r="E769" t="n">
-        <v>2782858</v>
+        <v>2782860</v>
       </c>
       <c r="F769" t="n">
         <v>60717</v>
@@ -31959,7 +31959,7 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>11:43:05.597188</t>
+          <t>11:57:23.034517</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
@@ -31985,7 +31985,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>21688391</v>
+        <v>21688408</v>
       </c>
       <c r="E770" t="n">
         <v>1461638</v>
@@ -32000,7 +32000,7 @@
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>11:43:05.597192</t>
+          <t>11:57:23.034520</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
@@ -32026,13 +32026,13 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>904063500</v>
+        <v>904073331</v>
       </c>
       <c r="E771" t="n">
-        <v>13990967</v>
+        <v>13991000</v>
       </c>
       <c r="F771" t="n">
-        <v>929982</v>
+        <v>930017</v>
       </c>
       <c r="G771" t="inlineStr">
         <is>
@@ -32041,7 +32041,7 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>11:43:05.597196</t>
+          <t>11:57:23.034524</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
@@ -32067,10 +32067,10 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>93482627</v>
+        <v>93482863</v>
       </c>
       <c r="E772" t="n">
-        <v>3541312</v>
+        <v>3541313</v>
       </c>
       <c r="F772" t="n">
         <v>94887</v>
@@ -32082,7 +32082,7 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>11:43:05.597199</t>
+          <t>11:57:23.034528</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
@@ -32108,7 +32108,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>6093550</v>
+        <v>6093559</v>
       </c>
       <c r="E773" t="n">
         <v>553234</v>
@@ -32123,7 +32123,7 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>11:43:05.597203</t>
+          <t>11:57:23.034532</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
@@ -32149,7 +32149,7 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>6141684</v>
+        <v>6141688</v>
       </c>
       <c r="E774" t="n">
         <v>581988</v>
@@ -32164,7 +32164,7 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>11:43:05.597207</t>
+          <t>11:57:23.034568</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
@@ -32190,7 +32190,7 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>10835516</v>
+        <v>10835545</v>
       </c>
       <c r="E775" t="n">
         <v>826819</v>
@@ -32205,7 +32205,7 @@
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>11:43:05.597210</t>
+          <t>11:57:23.034572</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
@@ -32231,7 +32231,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>27016191</v>
+        <v>27016221</v>
       </c>
       <c r="E776" t="n">
         <v>2005953</v>
@@ -32246,7 +32246,7 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>11:43:05.597214</t>
+          <t>11:57:23.034576</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
@@ -32272,7 +32272,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>14334785</v>
+        <v>14334814</v>
       </c>
       <c r="E777" t="n">
         <v>1440916</v>
@@ -32287,7 +32287,7 @@
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>11:43:05.597217</t>
+          <t>11:57:23.034579</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
@@ -32313,13 +32313,13 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>31333417</v>
+        <v>31333485</v>
       </c>
       <c r="E778" t="n">
         <v>1431851</v>
       </c>
       <c r="F778" t="n">
-        <v>52484</v>
+        <v>52485</v>
       </c>
       <c r="G778" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>11:43:05.597221</t>
+          <t>11:57:23.034583</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
@@ -32354,10 +32354,10 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>55977985</v>
+        <v>55978168</v>
       </c>
       <c r="E779" t="n">
-        <v>2213064</v>
+        <v>2213065</v>
       </c>
       <c r="F779" t="n">
         <v>58859</v>
@@ -32369,7 +32369,7 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>11:43:05.597225</t>
+          <t>11:57:23.034587</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
@@ -32395,7 +32395,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>8768789</v>
+        <v>8768786</v>
       </c>
       <c r="E780" t="n">
         <v>759286</v>
@@ -32410,7 +32410,7 @@
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>11:43:05.597228</t>
+          <t>11:57:23.034590</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
@@ -32436,7 +32436,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>15882024</v>
+        <v>15882023</v>
       </c>
       <c r="E781" t="n">
         <v>1286632</v>
@@ -32451,7 +32451,7 @@
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>11:43:05.597232</t>
+          <t>11:57:23.034594</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
@@ -32477,10 +32477,10 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>325579025</v>
+        <v>325579712</v>
       </c>
       <c r="E782" t="n">
-        <v>5159347</v>
+        <v>5159352</v>
       </c>
       <c r="F782" t="n">
         <v>142946</v>
@@ -32492,7 +32492,7 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>11:43:05.597235</t>
+          <t>11:57:23.034598</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
@@ -32518,7 +32518,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>12822209</v>
+        <v>12822218</v>
       </c>
       <c r="E783" t="n">
         <v>812071</v>
@@ -32533,7 +32533,7 @@
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>11:43:05.597239</t>
+          <t>11:57:23.034602</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
@@ -32559,7 +32559,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>10329190</v>
+        <v>10329195</v>
       </c>
       <c r="E784" t="n">
         <v>832119</v>
@@ -32574,7 +32574,7 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>11:43:05.597243</t>
+          <t>11:57:23.034605</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
@@ -32600,7 +32600,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>13436096</v>
+        <v>13436101</v>
       </c>
       <c r="E785" t="n">
         <v>971703</v>
@@ -32615,7 +32615,7 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>11:43:05.597247</t>
+          <t>11:57:23.034609</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
@@ -32641,7 +32641,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>52023530</v>
+        <v>52023587</v>
       </c>
       <c r="E786" t="n">
         <v>2286271</v>
@@ -32656,7 +32656,7 @@
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>11:43:05.597251</t>
+          <t>11:57:23.034613</t>
         </is>
       </c>
       <c r="I786" t="inlineStr">
@@ -32682,10 +32682,10 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>37022854</v>
+        <v>37022938</v>
       </c>
       <c r="E787" t="n">
-        <v>1228657</v>
+        <v>1228658</v>
       </c>
       <c r="F787" t="n">
         <v>44969</v>
@@ -32697,7 +32697,7 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>11:43:05.897725</t>
+          <t>11:57:23.236938</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
@@ -32723,7 +32723,7 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>24857890</v>
+        <v>24857936</v>
       </c>
       <c r="E788" t="n">
         <v>1077070</v>
@@ -32738,7 +32738,7 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>11:43:05.897745</t>
+          <t>11:57:23.236960</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
@@ -32764,7 +32764,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>14534679</v>
+        <v>14534710</v>
       </c>
       <c r="E789" t="n">
         <v>700356</v>
@@ -32779,7 +32779,7 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>11:43:05.897749</t>
+          <t>11:57:23.236964</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>50631086</v>
+        <v>50631147</v>
       </c>
       <c r="E790" t="n">
         <v>1886965</v>
@@ -32820,7 +32820,7 @@
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>11:43:05.897753</t>
+          <t>11:57:23.236968</t>
         </is>
       </c>
       <c r="I790" t="inlineStr">
@@ -32846,13 +32846,13 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>121184730</v>
+        <v>121185002</v>
       </c>
       <c r="E791" t="n">
-        <v>2330338</v>
+        <v>2330341</v>
       </c>
       <c r="F791" t="n">
-        <v>54744</v>
+        <v>54745</v>
       </c>
       <c r="G791" t="inlineStr">
         <is>
@@ -32861,7 +32861,7 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>11:43:05.897756</t>
+          <t>11:57:23.236972</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
@@ -32887,10 +32887,10 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>11375280</v>
+        <v>11375304</v>
       </c>
       <c r="E792" t="n">
-        <v>502549</v>
+        <v>502551</v>
       </c>
       <c r="F792" t="n">
         <v>16976</v>
@@ -32902,7 +32902,7 @@
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>11:43:05.897760</t>
+          <t>11:57:23.236976</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
@@ -32928,10 +32928,10 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>12338082</v>
+        <v>12338103</v>
       </c>
       <c r="E793" t="n">
-        <v>463499</v>
+        <v>463500</v>
       </c>
       <c r="F793" t="n">
         <v>11733</v>
@@ -32943,7 +32943,7 @@
       </c>
       <c r="H793" t="inlineStr">
         <is>
-          <t>11:43:05.897764</t>
+          <t>11:57:23.236980</t>
         </is>
       </c>
       <c r="I793" t="inlineStr">
@@ -32969,7 +32969,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>22242804</v>
+        <v>22242787</v>
       </c>
       <c r="E794" t="n">
         <v>1033700</v>
@@ -32984,7 +32984,7 @@
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>11:43:05.897767</t>
+          <t>11:57:23.236984</t>
         </is>
       </c>
       <c r="I794" t="inlineStr">
@@ -33010,7 +33010,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>17933626</v>
+        <v>17933648</v>
       </c>
       <c r="E795" t="n">
         <v>794003</v>
@@ -33025,7 +33025,7 @@
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>11:43:05.897771</t>
+          <t>11:57:23.236988</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
@@ -33051,7 +33051,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>49491447</v>
+        <v>49491482</v>
       </c>
       <c r="E796" t="n">
         <v>1709807</v>
@@ -33066,7 +33066,7 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>11:43:05.897775</t>
+          <t>11:57:23.236991</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
@@ -33092,10 +33092,10 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>67638363</v>
+        <v>67638521</v>
       </c>
       <c r="E797" t="n">
-        <v>1722070</v>
+        <v>1722071</v>
       </c>
       <c r="F797" t="n">
         <v>48438</v>
@@ -33107,7 +33107,7 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>11:43:05.897778</t>
+          <t>11:57:23.236995</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
@@ -33133,10 +33133,10 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>383243058</v>
+        <v>383244512</v>
       </c>
       <c r="E798" t="n">
-        <v>6189148</v>
+        <v>6189156</v>
       </c>
       <c r="F798" t="n">
         <v>209126</v>
@@ -33148,7 +33148,7 @@
       </c>
       <c r="H798" t="inlineStr">
         <is>
-          <t>11:43:05.897782</t>
+          <t>11:57:23.236998</t>
         </is>
       </c>
       <c r="I798" t="inlineStr">
@@ -33174,7 +33174,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>4905130</v>
+        <v>4905134</v>
       </c>
       <c r="E799" t="n">
         <v>224802</v>
@@ -33189,7 +33189,7 @@
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>11:43:05.897786</t>
+          <t>11:57:23.237002</t>
         </is>
       </c>
       <c r="I799" t="inlineStr">
@@ -33215,7 +33215,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>13089869</v>
+        <v>13089882</v>
       </c>
       <c r="E800" t="n">
         <v>413053</v>
@@ -33230,7 +33230,7 @@
       </c>
       <c r="H800" t="inlineStr">
         <is>
-          <t>11:43:05.897789</t>
+          <t>11:57:23.237006</t>
         </is>
       </c>
       <c r="I800" t="inlineStr">
@@ -33256,7 +33256,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>5928972</v>
+        <v>5928968</v>
       </c>
       <c r="E801" t="n">
         <v>253714</v>
@@ -33271,7 +33271,7 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>11:43:05.897793</t>
+          <t>11:57:23.237009</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
@@ -33297,7 +33297,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>17101361</v>
+        <v>17101394</v>
       </c>
       <c r="E802" t="n">
         <v>676323</v>
@@ -33312,7 +33312,7 @@
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>11:43:05.897796</t>
+          <t>11:57:23.237013</t>
         </is>
       </c>
       <c r="I802" t="inlineStr">
@@ -33338,7 +33338,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>29700148</v>
+        <v>29700202</v>
       </c>
       <c r="E803" t="n">
         <v>1034182</v>
@@ -33353,7 +33353,7 @@
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>11:43:05.897800</t>
+          <t>11:57:23.237016</t>
         </is>
       </c>
       <c r="I803" t="inlineStr">
@@ -33379,10 +33379,10 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>72746658</v>
+        <v>72747056</v>
       </c>
       <c r="E804" t="n">
-        <v>1183526</v>
+        <v>1183528</v>
       </c>
       <c r="F804" t="n">
         <v>44060</v>
@@ -33394,7 +33394,7 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>11:43:05.897804</t>
+          <t>11:57:23.237020</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
@@ -33420,7 +33420,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>8759199</v>
+        <v>8759210</v>
       </c>
       <c r="E805" t="n">
         <v>416003</v>
@@ -33435,7 +33435,7 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>11:43:05.897807</t>
+          <t>11:57:23.237024</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
@@ -33461,7 +33461,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>3983093</v>
+        <v>3983101</v>
       </c>
       <c r="E806" t="n">
         <v>203216</v>
@@ -33476,7 +33476,7 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>11:43:05.897811</t>
+          <t>11:57:23.237028</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
@@ -33502,7 +33502,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>12210657</v>
+        <v>12210678</v>
       </c>
       <c r="E807" t="n">
         <v>439705</v>
@@ -33517,7 +33517,7 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>11:43:06.206616</t>
+          <t>11:57:23.458077</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
@@ -33543,7 +33543,7 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>13204872</v>
+        <v>13204893</v>
       </c>
       <c r="E808" t="n">
         <v>687669</v>
@@ -33558,7 +33558,7 @@
       </c>
       <c r="H808" t="inlineStr">
         <is>
-          <t>11:43:06.206636</t>
+          <t>11:57:23.458098</t>
         </is>
       </c>
       <c r="I808" t="inlineStr">
@@ -33584,7 +33584,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>3356840</v>
+        <v>3356844</v>
       </c>
       <c r="E809" t="n">
         <v>185624</v>
@@ -33599,7 +33599,7 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>11:43:06.206640</t>
+          <t>11:57:23.458102</t>
         </is>
       </c>
       <c r="I809" t="inlineStr">
@@ -33625,10 +33625,10 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>44023177</v>
+        <v>44023437</v>
       </c>
       <c r="E810" t="n">
-        <v>981147</v>
+        <v>981149</v>
       </c>
       <c r="F810" t="n">
         <v>33559</v>
@@ -33640,7 +33640,7 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>11:43:06.206643</t>
+          <t>11:57:23.458107</t>
         </is>
       </c>
       <c r="I810" t="inlineStr">
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>11318090</v>
+        <v>11318105</v>
       </c>
       <c r="E811" t="n">
         <v>511267</v>
@@ -33681,7 +33681,7 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>11:43:06.206647</t>
+          <t>11:57:23.458110</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
@@ -33707,7 +33707,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>6470584</v>
+        <v>6470592</v>
       </c>
       <c r="E812" t="n">
         <v>327007</v>
@@ -33722,7 +33722,7 @@
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>11:43:06.206652</t>
+          <t>11:57:23.458114</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
@@ -33748,13 +33748,13 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>10020612</v>
+        <v>10020625</v>
       </c>
       <c r="E813" t="n">
-        <v>351667</v>
+        <v>351668</v>
       </c>
       <c r="F813" t="n">
-        <v>13467</v>
+        <v>13469</v>
       </c>
       <c r="G813" t="inlineStr">
         <is>
@@ -33763,7 +33763,7 @@
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>11:43:06.206655</t>
+          <t>11:57:23.458118</t>
         </is>
       </c>
       <c r="I813" t="inlineStr">
@@ -33789,7 +33789,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>3908134</v>
+        <v>3908136</v>
       </c>
       <c r="E814" t="n">
         <v>226800</v>
@@ -33804,7 +33804,7 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>11:43:06.206659</t>
+          <t>11:57:23.458121</t>
         </is>
       </c>
       <c r="I814" t="inlineStr">
@@ -33830,7 +33830,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>15134781</v>
+        <v>15134788</v>
       </c>
       <c r="E815" t="n">
         <v>692907</v>
@@ -33845,7 +33845,7 @@
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>11:43:06.206662</t>
+          <t>11:57:23.458125</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
@@ -33871,7 +33871,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>4462853</v>
+        <v>4462854</v>
       </c>
       <c r="E816" t="n">
         <v>260871</v>
@@ -33886,7 +33886,7 @@
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>11:43:06.206666</t>
+          <t>11:57:23.458129</t>
         </is>
       </c>
       <c r="I816" t="inlineStr">
@@ -33912,7 +33912,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>7591505</v>
+        <v>7591508</v>
       </c>
       <c r="E817" t="n">
         <v>351503</v>
@@ -33927,7 +33927,7 @@
       </c>
       <c r="H817" t="inlineStr">
         <is>
-          <t>11:43:06.206670</t>
+          <t>11:57:23.458132</t>
         </is>
       </c>
       <c r="I817" t="inlineStr">
@@ -33953,10 +33953,10 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>44047414</v>
+        <v>44047497</v>
       </c>
       <c r="E818" t="n">
-        <v>1105890</v>
+        <v>1105891</v>
       </c>
       <c r="F818" t="n">
         <v>33821</v>
@@ -33968,7 +33968,7 @@
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>11:43:06.206673</t>
+          <t>11:57:23.458136</t>
         </is>
       </c>
       <c r="I818" t="inlineStr">
@@ -33994,7 +33994,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>63820210</v>
+        <v>63820193</v>
       </c>
       <c r="E819" t="n">
         <v>1131900</v>
@@ -34009,7 +34009,7 @@
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>11:43:06.206677</t>
+          <t>11:57:23.458139</t>
         </is>
       </c>
       <c r="I819" t="inlineStr">
@@ -34035,10 +34035,10 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>35621431</v>
+        <v>35621481</v>
       </c>
       <c r="E820" t="n">
-        <v>772669</v>
+        <v>772671</v>
       </c>
       <c r="F820" t="n">
         <v>23949</v>
@@ -34050,7 +34050,7 @@
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>11:43:06.206681</t>
+          <t>11:57:23.458143</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
@@ -34076,10 +34076,10 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>87617441</v>
+        <v>87617524</v>
       </c>
       <c r="E821" t="n">
-        <v>2154360</v>
+        <v>2154362</v>
       </c>
       <c r="F821" t="n">
         <v>63132</v>
@@ -34091,7 +34091,7 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>11:43:06.206684</t>
+          <t>11:57:23.458147</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
@@ -34117,10 +34117,10 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>8396351</v>
+        <v>8396359</v>
       </c>
       <c r="E822" t="n">
-        <v>300162</v>
+        <v>300164</v>
       </c>
       <c r="F822" t="n">
         <v>7160</v>
@@ -34132,7 +34132,7 @@
       </c>
       <c r="H822" t="inlineStr">
         <is>
-          <t>11:43:06.206688</t>
+          <t>11:57:23.458150</t>
         </is>
       </c>
       <c r="I822" t="inlineStr">
@@ -34158,10 +34158,10 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>35262944</v>
+        <v>35263152</v>
       </c>
       <c r="E823" t="n">
-        <v>580032</v>
+        <v>580036</v>
       </c>
       <c r="F823" t="n">
         <v>15696</v>
@@ -34173,7 +34173,7 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>11:43:06.206692</t>
+          <t>11:57:23.458154</t>
         </is>
       </c>
       <c r="I823" t="inlineStr">
@@ -34199,10 +34199,10 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>16249111</v>
+        <v>16249134</v>
       </c>
       <c r="E824" t="n">
-        <v>445851</v>
+        <v>445852</v>
       </c>
       <c r="F824" t="n">
         <v>10610</v>
@@ -34214,7 +34214,7 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>11:43:06.206695</t>
+          <t>11:57:23.458158</t>
         </is>
       </c>
       <c r="I824" t="inlineStr">
@@ -34240,13 +34240,13 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>109461354</v>
+        <v>109461801</v>
       </c>
       <c r="E825" t="n">
-        <v>1771019</v>
+        <v>1771020</v>
       </c>
       <c r="F825" t="n">
-        <v>69451</v>
+        <v>69452</v>
       </c>
       <c r="G825" t="inlineStr">
         <is>
@@ -34255,7 +34255,7 @@
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>11:43:06.206699</t>
+          <t>11:57:23.458161</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
@@ -34281,7 +34281,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>48787540</v>
+        <v>48787607</v>
       </c>
       <c r="E826" t="n">
         <v>1227436</v>
@@ -34296,7 +34296,7 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>11:43:06.206702</t>
+          <t>11:57:23.458165</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
@@ -34322,10 +34322,10 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>20886914</v>
+        <v>20886929</v>
       </c>
       <c r="E827" t="n">
-        <v>625008</v>
+        <v>625009</v>
       </c>
       <c r="F827" t="n">
         <v>19592</v>
@@ -34337,7 +34337,7 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>11:43:06.497479</t>
+          <t>11:57:23.667456</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
@@ -34363,10 +34363,10 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>4603223</v>
+        <v>4603226</v>
       </c>
       <c r="E828" t="n">
-        <v>204542</v>
+        <v>204543</v>
       </c>
       <c r="F828" t="n">
         <v>6755</v>
@@ -34378,7 +34378,7 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>11:43:06.497500</t>
+          <t>11:57:23.667477</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
@@ -34404,7 +34404,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>4521865</v>
+        <v>4521868</v>
       </c>
       <c r="E829" t="n">
         <v>211979</v>
@@ -34419,7 +34419,7 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>11:43:06.497504</t>
+          <t>11:57:23.667481</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
@@ -34445,10 +34445,10 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>7130866</v>
+        <v>7130867</v>
       </c>
       <c r="E830" t="n">
-        <v>308280</v>
+        <v>308281</v>
       </c>
       <c r="F830" t="n">
         <v>11345</v>
@@ -34460,7 +34460,7 @@
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>11:43:06.497508</t>
+          <t>11:57:23.667485</t>
         </is>
       </c>
       <c r="I830" t="inlineStr">
@@ -34486,10 +34486,10 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>31715561</v>
+        <v>31715593</v>
       </c>
       <c r="E831" t="n">
-        <v>750856</v>
+        <v>750858</v>
       </c>
       <c r="F831" t="n">
         <v>23566</v>
@@ -34501,7 +34501,7 @@
       </c>
       <c r="H831" t="inlineStr">
         <is>
-          <t>11:43:06.497511</t>
+          <t>11:57:23.667489</t>
         </is>
       </c>
       <c r="I831" t="inlineStr">
@@ -34527,10 +34527,10 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>51495312</v>
+        <v>51495388</v>
       </c>
       <c r="E832" t="n">
-        <v>1046964</v>
+        <v>1046967</v>
       </c>
       <c r="F832" t="n">
         <v>22140</v>
@@ -34542,7 +34542,7 @@
       </c>
       <c r="H832" t="inlineStr">
         <is>
-          <t>11:43:06.497515</t>
+          <t>11:57:23.667492</t>
         </is>
       </c>
       <c r="I832" t="inlineStr">
@@ -34568,7 +34568,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>121580407</v>
+        <v>121580919</v>
       </c>
       <c r="E833" t="n">
         <v>1968208</v>
@@ -34583,7 +34583,7 @@
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>11:43:06.497518</t>
+          <t>11:57:23.667496</t>
         </is>
       </c>
       <c r="I833" t="inlineStr">
@@ -34609,7 +34609,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>2832181</v>
+        <v>2832182</v>
       </c>
       <c r="E834" t="n">
         <v>127392</v>
@@ -34624,7 +34624,7 @@
       </c>
       <c r="H834" t="inlineStr">
         <is>
-          <t>11:43:06.497522</t>
+          <t>11:57:23.667499</t>
         </is>
       </c>
       <c r="I834" t="inlineStr">
@@ -34650,7 +34650,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>4059821</v>
+        <v>4059827</v>
       </c>
       <c r="E835" t="n">
         <v>199384</v>
@@ -34665,7 +34665,7 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>11:43:06.497525</t>
+          <t>11:57:23.667503</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
@@ -34691,7 +34691,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>6876148</v>
+        <v>6876160</v>
       </c>
       <c r="E836" t="n">
         <v>269508</v>
@@ -34706,7 +34706,7 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>11:43:06.497529</t>
+          <t>11:57:23.667508</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
@@ -34732,7 +34732,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>13585275</v>
+        <v>13585343</v>
       </c>
       <c r="E837" t="n">
         <v>366237</v>
@@ -34747,7 +34747,7 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>11:43:06.497533</t>
+          <t>11:57:23.667512</t>
         </is>
       </c>
       <c r="I837" t="inlineStr">
@@ -34773,7 +34773,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>77752982</v>
+        <v>77753048</v>
       </c>
       <c r="E838" t="n">
         <v>1372891</v>
@@ -34788,7 +34788,7 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>11:43:06.497536</t>
+          <t>11:57:23.667516</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
@@ -34814,7 +34814,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>22429176</v>
+        <v>22429199</v>
       </c>
       <c r="E839" t="n">
         <v>626797</v>
@@ -34829,7 +34829,7 @@
       </c>
       <c r="H839" t="inlineStr">
         <is>
-          <t>11:43:06.497540</t>
+          <t>11:57:23.667519</t>
         </is>
       </c>
       <c r="I839" t="inlineStr">
@@ -34855,10 +34855,10 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>67250255</v>
+        <v>67250445</v>
       </c>
       <c r="E840" t="n">
-        <v>963500</v>
+        <v>963499</v>
       </c>
       <c r="F840" t="n">
         <v>32147</v>
@@ -34870,7 +34870,7 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>11:43:06.497543</t>
+          <t>11:57:23.667523</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
@@ -34896,10 +34896,10 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>6192535</v>
+        <v>6192536</v>
       </c>
       <c r="E841" t="n">
-        <v>253898</v>
+        <v>253899</v>
       </c>
       <c r="F841" t="n">
         <v>6884</v>
@@ -34911,7 +34911,7 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>11:43:06.497547</t>
+          <t>11:57:23.667526</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
@@ -34937,7 +34937,7 @@
         </is>
       </c>
       <c r="D842" t="n">
-        <v>9643963</v>
+        <v>9643970</v>
       </c>
       <c r="E842" t="n">
         <v>255285</v>
@@ -34952,7 +34952,7 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>11:43:06.497551</t>
+          <t>11:57:23.667530</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
@@ -34978,10 +34978,10 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>31563092</v>
+        <v>31563168</v>
       </c>
       <c r="E843" t="n">
-        <v>649403</v>
+        <v>649404</v>
       </c>
       <c r="F843" t="n">
         <v>20488</v>
@@ -34993,7 +34993,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>11:43:06.497554</t>
+          <t>11:57:23.667534</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -35019,7 +35019,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>60677286</v>
+        <v>60677429</v>
       </c>
       <c r="E844" t="n">
         <v>828830</v>
@@ -35034,7 +35034,7 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>11:43:06.497558</t>
+          <t>11:57:23.667537</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
@@ -35060,10 +35060,10 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>41541360</v>
+        <v>41541487</v>
       </c>
       <c r="E845" t="n">
-        <v>891473</v>
+        <v>891474</v>
       </c>
       <c r="F845" t="n">
         <v>26121</v>
@@ -35075,7 +35075,7 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>11:43:06.497561</t>
+          <t>11:57:23.667541</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
@@ -35101,10 +35101,10 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>17045529</v>
+        <v>17045654</v>
       </c>
       <c r="E846" t="n">
-        <v>540857</v>
+        <v>540858</v>
       </c>
       <c r="F846" t="n">
         <v>14615</v>
@@ -35116,7 +35116,7 @@
       </c>
       <c r="H846" t="inlineStr">
         <is>
-          <t>11:43:06.497565</t>
+          <t>11:57:23.667545</t>
         </is>
       </c>
       <c r="I846" t="inlineStr">
@@ -35142,7 +35142,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>48071890</v>
+        <v>48071952</v>
       </c>
       <c r="E847" t="n">
         <v>857654</v>
@@ -35157,7 +35157,7 @@
       </c>
       <c r="H847" t="inlineStr">
         <is>
-          <t>11:43:06.710142</t>
+          <t>11:57:23.828398</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
@@ -35183,10 +35183,10 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>168448039</v>
+        <v>168448611</v>
       </c>
       <c r="E848" t="n">
-        <v>2538647</v>
+        <v>2538653</v>
       </c>
       <c r="F848" t="n">
         <v>80106</v>
@@ -35198,7 +35198,7 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>11:43:06.710162</t>
+          <t>11:57:23.828419</t>
         </is>
       </c>
       <c r="I848" t="inlineStr">

--- a/CLEANED_videos_count_data.xlsx
+++ b/CLEANED_videos_count_data.xlsx
@@ -30263,13 +30263,13 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>394608517</v>
+        <v>394629554</v>
       </c>
       <c r="E728" t="n">
-        <v>10138076</v>
+        <v>10138193</v>
       </c>
       <c r="F728" t="n">
-        <v>1344958</v>
+        <v>1344990</v>
       </c>
       <c r="G728" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>11:57:22.578522</t>
+          <t>12:38:13.243825</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
@@ -30304,13 +30304,13 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>525234364</v>
+        <v>525247616</v>
       </c>
       <c r="E729" t="n">
-        <v>10839844</v>
+        <v>10839938</v>
       </c>
       <c r="F729" t="n">
-        <v>2238651</v>
+        <v>2238655</v>
       </c>
       <c r="G729" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>11:57:22.578575</t>
+          <t>12:38:13.243844</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
@@ -30345,13 +30345,13 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>735564927</v>
+        <v>735581875</v>
       </c>
       <c r="E730" t="n">
-        <v>16085654</v>
+        <v>16085750</v>
       </c>
       <c r="F730" t="n">
-        <v>3567786</v>
+        <v>3567789</v>
       </c>
       <c r="G730" t="inlineStr">
         <is>
@@ -30360,7 +30360,7 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>11:57:22.578581</t>
+          <t>12:38:13.243849</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
@@ -30386,13 +30386,13 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>655281002</v>
+        <v>655287808</v>
       </c>
       <c r="E731" t="n">
-        <v>17322172</v>
+        <v>17322205</v>
       </c>
       <c r="F731" t="n">
-        <v>2815276</v>
+        <v>2815280</v>
       </c>
       <c r="G731" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>11:57:22.578585</t>
+          <t>12:38:13.243854</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
@@ -30427,13 +30427,13 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>268272222</v>
+        <v>268276974</v>
       </c>
       <c r="E732" t="n">
-        <v>7382333</v>
+        <v>7382370</v>
       </c>
       <c r="F732" t="n">
-        <v>1241215</v>
+        <v>1241217</v>
       </c>
       <c r="G732" t="inlineStr">
         <is>
@@ -30442,7 +30442,7 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>11:57:22.578589</t>
+          <t>12:38:13.243857</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
@@ -30468,13 +30468,13 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>342798373</v>
+        <v>342801709</v>
       </c>
       <c r="E733" t="n">
-        <v>11348756</v>
+        <v>11348786</v>
       </c>
       <c r="F733" t="n">
-        <v>2586984</v>
+        <v>2587010</v>
       </c>
       <c r="G733" t="inlineStr">
         <is>
@@ -30483,7 +30483,7 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>11:57:22.578593</t>
+          <t>12:38:13.243861</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
@@ -30509,10 +30509,10 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>709271956</v>
+        <v>709278635</v>
       </c>
       <c r="E734" t="n">
-        <v>15498230</v>
+        <v>15498272</v>
       </c>
       <c r="F734" t="n">
         <v>2043086</v>
@@ -30524,7 +30524,7 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>11:57:22.578597</t>
+          <t>12:38:13.243865</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
@@ -30550,13 +30550,13 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>871818662</v>
+        <v>871823433</v>
       </c>
       <c r="E735" t="n">
-        <v>19922916</v>
+        <v>19922934</v>
       </c>
       <c r="F735" t="n">
-        <v>3025978</v>
+        <v>3025979</v>
       </c>
       <c r="G735" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>11:57:22.578600</t>
+          <t>12:38:13.243869</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
@@ -30591,13 +30591,13 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>1243224397</v>
+        <v>1243230351</v>
       </c>
       <c r="E736" t="n">
-        <v>24754528</v>
+        <v>24754563</v>
       </c>
       <c r="F736" t="n">
-        <v>5098040</v>
+        <v>5098041</v>
       </c>
       <c r="G736" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>11:57:22.578604</t>
+          <t>12:38:13.243872</t>
         </is>
       </c>
       <c r="I736" t="inlineStr">
@@ -30632,13 +30632,13 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>1873400586</v>
+        <v>1873415314</v>
       </c>
       <c r="E737" t="n">
-        <v>25016781</v>
+        <v>25016890</v>
       </c>
       <c r="F737" t="n">
-        <v>2479279</v>
+        <v>2479282</v>
       </c>
       <c r="G737" t="inlineStr">
         <is>
@@ -30647,7 +30647,7 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>11:57:22.578608</t>
+          <t>12:38:13.243876</t>
         </is>
       </c>
       <c r="I737" t="inlineStr">
@@ -30673,13 +30673,13 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>961527842</v>
+        <v>961540967</v>
       </c>
       <c r="E738" t="n">
-        <v>14619370</v>
+        <v>14619436</v>
       </c>
       <c r="F738" t="n">
-        <v>2993674</v>
+        <v>2993820</v>
       </c>
       <c r="G738" t="inlineStr">
         <is>
@@ -30688,7 +30688,7 @@
       </c>
       <c r="H738" t="inlineStr">
         <is>
-          <t>11:57:22.578611</t>
+          <t>12:38:13.243880</t>
         </is>
       </c>
       <c r="I738" t="inlineStr">
@@ -30714,13 +30714,13 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>2124254940</v>
+        <v>2124264413</v>
       </c>
       <c r="E739" t="n">
-        <v>23430510</v>
+        <v>23430591</v>
       </c>
       <c r="F739" t="n">
-        <v>3285159</v>
+        <v>3285160</v>
       </c>
       <c r="G739" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>11:57:22.578615</t>
+          <t>12:38:13.243884</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
@@ -30755,13 +30755,13 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>1322096807</v>
+        <v>1322105573</v>
       </c>
       <c r="E740" t="n">
-        <v>13251818</v>
+        <v>13251884</v>
       </c>
       <c r="F740" t="n">
-        <v>1658892</v>
+        <v>1658893</v>
       </c>
       <c r="G740" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
       </c>
       <c r="H740" t="inlineStr">
         <is>
-          <t>11:57:22.578619</t>
+          <t>12:38:13.243887</t>
         </is>
       </c>
       <c r="I740" t="inlineStr">
@@ -30796,13 +30796,13 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>351371966</v>
+        <v>351373687</v>
       </c>
       <c r="E741" t="n">
-        <v>6130659</v>
+        <v>6130679</v>
       </c>
       <c r="F741" t="n">
-        <v>479221</v>
+        <v>479220</v>
       </c>
       <c r="G741" t="inlineStr">
         <is>
@@ -30811,7 +30811,7 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>11:57:22.578622</t>
+          <t>12:38:13.243891</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
@@ -30837,13 +30837,13 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>843225740</v>
+        <v>843230080</v>
       </c>
       <c r="E742" t="n">
-        <v>8585422</v>
+        <v>8585448</v>
       </c>
       <c r="F742" t="n">
-        <v>529997</v>
+        <v>529999</v>
       </c>
       <c r="G742" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>11:57:22.578626</t>
+          <t>12:38:13.243895</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
@@ -30878,13 +30878,13 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>863560608</v>
+        <v>863564640</v>
       </c>
       <c r="E743" t="n">
-        <v>9963267</v>
+        <v>9963302</v>
       </c>
       <c r="F743" t="n">
-        <v>617163</v>
+        <v>617164</v>
       </c>
       <c r="G743" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>11:57:22.578630</t>
+          <t>12:38:13.243898</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
@@ -30919,13 +30919,13 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>1634745536</v>
+        <v>1634754895</v>
       </c>
       <c r="E744" t="n">
-        <v>16166079</v>
+        <v>16166136</v>
       </c>
       <c r="F744" t="n">
-        <v>1123282</v>
+        <v>1123285</v>
       </c>
       <c r="G744" t="inlineStr">
         <is>
@@ -30934,7 +30934,7 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>11:57:22.578633</t>
+          <t>12:38:13.243902</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
@@ -30960,13 +30960,13 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>123645424</v>
+        <v>123650505</v>
       </c>
       <c r="E745" t="n">
-        <v>2975514</v>
+        <v>2975543</v>
       </c>
       <c r="F745" t="n">
-        <v>96878</v>
+        <v>96882</v>
       </c>
       <c r="G745" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>11:57:22.578637</t>
+          <t>12:38:13.243906</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
@@ -31001,10 +31001,10 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>206021094</v>
+        <v>206026644</v>
       </c>
       <c r="E746" t="n">
-        <v>4827586</v>
+        <v>4827616</v>
       </c>
       <c r="F746" t="n">
         <v>132893</v>
@@ -31016,7 +31016,7 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>11:57:22.578644</t>
+          <t>12:38:13.243913</t>
         </is>
       </c>
       <c r="I746" t="inlineStr">
@@ -31042,10 +31042,10 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>116649024</v>
+        <v>116650250</v>
       </c>
       <c r="E747" t="n">
-        <v>3695364</v>
+        <v>3695375</v>
       </c>
       <c r="F747" t="n">
         <v>82393</v>
@@ -31057,7 +31057,7 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>11:57:22.813120</t>
+          <t>12:38:13.441227</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
@@ -31083,10 +31083,10 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>86400801</v>
+        <v>86401657</v>
       </c>
       <c r="E748" t="n">
-        <v>3023126</v>
+        <v>3023129</v>
       </c>
       <c r="F748" t="n">
         <v>67343</v>
@@ -31098,7 +31098,7 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>11:57:22.813140</t>
+          <t>12:38:13.441243</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
@@ -31124,10 +31124,10 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>108965167</v>
+        <v>108966142</v>
       </c>
       <c r="E749" t="n">
-        <v>3340351</v>
+        <v>3340362</v>
       </c>
       <c r="F749" t="n">
         <v>145773</v>
@@ -31139,7 +31139,7 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>11:57:22.813145</t>
+          <t>12:38:13.441248</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
@@ -31165,10 +31165,10 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>289720134</v>
+        <v>289722560</v>
       </c>
       <c r="E750" t="n">
-        <v>5549681</v>
+        <v>5549698</v>
       </c>
       <c r="F750" t="n">
         <v>230028</v>
@@ -31180,7 +31180,7 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>11:57:22.813149</t>
+          <t>12:38:13.441251</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
@@ -31206,13 +31206,13 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>1499439155</v>
+        <v>1499453611</v>
       </c>
       <c r="E751" t="n">
-        <v>17793301</v>
+        <v>17793398</v>
       </c>
       <c r="F751" t="n">
-        <v>925885</v>
+        <v>925889</v>
       </c>
       <c r="G751" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>11:57:22.813152</t>
+          <t>12:38:13.441255</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
@@ -31247,7 +31247,7 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>11021582</v>
+        <v>11021551</v>
       </c>
       <c r="E752" t="n">
         <v>953057</v>
@@ -31262,7 +31262,7 @@
       </c>
       <c r="H752" t="inlineStr">
         <is>
-          <t>11:57:22.813156</t>
+          <t>12:38:13.441259</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
@@ -31288,13 +31288,13 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>311672563</v>
+        <v>311675339</v>
       </c>
       <c r="E753" t="n">
-        <v>4280347</v>
+        <v>4280367</v>
       </c>
       <c r="F753" t="n">
-        <v>118643</v>
+        <v>118644</v>
       </c>
       <c r="G753" t="inlineStr">
         <is>
@@ -31303,7 +31303,7 @@
       </c>
       <c r="H753" t="inlineStr">
         <is>
-          <t>11:57:22.813160</t>
+          <t>12:38:13.441263</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
@@ -31329,10 +31329,10 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>490803589</v>
+        <v>490805906</v>
       </c>
       <c r="E754" t="n">
-        <v>6137116</v>
+        <v>6137132</v>
       </c>
       <c r="F754" t="n">
         <v>169507</v>
@@ -31344,7 +31344,7 @@
       </c>
       <c r="H754" t="inlineStr">
         <is>
-          <t>11:57:22.813164</t>
+          <t>12:38:13.441267</t>
         </is>
       </c>
       <c r="I754" t="inlineStr">
@@ -31370,13 +31370,13 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>16053116</v>
+        <v>16053189</v>
       </c>
       <c r="E755" t="n">
-        <v>752838</v>
+        <v>752841</v>
       </c>
       <c r="F755" t="n">
-        <v>18783</v>
+        <v>18785</v>
       </c>
       <c r="G755" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
       </c>
       <c r="H755" t="inlineStr">
         <is>
-          <t>11:57:22.813168</t>
+          <t>12:38:13.441271</t>
         </is>
       </c>
       <c r="I755" t="inlineStr">
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>3969452</v>
+        <v>3969467</v>
       </c>
       <c r="E756" t="n">
         <v>260105</v>
@@ -31426,7 +31426,7 @@
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>11:57:22.813171</t>
+          <t>12:38:13.441275</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
@@ -31452,13 +31452,13 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>277537911</v>
+        <v>277539534</v>
       </c>
       <c r="E757" t="n">
-        <v>4397887</v>
+        <v>4397905</v>
       </c>
       <c r="F757" t="n">
-        <v>200090</v>
+        <v>200091</v>
       </c>
       <c r="G757" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>11:57:22.813175</t>
+          <t>12:38:13.441278</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
@@ -31493,10 +31493,10 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>233960795</v>
+        <v>233961865</v>
       </c>
       <c r="E758" t="n">
-        <v>3952481</v>
+        <v>3952498</v>
       </c>
       <c r="F758" t="n">
         <v>125686</v>
@@ -31508,7 +31508,7 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>11:57:22.813178</t>
+          <t>12:38:13.441282</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>493446608</v>
+        <v>493447572</v>
       </c>
       <c r="E759" t="n">
-        <v>5635227</v>
+        <v>5635237</v>
       </c>
       <c r="F759" t="n">
         <v>183860</v>
@@ -31549,7 +31549,7 @@
       </c>
       <c r="H759" t="inlineStr">
         <is>
-          <t>11:57:22.813182</t>
+          <t>12:38:13.441285</t>
         </is>
       </c>
       <c r="I759" t="inlineStr">
@@ -31575,10 +31575,10 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>282413541</v>
+        <v>282415133</v>
       </c>
       <c r="E760" t="n">
-        <v>3059603</v>
+        <v>3059616</v>
       </c>
       <c r="F760" t="n">
         <v>76117</v>
@@ -31590,7 +31590,7 @@
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>11:57:22.813186</t>
+          <t>12:38:13.441289</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
@@ -31616,10 +31616,10 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>217825688</v>
+        <v>217826504</v>
       </c>
       <c r="E761" t="n">
-        <v>2361623</v>
+        <v>2361635</v>
       </c>
       <c r="F761" t="n">
         <v>61939</v>
@@ -31631,7 +31631,7 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>11:57:22.813189</t>
+          <t>12:38:13.441292</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
@@ -31657,10 +31657,10 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>298997465</v>
+        <v>298999141</v>
       </c>
       <c r="E762" t="n">
-        <v>3120990</v>
+        <v>3121004</v>
       </c>
       <c r="F762" t="n">
         <v>76173</v>
@@ -31672,7 +31672,7 @@
       </c>
       <c r="H762" t="inlineStr">
         <is>
-          <t>11:57:22.813193</t>
+          <t>12:38:13.441296</t>
         </is>
       </c>
       <c r="I762" t="inlineStr">
@@ -31698,10 +31698,10 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>180142115</v>
+        <v>180142749</v>
       </c>
       <c r="E763" t="n">
-        <v>2117652</v>
+        <v>2117664</v>
       </c>
       <c r="F763" t="n">
         <v>57158</v>
@@ -31713,7 +31713,7 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>11:57:22.813196</t>
+          <t>12:38:13.441299</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
@@ -31739,10 +31739,10 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>87118965</v>
+        <v>87119343</v>
       </c>
       <c r="E764" t="n">
-        <v>2893378</v>
+        <v>2893387</v>
       </c>
       <c r="F764" t="n">
         <v>90144</v>
@@ -31754,7 +31754,7 @@
       </c>
       <c r="H764" t="inlineStr">
         <is>
-          <t>11:57:22.813200</t>
+          <t>12:38:13.441303</t>
         </is>
       </c>
       <c r="I764" t="inlineStr">
@@ -31780,13 +31780,13 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>32653417</v>
+        <v>32659726</v>
       </c>
       <c r="E765" t="n">
-        <v>707312</v>
+        <v>707360</v>
       </c>
       <c r="F765" t="n">
-        <v>14157</v>
+        <v>14158</v>
       </c>
       <c r="G765" t="inlineStr">
         <is>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>11:57:22.813203</t>
+          <t>12:38:13.441306</t>
         </is>
       </c>
       <c r="I765" t="inlineStr">
@@ -31821,13 +31821,13 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>56490673</v>
+        <v>56497811</v>
       </c>
       <c r="E766" t="n">
-        <v>1228813</v>
+        <v>1228857</v>
       </c>
       <c r="F766" t="n">
-        <v>21876</v>
+        <v>21877</v>
       </c>
       <c r="G766" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
       </c>
       <c r="H766" t="inlineStr">
         <is>
-          <t>11:57:22.813207</t>
+          <t>12:38:13.441310</t>
         </is>
       </c>
       <c r="I766" t="inlineStr">
@@ -31862,10 +31862,10 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>23979680</v>
+        <v>23982290</v>
       </c>
       <c r="E767" t="n">
-        <v>632463</v>
+        <v>632492</v>
       </c>
       <c r="F767" t="n">
         <v>11407</v>
@@ -31877,7 +31877,7 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>11:57:23.034490</t>
+          <t>12:38:13.659861</t>
         </is>
       </c>
       <c r="I767" t="inlineStr">
@@ -31903,13 +31903,13 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>153843317</v>
+        <v>153847576</v>
       </c>
       <c r="E768" t="n">
-        <v>3740498</v>
+        <v>3740519</v>
       </c>
       <c r="F768" t="n">
-        <v>98736</v>
+        <v>98735</v>
       </c>
       <c r="G768" t="inlineStr">
         <is>
@@ -31918,7 +31918,7 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>11:57:23.034512</t>
+          <t>12:38:13.659883</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
@@ -31944,10 +31944,10 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>44954527</v>
+        <v>44955394</v>
       </c>
       <c r="E769" t="n">
-        <v>2782860</v>
+        <v>2782869</v>
       </c>
       <c r="F769" t="n">
         <v>60717</v>
@@ -31959,7 +31959,7 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>11:57:23.034517</t>
+          <t>12:38:13.659887</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
@@ -31985,10 +31985,10 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>21688408</v>
+        <v>21688447</v>
       </c>
       <c r="E770" t="n">
-        <v>1461638</v>
+        <v>1461639</v>
       </c>
       <c r="F770" t="n">
         <v>41795</v>
@@ -32000,7 +32000,7 @@
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>11:57:23.034520</t>
+          <t>12:38:13.659891</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
@@ -32026,13 +32026,13 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>904073331</v>
+        <v>904088390</v>
       </c>
       <c r="E771" t="n">
-        <v>13991000</v>
+        <v>13991099</v>
       </c>
       <c r="F771" t="n">
-        <v>930017</v>
+        <v>930077</v>
       </c>
       <c r="G771" t="inlineStr">
         <is>
@@ -32041,7 +32041,7 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>11:57:23.034524</t>
+          <t>12:38:13.659895</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
@@ -32067,7 +32067,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>93482863</v>
+        <v>93483235</v>
       </c>
       <c r="E772" t="n">
         <v>3541313</v>
@@ -32082,7 +32082,7 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>11:57:23.034528</t>
+          <t>12:38:13.659899</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
@@ -32108,10 +32108,10 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>6093559</v>
+        <v>6093574</v>
       </c>
       <c r="E773" t="n">
-        <v>553234</v>
+        <v>553233</v>
       </c>
       <c r="F773" t="n">
         <v>24567</v>
@@ -32123,7 +32123,7 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>11:57:23.034532</t>
+          <t>12:38:13.659903</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
@@ -32149,10 +32149,10 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>6141688</v>
+        <v>6141700</v>
       </c>
       <c r="E774" t="n">
-        <v>581988</v>
+        <v>581989</v>
       </c>
       <c r="F774" t="n">
         <v>24770</v>
@@ -32164,7 +32164,7 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>11:57:23.034568</t>
+          <t>12:38:13.659907</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
@@ -32190,10 +32190,10 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>10835545</v>
+        <v>10835583</v>
       </c>
       <c r="E775" t="n">
-        <v>826819</v>
+        <v>826821</v>
       </c>
       <c r="F775" t="n">
         <v>29965</v>
@@ -32205,7 +32205,7 @@
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>11:57:23.034572</t>
+          <t>12:38:13.659910</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
@@ -32231,10 +32231,10 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>27016221</v>
+        <v>27016268</v>
       </c>
       <c r="E776" t="n">
-        <v>2005953</v>
+        <v>2005955</v>
       </c>
       <c r="F776" t="n">
         <v>75622</v>
@@ -32246,7 +32246,7 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>11:57:23.034576</t>
+          <t>12:38:13.659914</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
@@ -32272,10 +32272,10 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>14334814</v>
+        <v>14334847</v>
       </c>
       <c r="E777" t="n">
-        <v>1440916</v>
+        <v>1440917</v>
       </c>
       <c r="F777" t="n">
         <v>45877</v>
@@ -32287,7 +32287,7 @@
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>11:57:23.034579</t>
+          <t>12:38:13.659917</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
@@ -32313,10 +32313,10 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>31333485</v>
+        <v>31333578</v>
       </c>
       <c r="E778" t="n">
-        <v>1431851</v>
+        <v>1431852</v>
       </c>
       <c r="F778" t="n">
         <v>52485</v>
@@ -32328,7 +32328,7 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>11:57:23.034583</t>
+          <t>12:38:13.659921</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
@@ -32354,10 +32354,10 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>55978168</v>
+        <v>55978439</v>
       </c>
       <c r="E779" t="n">
-        <v>2213065</v>
+        <v>2213067</v>
       </c>
       <c r="F779" t="n">
         <v>58859</v>
@@ -32369,7 +32369,7 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>11:57:23.034587</t>
+          <t>12:38:13.659925</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
@@ -32395,10 +32395,10 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>8768786</v>
+        <v>8768806</v>
       </c>
       <c r="E780" t="n">
-        <v>759286</v>
+        <v>759285</v>
       </c>
       <c r="F780" t="n">
         <v>27521</v>
@@ -32410,7 +32410,7 @@
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>11:57:23.034590</t>
+          <t>12:38:13.659928</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
@@ -32436,10 +32436,10 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>15882023</v>
+        <v>15882052</v>
       </c>
       <c r="E781" t="n">
-        <v>1286632</v>
+        <v>1286634</v>
       </c>
       <c r="F781" t="n">
         <v>35234</v>
@@ -32451,7 +32451,7 @@
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>11:57:23.034594</t>
+          <t>12:38:13.659932</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
@@ -32477,13 +32477,13 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>325579712</v>
+        <v>325581487</v>
       </c>
       <c r="E782" t="n">
-        <v>5159352</v>
+        <v>5159361</v>
       </c>
       <c r="F782" t="n">
-        <v>142946</v>
+        <v>142947</v>
       </c>
       <c r="G782" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>11:57:23.034598</t>
+          <t>12:38:13.659935</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
@@ -32518,13 +32518,13 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>12822218</v>
+        <v>12822229</v>
       </c>
       <c r="E783" t="n">
-        <v>812071</v>
+        <v>812073</v>
       </c>
       <c r="F783" t="n">
-        <v>28755</v>
+        <v>28756</v>
       </c>
       <c r="G783" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>11:57:23.034602</t>
+          <t>12:38:13.659939</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
@@ -32559,7 +32559,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>10329195</v>
+        <v>10329207</v>
       </c>
       <c r="E784" t="n">
         <v>832119</v>
@@ -32574,7 +32574,7 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>11:57:23.034605</t>
+          <t>12:38:13.659943</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
@@ -32600,7 +32600,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>13436101</v>
+        <v>13436112</v>
       </c>
       <c r="E785" t="n">
         <v>971703</v>
@@ -32615,7 +32615,7 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>11:57:23.034609</t>
+          <t>12:38:13.659947</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
@@ -32641,10 +32641,10 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>52023587</v>
+        <v>52023712</v>
       </c>
       <c r="E786" t="n">
-        <v>2286271</v>
+        <v>2286274</v>
       </c>
       <c r="F786" t="n">
         <v>59220</v>
@@ -32656,7 +32656,7 @@
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>11:57:23.034613</t>
+          <t>12:38:13.659950</t>
         </is>
       </c>
       <c r="I786" t="inlineStr">
@@ -32682,10 +32682,10 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>37022938</v>
+        <v>37023093</v>
       </c>
       <c r="E787" t="n">
-        <v>1228658</v>
+        <v>1228659</v>
       </c>
       <c r="F787" t="n">
         <v>44969</v>
@@ -32697,7 +32697,7 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>11:57:23.236938</t>
+          <t>12:38:13.913566</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
@@ -32723,10 +32723,10 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>24857936</v>
+        <v>24858011</v>
       </c>
       <c r="E788" t="n">
-        <v>1077070</v>
+        <v>1077071</v>
       </c>
       <c r="F788" t="n">
         <v>26099</v>
@@ -32738,7 +32738,7 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>11:57:23.236960</t>
+          <t>12:38:13.913607</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
@@ -32764,7 +32764,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>14534710</v>
+        <v>14534754</v>
       </c>
       <c r="E789" t="n">
         <v>700356</v>
@@ -32779,7 +32779,7 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>11:57:23.236964</t>
+          <t>12:38:13.913612</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
@@ -32805,10 +32805,10 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>50631147</v>
+        <v>50631269</v>
       </c>
       <c r="E790" t="n">
-        <v>1886965</v>
+        <v>1886964</v>
       </c>
       <c r="F790" t="n">
         <v>89634</v>
@@ -32820,7 +32820,7 @@
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>11:57:23.236968</t>
+          <t>12:38:13.913616</t>
         </is>
       </c>
       <c r="I790" t="inlineStr">
@@ -32846,10 +32846,10 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>121185002</v>
+        <v>121185605</v>
       </c>
       <c r="E791" t="n">
-        <v>2330341</v>
+        <v>2330346</v>
       </c>
       <c r="F791" t="n">
         <v>54745</v>
@@ -32861,7 +32861,7 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>11:57:23.236972</t>
+          <t>12:38:13.913619</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>11375304</v>
+        <v>11375342</v>
       </c>
       <c r="E792" t="n">
         <v>502551</v>
@@ -32902,7 +32902,7 @@
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>11:57:23.236976</t>
+          <t>12:38:13.913623</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
@@ -32928,10 +32928,10 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>12338103</v>
+        <v>12338150</v>
       </c>
       <c r="E793" t="n">
-        <v>463500</v>
+        <v>463501</v>
       </c>
       <c r="F793" t="n">
         <v>11733</v>
@@ -32943,7 +32943,7 @@
       </c>
       <c r="H793" t="inlineStr">
         <is>
-          <t>11:57:23.236980</t>
+          <t>12:38:13.913627</t>
         </is>
       </c>
       <c r="I793" t="inlineStr">
@@ -32969,10 +32969,10 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>22242787</v>
+        <v>22242870</v>
       </c>
       <c r="E794" t="n">
-        <v>1033700</v>
+        <v>1033703</v>
       </c>
       <c r="F794" t="n">
         <v>26525</v>
@@ -32984,7 +32984,7 @@
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>11:57:23.236984</t>
+          <t>12:38:13.913631</t>
         </is>
       </c>
       <c r="I794" t="inlineStr">
@@ -33010,10 +33010,10 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>17933648</v>
+        <v>17933674</v>
       </c>
       <c r="E795" t="n">
-        <v>794003</v>
+        <v>794001</v>
       </c>
       <c r="F795" t="n">
         <v>24505</v>
@@ -33025,7 +33025,7 @@
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>11:57:23.236988</t>
+          <t>12:38:13.913634</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
@@ -33051,7 +33051,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>49491482</v>
+        <v>49491549</v>
       </c>
       <c r="E796" t="n">
         <v>1709807</v>
@@ -33066,7 +33066,7 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>11:57:23.236991</t>
+          <t>12:38:13.913638</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
@@ -33092,10 +33092,10 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>67638521</v>
+        <v>67638785</v>
       </c>
       <c r="E797" t="n">
-        <v>1722071</v>
+        <v>1722076</v>
       </c>
       <c r="F797" t="n">
         <v>48438</v>
@@ -33107,7 +33107,7 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>11:57:23.236995</t>
+          <t>12:38:13.913642</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
@@ -33133,10 +33133,10 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>383244512</v>
+        <v>383246792</v>
       </c>
       <c r="E798" t="n">
-        <v>6189156</v>
+        <v>6189177</v>
       </c>
       <c r="F798" t="n">
         <v>209126</v>
@@ -33148,7 +33148,7 @@
       </c>
       <c r="H798" t="inlineStr">
         <is>
-          <t>11:57:23.236998</t>
+          <t>12:38:13.913645</t>
         </is>
       </c>
       <c r="I798" t="inlineStr">
@@ -33174,7 +33174,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>4905134</v>
+        <v>4905136</v>
       </c>
       <c r="E799" t="n">
         <v>224802</v>
@@ -33189,7 +33189,7 @@
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>11:57:23.237002</t>
+          <t>12:38:13.913649</t>
         </is>
       </c>
       <c r="I799" t="inlineStr">
@@ -33215,10 +33215,10 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>13089882</v>
+        <v>13089894</v>
       </c>
       <c r="E800" t="n">
-        <v>413053</v>
+        <v>413054</v>
       </c>
       <c r="F800" t="n">
         <v>13155</v>
@@ -33230,7 +33230,7 @@
       </c>
       <c r="H800" t="inlineStr">
         <is>
-          <t>11:57:23.237006</t>
+          <t>12:38:13.913652</t>
         </is>
       </c>
       <c r="I800" t="inlineStr">
@@ -33256,7 +33256,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>5928968</v>
+        <v>5928975</v>
       </c>
       <c r="E801" t="n">
         <v>253714</v>
@@ -33271,7 +33271,7 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>11:57:23.237009</t>
+          <t>12:38:13.913656</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
@@ -33297,10 +33297,10 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>17101394</v>
+        <v>17101424</v>
       </c>
       <c r="E802" t="n">
-        <v>676323</v>
+        <v>676325</v>
       </c>
       <c r="F802" t="n">
         <v>25617</v>
@@ -33312,7 +33312,7 @@
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>11:57:23.237013</t>
+          <t>12:38:13.913659</t>
         </is>
       </c>
       <c r="I802" t="inlineStr">
@@ -33338,10 +33338,10 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>29700202</v>
+        <v>29700286</v>
       </c>
       <c r="E803" t="n">
-        <v>1034182</v>
+        <v>1034185</v>
       </c>
       <c r="F803" t="n">
         <v>26372</v>
@@ -33353,7 +33353,7 @@
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>11:57:23.237016</t>
+          <t>12:38:13.913663</t>
         </is>
       </c>
       <c r="I803" t="inlineStr">
@@ -33379,10 +33379,10 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>72747056</v>
+        <v>72747733</v>
       </c>
       <c r="E804" t="n">
-        <v>1183528</v>
+        <v>1183535</v>
       </c>
       <c r="F804" t="n">
         <v>44060</v>
@@ -33394,7 +33394,7 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>11:57:23.237020</t>
+          <t>12:38:13.913667</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
@@ -33420,7 +33420,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>8759210</v>
+        <v>8759222</v>
       </c>
       <c r="E805" t="n">
         <v>416003</v>
@@ -33435,7 +33435,7 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>11:57:23.237024</t>
+          <t>12:38:13.913670</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
@@ -33461,7 +33461,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>3983101</v>
+        <v>3983112</v>
       </c>
       <c r="E806" t="n">
         <v>203216</v>
@@ -33476,7 +33476,7 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>11:57:23.237028</t>
+          <t>12:38:13.913674</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
@@ -33502,10 +33502,10 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>12210678</v>
+        <v>12210692</v>
       </c>
       <c r="E807" t="n">
-        <v>439705</v>
+        <v>439704</v>
       </c>
       <c r="F807" t="n">
         <v>19912</v>
@@ -33517,7 +33517,7 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>11:57:23.458077</t>
+          <t>12:38:14.127275</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
@@ -33543,10 +33543,10 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>13204893</v>
+        <v>13204919</v>
       </c>
       <c r="E808" t="n">
-        <v>687669</v>
+        <v>687670</v>
       </c>
       <c r="F808" t="n">
         <v>24682</v>
@@ -33558,7 +33558,7 @@
       </c>
       <c r="H808" t="inlineStr">
         <is>
-          <t>11:57:23.458098</t>
+          <t>12:38:14.127294</t>
         </is>
       </c>
       <c r="I808" t="inlineStr">
@@ -33584,10 +33584,10 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>3356844</v>
+        <v>3356851</v>
       </c>
       <c r="E809" t="n">
-        <v>185624</v>
+        <v>185623</v>
       </c>
       <c r="F809" t="n">
         <v>7354</v>
@@ -33599,7 +33599,7 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>11:57:23.458102</t>
+          <t>12:38:14.127298</t>
         </is>
       </c>
       <c r="I809" t="inlineStr">
@@ -33625,10 +33625,10 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>44023437</v>
+        <v>44023831</v>
       </c>
       <c r="E810" t="n">
-        <v>981149</v>
+        <v>981151</v>
       </c>
       <c r="F810" t="n">
         <v>33559</v>
@@ -33640,7 +33640,7 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>11:57:23.458107</t>
+          <t>12:38:14.127302</t>
         </is>
       </c>
       <c r="I810" t="inlineStr">
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>11318105</v>
+        <v>11318157</v>
       </c>
       <c r="E811" t="n">
         <v>511267</v>
@@ -33681,7 +33681,7 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>11:57:23.458110</t>
+          <t>12:38:14.127306</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
@@ -33707,7 +33707,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>6470592</v>
+        <v>6470611</v>
       </c>
       <c r="E812" t="n">
         <v>327007</v>
@@ -33722,7 +33722,7 @@
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>11:57:23.458114</t>
+          <t>12:38:14.127309</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
@@ -33748,7 +33748,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>10020625</v>
+        <v>10020674</v>
       </c>
       <c r="E813" t="n">
         <v>351668</v>
@@ -33763,7 +33763,7 @@
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>11:57:23.458118</t>
+          <t>12:38:14.127313</t>
         </is>
       </c>
       <c r="I813" t="inlineStr">
@@ -33804,7 +33804,7 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>11:57:23.458121</t>
+          <t>12:38:14.127317</t>
         </is>
       </c>
       <c r="I814" t="inlineStr">
@@ -33830,7 +33830,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>15134788</v>
+        <v>15134797</v>
       </c>
       <c r="E815" t="n">
         <v>692907</v>
@@ -33845,7 +33845,7 @@
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>11:57:23.458125</t>
+          <t>12:38:14.127320</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
@@ -33886,7 +33886,7 @@
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>11:57:23.458129</t>
+          <t>12:38:14.127324</t>
         </is>
       </c>
       <c r="I816" t="inlineStr">
@@ -33912,10 +33912,10 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>7591508</v>
+        <v>7591511</v>
       </c>
       <c r="E817" t="n">
-        <v>351503</v>
+        <v>351504</v>
       </c>
       <c r="F817" t="n">
         <v>13062</v>
@@ -33927,7 +33927,7 @@
       </c>
       <c r="H817" t="inlineStr">
         <is>
-          <t>11:57:23.458132</t>
+          <t>12:38:14.127327</t>
         </is>
       </c>
       <c r="I817" t="inlineStr">
@@ -33953,10 +33953,10 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>44047497</v>
+        <v>44047590</v>
       </c>
       <c r="E818" t="n">
-        <v>1105891</v>
+        <v>1105893</v>
       </c>
       <c r="F818" t="n">
         <v>33821</v>
@@ -33968,7 +33968,7 @@
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>11:57:23.458136</t>
+          <t>12:38:14.127331</t>
         </is>
       </c>
       <c r="I818" t="inlineStr">
@@ -33994,7 +33994,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>63820193</v>
+        <v>63820255</v>
       </c>
       <c r="E819" t="n">
         <v>1131900</v>
@@ -34009,7 +34009,7 @@
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>11:57:23.458139</t>
+          <t>12:38:14.127334</t>
         </is>
       </c>
       <c r="I819" t="inlineStr">
@@ -34035,10 +34035,10 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>35621481</v>
+        <v>35621553</v>
       </c>
       <c r="E820" t="n">
-        <v>772671</v>
+        <v>772673</v>
       </c>
       <c r="F820" t="n">
         <v>23949</v>
@@ -34050,7 +34050,7 @@
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>11:57:23.458143</t>
+          <t>12:38:14.127338</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
@@ -34076,10 +34076,10 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>87617524</v>
+        <v>87617736</v>
       </c>
       <c r="E821" t="n">
-        <v>2154362</v>
+        <v>2154364</v>
       </c>
       <c r="F821" t="n">
         <v>63132</v>
@@ -34091,7 +34091,7 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>11:57:23.458147</t>
+          <t>12:38:14.127342</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
@@ -34117,10 +34117,10 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>8396359</v>
+        <v>8396377</v>
       </c>
       <c r="E822" t="n">
-        <v>300164</v>
+        <v>300165</v>
       </c>
       <c r="F822" t="n">
         <v>7160</v>
@@ -34132,7 +34132,7 @@
       </c>
       <c r="H822" t="inlineStr">
         <is>
-          <t>11:57:23.458150</t>
+          <t>12:38:14.127346</t>
         </is>
       </c>
       <c r="I822" t="inlineStr">
@@ -34158,10 +34158,10 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>35263152</v>
+        <v>35263500</v>
       </c>
       <c r="E823" t="n">
-        <v>580036</v>
+        <v>580041</v>
       </c>
       <c r="F823" t="n">
         <v>15696</v>
@@ -34173,7 +34173,7 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>11:57:23.458154</t>
+          <t>12:38:14.127349</t>
         </is>
       </c>
       <c r="I823" t="inlineStr">
@@ -34199,10 +34199,10 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>16249134</v>
+        <v>16249161</v>
       </c>
       <c r="E824" t="n">
-        <v>445852</v>
+        <v>445853</v>
       </c>
       <c r="F824" t="n">
         <v>10610</v>
@@ -34214,7 +34214,7 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>11:57:23.458158</t>
+          <t>12:38:14.127353</t>
         </is>
       </c>
       <c r="I824" t="inlineStr">
@@ -34240,10 +34240,10 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>109461801</v>
+        <v>109462430</v>
       </c>
       <c r="E825" t="n">
-        <v>1771020</v>
+        <v>1771029</v>
       </c>
       <c r="F825" t="n">
         <v>69452</v>
@@ -34255,7 +34255,7 @@
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>11:57:23.458161</t>
+          <t>12:38:14.127357</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
@@ -34281,10 +34281,10 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>48787607</v>
+        <v>48787718</v>
       </c>
       <c r="E826" t="n">
-        <v>1227436</v>
+        <v>1227440</v>
       </c>
       <c r="F826" t="n">
         <v>30774</v>
@@ -34296,7 +34296,7 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>11:57:23.458165</t>
+          <t>12:38:14.127361</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
@@ -34322,7 +34322,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>20886929</v>
+        <v>20886980</v>
       </c>
       <c r="E827" t="n">
         <v>625009</v>
@@ -34337,7 +34337,7 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>11:57:23.667456</t>
+          <t>12:38:14.354139</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>4603226</v>
+        <v>4603229</v>
       </c>
       <c r="E828" t="n">
         <v>204543</v>
@@ -34378,7 +34378,7 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>11:57:23.667477</t>
+          <t>12:38:14.354159</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
@@ -34404,10 +34404,10 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>4521868</v>
+        <v>4521871</v>
       </c>
       <c r="E829" t="n">
-        <v>211979</v>
+        <v>211980</v>
       </c>
       <c r="F829" t="n">
         <v>6455</v>
@@ -34419,7 +34419,7 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>11:57:23.667481</t>
+          <t>12:38:14.354163</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
@@ -34445,10 +34445,10 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>7130867</v>
+        <v>7130873</v>
       </c>
       <c r="E830" t="n">
-        <v>308281</v>
+        <v>308280</v>
       </c>
       <c r="F830" t="n">
         <v>11345</v>
@@ -34460,7 +34460,7 @@
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>11:57:23.667485</t>
+          <t>12:38:14.354167</t>
         </is>
       </c>
       <c r="I830" t="inlineStr">
@@ -34486,7 +34486,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>31715593</v>
+        <v>31715635</v>
       </c>
       <c r="E831" t="n">
         <v>750858</v>
@@ -34501,7 +34501,7 @@
       </c>
       <c r="H831" t="inlineStr">
         <is>
-          <t>11:57:23.667489</t>
+          <t>12:38:14.354171</t>
         </is>
       </c>
       <c r="I831" t="inlineStr">
@@ -34527,10 +34527,10 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>51495388</v>
+        <v>51495493</v>
       </c>
       <c r="E832" t="n">
-        <v>1046967</v>
+        <v>1046969</v>
       </c>
       <c r="F832" t="n">
         <v>22140</v>
@@ -34542,7 +34542,7 @@
       </c>
       <c r="H832" t="inlineStr">
         <is>
-          <t>11:57:23.667492</t>
+          <t>12:38:14.354175</t>
         </is>
       </c>
       <c r="I832" t="inlineStr">
@@ -34568,10 +34568,10 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>121580919</v>
+        <v>121581764</v>
       </c>
       <c r="E833" t="n">
-        <v>1968208</v>
+        <v>1968212</v>
       </c>
       <c r="F833" t="n">
         <v>39468</v>
@@ -34583,7 +34583,7 @@
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>11:57:23.667496</t>
+          <t>12:38:14.354178</t>
         </is>
       </c>
       <c r="I833" t="inlineStr">
@@ -34609,10 +34609,10 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>2832182</v>
+        <v>2832184</v>
       </c>
       <c r="E834" t="n">
-        <v>127392</v>
+        <v>127393</v>
       </c>
       <c r="F834" t="n">
         <v>5447</v>
@@ -34624,7 +34624,7 @@
       </c>
       <c r="H834" t="inlineStr">
         <is>
-          <t>11:57:23.667499</t>
+          <t>12:38:14.354182</t>
         </is>
       </c>
       <c r="I834" t="inlineStr">
@@ -34650,10 +34650,10 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>4059827</v>
+        <v>4059831</v>
       </c>
       <c r="E835" t="n">
-        <v>199384</v>
+        <v>199385</v>
       </c>
       <c r="F835" t="n">
         <v>6802</v>
@@ -34665,7 +34665,7 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>11:57:23.667503</t>
+          <t>12:38:14.354185</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
@@ -34691,10 +34691,10 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>6876160</v>
+        <v>6876184</v>
       </c>
       <c r="E836" t="n">
-        <v>269508</v>
+        <v>269509</v>
       </c>
       <c r="F836" t="n">
         <v>7413</v>
@@ -34706,7 +34706,7 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>11:57:23.667508</t>
+          <t>12:38:14.354191</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
@@ -34732,7 +34732,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>13585343</v>
+        <v>13585447</v>
       </c>
       <c r="E837" t="n">
         <v>366237</v>
@@ -34747,7 +34747,7 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>11:57:23.667512</t>
+          <t>12:38:14.354194</t>
         </is>
       </c>
       <c r="I837" t="inlineStr">
@@ -34773,10 +34773,10 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>77753048</v>
+        <v>77753185</v>
       </c>
       <c r="E838" t="n">
-        <v>1372891</v>
+        <v>1372894</v>
       </c>
       <c r="F838" t="n">
         <v>35272</v>
@@ -34788,7 +34788,7 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>11:57:23.667516</t>
+          <t>12:38:14.354198</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
@@ -34814,7 +34814,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>22429199</v>
+        <v>22429255</v>
       </c>
       <c r="E839" t="n">
         <v>626797</v>
@@ -34829,7 +34829,7 @@
       </c>
       <c r="H839" t="inlineStr">
         <is>
-          <t>11:57:23.667519</t>
+          <t>12:38:14.354202</t>
         </is>
       </c>
       <c r="I839" t="inlineStr">
@@ -34855,10 +34855,10 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>67250445</v>
+        <v>67250733</v>
       </c>
       <c r="E840" t="n">
-        <v>963499</v>
+        <v>963503</v>
       </c>
       <c r="F840" t="n">
         <v>32147</v>
@@ -34870,7 +34870,7 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>11:57:23.667523</t>
+          <t>12:38:14.354205</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
@@ -34896,10 +34896,10 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>6192536</v>
+        <v>6192548</v>
       </c>
       <c r="E841" t="n">
-        <v>253899</v>
+        <v>253901</v>
       </c>
       <c r="F841" t="n">
         <v>6884</v>
@@ -34911,7 +34911,7 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>11:57:23.667526</t>
+          <t>12:38:14.354209</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
@@ -34937,7 +34937,7 @@
         </is>
       </c>
       <c r="D842" t="n">
-        <v>9643970</v>
+        <v>9643983</v>
       </c>
       <c r="E842" t="n">
         <v>255285</v>
@@ -34952,7 +34952,7 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>11:57:23.667530</t>
+          <t>12:38:14.354213</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
@@ -34978,10 +34978,10 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>31563168</v>
+        <v>31563258</v>
       </c>
       <c r="E843" t="n">
-        <v>649404</v>
+        <v>649405</v>
       </c>
       <c r="F843" t="n">
         <v>20488</v>
@@ -34993,7 +34993,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>11:57:23.667534</t>
+          <t>12:38:14.354216</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -35019,10 +35019,10 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>60677429</v>
+        <v>60677579</v>
       </c>
       <c r="E844" t="n">
-        <v>828830</v>
+        <v>828831</v>
       </c>
       <c r="F844" t="n">
         <v>23103</v>
@@ -35034,7 +35034,7 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>11:57:23.667537</t>
+          <t>12:38:14.354220</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
@@ -35060,10 +35060,10 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>41541487</v>
+        <v>41541691</v>
       </c>
       <c r="E845" t="n">
-        <v>891474</v>
+        <v>891475</v>
       </c>
       <c r="F845" t="n">
         <v>26121</v>
@@ -35075,7 +35075,7 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>11:57:23.667541</t>
+          <t>12:38:14.354223</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
@@ -35101,10 +35101,10 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>17045654</v>
+        <v>17045824</v>
       </c>
       <c r="E846" t="n">
-        <v>540858</v>
+        <v>540862</v>
       </c>
       <c r="F846" t="n">
         <v>14615</v>
@@ -35116,7 +35116,7 @@
       </c>
       <c r="H846" t="inlineStr">
         <is>
-          <t>11:57:23.667545</t>
+          <t>12:38:14.354227</t>
         </is>
       </c>
       <c r="I846" t="inlineStr">
@@ -35142,10 +35142,10 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>48071952</v>
+        <v>48072017</v>
       </c>
       <c r="E847" t="n">
-        <v>857654</v>
+        <v>857655</v>
       </c>
       <c r="F847" t="n">
         <v>29205</v>
@@ -35157,7 +35157,7 @@
       </c>
       <c r="H847" t="inlineStr">
         <is>
-          <t>11:57:23.828398</t>
+          <t>12:38:14.521775</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
@@ -35183,10 +35183,10 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>168448611</v>
+        <v>168449580</v>
       </c>
       <c r="E848" t="n">
-        <v>2538653</v>
+        <v>2538659</v>
       </c>
       <c r="F848" t="n">
         <v>80106</v>
@@ -35198,7 +35198,7 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>11:57:23.828419</t>
+          <t>12:38:14.521794</t>
         </is>
       </c>
       <c r="I848" t="inlineStr">

--- a/CLEANED_videos_count_data.xlsx
+++ b/CLEANED_videos_count_data.xlsx
@@ -30263,13 +30263,13 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>394629554</v>
+        <v>394656125</v>
       </c>
       <c r="E728" t="n">
-        <v>10138193</v>
+        <v>10138347</v>
       </c>
       <c r="F728" t="n">
-        <v>1344990</v>
+        <v>1345007</v>
       </c>
       <c r="G728" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>12:38:13.243825</t>
+          <t>13:22:17.240437</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
@@ -30304,13 +30304,13 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>525247616</v>
+        <v>525261897</v>
       </c>
       <c r="E729" t="n">
-        <v>10839938</v>
+        <v>10840048</v>
       </c>
       <c r="F729" t="n">
-        <v>2238655</v>
+        <v>2238552</v>
       </c>
       <c r="G729" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>12:38:13.243844</t>
+          <t>13:22:17.240461</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
@@ -30345,13 +30345,13 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>735581875</v>
+        <v>735601915</v>
       </c>
       <c r="E730" t="n">
-        <v>16085750</v>
+        <v>16085844</v>
       </c>
       <c r="F730" t="n">
-        <v>3567789</v>
+        <v>3567791</v>
       </c>
       <c r="G730" t="inlineStr">
         <is>
@@ -30360,7 +30360,7 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>12:38:13.243849</t>
+          <t>13:22:17.240466</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
@@ -30386,13 +30386,13 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>655287808</v>
+        <v>655295656</v>
       </c>
       <c r="E731" t="n">
-        <v>17322205</v>
+        <v>17322257</v>
       </c>
       <c r="F731" t="n">
-        <v>2815280</v>
+        <v>2815284</v>
       </c>
       <c r="G731" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>12:38:13.243854</t>
+          <t>13:22:17.240471</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
@@ -30427,13 +30427,13 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>268276974</v>
+        <v>268281181</v>
       </c>
       <c r="E732" t="n">
-        <v>7382370</v>
+        <v>7382414</v>
       </c>
       <c r="F732" t="n">
-        <v>1241217</v>
+        <v>1241220</v>
       </c>
       <c r="G732" t="inlineStr">
         <is>
@@ -30442,7 +30442,7 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>12:38:13.243857</t>
+          <t>13:22:17.240475</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
@@ -30468,13 +30468,13 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>342801709</v>
+        <v>342805291</v>
       </c>
       <c r="E733" t="n">
-        <v>11348786</v>
+        <v>11348827</v>
       </c>
       <c r="F733" t="n">
-        <v>2587010</v>
+        <v>2587033</v>
       </c>
       <c r="G733" t="inlineStr">
         <is>
@@ -30483,7 +30483,7 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>12:38:13.243861</t>
+          <t>13:22:17.240479</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
@@ -30509,13 +30509,13 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>709278635</v>
+        <v>709285889</v>
       </c>
       <c r="E734" t="n">
-        <v>15498272</v>
+        <v>15498335</v>
       </c>
       <c r="F734" t="n">
-        <v>2043086</v>
+        <v>2043088</v>
       </c>
       <c r="G734" t="inlineStr">
         <is>
@@ -30524,7 +30524,7 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>12:38:13.243865</t>
+          <t>13:22:17.240483</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
@@ -30550,13 +30550,13 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>871823433</v>
+        <v>871829174</v>
       </c>
       <c r="E735" t="n">
-        <v>19922934</v>
+        <v>19922974</v>
       </c>
       <c r="F735" t="n">
-        <v>3025979</v>
+        <v>3025981</v>
       </c>
       <c r="G735" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>12:38:13.243869</t>
+          <t>13:22:17.240487</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
@@ -30591,13 +30591,13 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>1243230351</v>
+        <v>1243237002</v>
       </c>
       <c r="E736" t="n">
-        <v>24754563</v>
+        <v>24754620</v>
       </c>
       <c r="F736" t="n">
-        <v>5098041</v>
+        <v>5098037</v>
       </c>
       <c r="G736" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>12:38:13.243872</t>
+          <t>13:22:17.240492</t>
         </is>
       </c>
       <c r="I736" t="inlineStr">
@@ -30632,13 +30632,13 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>1873415314</v>
+        <v>1873430442</v>
       </c>
       <c r="E737" t="n">
-        <v>25016890</v>
+        <v>25016977</v>
       </c>
       <c r="F737" t="n">
-        <v>2479282</v>
+        <v>2479285</v>
       </c>
       <c r="G737" t="inlineStr">
         <is>
@@ -30647,7 +30647,7 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>12:38:13.243876</t>
+          <t>13:22:17.240496</t>
         </is>
       </c>
       <c r="I737" t="inlineStr">
@@ -30673,13 +30673,13 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>961540967</v>
+        <v>961550485</v>
       </c>
       <c r="E738" t="n">
-        <v>14619436</v>
+        <v>14619496</v>
       </c>
       <c r="F738" t="n">
-        <v>2993820</v>
+        <v>2994013</v>
       </c>
       <c r="G738" t="inlineStr">
         <is>
@@ -30688,7 +30688,7 @@
       </c>
       <c r="H738" t="inlineStr">
         <is>
-          <t>12:38:13.243880</t>
+          <t>13:22:17.240500</t>
         </is>
       </c>
       <c r="I738" t="inlineStr">
@@ -30714,13 +30714,13 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>2124264413</v>
+        <v>2124276780</v>
       </c>
       <c r="E739" t="n">
-        <v>23430591</v>
+        <v>23430691</v>
       </c>
       <c r="F739" t="n">
-        <v>3285160</v>
+        <v>3285163</v>
       </c>
       <c r="G739" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>12:38:13.243884</t>
+          <t>13:22:17.240504</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
@@ -30755,13 +30755,13 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>1322105573</v>
+        <v>1322115777</v>
       </c>
       <c r="E740" t="n">
-        <v>13251884</v>
+        <v>13251964</v>
       </c>
       <c r="F740" t="n">
-        <v>1658893</v>
+        <v>1658895</v>
       </c>
       <c r="G740" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
       </c>
       <c r="H740" t="inlineStr">
         <is>
-          <t>12:38:13.243887</t>
+          <t>13:22:17.240508</t>
         </is>
       </c>
       <c r="I740" t="inlineStr">
@@ -30796,13 +30796,13 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>351373687</v>
+        <v>351375657</v>
       </c>
       <c r="E741" t="n">
-        <v>6130679</v>
+        <v>6130693</v>
       </c>
       <c r="F741" t="n">
-        <v>479220</v>
+        <v>479223</v>
       </c>
       <c r="G741" t="inlineStr">
         <is>
@@ -30811,7 +30811,7 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>12:38:13.243891</t>
+          <t>13:22:17.240512</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
@@ -30837,13 +30837,13 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>843230080</v>
+        <v>843234932</v>
       </c>
       <c r="E742" t="n">
-        <v>8585448</v>
+        <v>8585495</v>
       </c>
       <c r="F742" t="n">
-        <v>529999</v>
+        <v>530001</v>
       </c>
       <c r="G742" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>12:38:13.243895</t>
+          <t>13:22:17.240515</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
@@ -30878,13 +30878,13 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>863564640</v>
+        <v>863568348</v>
       </c>
       <c r="E743" t="n">
-        <v>9963302</v>
+        <v>9963351</v>
       </c>
       <c r="F743" t="n">
-        <v>617164</v>
+        <v>617166</v>
       </c>
       <c r="G743" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>12:38:13.243898</t>
+          <t>13:22:17.240519</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
@@ -30919,13 +30919,13 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>1634754895</v>
+        <v>1634765760</v>
       </c>
       <c r="E744" t="n">
-        <v>16166136</v>
+        <v>16166218</v>
       </c>
       <c r="F744" t="n">
-        <v>1123285</v>
+        <v>1123289</v>
       </c>
       <c r="G744" t="inlineStr">
         <is>
@@ -30934,7 +30934,7 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>12:38:13.243902</t>
+          <t>13:22:17.240523</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
@@ -30960,10 +30960,10 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>123650505</v>
+        <v>123656734</v>
       </c>
       <c r="E745" t="n">
-        <v>2975543</v>
+        <v>2975560</v>
       </c>
       <c r="F745" t="n">
         <v>96882</v>
@@ -30975,7 +30975,7 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>12:38:13.243906</t>
+          <t>13:22:17.240527</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
@@ -31001,13 +31001,13 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>206026644</v>
+        <v>206032576</v>
       </c>
       <c r="E746" t="n">
-        <v>4827616</v>
+        <v>4827650</v>
       </c>
       <c r="F746" t="n">
-        <v>132893</v>
+        <v>132892</v>
       </c>
       <c r="G746" t="inlineStr">
         <is>
@@ -31016,7 +31016,7 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>12:38:13.243913</t>
+          <t>13:22:17.240535</t>
         </is>
       </c>
       <c r="I746" t="inlineStr">
@@ -31042,13 +31042,13 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>116650250</v>
+        <v>116651597</v>
       </c>
       <c r="E747" t="n">
-        <v>3695375</v>
+        <v>3695400</v>
       </c>
       <c r="F747" t="n">
-        <v>82393</v>
+        <v>82394</v>
       </c>
       <c r="G747" t="inlineStr">
         <is>
@@ -31057,7 +31057,7 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>12:38:13.441227</t>
+          <t>13:22:17.497060</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
@@ -31083,10 +31083,10 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>86401657</v>
+        <v>86402519</v>
       </c>
       <c r="E748" t="n">
-        <v>3023129</v>
+        <v>3023138</v>
       </c>
       <c r="F748" t="n">
         <v>67343</v>
@@ -31098,7 +31098,7 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>12:38:13.441243</t>
+          <t>13:22:17.497086</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
@@ -31124,10 +31124,10 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>108966142</v>
+        <v>108967394</v>
       </c>
       <c r="E749" t="n">
-        <v>3340362</v>
+        <v>3340382</v>
       </c>
       <c r="F749" t="n">
         <v>145773</v>
@@ -31139,7 +31139,7 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>12:38:13.441248</t>
+          <t>13:22:17.497091</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
@@ -31165,10 +31165,10 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>289722560</v>
+        <v>289724743</v>
       </c>
       <c r="E750" t="n">
-        <v>5549698</v>
+        <v>5549712</v>
       </c>
       <c r="F750" t="n">
         <v>230028</v>
@@ -31180,7 +31180,7 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>12:38:13.441251</t>
+          <t>13:22:17.497096</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
@@ -31206,13 +31206,13 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>1499453611</v>
+        <v>1499471393</v>
       </c>
       <c r="E751" t="n">
-        <v>17793398</v>
+        <v>17793550</v>
       </c>
       <c r="F751" t="n">
-        <v>925889</v>
+        <v>925894</v>
       </c>
       <c r="G751" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>12:38:13.441255</t>
+          <t>13:22:17.497100</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
@@ -31247,7 +31247,7 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>11021551</v>
+        <v>11021637</v>
       </c>
       <c r="E752" t="n">
         <v>953057</v>
@@ -31262,7 +31262,7 @@
       </c>
       <c r="H752" t="inlineStr">
         <is>
-          <t>12:38:13.441259</t>
+          <t>13:22:17.497104</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
@@ -31288,13 +31288,13 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>311675339</v>
+        <v>311678257</v>
       </c>
       <c r="E753" t="n">
-        <v>4280367</v>
+        <v>4280400</v>
       </c>
       <c r="F753" t="n">
-        <v>118644</v>
+        <v>118645</v>
       </c>
       <c r="G753" t="inlineStr">
         <is>
@@ -31303,7 +31303,7 @@
       </c>
       <c r="H753" t="inlineStr">
         <is>
-          <t>12:38:13.441263</t>
+          <t>13:22:17.497109</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
@@ -31329,10 +31329,10 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>490805906</v>
+        <v>490808349</v>
       </c>
       <c r="E754" t="n">
-        <v>6137132</v>
+        <v>6137149</v>
       </c>
       <c r="F754" t="n">
         <v>169507</v>
@@ -31344,7 +31344,7 @@
       </c>
       <c r="H754" t="inlineStr">
         <is>
-          <t>12:38:13.441267</t>
+          <t>13:22:17.497114</t>
         </is>
       </c>
       <c r="I754" t="inlineStr">
@@ -31370,7 +31370,7 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>16053189</v>
+        <v>16053242</v>
       </c>
       <c r="E755" t="n">
         <v>752841</v>
@@ -31385,7 +31385,7 @@
       </c>
       <c r="H755" t="inlineStr">
         <is>
-          <t>12:38:13.441271</t>
+          <t>13:22:17.497118</t>
         </is>
       </c>
       <c r="I755" t="inlineStr">
@@ -31411,10 +31411,10 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>3969467</v>
+        <v>3969476</v>
       </c>
       <c r="E756" t="n">
-        <v>260105</v>
+        <v>260106</v>
       </c>
       <c r="F756" t="n">
         <v>4715</v>
@@ -31426,7 +31426,7 @@
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>12:38:13.441275</t>
+          <t>13:22:17.497122</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
@@ -31452,13 +31452,13 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>277539534</v>
+        <v>277540992</v>
       </c>
       <c r="E757" t="n">
-        <v>4397905</v>
+        <v>4397918</v>
       </c>
       <c r="F757" t="n">
-        <v>200091</v>
+        <v>200093</v>
       </c>
       <c r="G757" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>12:38:13.441278</t>
+          <t>13:22:17.497127</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
@@ -31493,10 +31493,10 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>233961865</v>
+        <v>233963215</v>
       </c>
       <c r="E758" t="n">
-        <v>3952498</v>
+        <v>3952518</v>
       </c>
       <c r="F758" t="n">
         <v>125686</v>
@@ -31508,7 +31508,7 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>12:38:13.441282</t>
+          <t>13:22:17.497131</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>493447572</v>
+        <v>493448858</v>
       </c>
       <c r="E759" t="n">
-        <v>5635237</v>
+        <v>5635252</v>
       </c>
       <c r="F759" t="n">
         <v>183860</v>
@@ -31549,7 +31549,7 @@
       </c>
       <c r="H759" t="inlineStr">
         <is>
-          <t>12:38:13.441285</t>
+          <t>13:22:17.497135</t>
         </is>
       </c>
       <c r="I759" t="inlineStr">
@@ -31575,10 +31575,10 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>282415133</v>
+        <v>282416824</v>
       </c>
       <c r="E760" t="n">
-        <v>3059616</v>
+        <v>3059640</v>
       </c>
       <c r="F760" t="n">
         <v>76117</v>
@@ -31590,7 +31590,7 @@
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>12:38:13.441289</t>
+          <t>13:22:17.497139</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
@@ -31616,10 +31616,10 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>217826504</v>
+        <v>217827575</v>
       </c>
       <c r="E761" t="n">
-        <v>2361635</v>
+        <v>2361646</v>
       </c>
       <c r="F761" t="n">
         <v>61939</v>
@@ -31631,7 +31631,7 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>12:38:13.441292</t>
+          <t>13:22:17.497143</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
@@ -31657,13 +31657,13 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>298999141</v>
+        <v>299001239</v>
       </c>
       <c r="E762" t="n">
-        <v>3121004</v>
+        <v>3121017</v>
       </c>
       <c r="F762" t="n">
-        <v>76173</v>
+        <v>76175</v>
       </c>
       <c r="G762" t="inlineStr">
         <is>
@@ -31672,7 +31672,7 @@
       </c>
       <c r="H762" t="inlineStr">
         <is>
-          <t>12:38:13.441296</t>
+          <t>13:22:17.497148</t>
         </is>
       </c>
       <c r="I762" t="inlineStr">
@@ -31698,10 +31698,10 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>180142749</v>
+        <v>180143510</v>
       </c>
       <c r="E763" t="n">
-        <v>2117664</v>
+        <v>2117672</v>
       </c>
       <c r="F763" t="n">
         <v>57158</v>
@@ -31713,7 +31713,7 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>12:38:13.441299</t>
+          <t>13:22:17.497152</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
@@ -31739,10 +31739,10 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>87119343</v>
+        <v>87119821</v>
       </c>
       <c r="E764" t="n">
-        <v>2893387</v>
+        <v>2893403</v>
       </c>
       <c r="F764" t="n">
         <v>90144</v>
@@ -31754,7 +31754,7 @@
       </c>
       <c r="H764" t="inlineStr">
         <is>
-          <t>12:38:13.441303</t>
+          <t>13:22:17.497156</t>
         </is>
       </c>
       <c r="I764" t="inlineStr">
@@ -31780,13 +31780,13 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>32659726</v>
+        <v>32666996</v>
       </c>
       <c r="E765" t="n">
-        <v>707360</v>
+        <v>707415</v>
       </c>
       <c r="F765" t="n">
-        <v>14158</v>
+        <v>14159</v>
       </c>
       <c r="G765" t="inlineStr">
         <is>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>12:38:13.441306</t>
+          <t>13:22:17.497160</t>
         </is>
       </c>
       <c r="I765" t="inlineStr">
@@ -31821,10 +31821,10 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>56497811</v>
+        <v>56504353</v>
       </c>
       <c r="E766" t="n">
-        <v>1228857</v>
+        <v>1228929</v>
       </c>
       <c r="F766" t="n">
         <v>21877</v>
@@ -31836,7 +31836,7 @@
       </c>
       <c r="H766" t="inlineStr">
         <is>
-          <t>12:38:13.441310</t>
+          <t>13:22:17.497164</t>
         </is>
       </c>
       <c r="I766" t="inlineStr">
@@ -31862,10 +31862,10 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>23982290</v>
+        <v>23985620</v>
       </c>
       <c r="E767" t="n">
-        <v>632492</v>
+        <v>632519</v>
       </c>
       <c r="F767" t="n">
         <v>11407</v>
@@ -31877,7 +31877,7 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>12:38:13.659861</t>
+          <t>13:22:17.743128</t>
         </is>
       </c>
       <c r="I767" t="inlineStr">
@@ -31903,13 +31903,13 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>153847576</v>
+        <v>153852605</v>
       </c>
       <c r="E768" t="n">
-        <v>3740519</v>
+        <v>3740542</v>
       </c>
       <c r="F768" t="n">
-        <v>98735</v>
+        <v>98736</v>
       </c>
       <c r="G768" t="inlineStr">
         <is>
@@ -31918,7 +31918,7 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>12:38:13.659883</t>
+          <t>13:22:17.743152</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
@@ -31944,10 +31944,10 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>44955394</v>
+        <v>44956285</v>
       </c>
       <c r="E769" t="n">
-        <v>2782869</v>
+        <v>2782875</v>
       </c>
       <c r="F769" t="n">
         <v>60717</v>
@@ -31959,7 +31959,7 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>12:38:13.659887</t>
+          <t>13:22:17.743156</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
@@ -31985,7 +31985,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>21688447</v>
+        <v>21688482</v>
       </c>
       <c r="E770" t="n">
         <v>1461639</v>
@@ -32000,7 +32000,7 @@
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>12:38:13.659891</t>
+          <t>13:22:17.743160</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
@@ -32026,13 +32026,13 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>904088390</v>
+        <v>904105063</v>
       </c>
       <c r="E771" t="n">
-        <v>13991099</v>
+        <v>13991226</v>
       </c>
       <c r="F771" t="n">
-        <v>930077</v>
+        <v>930059</v>
       </c>
       <c r="G771" t="inlineStr">
         <is>
@@ -32041,7 +32041,7 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>12:38:13.659895</t>
+          <t>13:22:17.743164</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
@@ -32067,10 +32067,10 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>93483235</v>
+        <v>93483726</v>
       </c>
       <c r="E772" t="n">
-        <v>3541313</v>
+        <v>3541321</v>
       </c>
       <c r="F772" t="n">
         <v>94887</v>
@@ -32082,7 +32082,7 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>12:38:13.659899</t>
+          <t>13:22:17.743168</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
@@ -32108,10 +32108,10 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>6093574</v>
+        <v>6093585</v>
       </c>
       <c r="E773" t="n">
-        <v>553233</v>
+        <v>553236</v>
       </c>
       <c r="F773" t="n">
         <v>24567</v>
@@ -32123,7 +32123,7 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>12:38:13.659903</t>
+          <t>13:22:17.743172</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
@@ -32149,10 +32149,10 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>6141700</v>
+        <v>6141706</v>
       </c>
       <c r="E774" t="n">
-        <v>581989</v>
+        <v>581990</v>
       </c>
       <c r="F774" t="n">
         <v>24770</v>
@@ -32164,7 +32164,7 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>12:38:13.659907</t>
+          <t>13:22:17.743176</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
@@ -32190,10 +32190,10 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>10835583</v>
+        <v>10835642</v>
       </c>
       <c r="E775" t="n">
-        <v>826821</v>
+        <v>826822</v>
       </c>
       <c r="F775" t="n">
         <v>29965</v>
@@ -32205,7 +32205,7 @@
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>12:38:13.659910</t>
+          <t>13:22:17.743179</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
@@ -32231,10 +32231,10 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>27016268</v>
+        <v>27016337</v>
       </c>
       <c r="E776" t="n">
-        <v>2005955</v>
+        <v>2005957</v>
       </c>
       <c r="F776" t="n">
         <v>75622</v>
@@ -32246,7 +32246,7 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>12:38:13.659914</t>
+          <t>13:22:17.743183</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
@@ -32272,7 +32272,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>14334847</v>
+        <v>14334878</v>
       </c>
       <c r="E777" t="n">
         <v>1440917</v>
@@ -32287,7 +32287,7 @@
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>12:38:13.659917</t>
+          <t>13:22:17.743186</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
@@ -32313,10 +32313,10 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>31333578</v>
+        <v>31333652</v>
       </c>
       <c r="E778" t="n">
-        <v>1431852</v>
+        <v>1431857</v>
       </c>
       <c r="F778" t="n">
         <v>52485</v>
@@ -32328,7 +32328,7 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>12:38:13.659921</t>
+          <t>13:22:17.743190</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
@@ -32354,10 +32354,10 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>55978439</v>
+        <v>55978805</v>
       </c>
       <c r="E779" t="n">
-        <v>2213067</v>
+        <v>2213073</v>
       </c>
       <c r="F779" t="n">
         <v>58859</v>
@@ -32369,7 +32369,7 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>12:38:13.659925</t>
+          <t>13:22:17.743194</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
@@ -32395,10 +32395,10 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>8768806</v>
+        <v>8768816</v>
       </c>
       <c r="E780" t="n">
-        <v>759285</v>
+        <v>759286</v>
       </c>
       <c r="F780" t="n">
         <v>27521</v>
@@ -32410,7 +32410,7 @@
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>12:38:13.659928</t>
+          <t>13:22:17.743197</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
@@ -32436,10 +32436,10 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>15882052</v>
+        <v>15882066</v>
       </c>
       <c r="E781" t="n">
-        <v>1286634</v>
+        <v>1286635</v>
       </c>
       <c r="F781" t="n">
         <v>35234</v>
@@ -32451,7 +32451,7 @@
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>12:38:13.659932</t>
+          <t>13:22:17.743201</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
@@ -32477,13 +32477,13 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>325581487</v>
+        <v>325583357</v>
       </c>
       <c r="E782" t="n">
-        <v>5159361</v>
+        <v>5159372</v>
       </c>
       <c r="F782" t="n">
-        <v>142947</v>
+        <v>142949</v>
       </c>
       <c r="G782" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>12:38:13.659935</t>
+          <t>13:22:17.743204</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
@@ -32518,10 +32518,10 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>12822229</v>
+        <v>12822242</v>
       </c>
       <c r="E783" t="n">
-        <v>812073</v>
+        <v>812074</v>
       </c>
       <c r="F783" t="n">
         <v>28756</v>
@@ -32533,7 +32533,7 @@
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>12:38:13.659939</t>
+          <t>13:22:17.743207</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
@@ -32559,7 +32559,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>10329207</v>
+        <v>10329216</v>
       </c>
       <c r="E784" t="n">
         <v>832119</v>
@@ -32574,7 +32574,7 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>12:38:13.659943</t>
+          <t>13:22:17.743211</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
@@ -32600,7 +32600,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>13436112</v>
+        <v>13436116</v>
       </c>
       <c r="E785" t="n">
         <v>971703</v>
@@ -32615,7 +32615,7 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>12:38:13.659947</t>
+          <t>13:22:17.743215</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
@@ -32641,10 +32641,10 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>52023712</v>
+        <v>52023841</v>
       </c>
       <c r="E786" t="n">
-        <v>2286274</v>
+        <v>2286277</v>
       </c>
       <c r="F786" t="n">
         <v>59220</v>
@@ -32656,7 +32656,7 @@
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>12:38:13.659950</t>
+          <t>13:22:17.743218</t>
         </is>
       </c>
       <c r="I786" t="inlineStr">
@@ -32682,10 +32682,10 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>37023093</v>
+        <v>37023264</v>
       </c>
       <c r="E787" t="n">
-        <v>1228659</v>
+        <v>1228661</v>
       </c>
       <c r="F787" t="n">
         <v>44969</v>
@@ -32697,7 +32697,7 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>12:38:13.913566</t>
+          <t>13:22:18.023772</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
@@ -32723,10 +32723,10 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>24858011</v>
+        <v>24858128</v>
       </c>
       <c r="E788" t="n">
-        <v>1077071</v>
+        <v>1077075</v>
       </c>
       <c r="F788" t="n">
         <v>26099</v>
@@ -32738,7 +32738,7 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>12:38:13.913607</t>
+          <t>13:22:18.023797</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
@@ -32764,7 +32764,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>14534754</v>
+        <v>14534828</v>
       </c>
       <c r="E789" t="n">
         <v>700356</v>
@@ -32779,7 +32779,7 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>12:38:13.913612</t>
+          <t>13:22:18.023802</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
@@ -32805,10 +32805,10 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>50631269</v>
+        <v>50631383</v>
       </c>
       <c r="E790" t="n">
-        <v>1886964</v>
+        <v>1886966</v>
       </c>
       <c r="F790" t="n">
         <v>89634</v>
@@ -32820,7 +32820,7 @@
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>12:38:13.913616</t>
+          <t>13:22:18.023806</t>
         </is>
       </c>
       <c r="I790" t="inlineStr">
@@ -32846,10 +32846,10 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>121185605</v>
+        <v>121186136</v>
       </c>
       <c r="E791" t="n">
-        <v>2330346</v>
+        <v>2330353</v>
       </c>
       <c r="F791" t="n">
         <v>54745</v>
@@ -32861,7 +32861,7 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>12:38:13.913619</t>
+          <t>13:22:18.023810</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>11375342</v>
+        <v>11375376</v>
       </c>
       <c r="E792" t="n">
         <v>502551</v>
@@ -32902,7 +32902,7 @@
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>12:38:13.913623</t>
+          <t>13:22:18.023814</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
@@ -32928,13 +32928,13 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>12338150</v>
+        <v>12338189</v>
       </c>
       <c r="E793" t="n">
-        <v>463501</v>
+        <v>463502</v>
       </c>
       <c r="F793" t="n">
-        <v>11733</v>
+        <v>11734</v>
       </c>
       <c r="G793" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
       </c>
       <c r="H793" t="inlineStr">
         <is>
-          <t>12:38:13.913627</t>
+          <t>13:22:18.023818</t>
         </is>
       </c>
       <c r="I793" t="inlineStr">
@@ -32969,10 +32969,10 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>22242870</v>
+        <v>22242912</v>
       </c>
       <c r="E794" t="n">
-        <v>1033703</v>
+        <v>1033702</v>
       </c>
       <c r="F794" t="n">
         <v>26525</v>
@@ -32984,7 +32984,7 @@
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>12:38:13.913631</t>
+          <t>13:22:18.023822</t>
         </is>
       </c>
       <c r="I794" t="inlineStr">
@@ -33010,10 +33010,10 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>17933674</v>
+        <v>17933724</v>
       </c>
       <c r="E795" t="n">
-        <v>794001</v>
+        <v>794003</v>
       </c>
       <c r="F795" t="n">
         <v>24505</v>
@@ -33025,7 +33025,7 @@
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>12:38:13.913634</t>
+          <t>13:22:18.023826</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
@@ -33051,13 +33051,13 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>49491549</v>
+        <v>49491622</v>
       </c>
       <c r="E796" t="n">
-        <v>1709807</v>
+        <v>1709808</v>
       </c>
       <c r="F796" t="n">
-        <v>46450</v>
+        <v>46451</v>
       </c>
       <c r="G796" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>12:38:13.913638</t>
+          <t>13:22:18.023829</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
@@ -33092,10 +33092,10 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>67638785</v>
+        <v>67639073</v>
       </c>
       <c r="E797" t="n">
-        <v>1722076</v>
+        <v>1722086</v>
       </c>
       <c r="F797" t="n">
         <v>48438</v>
@@ -33107,7 +33107,7 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>12:38:13.913642</t>
+          <t>13:22:18.023834</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
@@ -33133,10 +33133,10 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>383246792</v>
+        <v>383249382</v>
       </c>
       <c r="E798" t="n">
-        <v>6189177</v>
+        <v>6189196</v>
       </c>
       <c r="F798" t="n">
         <v>209126</v>
@@ -33148,7 +33148,7 @@
       </c>
       <c r="H798" t="inlineStr">
         <is>
-          <t>12:38:13.913645</t>
+          <t>13:22:18.023837</t>
         </is>
       </c>
       <c r="I798" t="inlineStr">
@@ -33174,7 +33174,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>4905136</v>
+        <v>4905137</v>
       </c>
       <c r="E799" t="n">
         <v>224802</v>
@@ -33189,7 +33189,7 @@
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>12:38:13.913649</t>
+          <t>13:22:18.023841</t>
         </is>
       </c>
       <c r="I799" t="inlineStr">
@@ -33215,10 +33215,10 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>13089894</v>
+        <v>13089911</v>
       </c>
       <c r="E800" t="n">
-        <v>413054</v>
+        <v>413055</v>
       </c>
       <c r="F800" t="n">
         <v>13155</v>
@@ -33230,7 +33230,7 @@
       </c>
       <c r="H800" t="inlineStr">
         <is>
-          <t>12:38:13.913652</t>
+          <t>13:22:18.023845</t>
         </is>
       </c>
       <c r="I800" t="inlineStr">
@@ -33256,10 +33256,10 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>5928975</v>
+        <v>5928977</v>
       </c>
       <c r="E801" t="n">
-        <v>253714</v>
+        <v>253715</v>
       </c>
       <c r="F801" t="n">
         <v>9487</v>
@@ -33271,7 +33271,7 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>12:38:13.913656</t>
+          <t>13:22:18.023849</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
@@ -33297,10 +33297,10 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>17101424</v>
+        <v>17101443</v>
       </c>
       <c r="E802" t="n">
-        <v>676325</v>
+        <v>676327</v>
       </c>
       <c r="F802" t="n">
         <v>25617</v>
@@ -33312,7 +33312,7 @@
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>12:38:13.913659</t>
+          <t>13:22:18.023853</t>
         </is>
       </c>
       <c r="I802" t="inlineStr">
@@ -33338,10 +33338,10 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>29700286</v>
+        <v>29700390</v>
       </c>
       <c r="E803" t="n">
-        <v>1034185</v>
+        <v>1034190</v>
       </c>
       <c r="F803" t="n">
         <v>26372</v>
@@ -33353,7 +33353,7 @@
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>12:38:13.913663</t>
+          <t>13:22:18.023856</t>
         </is>
       </c>
       <c r="I803" t="inlineStr">
@@ -33379,10 +33379,10 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>72747733</v>
+        <v>72748481</v>
       </c>
       <c r="E804" t="n">
-        <v>1183535</v>
+        <v>1183541</v>
       </c>
       <c r="F804" t="n">
         <v>44060</v>
@@ -33394,7 +33394,7 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>12:38:13.913667</t>
+          <t>13:22:18.023860</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
@@ -33420,10 +33420,10 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>8759222</v>
+        <v>8759245</v>
       </c>
       <c r="E805" t="n">
-        <v>416003</v>
+        <v>416004</v>
       </c>
       <c r="F805" t="n">
         <v>11729</v>
@@ -33435,7 +33435,7 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>12:38:13.913670</t>
+          <t>13:22:18.023864</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
@@ -33461,10 +33461,10 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>3983112</v>
+        <v>3983123</v>
       </c>
       <c r="E806" t="n">
-        <v>203216</v>
+        <v>203217</v>
       </c>
       <c r="F806" t="n">
         <v>7210</v>
@@ -33476,7 +33476,7 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>12:38:13.913674</t>
+          <t>13:22:18.023868</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
@@ -33502,7 +33502,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>12210692</v>
+        <v>12210706</v>
       </c>
       <c r="E807" t="n">
         <v>439704</v>
@@ -33517,7 +33517,7 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>12:38:14.127275</t>
+          <t>13:22:18.311153</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
@@ -33543,10 +33543,10 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>13204919</v>
+        <v>13204950</v>
       </c>
       <c r="E808" t="n">
-        <v>687670</v>
+        <v>687672</v>
       </c>
       <c r="F808" t="n">
         <v>24682</v>
@@ -33558,7 +33558,7 @@
       </c>
       <c r="H808" t="inlineStr">
         <is>
-          <t>12:38:14.127294</t>
+          <t>13:22:18.311180</t>
         </is>
       </c>
       <c r="I808" t="inlineStr">
@@ -33584,7 +33584,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>3356851</v>
+        <v>3356860</v>
       </c>
       <c r="E809" t="n">
         <v>185623</v>
@@ -33599,7 +33599,7 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>12:38:14.127298</t>
+          <t>13:22:18.311186</t>
         </is>
       </c>
       <c r="I809" t="inlineStr">
@@ -33625,13 +33625,13 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>44023831</v>
+        <v>44024266</v>
       </c>
       <c r="E810" t="n">
-        <v>981151</v>
+        <v>981154</v>
       </c>
       <c r="F810" t="n">
-        <v>33559</v>
+        <v>33562</v>
       </c>
       <c r="G810" t="inlineStr">
         <is>
@@ -33640,7 +33640,7 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>12:38:14.127302</t>
+          <t>13:22:18.311190</t>
         </is>
       </c>
       <c r="I810" t="inlineStr">
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>11318157</v>
+        <v>11318201</v>
       </c>
       <c r="E811" t="n">
         <v>511267</v>
@@ -33681,7 +33681,7 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>12:38:14.127306</t>
+          <t>13:22:18.311195</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
@@ -33707,7 +33707,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>6470611</v>
+        <v>6470626</v>
       </c>
       <c r="E812" t="n">
         <v>327007</v>
@@ -33722,7 +33722,7 @@
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>12:38:14.127309</t>
+          <t>13:22:18.311200</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
@@ -33748,10 +33748,10 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>10020674</v>
+        <v>10020713</v>
       </c>
       <c r="E813" t="n">
-        <v>351668</v>
+        <v>351669</v>
       </c>
       <c r="F813" t="n">
         <v>13469</v>
@@ -33763,7 +33763,7 @@
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>12:38:14.127313</t>
+          <t>13:22:18.311204</t>
         </is>
       </c>
       <c r="I813" t="inlineStr">
@@ -33789,7 +33789,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>3908136</v>
+        <v>3908140</v>
       </c>
       <c r="E814" t="n">
         <v>226800</v>
@@ -33804,7 +33804,7 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>12:38:14.127317</t>
+          <t>13:22:18.311208</t>
         </is>
       </c>
       <c r="I814" t="inlineStr">
@@ -33830,7 +33830,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>15134797</v>
+        <v>15134810</v>
       </c>
       <c r="E815" t="n">
         <v>692907</v>
@@ -33845,7 +33845,7 @@
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>12:38:14.127320</t>
+          <t>13:22:18.311213</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
@@ -33871,7 +33871,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>4462854</v>
+        <v>4462855</v>
       </c>
       <c r="E816" t="n">
         <v>260871</v>
@@ -33886,7 +33886,7 @@
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>12:38:14.127324</t>
+          <t>13:22:18.311217</t>
         </is>
       </c>
       <c r="I816" t="inlineStr">
@@ -33912,7 +33912,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>7591511</v>
+        <v>7591515</v>
       </c>
       <c r="E817" t="n">
         <v>351504</v>
@@ -33927,7 +33927,7 @@
       </c>
       <c r="H817" t="inlineStr">
         <is>
-          <t>12:38:14.127327</t>
+          <t>13:22:18.311221</t>
         </is>
       </c>
       <c r="I817" t="inlineStr">
@@ -33953,7 +33953,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>44047590</v>
+        <v>44047712</v>
       </c>
       <c r="E818" t="n">
         <v>1105893</v>
@@ -33968,7 +33968,7 @@
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>12:38:14.127331</t>
+          <t>13:22:18.311226</t>
         </is>
       </c>
       <c r="I818" t="inlineStr">
@@ -33994,10 +33994,10 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>63820255</v>
+        <v>63820304</v>
       </c>
       <c r="E819" t="n">
-        <v>1131900</v>
+        <v>1131901</v>
       </c>
       <c r="F819" t="n">
         <v>40078</v>
@@ -34009,7 +34009,7 @@
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>12:38:14.127334</t>
+          <t>13:22:18.311230</t>
         </is>
       </c>
       <c r="I819" t="inlineStr">
@@ -34035,10 +34035,10 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>35621553</v>
+        <v>35621622</v>
       </c>
       <c r="E820" t="n">
-        <v>772673</v>
+        <v>772674</v>
       </c>
       <c r="F820" t="n">
         <v>23949</v>
@@ -34050,7 +34050,7 @@
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>12:38:14.127338</t>
+          <t>13:22:18.311235</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
@@ -34076,10 +34076,10 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>87617736</v>
+        <v>87617946</v>
       </c>
       <c r="E821" t="n">
-        <v>2154364</v>
+        <v>2154368</v>
       </c>
       <c r="F821" t="n">
         <v>63132</v>
@@ -34091,7 +34091,7 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>12:38:14.127342</t>
+          <t>13:22:18.311239</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
@@ -34117,7 +34117,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>8396377</v>
+        <v>8396397</v>
       </c>
       <c r="E822" t="n">
         <v>300165</v>
@@ -34132,7 +34132,7 @@
       </c>
       <c r="H822" t="inlineStr">
         <is>
-          <t>12:38:14.127346</t>
+          <t>13:22:18.311244</t>
         </is>
       </c>
       <c r="I822" t="inlineStr">
@@ -34158,10 +34158,10 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>35263500</v>
+        <v>35263867</v>
       </c>
       <c r="E823" t="n">
-        <v>580041</v>
+        <v>580043</v>
       </c>
       <c r="F823" t="n">
         <v>15696</v>
@@ -34173,7 +34173,7 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>12:38:14.127349</t>
+          <t>13:22:18.311248</t>
         </is>
       </c>
       <c r="I823" t="inlineStr">
@@ -34199,10 +34199,10 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>16249161</v>
+        <v>16249191</v>
       </c>
       <c r="E824" t="n">
-        <v>445853</v>
+        <v>445854</v>
       </c>
       <c r="F824" t="n">
         <v>10610</v>
@@ -34214,7 +34214,7 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>12:38:14.127353</t>
+          <t>13:22:18.311253</t>
         </is>
       </c>
       <c r="I824" t="inlineStr">
@@ -34240,10 +34240,10 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>109462430</v>
+        <v>109463145</v>
       </c>
       <c r="E825" t="n">
-        <v>1771029</v>
+        <v>1771036</v>
       </c>
       <c r="F825" t="n">
         <v>69452</v>
@@ -34255,7 +34255,7 @@
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>12:38:14.127357</t>
+          <t>13:22:18.311257</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
@@ -34281,10 +34281,10 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>48787718</v>
+        <v>48787857</v>
       </c>
       <c r="E826" t="n">
-        <v>1227440</v>
+        <v>1227445</v>
       </c>
       <c r="F826" t="n">
         <v>30774</v>
@@ -34296,7 +34296,7 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>12:38:14.127361</t>
+          <t>13:22:18.311261</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
@@ -34322,10 +34322,10 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>20886980</v>
+        <v>20887024</v>
       </c>
       <c r="E827" t="n">
-        <v>625009</v>
+        <v>625010</v>
       </c>
       <c r="F827" t="n">
         <v>19592</v>
@@ -34337,7 +34337,7 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>12:38:14.354139</t>
+          <t>13:22:18.615639</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>4603229</v>
+        <v>4603233</v>
       </c>
       <c r="E828" t="n">
         <v>204543</v>
@@ -34378,7 +34378,7 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>12:38:14.354159</t>
+          <t>13:22:18.615670</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
@@ -34404,7 +34404,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>4521871</v>
+        <v>4521875</v>
       </c>
       <c r="E829" t="n">
         <v>211980</v>
@@ -34419,7 +34419,7 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>12:38:14.354163</t>
+          <t>13:22:18.615677</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
@@ -34445,7 +34445,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>7130873</v>
+        <v>7130876</v>
       </c>
       <c r="E830" t="n">
         <v>308280</v>
@@ -34460,7 +34460,7 @@
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>12:38:14.354167</t>
+          <t>13:22:18.615684</t>
         </is>
       </c>
       <c r="I830" t="inlineStr">
@@ -34486,10 +34486,10 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>31715635</v>
+        <v>31715680</v>
       </c>
       <c r="E831" t="n">
-        <v>750858</v>
+        <v>750859</v>
       </c>
       <c r="F831" t="n">
         <v>23566</v>
@@ -34501,7 +34501,7 @@
       </c>
       <c r="H831" t="inlineStr">
         <is>
-          <t>12:38:14.354171</t>
+          <t>13:22:18.615690</t>
         </is>
       </c>
       <c r="I831" t="inlineStr">
@@ -34527,7 +34527,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>51495493</v>
+        <v>51495595</v>
       </c>
       <c r="E832" t="n">
         <v>1046969</v>
@@ -34542,7 +34542,7 @@
       </c>
       <c r="H832" t="inlineStr">
         <is>
-          <t>12:38:14.354175</t>
+          <t>13:22:18.615696</t>
         </is>
       </c>
       <c r="I832" t="inlineStr">
@@ -34568,10 +34568,10 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>121581764</v>
+        <v>121582669</v>
       </c>
       <c r="E833" t="n">
-        <v>1968212</v>
+        <v>1968209</v>
       </c>
       <c r="F833" t="n">
         <v>39468</v>
@@ -34583,7 +34583,7 @@
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>12:38:14.354178</t>
+          <t>13:22:18.615702</t>
         </is>
       </c>
       <c r="I833" t="inlineStr">
@@ -34609,7 +34609,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>2832184</v>
+        <v>2832188</v>
       </c>
       <c r="E834" t="n">
         <v>127393</v>
@@ -34624,7 +34624,7 @@
       </c>
       <c r="H834" t="inlineStr">
         <is>
-          <t>12:38:14.354182</t>
+          <t>13:22:18.615708</t>
         </is>
       </c>
       <c r="I834" t="inlineStr">
@@ -34650,7 +34650,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>4059831</v>
+        <v>4059835</v>
       </c>
       <c r="E835" t="n">
         <v>199385</v>
@@ -34665,7 +34665,7 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>12:38:14.354185</t>
+          <t>13:22:18.615714</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
@@ -34691,10 +34691,10 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>6876184</v>
+        <v>6876201</v>
       </c>
       <c r="E836" t="n">
-        <v>269509</v>
+        <v>269511</v>
       </c>
       <c r="F836" t="n">
         <v>7413</v>
@@ -34706,7 +34706,7 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>12:38:14.354191</t>
+          <t>13:22:18.615722</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
@@ -34732,7 +34732,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>13585447</v>
+        <v>13585572</v>
       </c>
       <c r="E837" t="n">
         <v>366237</v>
@@ -34747,7 +34747,7 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>12:38:14.354194</t>
+          <t>13:22:18.615728</t>
         </is>
       </c>
       <c r="I837" t="inlineStr">
@@ -34773,10 +34773,10 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>77753185</v>
+        <v>77753348</v>
       </c>
       <c r="E838" t="n">
-        <v>1372894</v>
+        <v>1372899</v>
       </c>
       <c r="F838" t="n">
         <v>35272</v>
@@ -34788,7 +34788,7 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>12:38:14.354198</t>
+          <t>13:22:18.615734</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
@@ -34814,10 +34814,10 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>22429255</v>
+        <v>22429311</v>
       </c>
       <c r="E839" t="n">
-        <v>626797</v>
+        <v>626799</v>
       </c>
       <c r="F839" t="n">
         <v>19909</v>
@@ -34829,7 +34829,7 @@
       </c>
       <c r="H839" t="inlineStr">
         <is>
-          <t>12:38:14.354202</t>
+          <t>13:22:18.615740</t>
         </is>
       </c>
       <c r="I839" t="inlineStr">
@@ -34855,10 +34855,10 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>67250733</v>
+        <v>67251008</v>
       </c>
       <c r="E840" t="n">
-        <v>963503</v>
+        <v>963508</v>
       </c>
       <c r="F840" t="n">
         <v>32147</v>
@@ -34870,7 +34870,7 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>12:38:14.354205</t>
+          <t>13:22:18.615746</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
@@ -34896,10 +34896,10 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>6192548</v>
+        <v>6192553</v>
       </c>
       <c r="E841" t="n">
-        <v>253901</v>
+        <v>253902</v>
       </c>
       <c r="F841" t="n">
         <v>6884</v>
@@ -34911,7 +34911,7 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>12:38:14.354209</t>
+          <t>13:22:18.615752</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
@@ -34937,7 +34937,7 @@
         </is>
       </c>
       <c r="D842" t="n">
-        <v>9643983</v>
+        <v>9643992</v>
       </c>
       <c r="E842" t="n">
         <v>255285</v>
@@ -34952,7 +34952,7 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>12:38:14.354213</t>
+          <t>13:22:18.615758</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
@@ -34978,10 +34978,10 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>31563258</v>
+        <v>31563387</v>
       </c>
       <c r="E843" t="n">
-        <v>649405</v>
+        <v>649406</v>
       </c>
       <c r="F843" t="n">
         <v>20488</v>
@@ -34993,7 +34993,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>12:38:14.354216</t>
+          <t>13:22:18.615764</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -35019,7 +35019,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>60677579</v>
+        <v>60677832</v>
       </c>
       <c r="E844" t="n">
         <v>828831</v>
@@ -35034,7 +35034,7 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>12:38:14.354220</t>
+          <t>13:22:18.615770</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
@@ -35060,10 +35060,10 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>41541691</v>
+        <v>41541947</v>
       </c>
       <c r="E845" t="n">
-        <v>891475</v>
+        <v>891479</v>
       </c>
       <c r="F845" t="n">
         <v>26121</v>
@@ -35075,7 +35075,7 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>12:38:14.354223</t>
+          <t>13:22:18.615776</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
@@ -35101,10 +35101,10 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>17045824</v>
+        <v>17046069</v>
       </c>
       <c r="E846" t="n">
-        <v>540862</v>
+        <v>540865</v>
       </c>
       <c r="F846" t="n">
         <v>14615</v>
@@ -35116,7 +35116,7 @@
       </c>
       <c r="H846" t="inlineStr">
         <is>
-          <t>12:38:14.354227</t>
+          <t>13:22:18.615782</t>
         </is>
       </c>
       <c r="I846" t="inlineStr">
@@ -35142,10 +35142,10 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>48072017</v>
+        <v>48072121</v>
       </c>
       <c r="E847" t="n">
-        <v>857655</v>
+        <v>857658</v>
       </c>
       <c r="F847" t="n">
         <v>29205</v>
@@ -35157,7 +35157,7 @@
       </c>
       <c r="H847" t="inlineStr">
         <is>
-          <t>12:38:14.521775</t>
+          <t>13:22:18.806006</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
@@ -35183,10 +35183,10 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>168449580</v>
+        <v>168450666</v>
       </c>
       <c r="E848" t="n">
-        <v>2538659</v>
+        <v>2538669</v>
       </c>
       <c r="F848" t="n">
         <v>80106</v>
@@ -35198,7 +35198,7 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>12:38:14.521794</t>
+          <t>13:22:18.806038</t>
         </is>
       </c>
       <c r="I848" t="inlineStr">

--- a/CLEANED_videos_count_data.xlsx
+++ b/CLEANED_videos_count_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I848"/>
+  <dimension ref="A1:I969"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35207,6 +35207,4967 @@
         </is>
       </c>
     </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>YudHcBIxlYw</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D849" t="n">
+        <v>394955910</v>
+      </c>
+      <c r="E849" t="n">
+        <v>10139914</v>
+      </c>
+      <c r="F849" t="n">
+        <v>1345337</v>
+      </c>
+      <c r="G849" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H849" t="inlineStr">
+        <is>
+          <t>00:50:04.487436</t>
+        </is>
+      </c>
+      <c r="I849" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>POe9SOEKotk</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ M\/V</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D850" t="n">
+        <v>525503886</v>
+      </c>
+      <c r="E850" t="n">
+        <v>10841339</v>
+      </c>
+      <c r="F850" t="n">
+        <v>2238565</v>
+      </c>
+      <c r="G850" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H850" t="inlineStr">
+        <is>
+          <t>00:50:04.487459</t>
+        </is>
+      </c>
+      <c r="I850" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>gQlMMD8auMs</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ M\/V</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D851" t="n">
+        <v>735877691</v>
+      </c>
+      <c r="E851" t="n">
+        <v>16087075</v>
+      </c>
+      <c r="F851" t="n">
+        <v>3567723</v>
+      </c>
+      <c r="G851" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H851" t="inlineStr">
+        <is>
+          <t>00:50:04.487464</t>
+        </is>
+      </c>
+      <c r="I851" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>awkkyBH2zEo</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' M\/V</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D852" t="n">
+        <v>655408265</v>
+      </c>
+      <c r="E852" t="n">
+        <v>17322873</v>
+      </c>
+      <c r="F852" t="n">
+        <v>2814871</v>
+      </c>
+      <c r="G852" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H852" t="inlineStr">
+        <is>
+          <t>00:50:04.487468</t>
+        </is>
+      </c>
+      <c r="I852" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>K9_VFxzCuQ0</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' M\/V</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D853" t="n">
+        <v>268340521</v>
+      </c>
+      <c r="E853" t="n">
+        <v>7382926</v>
+      </c>
+      <c r="F853" t="n">
+        <v>1241278</v>
+      </c>
+      <c r="G853" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H853" t="inlineStr">
+        <is>
+          <t>00:50:04.487472</t>
+        </is>
+      </c>
+      <c r="I853" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>CKZvWhCqx1s</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' M\/V</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D854" t="n">
+        <v>342850970</v>
+      </c>
+      <c r="E854" t="n">
+        <v>11349260</v>
+      </c>
+      <c r="F854" t="n">
+        <v>2587119</v>
+      </c>
+      <c r="G854" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H854" t="inlineStr">
+        <is>
+          <t>00:50:04.487476</t>
+        </is>
+      </c>
+      <c r="I854" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>dyRsYk0LyA8</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' M\/V</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D855" t="n">
+        <v>709388653</v>
+      </c>
+      <c r="E855" t="n">
+        <v>15498892</v>
+      </c>
+      <c r="F855" t="n">
+        <v>2043084</v>
+      </c>
+      <c r="G855" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H855" t="inlineStr">
+        <is>
+          <t>00:50:04.487479</t>
+        </is>
+      </c>
+      <c r="I855" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>vRXZj0DzXIA</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Ice Cream (with Selena Gomez)' M\/V</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D856" t="n">
+        <v>871907533</v>
+      </c>
+      <c r="E856" t="n">
+        <v>19923480</v>
+      </c>
+      <c r="F856" t="n">
+        <v>3025899</v>
+      </c>
+      <c r="G856" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H856" t="inlineStr">
+        <is>
+          <t>00:50:04.487483</t>
+        </is>
+      </c>
+      <c r="I856" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>ioNng23DkIM</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' M\/V</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D857" t="n">
+        <v>1243328633</v>
+      </c>
+      <c r="E857" t="n">
+        <v>24755210</v>
+      </c>
+      <c r="F857" t="n">
+        <v>5097989</v>
+      </c>
+      <c r="G857" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H857" t="inlineStr">
+        <is>
+          <t>00:50:04.487487</t>
+        </is>
+      </c>
+      <c r="I857" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>2S24-y0Ij3Y</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' M\/V</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D858" t="n">
+        <v>1873672260</v>
+      </c>
+      <c r="E858" t="n">
+        <v>25018252</v>
+      </c>
+      <c r="F858" t="n">
+        <v>2479298</v>
+      </c>
+      <c r="G858" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H858" t="inlineStr">
+        <is>
+          <t>00:50:04.487490</t>
+        </is>
+      </c>
+      <c r="I858" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>b73BI9eUkjM</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' M\/V</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D859" t="n">
+        <v>961667097</v>
+      </c>
+      <c r="E859" t="n">
+        <v>14620285</v>
+      </c>
+      <c r="F859" t="n">
+        <v>2996451</v>
+      </c>
+      <c r="G859" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H859" t="inlineStr">
+        <is>
+          <t>00:50:04.487494</t>
+        </is>
+      </c>
+      <c r="I859" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>IHNzOHi8sJs</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D860" t="n">
+        <v>2124447628</v>
+      </c>
+      <c r="E860" t="n">
+        <v>23431718</v>
+      </c>
+      <c r="F860" t="n">
+        <v>3285164</v>
+      </c>
+      <c r="G860" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H860" t="inlineStr">
+        <is>
+          <t>00:50:04.487498</t>
+        </is>
+      </c>
+      <c r="I860" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>Amq-qlqbjYA</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '마지막처럼 (AS IF IT'S YOUR LAST)' M\/V</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D861" t="n">
+        <v>1322235224</v>
+      </c>
+      <c r="E861" t="n">
+        <v>13252625</v>
+      </c>
+      <c r="F861" t="n">
+        <v>1658905</v>
+      </c>
+      <c r="G861" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H861" t="inlineStr">
+        <is>
+          <t>00:50:04.487501</t>
+        </is>
+      </c>
+      <c r="I861" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>FzVR_fymZw4</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' M\/V</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D862" t="n">
+        <v>351401276</v>
+      </c>
+      <c r="E862" t="n">
+        <v>6130960</v>
+      </c>
+      <c r="F862" t="n">
+        <v>479230</v>
+      </c>
+      <c r="G862" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H862" t="inlineStr">
+        <is>
+          <t>00:50:04.487505</t>
+        </is>
+      </c>
+      <c r="I862" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>9pdj4iJD08s</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D863" t="n">
+        <v>843302899</v>
+      </c>
+      <c r="E863" t="n">
+        <v>8585921</v>
+      </c>
+      <c r="F863" t="n">
+        <v>530007</v>
+      </c>
+      <c r="G863" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H863" t="inlineStr">
+        <is>
+          <t>00:50:04.487509</t>
+        </is>
+      </c>
+      <c r="I863" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>dISNgvVpWlo</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D864" t="n">
+        <v>863626838</v>
+      </c>
+      <c r="E864" t="n">
+        <v>9963808</v>
+      </c>
+      <c r="F864" t="n">
+        <v>617177</v>
+      </c>
+      <c r="G864" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H864" t="inlineStr">
+        <is>
+          <t>00:50:04.487512</t>
+        </is>
+      </c>
+      <c r="I864" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>bwmSjveL3Lc</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' M\/V</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D865" t="n">
+        <v>1634931831</v>
+      </c>
+      <c r="E865" t="n">
+        <v>16167186</v>
+      </c>
+      <c r="F865" t="n">
+        <v>1123303</v>
+      </c>
+      <c r="G865" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H865" t="inlineStr">
+        <is>
+          <t>00:50:04.487516</t>
+        </is>
+      </c>
+      <c r="I865" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>4XZz3WXRw0A</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D866" t="n">
+        <v>123728886</v>
+      </c>
+      <c r="E866" t="n">
+        <v>2975880</v>
+      </c>
+      <c r="F866" t="n">
+        <v>96928</v>
+      </c>
+      <c r="G866" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H866" t="inlineStr">
+        <is>
+          <t>00:50:04.487519</t>
+        </is>
+      </c>
+      <c r="I866" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>RFMi3v0TXP8</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D867" t="n">
+        <v>206119616</v>
+      </c>
+      <c r="E867" t="n">
+        <v>4828017</v>
+      </c>
+      <c r="F867" t="n">
+        <v>132895</v>
+      </c>
+      <c r="G867" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>00:50:04.487527</t>
+        </is>
+      </c>
+      <c r="I867" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>fr-eHz87XoM</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D868" t="n">
+        <v>116674692</v>
+      </c>
+      <c r="E868" t="n">
+        <v>3695587</v>
+      </c>
+      <c r="F868" t="n">
+        <v>82395</v>
+      </c>
+      <c r="G868" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>00:50:04.763116</t>
+        </is>
+      </c>
+      <c r="I868" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>ZJ6QQLDIzrI</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D869" t="n">
+        <v>86417661</v>
+      </c>
+      <c r="E869" t="n">
+        <v>3023222</v>
+      </c>
+      <c r="F869" t="n">
+        <v>67345</v>
+      </c>
+      <c r="G869" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H869" t="inlineStr">
+        <is>
+          <t>00:50:04.763136</t>
+        </is>
+      </c>
+      <c r="I869" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>z6CSW2yu8Mg</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' Dance Performance</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D870" t="n">
+        <v>108983491</v>
+      </c>
+      <c r="E870" t="n">
+        <v>3340540</v>
+      </c>
+      <c r="F870" t="n">
+        <v>145776</v>
+      </c>
+      <c r="G870" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H870" t="inlineStr">
+        <is>
+          <t>00:50:04.763140</t>
+        </is>
+      </c>
+      <c r="I870" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>YxksUfnuEbI</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D871" t="n">
+        <v>289758703</v>
+      </c>
+      <c r="E871" t="n">
+        <v>5549879</v>
+      </c>
+      <c r="F871" t="n">
+        <v>230030</v>
+      </c>
+      <c r="G871" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>00:50:04.763144</t>
+        </is>
+      </c>
+      <c r="I871" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>32si5cfrCNc</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D872" t="n">
+        <v>1499767626</v>
+      </c>
+      <c r="E872" t="n">
+        <v>17795145</v>
+      </c>
+      <c r="F872" t="n">
+        <v>926053</v>
+      </c>
+      <c r="G872" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>00:50:04.763148</t>
+        </is>
+      </c>
+      <c r="I872" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>kqXGnxJ-S3k</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>JENNIE - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D873" t="n">
+        <v>11022037</v>
+      </c>
+      <c r="E873" t="n">
+        <v>953066</v>
+      </c>
+      <c r="F873" t="n">
+        <v>26985</v>
+      </c>
+      <c r="G873" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>00:50:04.763152</t>
+        </is>
+      </c>
+      <c r="I873" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>bqzDuRz_P7g</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Don't Know What To Do' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D874" t="n">
+        <v>311717035</v>
+      </c>
+      <c r="E874" t="n">
+        <v>4280671</v>
+      </c>
+      <c r="F874" t="n">
+        <v>118663</v>
+      </c>
+      <c r="G874" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>00:50:04.763155</t>
+        </is>
+      </c>
+      <c r="I874" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>MOwaUlXZxkI</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D875" t="n">
+        <v>490846683</v>
+      </c>
+      <c r="E875" t="n">
+        <v>6137382</v>
+      </c>
+      <c r="F875" t="n">
+        <v>169507</v>
+      </c>
+      <c r="G875" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>00:50:04.763160</t>
+        </is>
+      </c>
+      <c r="I875" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>Ws5SOMeA3_E</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D876" t="n">
+        <v>16054170</v>
+      </c>
+      <c r="E876" t="n">
+        <v>752866</v>
+      </c>
+      <c r="F876" t="n">
+        <v>18786</v>
+      </c>
+      <c r="G876" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>00:50:04.763163</t>
+        </is>
+      </c>
+      <c r="I876" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>k-wmRTFVwPA</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY ALTERNATE EDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D877" t="n">
+        <v>3969668</v>
+      </c>
+      <c r="E877" t="n">
+        <v>260108</v>
+      </c>
+      <c r="F877" t="n">
+        <v>4715</v>
+      </c>
+      <c r="G877" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>00:50:04.763167</t>
+        </is>
+      </c>
+      <c r="I877" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>vdDuCvCrcKg</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY UNEDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D878" t="n">
+        <v>277564613</v>
+      </c>
+      <c r="E878" t="n">
+        <v>4398093</v>
+      </c>
+      <c r="F878" t="n">
+        <v>200128</v>
+      </c>
+      <c r="G878" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>00:50:04.763171</t>
+        </is>
+      </c>
+      <c r="I878" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>89kTb73csYg</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Forever Young' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D879" t="n">
+        <v>233979742</v>
+      </c>
+      <c r="E879" t="n">
+        <v>3952698</v>
+      </c>
+      <c r="F879" t="n">
+        <v>125678</v>
+      </c>
+      <c r="G879" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>00:50:04.763174</t>
+        </is>
+      </c>
+      <c r="I879" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>jOJbXvjZ-cQ</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D880" t="n">
+        <v>493466258</v>
+      </c>
+      <c r="E880" t="n">
+        <v>5635383</v>
+      </c>
+      <c r="F880" t="n">
+        <v>183863</v>
+      </c>
+      <c r="G880" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>00:50:04.763178</t>
+        </is>
+      </c>
+      <c r="I880" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>hKUJmA9O6iA</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D881" t="n">
+        <v>282437716</v>
+      </c>
+      <c r="E881" t="n">
+        <v>3059770</v>
+      </c>
+      <c r="F881" t="n">
+        <v>76115</v>
+      </c>
+      <c r="G881" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>00:50:04.763181</t>
+        </is>
+      </c>
+      <c r="I881" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>NvWfJTbrTBY</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난(PLAYING WITH FIRE)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D882" t="n">
+        <v>217841652</v>
+      </c>
+      <c r="E882" t="n">
+        <v>2361741</v>
+      </c>
+      <c r="F882" t="n">
+        <v>61939</v>
+      </c>
+      <c r="G882" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>00:50:04.763185</t>
+        </is>
+      </c>
+      <c r="I882" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>ivoS3HUJB3Q</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D883" t="n">
+        <v>299032577</v>
+      </c>
+      <c r="E883" t="n">
+        <v>3121250</v>
+      </c>
+      <c r="F883" t="n">
+        <v>76182</v>
+      </c>
+      <c r="G883" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>00:50:04.763189</t>
+        </is>
+      </c>
+      <c r="I883" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>1kYrp_Bs8DU</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D884" t="n">
+        <v>180153426</v>
+      </c>
+      <c r="E884" t="n">
+        <v>2117748</v>
+      </c>
+      <c r="F884" t="n">
+        <v>57160</v>
+      </c>
+      <c r="G884" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>00:50:04.763192</t>
+        </is>
+      </c>
+      <c r="I884" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>3fg8pyLKvXE</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>BLACKPINK - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D885" t="n">
+        <v>87126386</v>
+      </c>
+      <c r="E885" t="n">
+        <v>2893589</v>
+      </c>
+      <c r="F885" t="n">
+        <v>90145</v>
+      </c>
+      <c r="G885" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>00:50:04.763196</t>
+        </is>
+      </c>
+      <c r="I885" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>VLpUsmBafMQ</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D886" t="n">
+        <v>32758802</v>
+      </c>
+      <c r="E886" t="n">
+        <v>708083</v>
+      </c>
+      <c r="F886" t="n">
+        <v>14171</v>
+      </c>
+      <c r="G886" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>00:50:04.763199</t>
+        </is>
+      </c>
+      <c r="I886" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>z9tifvQSu-g</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Typa Girl’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D887" t="n">
+        <v>56603894</v>
+      </c>
+      <c r="E887" t="n">
+        <v>1229573</v>
+      </c>
+      <c r="F887" t="n">
+        <v>21897</v>
+      </c>
+      <c r="G887" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>00:50:04.763203</t>
+        </is>
+      </c>
+      <c r="I887" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>NpVJidAKOqc</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D888" t="n">
+        <v>24026019</v>
+      </c>
+      <c r="E888" t="n">
+        <v>632822</v>
+      </c>
+      <c r="F888" t="n">
+        <v>11412</v>
+      </c>
+      <c r="G888" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>00:50:05.057270</t>
+        </is>
+      </c>
+      <c r="I888" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>PjrAwC4TIPA</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D889" t="n">
+        <v>153922000</v>
+      </c>
+      <c r="E889" t="n">
+        <v>3740877</v>
+      </c>
+      <c r="F889" t="n">
+        <v>98740</v>
+      </c>
+      <c r="G889" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>00:50:05.057293</t>
+        </is>
+      </c>
+      <c r="I889" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>RkKXbweBCcI</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D890" t="n">
+        <v>44967764</v>
+      </c>
+      <c r="E890" t="n">
+        <v>2782954</v>
+      </c>
+      <c r="F890" t="n">
+        <v>60711</v>
+      </c>
+      <c r="G890" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>00:50:05.057297</t>
+        </is>
+      </c>
+      <c r="I890" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>aEiznLJCb9o</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' 0926 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D891" t="n">
+        <v>21689025</v>
+      </c>
+      <c r="E891" t="n">
+        <v>1461631</v>
+      </c>
+      <c r="F891" t="n">
+        <v>41795</v>
+      </c>
+      <c r="G891" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>00:50:05.057301</t>
+        </is>
+      </c>
+      <c r="I891" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>dNCWe_6HAM8</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' EXCLUSIVE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D892" t="n">
+        <v>904367665</v>
+      </c>
+      <c r="E892" t="n">
+        <v>13992818</v>
+      </c>
+      <c r="F892" t="n">
+        <v>931164</v>
+      </c>
+      <c r="G892" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H892" t="inlineStr">
+        <is>
+          <t>00:50:05.057305</t>
+        </is>
+      </c>
+      <c r="I892" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>08x_TcTyw8o</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D893" t="n">
+        <v>93490620</v>
+      </c>
+      <c r="E893" t="n">
+        <v>3541356</v>
+      </c>
+      <c r="F893" t="n">
+        <v>94885</v>
+      </c>
+      <c r="G893" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>00:50:05.057308</t>
+        </is>
+      </c>
+      <c r="I893" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>kZZYkrDWUls</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0404 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D894" t="n">
+        <v>6093797</v>
+      </c>
+      <c r="E894" t="n">
+        <v>553240</v>
+      </c>
+      <c r="F894" t="n">
+        <v>24567</v>
+      </c>
+      <c r="G894" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>00:50:05.057312</t>
+        </is>
+      </c>
+      <c r="I894" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>VFBj5sWfbH4</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0328 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D895" t="n">
+        <v>6141878</v>
+      </c>
+      <c r="E895" t="n">
+        <v>581991</v>
+      </c>
+      <c r="F895" t="n">
+        <v>24770</v>
+      </c>
+      <c r="G895" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H895" t="inlineStr">
+        <is>
+          <t>00:50:05.057315</t>
+        </is>
+      </c>
+      <c r="I895" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>AkISOALL8Cw</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0321 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D896" t="n">
+        <v>10836081</v>
+      </c>
+      <c r="E896" t="n">
+        <v>826822</v>
+      </c>
+      <c r="F896" t="n">
+        <v>29967</v>
+      </c>
+      <c r="G896" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H896" t="inlineStr">
+        <is>
+          <t>00:50:05.057319</t>
+        </is>
+      </c>
+      <c r="I896" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>Q88P1gpOJxA</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D897" t="n">
+        <v>27017146</v>
+      </c>
+      <c r="E897" t="n">
+        <v>2005957</v>
+      </c>
+      <c r="F897" t="n">
+        <v>75623</v>
+      </c>
+      <c r="G897" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H897" t="inlineStr">
+        <is>
+          <t>00:50:05.057322</t>
+        </is>
+      </c>
+      <c r="I897" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>fjp4thii1WY</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D898" t="n">
+        <v>14335397</v>
+      </c>
+      <c r="E898" t="n">
+        <v>1440912</v>
+      </c>
+      <c r="F898" t="n">
+        <v>45877</v>
+      </c>
+      <c r="G898" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>00:50:05.057326</t>
+        </is>
+      </c>
+      <c r="I898" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>MBStYsiE618</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1025 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D899" t="n">
+        <v>31334832</v>
+      </c>
+      <c r="E899" t="n">
+        <v>1431861</v>
+      </c>
+      <c r="F899" t="n">
+        <v>52485</v>
+      </c>
+      <c r="G899" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H899" t="inlineStr">
+        <is>
+          <t>00:50:05.057330</t>
+        </is>
+      </c>
+      <c r="I899" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>3l5jwqPT2yk</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' Jimmy Kimmel Live</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D900" t="n">
+        <v>55982920</v>
+      </c>
+      <c r="E900" t="n">
+        <v>2213111</v>
+      </c>
+      <c r="F900" t="n">
+        <v>58859</v>
+      </c>
+      <c r="G900" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H900" t="inlineStr">
+        <is>
+          <t>00:50:05.057333</t>
+        </is>
+      </c>
+      <c r="I900" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>UcvYlihruvo</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1018 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D901" t="n">
+        <v>8768934</v>
+      </c>
+      <c r="E901" t="n">
+        <v>759288</v>
+      </c>
+      <c r="F901" t="n">
+        <v>27521</v>
+      </c>
+      <c r="G901" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H901" t="inlineStr">
+        <is>
+          <t>00:50:05.057337</t>
+        </is>
+      </c>
+      <c r="I901" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>Fwg9-MXdBYA</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1011 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D902" t="n">
+        <v>15882281</v>
+      </c>
+      <c r="E902" t="n">
+        <v>1286640</v>
+      </c>
+      <c r="F902" t="n">
+        <v>35233</v>
+      </c>
+      <c r="G902" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H902" t="inlineStr">
+        <is>
+          <t>00:50:05.057340</t>
+        </is>
+      </c>
+      <c r="I902" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>gU2HqP4NxUs</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ 1011 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D903" t="n">
+        <v>325624281</v>
+      </c>
+      <c r="E903" t="n">
+        <v>5159644</v>
+      </c>
+      <c r="F903" t="n">
+        <v>142951</v>
+      </c>
+      <c r="G903" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>00:50:05.057344</t>
+        </is>
+      </c>
+      <c r="I903" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>7PpUuLYWcs8</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0719 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D904" t="n">
+        <v>12822433</v>
+      </c>
+      <c r="E904" t="n">
+        <v>812075</v>
+      </c>
+      <c r="F904" t="n">
+        <v>28756</v>
+      </c>
+      <c r="G904" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H904" t="inlineStr">
+        <is>
+          <t>00:50:05.057347</t>
+        </is>
+      </c>
+      <c r="I904" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>04lxLDmFaOE</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0712 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D905" t="n">
+        <v>10329328</v>
+      </c>
+      <c r="E905" t="n">
+        <v>832122</v>
+      </c>
+      <c r="F905" t="n">
+        <v>37853</v>
+      </c>
+      <c r="G905" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>00:50:05.057351</t>
+        </is>
+      </c>
+      <c r="I905" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>JLOwA3o6Zr0</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0705 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D906" t="n">
+        <v>13436284</v>
+      </c>
+      <c r="E906" t="n">
+        <v>971698</v>
+      </c>
+      <c r="F906" t="n">
+        <v>36167</v>
+      </c>
+      <c r="G906" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>00:50:05.057355</t>
+        </is>
+      </c>
+      <c r="I906" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>t0RcZWn085g</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0628 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D907" t="n">
+        <v>52025799</v>
+      </c>
+      <c r="E907" t="n">
+        <v>2286299</v>
+      </c>
+      <c r="F907" t="n">
+        <v>59219</v>
+      </c>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>00:50:05.057359</t>
+        </is>
+      </c>
+      <c r="I907" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>tOCUE8wRQYY</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>BLACKPINK ‐ Kill This Love -JP Ver.- Live at BLACKPINK 2019-2020 WORLD TOUR IN YOUR AREA-TOKYO DOME-</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D908" t="n">
+        <v>37025474</v>
+      </c>
+      <c r="E908" t="n">
+        <v>1228681</v>
+      </c>
+      <c r="F908" t="n">
+        <v>44968</v>
+      </c>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>00:50:05.290882</t>
+        </is>
+      </c>
+      <c r="I908" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>-6XwN_wu3KU</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D909" t="n">
+        <v>24859523</v>
+      </c>
+      <c r="E909" t="n">
+        <v>1077101</v>
+      </c>
+      <c r="F909" t="n">
+        <v>26100</v>
+      </c>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>00:50:05.290903</t>
+        </is>
+      </c>
+      <c r="I909" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>_HhAzr5DLik</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D910" t="n">
+        <v>14535662</v>
+      </c>
+      <c r="E910" t="n">
+        <v>700367</v>
+      </c>
+      <c r="F910" t="n">
+        <v>22471</v>
+      </c>
+      <c r="G910" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>00:50:05.290907</t>
+        </is>
+      </c>
+      <c r="I910" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>a5gUds01aXY</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' 2019 Coachella Live Performance</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D911" t="n">
+        <v>50633391</v>
+      </c>
+      <c r="E911" t="n">
+        <v>1886976</v>
+      </c>
+      <c r="F911" t="n">
+        <v>89634</v>
+      </c>
+      <c r="G911" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>00:50:05.290910</t>
+        </is>
+      </c>
+      <c r="I911" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>vx9CSpnROfs</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0414 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D912" t="n">
+        <v>121194030</v>
+      </c>
+      <c r="E912" t="n">
+        <v>2330418</v>
+      </c>
+      <c r="F912" t="n">
+        <v>54743</v>
+      </c>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>00:50:05.290914</t>
+        </is>
+      </c>
+      <c r="I912" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>RgI8UNOqczE</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D913" t="n">
+        <v>11375676</v>
+      </c>
+      <c r="E913" t="n">
+        <v>502552</v>
+      </c>
+      <c r="F913" t="n">
+        <v>16975</v>
+      </c>
+      <c r="G913" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>00:50:05.290918</t>
+        </is>
+      </c>
+      <c r="I913" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>sL175y19MUU</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D914" t="n">
+        <v>12338735</v>
+      </c>
+      <c r="E914" t="n">
+        <v>463513</v>
+      </c>
+      <c r="F914" t="n">
+        <v>11735</v>
+      </c>
+      <c r="G914" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>00:50:05.290922</t>
+        </is>
+      </c>
+      <c r="I914" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>GXBDwS2Tizo</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D915" t="n">
+        <v>22243555</v>
+      </c>
+      <c r="E915" t="n">
+        <v>1033708</v>
+      </c>
+      <c r="F915" t="n">
+        <v>26525</v>
+      </c>
+      <c r="G915" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H915" t="inlineStr">
+        <is>
+          <t>00:50:05.290925</t>
+        </is>
+      </c>
+      <c r="I915" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>rt6G9Vwt1xc</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D916" t="n">
+        <v>17934248</v>
+      </c>
+      <c r="E916" t="n">
+        <v>794003</v>
+      </c>
+      <c r="F916" t="n">
+        <v>24505</v>
+      </c>
+      <c r="G916" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H916" t="inlineStr">
+        <is>
+          <t>00:50:05.290929</t>
+        </is>
+      </c>
+      <c r="I916" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>MkG24J87IUk</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D917" t="n">
+        <v>49492653</v>
+      </c>
+      <c r="E917" t="n">
+        <v>1709823</v>
+      </c>
+      <c r="F917" t="n">
+        <v>46451</v>
+      </c>
+      <c r="G917" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H917" t="inlineStr">
+        <is>
+          <t>00:50:05.290932</t>
+        </is>
+      </c>
+      <c r="I917" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>o4GHoqGtRkg</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Don't Know What To Do’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D918" t="n">
+        <v>67642547</v>
+      </c>
+      <c r="E918" t="n">
+        <v>1722131</v>
+      </c>
+      <c r="F918" t="n">
+        <v>48437</v>
+      </c>
+      <c r="G918" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H918" t="inlineStr">
+        <is>
+          <t>00:50:05.290936</t>
+        </is>
+      </c>
+      <c r="I918" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>cxNIewNXpcg</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SOLO' + '뚜두뚜두(DDU-DU DDU-DU)' + 'FOREVER YOUNG' in 2018 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D919" t="n">
+        <v>383279014</v>
+      </c>
+      <c r="E919" t="n">
+        <v>6189415</v>
+      </c>
+      <c r="F919" t="n">
+        <v>209131</v>
+      </c>
+      <c r="G919" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H919" t="inlineStr">
+        <is>
+          <t>00:50:05.290939</t>
+        </is>
+      </c>
+      <c r="I919" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>7nukOecMf-U</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1216 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D920" t="n">
+        <v>4905226</v>
+      </c>
+      <c r="E920" t="n">
+        <v>224807</v>
+      </c>
+      <c r="F920" t="n">
+        <v>7750</v>
+      </c>
+      <c r="G920" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H920" t="inlineStr">
+        <is>
+          <t>00:50:05.290943</t>
+        </is>
+      </c>
+      <c r="I920" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>CPSH3ljpkZ4</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1209 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D921" t="n">
+        <v>13090173</v>
+      </c>
+      <c r="E921" t="n">
+        <v>413065</v>
+      </c>
+      <c r="F921" t="n">
+        <v>13155</v>
+      </c>
+      <c r="G921" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>00:50:05.290947</t>
+        </is>
+      </c>
+      <c r="I921" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>hxDXhh2sE1g</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1202 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D922" t="n">
+        <v>5929034</v>
+      </c>
+      <c r="E922" t="n">
+        <v>253716</v>
+      </c>
+      <c r="F922" t="n">
+        <v>9487</v>
+      </c>
+      <c r="G922" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>00:50:05.290950</t>
+        </is>
+      </c>
+      <c r="I922" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>smimdoBjeAE</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1125 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D923" t="n">
+        <v>17101761</v>
+      </c>
+      <c r="E923" t="n">
+        <v>676338</v>
+      </c>
+      <c r="F923" t="n">
+        <v>25617</v>
+      </c>
+      <c r="G923" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>00:50:05.290954</t>
+        </is>
+      </c>
+      <c r="I923" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>N1C_G3sfzXo</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' PERFORMANCE [IN YOUR AREA] SEOUL</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D924" t="n">
+        <v>29701894</v>
+      </c>
+      <c r="E924" t="n">
+        <v>1034230</v>
+      </c>
+      <c r="F924" t="n">
+        <v>26372</v>
+      </c>
+      <c r="G924" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>00:50:05.290957</t>
+        </is>
+      </c>
+      <c r="I924" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>5hwepTxNKtE</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0805 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D925" t="n">
+        <v>72758053</v>
+      </c>
+      <c r="E925" t="n">
+        <v>1183588</v>
+      </c>
+      <c r="F925" t="n">
+        <v>44060</v>
+      </c>
+      <c r="G925" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>00:50:05.290961</t>
+        </is>
+      </c>
+      <c r="I925" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>4KRdmXcJWQU</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D926" t="n">
+        <v>8759444</v>
+      </c>
+      <c r="E926" t="n">
+        <v>416007</v>
+      </c>
+      <c r="F926" t="n">
+        <v>11729</v>
+      </c>
+      <c r="G926" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>00:50:05.290965</t>
+        </is>
+      </c>
+      <c r="I926" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>HhyRAPKiXi4</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D927" t="n">
+        <v>3983287</v>
+      </c>
+      <c r="E927" t="n">
+        <v>203216</v>
+      </c>
+      <c r="F927" t="n">
+        <v>7211</v>
+      </c>
+      <c r="G927" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>00:50:05.290968</t>
+        </is>
+      </c>
+      <c r="I927" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>PMsBMoc9eFg</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0722 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D928" t="n">
+        <v>12210864</v>
+      </c>
+      <c r="E928" t="n">
+        <v>439706</v>
+      </c>
+      <c r="F928" t="n">
+        <v>19912</v>
+      </c>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>00:50:05.546441</t>
+        </is>
+      </c>
+      <c r="I928" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>xqWjJP_WT-0</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D929" t="n">
+        <v>13205348</v>
+      </c>
+      <c r="E929" t="n">
+        <v>687675</v>
+      </c>
+      <c r="F929" t="n">
+        <v>24679</v>
+      </c>
+      <c r="G929" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>00:50:05.546462</t>
+        </is>
+      </c>
+      <c r="I929" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>WaIGc9QmV2w</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D930" t="n">
+        <v>3356957</v>
+      </c>
+      <c r="E930" t="n">
+        <v>185626</v>
+      </c>
+      <c r="F930" t="n">
+        <v>7354</v>
+      </c>
+      <c r="G930" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>00:50:05.546467</t>
+        </is>
+      </c>
+      <c r="I930" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>67otJZ6qe9Y</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0715 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D931" t="n">
+        <v>44030942</v>
+      </c>
+      <c r="E931" t="n">
+        <v>981193</v>
+      </c>
+      <c r="F931" t="n">
+        <v>33562</v>
+      </c>
+      <c r="G931" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H931" t="inlineStr">
+        <is>
+          <t>00:50:05.546470</t>
+        </is>
+      </c>
+      <c r="I931" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>PZ5t29qgGAM</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D932" t="n">
+        <v>11318851</v>
+      </c>
+      <c r="E932" t="n">
+        <v>511266</v>
+      </c>
+      <c r="F932" t="n">
+        <v>18488</v>
+      </c>
+      <c r="G932" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H932" t="inlineStr">
+        <is>
+          <t>00:50:05.546474</t>
+        </is>
+      </c>
+      <c r="I932" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>dEnDjgoLLY4</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D933" t="n">
+        <v>6470861</v>
+      </c>
+      <c r="E933" t="n">
+        <v>327017</v>
+      </c>
+      <c r="F933" t="n">
+        <v>12289</v>
+      </c>
+      <c r="G933" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H933" t="inlineStr">
+        <is>
+          <t>00:50:05.546478</t>
+        </is>
+      </c>
+      <c r="I933" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>0uje7GB8Azk</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D934" t="n">
+        <v>10021300</v>
+      </c>
+      <c r="E934" t="n">
+        <v>351682</v>
+      </c>
+      <c r="F934" t="n">
+        <v>13470</v>
+      </c>
+      <c r="G934" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H934" t="inlineStr">
+        <is>
+          <t>00:50:05.546481</t>
+        </is>
+      </c>
+      <c r="I934" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>F6IR7luozPw</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0708 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D935" t="n">
+        <v>3908191</v>
+      </c>
+      <c r="E935" t="n">
+        <v>226801</v>
+      </c>
+      <c r="F935" t="n">
+        <v>12155</v>
+      </c>
+      <c r="G935" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>00:50:05.546485</t>
+        </is>
+      </c>
+      <c r="I935" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>rw2-h5JNLqM</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D936" t="n">
+        <v>15135034</v>
+      </c>
+      <c r="E936" t="n">
+        <v>692909</v>
+      </c>
+      <c r="F936" t="n">
+        <v>22354</v>
+      </c>
+      <c r="G936" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>00:50:05.546488</t>
+        </is>
+      </c>
+      <c r="I936" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>TIOCHR0OxOQ</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0701 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D937" t="n">
+        <v>4462892</v>
+      </c>
+      <c r="E937" t="n">
+        <v>260870</v>
+      </c>
+      <c r="F937" t="n">
+        <v>14771</v>
+      </c>
+      <c r="G937" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H937" t="inlineStr">
+        <is>
+          <t>00:50:05.546492</t>
+        </is>
+      </c>
+      <c r="I937" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>PUcGXTSCRLA</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0624 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D938" t="n">
+        <v>7591576</v>
+      </c>
+      <c r="E938" t="n">
+        <v>351503</v>
+      </c>
+      <c r="F938" t="n">
+        <v>13062</v>
+      </c>
+      <c r="G938" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H938" t="inlineStr">
+        <is>
+          <t>00:50:05.546495</t>
+        </is>
+      </c>
+      <c r="I938" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>b5dUYf_uPaY</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D939" t="n">
+        <v>44049513</v>
+      </c>
+      <c r="E939" t="n">
+        <v>1105902</v>
+      </c>
+      <c r="F939" t="n">
+        <v>33820</v>
+      </c>
+      <c r="G939" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>00:50:05.546499</t>
+        </is>
+      </c>
+      <c r="I939" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>n7ukhNJvQ8s</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D940" t="n">
+        <v>63820730</v>
+      </c>
+      <c r="E940" t="n">
+        <v>1131900</v>
+      </c>
+      <c r="F940" t="n">
+        <v>40078</v>
+      </c>
+      <c r="G940" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H940" t="inlineStr">
+        <is>
+          <t>00:50:05.546502</t>
+        </is>
+      </c>
+      <c r="I940" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>f1xIeTCgoFk</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>BLACKPINK - INTRO +  ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2018 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D941" t="n">
+        <v>35622509</v>
+      </c>
+      <c r="E941" t="n">
+        <v>772689</v>
+      </c>
+      <c r="F941" t="n">
+        <v>23949</v>
+      </c>
+      <c r="G941" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H941" t="inlineStr">
+        <is>
+          <t>00:50:05.546506</t>
+        </is>
+      </c>
+      <c r="I941" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>skIfzl96Gc0</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SO HOT' (THEBLACKLABEL Remix) in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D942" t="n">
+        <v>87621533</v>
+      </c>
+      <c r="E942" t="n">
+        <v>2154413</v>
+      </c>
+      <c r="F942" t="n">
+        <v>63133</v>
+      </c>
+      <c r="G942" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>00:50:05.546510</t>
+        </is>
+      </c>
+      <c r="I942" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>PoHD4wfwC6Y</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D943" t="n">
+        <v>8396627</v>
+      </c>
+      <c r="E943" t="n">
+        <v>300167</v>
+      </c>
+      <c r="F943" t="n">
+        <v>7160</v>
+      </c>
+      <c r="G943" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H943" t="inlineStr">
+        <is>
+          <t>00:50:05.546513</t>
+        </is>
+      </c>
+      <c r="I943" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>wwuZtpS8FNI</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 1001 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D944" t="n">
+        <v>35267766</v>
+      </c>
+      <c r="E944" t="n">
+        <v>580072</v>
+      </c>
+      <c r="F944" t="n">
+        <v>15697</v>
+      </c>
+      <c r="G944" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>00:50:05.546517</t>
+        </is>
+      </c>
+      <c r="I944" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>GE7x2fVVsXM</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>BLACKPINK - OPENING MEDLDY 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D945" t="n">
+        <v>16249673</v>
+      </c>
+      <c r="E945" t="n">
+        <v>445870</v>
+      </c>
+      <c r="F945" t="n">
+        <v>10610</v>
+      </c>
+      <c r="G945" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H945" t="inlineStr">
+        <is>
+          <t>00:50:05.546520</t>
+        </is>
+      </c>
+      <c r="I945" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>_7TMluHVx4Y</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SURE THING (Miguel)' COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D946" t="n">
+        <v>109474296</v>
+      </c>
+      <c r="E946" t="n">
+        <v>1771164</v>
+      </c>
+      <c r="F946" t="n">
+        <v>69454</v>
+      </c>
+      <c r="G946" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H946" t="inlineStr">
+        <is>
+          <t>00:50:05.546524</t>
+        </is>
+      </c>
+      <c r="I946" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>X3P6dnL2OyY</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'PARTITION (Beyonce)' DANCE COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D947" t="n">
+        <v>48790036</v>
+      </c>
+      <c r="E947" t="n">
+        <v>1227505</v>
+      </c>
+      <c r="F947" t="n">
+        <v>30773</v>
+      </c>
+      <c r="G947" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H947" t="inlineStr">
+        <is>
+          <t>00:50:05.546528</t>
+        </is>
+      </c>
+      <c r="I947" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>RczrR4FVKzg</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST) Remix ver.' 0723 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D948" t="n">
+        <v>20887682</v>
+      </c>
+      <c r="E948" t="n">
+        <v>625032</v>
+      </c>
+      <c r="F948" t="n">
+        <v>19592</v>
+      </c>
+      <c r="G948" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H948" t="inlineStr">
+        <is>
+          <t>00:50:05.803255</t>
+        </is>
+      </c>
+      <c r="I948" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>vW1PeCzs7Sg</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0716 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D949" t="n">
+        <v>4603277</v>
+      </c>
+      <c r="E949" t="n">
+        <v>204548</v>
+      </c>
+      <c r="F949" t="n">
+        <v>6755</v>
+      </c>
+      <c r="G949" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H949" t="inlineStr">
+        <is>
+          <t>00:50:05.803276</t>
+        </is>
+      </c>
+      <c r="I949" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>ZL8LqlKtpVE</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0709 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D950" t="n">
+        <v>4521941</v>
+      </c>
+      <c r="E950" t="n">
+        <v>211982</v>
+      </c>
+      <c r="F950" t="n">
+        <v>6455</v>
+      </c>
+      <c r="G950" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H950" t="inlineStr">
+        <is>
+          <t>00:50:05.803281</t>
+        </is>
+      </c>
+      <c r="I950" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>fWOAe_xXTQs</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0702 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D951" t="n">
+        <v>7130973</v>
+      </c>
+      <c r="E951" t="n">
+        <v>308282</v>
+      </c>
+      <c r="F951" t="n">
+        <v>11345</v>
+      </c>
+      <c r="G951" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H951" t="inlineStr">
+        <is>
+          <t>00:50:05.803284</t>
+        </is>
+      </c>
+      <c r="I951" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>TWRSR7y1288</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0625 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D952" t="n">
+        <v>31716457</v>
+      </c>
+      <c r="E952" t="n">
+        <v>750873</v>
+      </c>
+      <c r="F952" t="n">
+        <v>23566</v>
+      </c>
+      <c r="G952" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H952" t="inlineStr">
+        <is>
+          <t>00:50:05.803288</t>
+        </is>
+      </c>
+      <c r="I952" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>VQLn90MACUQ</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난 (PLAYING WITH FIRE)’ + ‘붐바야 (BOOMBAYAH)’  in 2017 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D953" t="n">
+        <v>51497266</v>
+      </c>
+      <c r="E953" t="n">
+        <v>1046989</v>
+      </c>
+      <c r="F953" t="n">
+        <v>22140</v>
+      </c>
+      <c r="G953" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H953" t="inlineStr">
+        <is>
+          <t>00:50:05.803291</t>
+        </is>
+      </c>
+      <c r="I953" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>_paRxWTIyAo</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D954" t="n">
+        <v>121592875</v>
+      </c>
+      <c r="E954" t="n">
+        <v>1968262</v>
+      </c>
+      <c r="F954" t="n">
+        <v>39469</v>
+      </c>
+      <c r="G954" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H954" t="inlineStr">
+        <is>
+          <t>00:50:05.803295</t>
+        </is>
+      </c>
+      <c r="I954" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>FOv-Rsp1LS0</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - Interview(마지막 무대 인사) + '불장난(PLAYING WITH FIRE)' 1211 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D955" t="n">
+        <v>2832251</v>
+      </c>
+      <c r="E955" t="n">
+        <v>127396</v>
+      </c>
+      <c r="F955" t="n">
+        <v>5447</v>
+      </c>
+      <c r="G955" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H955" t="inlineStr">
+        <is>
+          <t>00:50:05.803298</t>
+        </is>
+      </c>
+      <c r="I955" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>hTDRE5d5A2M</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1204 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D956" t="n">
+        <v>4059890</v>
+      </c>
+      <c r="E956" t="n">
+        <v>199385</v>
+      </c>
+      <c r="F956" t="n">
+        <v>6802</v>
+      </c>
+      <c r="G956" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H956" t="inlineStr">
+        <is>
+          <t>00:50:05.803302</t>
+        </is>
+      </c>
+      <c r="I956" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>HoAdqZW4ptY</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1127 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D957" t="n">
+        <v>6876441</v>
+      </c>
+      <c r="E957" t="n">
+        <v>269516</v>
+      </c>
+      <c r="F957" t="n">
+        <v>7413</v>
+      </c>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H957" t="inlineStr">
+        <is>
+          <t>00:50:05.803307</t>
+        </is>
+      </c>
+      <c r="I957" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>TklpzjGlqFE</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1120 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D958" t="n">
+        <v>13587831</v>
+      </c>
+      <c r="E958" t="n">
+        <v>366253</v>
+      </c>
+      <c r="F958" t="n">
+        <v>8693</v>
+      </c>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>00:50:05.803310</t>
+        </is>
+      </c>
+      <c r="I958" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>ZwVTC_686Sw</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 MELON MUSIC AWARDS</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D959" t="n">
+        <v>77755222</v>
+      </c>
+      <c r="E959" t="n">
+        <v>1372933</v>
+      </c>
+      <c r="F959" t="n">
+        <v>35272</v>
+      </c>
+      <c r="G959" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H959" t="inlineStr">
+        <is>
+          <t>00:50:05.803314</t>
+        </is>
+      </c>
+      <c r="I959" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>_NVwS4mcVYg</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D960" t="n">
+        <v>22430058</v>
+      </c>
+      <c r="E960" t="n">
+        <v>626798</v>
+      </c>
+      <c r="F960" t="n">
+        <v>19904</v>
+      </c>
+      <c r="G960" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H960" t="inlineStr">
+        <is>
+          <t>00:50:05.803317</t>
+        </is>
+      </c>
+      <c r="I960" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>5LWCPzwiN28</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D961" t="n">
+        <v>67254730</v>
+      </c>
+      <c r="E961" t="n">
+        <v>963536</v>
+      </c>
+      <c r="F961" t="n">
+        <v>32148</v>
+      </c>
+      <c r="G961" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H961" t="inlineStr">
+        <is>
+          <t>00:50:05.803321</t>
+        </is>
+      </c>
+      <c r="I961" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>o4rSRaqvHyc</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0911 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D962" t="n">
+        <v>6192673</v>
+      </c>
+      <c r="E962" t="n">
+        <v>253906</v>
+      </c>
+      <c r="F962" t="n">
+        <v>6884</v>
+      </c>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H962" t="inlineStr">
+        <is>
+          <t>00:50:05.803325</t>
+        </is>
+      </c>
+      <c r="I962" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>6F0UWgSSQqU</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0904 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D963" t="n">
+        <v>9644227</v>
+      </c>
+      <c r="E963" t="n">
+        <v>255286</v>
+      </c>
+      <c r="F963" t="n">
+        <v>9287</v>
+      </c>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H963" t="inlineStr">
+        <is>
+          <t>00:50:05.803328</t>
+        </is>
+      </c>
+      <c r="I963" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>13XTnp3Lp84</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D964" t="n">
+        <v>31564731</v>
+      </c>
+      <c r="E964" t="n">
+        <v>649416</v>
+      </c>
+      <c r="F964" t="n">
+        <v>20488</v>
+      </c>
+      <c r="G964" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>00:50:05.803332</t>
+        </is>
+      </c>
+      <c r="I964" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>EKHdMwRaU60</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D965" t="n">
+        <v>60680449</v>
+      </c>
+      <c r="E965" t="n">
+        <v>828848</v>
+      </c>
+      <c r="F965" t="n">
+        <v>23105</v>
+      </c>
+      <c r="G965" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H965" t="inlineStr">
+        <is>
+          <t>00:50:05.803335</t>
+        </is>
+      </c>
+      <c r="I965" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>metZ_f8aqC0</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0821 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D966" t="n">
+        <v>41545006</v>
+      </c>
+      <c r="E966" t="n">
+        <v>891509</v>
+      </c>
+      <c r="F966" t="n">
+        <v>26121</v>
+      </c>
+      <c r="G966" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H966" t="inlineStr">
+        <is>
+          <t>00:50:05.803339</t>
+        </is>
+      </c>
+      <c r="I966" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>RGmL76BBGZk</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0821 SBS Inkigayo : '휘파람(WHISTLE)' NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D967" t="n">
+        <v>17048108</v>
+      </c>
+      <c r="E967" t="n">
+        <v>540892</v>
+      </c>
+      <c r="F967" t="n">
+        <v>14615</v>
+      </c>
+      <c r="G967" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H967" t="inlineStr">
+        <is>
+          <t>00:50:05.803342</t>
+        </is>
+      </c>
+      <c r="I967" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>vAqAp1tJnkc</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람’(WHISTLE) 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D968" t="n">
+        <v>48073460</v>
+      </c>
+      <c r="E968" t="n">
+        <v>857673</v>
+      </c>
+      <c r="F968" t="n">
+        <v>29208</v>
+      </c>
+      <c r="G968" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H968" t="inlineStr">
+        <is>
+          <t>00:50:06.023415</t>
+        </is>
+      </c>
+      <c r="I968" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>LpSH8MrYCfg</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D969" t="n">
+        <v>168462894</v>
+      </c>
+      <c r="E969" t="n">
+        <v>2538766</v>
+      </c>
+      <c r="F969" t="n">
+        <v>80109</v>
+      </c>
+      <c r="G969" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H969" t="inlineStr">
+        <is>
+          <t>00:50:06.023435</t>
+        </is>
+      </c>
+      <c r="I969" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_videos_count_data.xlsx
+++ b/CLEANED_videos_count_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I969"/>
+  <dimension ref="A1:I1090"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40168,6 +40168,4967 @@
         </is>
       </c>
     </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>YudHcBIxlYw</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D970" t="n">
+        <v>395632435</v>
+      </c>
+      <c r="E970" t="n">
+        <v>10141137</v>
+      </c>
+      <c r="F970" t="n">
+        <v>1346296</v>
+      </c>
+      <c r="G970" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H970" t="inlineStr">
+        <is>
+          <t>00:49:54.018674</t>
+        </is>
+      </c>
+      <c r="I970" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>POe9SOEKotk</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ M\/V</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D971" t="n">
+        <v>526002425</v>
+      </c>
+      <c r="E971" t="n">
+        <v>10842380</v>
+      </c>
+      <c r="F971" t="n">
+        <v>2238543</v>
+      </c>
+      <c r="G971" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H971" t="inlineStr">
+        <is>
+          <t>00:49:54.018708</t>
+        </is>
+      </c>
+      <c r="I971" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>gQlMMD8auMs</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ M\/V</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D972" t="n">
+        <v>736470697</v>
+      </c>
+      <c r="E972" t="n">
+        <v>16087739</v>
+      </c>
+      <c r="F972" t="n">
+        <v>3567382</v>
+      </c>
+      <c r="G972" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H972" t="inlineStr">
+        <is>
+          <t>00:49:54.018713</t>
+        </is>
+      </c>
+      <c r="I972" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>awkkyBH2zEo</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' M\/V</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D973" t="n">
+        <v>655637629</v>
+      </c>
+      <c r="E973" t="n">
+        <v>17322833</v>
+      </c>
+      <c r="F973" t="n">
+        <v>2814570</v>
+      </c>
+      <c r="G973" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H973" t="inlineStr">
+        <is>
+          <t>00:49:54.018717</t>
+        </is>
+      </c>
+      <c r="I973" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>K9_VFxzCuQ0</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' M\/V</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D974" t="n">
+        <v>268470004</v>
+      </c>
+      <c r="E974" t="n">
+        <v>7383514</v>
+      </c>
+      <c r="F974" t="n">
+        <v>1241406</v>
+      </c>
+      <c r="G974" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H974" t="inlineStr">
+        <is>
+          <t>00:49:54.018721</t>
+        </is>
+      </c>
+      <c r="I974" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>CKZvWhCqx1s</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' M\/V</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D975" t="n">
+        <v>342946924</v>
+      </c>
+      <c r="E975" t="n">
+        <v>11349454</v>
+      </c>
+      <c r="F975" t="n">
+        <v>2587651</v>
+      </c>
+      <c r="G975" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H975" t="inlineStr">
+        <is>
+          <t>00:49:54.018724</t>
+        </is>
+      </c>
+      <c r="I975" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>dyRsYk0LyA8</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' M\/V</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D976" t="n">
+        <v>709607186</v>
+      </c>
+      <c r="E976" t="n">
+        <v>15499165</v>
+      </c>
+      <c r="F976" t="n">
+        <v>2043110</v>
+      </c>
+      <c r="G976" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H976" t="inlineStr">
+        <is>
+          <t>00:49:54.018728</t>
+        </is>
+      </c>
+      <c r="I976" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>vRXZj0DzXIA</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Ice Cream (with Selena Gomez)' M\/V</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D977" t="n">
+        <v>872073769</v>
+      </c>
+      <c r="E977" t="n">
+        <v>19922783</v>
+      </c>
+      <c r="F977" t="n">
+        <v>3025909</v>
+      </c>
+      <c r="G977" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H977" t="inlineStr">
+        <is>
+          <t>00:49:54.018732</t>
+        </is>
+      </c>
+      <c r="I977" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>ioNng23DkIM</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' M\/V</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D978" t="n">
+        <v>1243519199</v>
+      </c>
+      <c r="E978" t="n">
+        <v>24754666</v>
+      </c>
+      <c r="F978" t="n">
+        <v>5097961</v>
+      </c>
+      <c r="G978" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H978" t="inlineStr">
+        <is>
+          <t>00:49:54.018736</t>
+        </is>
+      </c>
+      <c r="I978" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>2S24-y0Ij3Y</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' M\/V</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D979" t="n">
+        <v>1874143167</v>
+      </c>
+      <c r="E979" t="n">
+        <v>25018229</v>
+      </c>
+      <c r="F979" t="n">
+        <v>2479376</v>
+      </c>
+      <c r="G979" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>00:49:54.018740</t>
+        </is>
+      </c>
+      <c r="I979" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>b73BI9eUkjM</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' M\/V</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D980" t="n">
+        <v>962052016</v>
+      </c>
+      <c r="E980" t="n">
+        <v>14620945</v>
+      </c>
+      <c r="F980" t="n">
+        <v>3003435</v>
+      </c>
+      <c r="G980" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>00:49:54.018744</t>
+        </is>
+      </c>
+      <c r="I980" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>IHNzOHi8sJs</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D981" t="n">
+        <v>2124778911</v>
+      </c>
+      <c r="E981" t="n">
+        <v>23431706</v>
+      </c>
+      <c r="F981" t="n">
+        <v>3285144</v>
+      </c>
+      <c r="G981" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H981" t="inlineStr">
+        <is>
+          <t>00:49:54.018748</t>
+        </is>
+      </c>
+      <c r="I981" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>Amq-qlqbjYA</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '마지막처럼 (AS IF IT'S YOUR LAST)' M\/V</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D982" t="n">
+        <v>1322493256</v>
+      </c>
+      <c r="E982" t="n">
+        <v>13253047</v>
+      </c>
+      <c r="F982" t="n">
+        <v>1658929</v>
+      </c>
+      <c r="G982" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H982" t="inlineStr">
+        <is>
+          <t>00:49:54.018752</t>
+        </is>
+      </c>
+      <c r="I982" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>FzVR_fymZw4</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' M\/V</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D983" t="n">
+        <v>351455398</v>
+      </c>
+      <c r="E983" t="n">
+        <v>6131147</v>
+      </c>
+      <c r="F983" t="n">
+        <v>479246</v>
+      </c>
+      <c r="G983" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H983" t="inlineStr">
+        <is>
+          <t>00:49:54.018755</t>
+        </is>
+      </c>
+      <c r="I983" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>9pdj4iJD08s</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D984" t="n">
+        <v>843445782</v>
+      </c>
+      <c r="E984" t="n">
+        <v>8586222</v>
+      </c>
+      <c r="F984" t="n">
+        <v>530028</v>
+      </c>
+      <c r="G984" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H984" t="inlineStr">
+        <is>
+          <t>00:49:54.018759</t>
+        </is>
+      </c>
+      <c r="I984" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>dISNgvVpWlo</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D985" t="n">
+        <v>863750299</v>
+      </c>
+      <c r="E985" t="n">
+        <v>9964147</v>
+      </c>
+      <c r="F985" t="n">
+        <v>617193</v>
+      </c>
+      <c r="G985" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>00:49:54.018762</t>
+        </is>
+      </c>
+      <c r="I985" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>bwmSjveL3Lc</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' M\/V</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D986" t="n">
+        <v>1635238695</v>
+      </c>
+      <c r="E986" t="n">
+        <v>16167300</v>
+      </c>
+      <c r="F986" t="n">
+        <v>1123336</v>
+      </c>
+      <c r="G986" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>00:49:54.018766</t>
+        </is>
+      </c>
+      <c r="I986" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>4XZz3WXRw0A</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D987" t="n">
+        <v>123889160</v>
+      </c>
+      <c r="E987" t="n">
+        <v>2975991</v>
+      </c>
+      <c r="F987" t="n">
+        <v>96958</v>
+      </c>
+      <c r="G987" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>00:49:54.018769</t>
+        </is>
+      </c>
+      <c r="I987" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>RFMi3v0TXP8</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D988" t="n">
+        <v>206286816</v>
+      </c>
+      <c r="E988" t="n">
+        <v>4828255</v>
+      </c>
+      <c r="F988" t="n">
+        <v>132887</v>
+      </c>
+      <c r="G988" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H988" t="inlineStr">
+        <is>
+          <t>00:49:54.018776</t>
+        </is>
+      </c>
+      <c r="I988" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>fr-eHz87XoM</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D989" t="n">
+        <v>116721217</v>
+      </c>
+      <c r="E989" t="n">
+        <v>3695694</v>
+      </c>
+      <c r="F989" t="n">
+        <v>82409</v>
+      </c>
+      <c r="G989" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H989" t="inlineStr">
+        <is>
+          <t>00:49:54.206709</t>
+        </is>
+      </c>
+      <c r="I989" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>ZJ6QQLDIzrI</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D990" t="n">
+        <v>86445388</v>
+      </c>
+      <c r="E990" t="n">
+        <v>3023223</v>
+      </c>
+      <c r="F990" t="n">
+        <v>67356</v>
+      </c>
+      <c r="G990" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H990" t="inlineStr">
+        <is>
+          <t>00:49:54.206734</t>
+        </is>
+      </c>
+      <c r="I990" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>z6CSW2yu8Mg</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' Dance Performance</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D991" t="n">
+        <v>109014055</v>
+      </c>
+      <c r="E991" t="n">
+        <v>3340632</v>
+      </c>
+      <c r="F991" t="n">
+        <v>145816</v>
+      </c>
+      <c r="G991" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H991" t="inlineStr">
+        <is>
+          <t>00:49:54.206739</t>
+        </is>
+      </c>
+      <c r="I991" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>YxksUfnuEbI</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D992" t="n">
+        <v>289829927</v>
+      </c>
+      <c r="E992" t="n">
+        <v>5549963</v>
+      </c>
+      <c r="F992" t="n">
+        <v>230037</v>
+      </c>
+      <c r="G992" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H992" t="inlineStr">
+        <is>
+          <t>00:49:54.206744</t>
+        </is>
+      </c>
+      <c r="I992" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>32si5cfrCNc</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D993" t="n">
+        <v>1500366723</v>
+      </c>
+      <c r="E993" t="n">
+        <v>17797518</v>
+      </c>
+      <c r="F993" t="n">
+        <v>926529</v>
+      </c>
+      <c r="G993" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H993" t="inlineStr">
+        <is>
+          <t>00:49:54.206748</t>
+        </is>
+      </c>
+      <c r="I993" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>kqXGnxJ-S3k</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>JENNIE - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D994" t="n">
+        <v>11022856</v>
+      </c>
+      <c r="E994" t="n">
+        <v>953044</v>
+      </c>
+      <c r="F994" t="n">
+        <v>26985</v>
+      </c>
+      <c r="G994" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H994" t="inlineStr">
+        <is>
+          <t>00:49:54.206753</t>
+        </is>
+      </c>
+      <c r="I994" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>bqzDuRz_P7g</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Don't Know What To Do' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D995" t="n">
+        <v>311801343</v>
+      </c>
+      <c r="E995" t="n">
+        <v>4280903</v>
+      </c>
+      <c r="F995" t="n">
+        <v>118671</v>
+      </c>
+      <c r="G995" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H995" t="inlineStr">
+        <is>
+          <t>00:49:54.206757</t>
+        </is>
+      </c>
+      <c r="I995" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>MOwaUlXZxkI</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D996" t="n">
+        <v>490918831</v>
+      </c>
+      <c r="E996" t="n">
+        <v>6137348</v>
+      </c>
+      <c r="F996" t="n">
+        <v>169510</v>
+      </c>
+      <c r="G996" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H996" t="inlineStr">
+        <is>
+          <t>00:49:54.206761</t>
+        </is>
+      </c>
+      <c r="I996" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>Ws5SOMeA3_E</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D997" t="n">
+        <v>16055927</v>
+      </c>
+      <c r="E997" t="n">
+        <v>752896</v>
+      </c>
+      <c r="F997" t="n">
+        <v>18787</v>
+      </c>
+      <c r="G997" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H997" t="inlineStr">
+        <is>
+          <t>00:49:54.206765</t>
+        </is>
+      </c>
+      <c r="I997" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>k-wmRTFVwPA</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY ALTERNATE EDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D998" t="n">
+        <v>3970019</v>
+      </c>
+      <c r="E998" t="n">
+        <v>260107</v>
+      </c>
+      <c r="F998" t="n">
+        <v>4715</v>
+      </c>
+      <c r="G998" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H998" t="inlineStr">
+        <is>
+          <t>00:49:54.206770</t>
+        </is>
+      </c>
+      <c r="I998" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>vdDuCvCrcKg</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY UNEDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D999" t="n">
+        <v>277609332</v>
+      </c>
+      <c r="E999" t="n">
+        <v>4398149</v>
+      </c>
+      <c r="F999" t="n">
+        <v>200198</v>
+      </c>
+      <c r="G999" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H999" t="inlineStr">
+        <is>
+          <t>00:49:54.206773</t>
+        </is>
+      </c>
+      <c r="I999" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>89kTb73csYg</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Forever Young' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1000" t="n">
+        <v>234011664</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>3952843</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>125682</v>
+      </c>
+      <c r="G1000" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1000" t="inlineStr">
+        <is>
+          <t>00:49:54.206778</t>
+        </is>
+      </c>
+      <c r="I1000" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>jOJbXvjZ-cQ</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1001" t="n">
+        <v>493498344</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>5635249</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>183854</v>
+      </c>
+      <c r="G1001" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1001" t="inlineStr">
+        <is>
+          <t>00:49:54.206781</t>
+        </is>
+      </c>
+      <c r="I1001" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>hKUJmA9O6iA</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1002" t="n">
+        <v>282482340</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>3059920</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>76119</v>
+      </c>
+      <c r="G1002" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1002" t="inlineStr">
+        <is>
+          <t>00:49:54.206786</t>
+        </is>
+      </c>
+      <c r="I1002" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>NvWfJTbrTBY</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난(PLAYING WITH FIRE)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1003" t="n">
+        <v>217870577</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>2361830</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>61940</v>
+      </c>
+      <c r="G1003" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1003" t="inlineStr">
+        <is>
+          <t>00:49:54.206790</t>
+        </is>
+      </c>
+      <c r="I1003" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>ivoS3HUJB3Q</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1004" t="n">
+        <v>299090346</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>3121430</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>76200</v>
+      </c>
+      <c r="G1004" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1004" t="inlineStr">
+        <is>
+          <t>00:49:54.206794</t>
+        </is>
+      </c>
+      <c r="I1004" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>1kYrp_Bs8DU</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1005" t="n">
+        <v>180173779</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>2117820</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>57161</v>
+      </c>
+      <c r="G1005" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1005" t="inlineStr">
+        <is>
+          <t>00:49:54.206798</t>
+        </is>
+      </c>
+      <c r="I1005" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>3fg8pyLKvXE</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>BLACKPINK - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1006" t="n">
+        <v>87139244</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>2893834</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>90155</v>
+      </c>
+      <c r="G1006" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1006" t="inlineStr">
+        <is>
+          <t>00:49:54.206802</t>
+        </is>
+      </c>
+      <c r="I1006" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>VLpUsmBafMQ</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1007" t="n">
+        <v>32946748</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>709340</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>14186</v>
+      </c>
+      <c r="G1007" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1007" t="inlineStr">
+        <is>
+          <t>00:49:54.206806</t>
+        </is>
+      </c>
+      <c r="I1007" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>z9tifvQSu-g</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Typa Girl’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1008" t="n">
+        <v>56792200</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>1230789</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>21921</v>
+      </c>
+      <c r="G1008" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1008" t="inlineStr">
+        <is>
+          <t>00:49:54.206810</t>
+        </is>
+      </c>
+      <c r="I1008" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>NpVJidAKOqc</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1009" t="n">
+        <v>24113180</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>633414</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>11419</v>
+      </c>
+      <c r="G1009" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1009" t="inlineStr">
+        <is>
+          <t>00:49:54.377647</t>
+        </is>
+      </c>
+      <c r="I1009" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>PjrAwC4TIPA</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1010" t="n">
+        <v>154061873</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>3741201</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>98745</v>
+      </c>
+      <c r="G1010" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1010" t="inlineStr">
+        <is>
+          <t>00:49:54.377687</t>
+        </is>
+      </c>
+      <c r="I1010" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>RkKXbweBCcI</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1011" t="n">
+        <v>44991122</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>2782897</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>60704</v>
+      </c>
+      <c r="G1011" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1011" t="inlineStr">
+        <is>
+          <t>00:49:54.377692</t>
+        </is>
+      </c>
+      <c r="I1011" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>aEiznLJCb9o</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' 0926 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1012" t="n">
+        <v>21690122</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>1461524</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>41793</v>
+      </c>
+      <c r="G1012" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1012" t="inlineStr">
+        <is>
+          <t>00:49:54.377697</t>
+        </is>
+      </c>
+      <c r="I1012" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>dNCWe_6HAM8</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' EXCLUSIVE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1013" t="n">
+        <v>904908832</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>13994389</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>934831</v>
+      </c>
+      <c r="G1013" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1013" t="inlineStr">
+        <is>
+          <t>00:49:54.377701</t>
+        </is>
+      </c>
+      <c r="I1013" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>08x_TcTyw8o</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1014" t="n">
+        <v>93503343</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>3541207</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>94879</v>
+      </c>
+      <c r="G1014" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1014" t="inlineStr">
+        <is>
+          <t>00:49:54.377706</t>
+        </is>
+      </c>
+      <c r="I1014" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>kZZYkrDWUls</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0404 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1015" t="n">
+        <v>6094172</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>553233</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>24568</v>
+      </c>
+      <c r="G1015" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1015" t="inlineStr">
+        <is>
+          <t>00:49:54.377710</t>
+        </is>
+      </c>
+      <c r="I1015" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>VFBj5sWfbH4</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0328 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1016" t="n">
+        <v>6142223</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>581967</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>24769</v>
+      </c>
+      <c r="G1016" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1016" t="inlineStr">
+        <is>
+          <t>00:49:54.377714</t>
+        </is>
+      </c>
+      <c r="I1016" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>AkISOALL8Cw</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0321 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1017" t="n">
+        <v>10836996</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>826793</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>29967</v>
+      </c>
+      <c r="G1017" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1017" t="inlineStr">
+        <is>
+          <t>00:49:54.377718</t>
+        </is>
+      </c>
+      <c r="I1017" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>Q88P1gpOJxA</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1018" t="n">
+        <v>27018903</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>2005915</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>75627</v>
+      </c>
+      <c r="G1018" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1018" t="inlineStr">
+        <is>
+          <t>00:49:54.377722</t>
+        </is>
+      </c>
+      <c r="I1018" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>fjp4thii1WY</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1019" t="n">
+        <v>14336586</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>1440893</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>45877</v>
+      </c>
+      <c r="G1019" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1019" t="inlineStr">
+        <is>
+          <t>00:49:54.377726</t>
+        </is>
+      </c>
+      <c r="I1019" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>MBStYsiE618</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1025 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1020" t="n">
+        <v>31337021</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>1431805</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>52485</v>
+      </c>
+      <c r="G1020" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1020" t="inlineStr">
+        <is>
+          <t>00:49:54.377730</t>
+        </is>
+      </c>
+      <c r="I1020" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>3l5jwqPT2yk</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' Jimmy Kimmel Live</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1021" t="n">
+        <v>55991396</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>2213075</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>58857</v>
+      </c>
+      <c r="G1021" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1021" t="inlineStr">
+        <is>
+          <t>00:49:54.377734</t>
+        </is>
+      </c>
+      <c r="I1021" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>UcvYlihruvo</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1018 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1022" t="n">
+        <v>8769171</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>759259</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>27518</v>
+      </c>
+      <c r="G1022" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1022" t="inlineStr">
+        <is>
+          <t>00:49:54.377738</t>
+        </is>
+      </c>
+      <c r="I1022" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>Fwg9-MXdBYA</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1011 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1023" t="n">
+        <v>15882649</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>1286602</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>35226</v>
+      </c>
+      <c r="G1023" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1023" t="inlineStr">
+        <is>
+          <t>00:49:54.377742</t>
+        </is>
+      </c>
+      <c r="I1023" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>gU2HqP4NxUs</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ 1011 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1024" t="n">
+        <v>325707249</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>5159761</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>142955</v>
+      </c>
+      <c r="G1024" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1024" t="inlineStr">
+        <is>
+          <t>00:49:54.377746</t>
+        </is>
+      </c>
+      <c r="I1024" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>7PpUuLYWcs8</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0719 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1025" t="n">
+        <v>12822872</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>812034</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>28754</v>
+      </c>
+      <c r="G1025" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1025" t="inlineStr">
+        <is>
+          <t>00:49:54.377750</t>
+        </is>
+      </c>
+      <c r="I1025" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>04lxLDmFaOE</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0712 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1026" t="n">
+        <v>10329568</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>832094</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>37853</v>
+      </c>
+      <c r="G1026" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1026" t="inlineStr">
+        <is>
+          <t>00:49:54.377754</t>
+        </is>
+      </c>
+      <c r="I1026" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>JLOwA3o6Zr0</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0705 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1027" t="n">
+        <v>13436661</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>971660</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>36167</v>
+      </c>
+      <c r="G1027" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1027" t="inlineStr">
+        <is>
+          <t>00:49:54.377759</t>
+        </is>
+      </c>
+      <c r="I1027" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>t0RcZWn085g</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0628 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1028" t="n">
+        <v>52029399</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>2286215</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>59220</v>
+      </c>
+      <c r="G1028" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1028" t="inlineStr">
+        <is>
+          <t>00:49:54.377763</t>
+        </is>
+      </c>
+      <c r="I1028" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>tOCUE8wRQYY</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>BLACKPINK ‐ Kill This Love -JP Ver.- Live at BLACKPINK 2019-2020 WORLD TOUR IN YOUR AREA-TOKYO DOME-</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1029" t="n">
+        <v>37030075</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>1228634</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>44967</v>
+      </c>
+      <c r="G1029" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1029" t="inlineStr">
+        <is>
+          <t>00:49:54.597254</t>
+        </is>
+      </c>
+      <c r="I1029" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>-6XwN_wu3KU</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1030" t="n">
+        <v>24862103</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>1077083</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>26101</v>
+      </c>
+      <c r="G1030" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1030" t="inlineStr">
+        <is>
+          <t>00:49:54.597280</t>
+        </is>
+      </c>
+      <c r="I1030" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>_HhAzr5DLik</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1031" t="n">
+        <v>14537305</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>700358</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>22471</v>
+      </c>
+      <c r="G1031" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1031" t="inlineStr">
+        <is>
+          <t>00:49:54.597285</t>
+        </is>
+      </c>
+      <c r="I1031" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>a5gUds01aXY</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' 2019 Coachella Live Performance</t>
+        </is>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1032" t="n">
+        <v>50637465</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>1886935</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>89571</v>
+      </c>
+      <c r="G1032" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1032" t="inlineStr">
+        <is>
+          <t>00:49:54.597289</t>
+        </is>
+      </c>
+      <c r="I1032" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>vx9CSpnROfs</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0414 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1033" t="n">
+        <v>121210592</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>2330369</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>54743</v>
+      </c>
+      <c r="G1033" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1033" t="inlineStr">
+        <is>
+          <t>00:49:54.597294</t>
+        </is>
+      </c>
+      <c r="I1033" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>RgI8UNOqczE</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1034" t="n">
+        <v>11376180</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>502534</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>16975</v>
+      </c>
+      <c r="G1034" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1034" t="inlineStr">
+        <is>
+          <t>00:49:54.597298</t>
+        </is>
+      </c>
+      <c r="I1034" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>sL175y19MUU</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1035" t="n">
+        <v>12339546</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>463510</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>11736</v>
+      </c>
+      <c r="G1035" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1035" t="inlineStr">
+        <is>
+          <t>00:49:54.597302</t>
+        </is>
+      </c>
+      <c r="I1035" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>GXBDwS2Tizo</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1036" t="n">
+        <v>22244877</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>1033682</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>26525</v>
+      </c>
+      <c r="G1036" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1036" t="inlineStr">
+        <is>
+          <t>00:49:54.597306</t>
+        </is>
+      </c>
+      <c r="I1036" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>rt6G9Vwt1xc</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1037" t="n">
+        <v>17935598</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>793977</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>24507</v>
+      </c>
+      <c r="G1037" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1037" t="inlineStr">
+        <is>
+          <t>00:49:54.597310</t>
+        </is>
+      </c>
+      <c r="I1037" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>MkG24J87IUk</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1038" t="n">
+        <v>49494550</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>1709779</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>46451</v>
+      </c>
+      <c r="G1038" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1038" t="inlineStr">
+        <is>
+          <t>00:49:54.597314</t>
+        </is>
+      </c>
+      <c r="I1038" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>o4GHoqGtRkg</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Don't Know What To Do’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1039" t="n">
+        <v>67649900</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>1722147</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>48438</v>
+      </c>
+      <c r="G1039" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1039" t="inlineStr">
+        <is>
+          <t>00:49:54.597318</t>
+        </is>
+      </c>
+      <c r="I1039" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>cxNIewNXpcg</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SOLO' + '뚜두뚜두(DDU-DU DDU-DU)' + 'FOREVER YOUNG' in 2018 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1040" t="n">
+        <v>383325566</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>6189437</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>209134</v>
+      </c>
+      <c r="G1040" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1040" t="inlineStr">
+        <is>
+          <t>00:49:54.597322</t>
+        </is>
+      </c>
+      <c r="I1040" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>7nukOecMf-U</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1216 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1041" t="n">
+        <v>4905434</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>224807</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>7750</v>
+      </c>
+      <c r="G1041" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1041" t="inlineStr">
+        <is>
+          <t>00:49:54.597326</t>
+        </is>
+      </c>
+      <c r="I1041" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>CPSH3ljpkZ4</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1209 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1042" t="n">
+        <v>13090722</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>413071</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>13155</v>
+      </c>
+      <c r="G1042" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1042" t="inlineStr">
+        <is>
+          <t>00:49:54.597330</t>
+        </is>
+      </c>
+      <c r="I1042" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>hxDXhh2sE1g</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1202 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1043" t="n">
+        <v>5929178</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>253718</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>9487</v>
+      </c>
+      <c r="G1043" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1043" t="inlineStr">
+        <is>
+          <t>00:49:54.597335</t>
+        </is>
+      </c>
+      <c r="I1043" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>smimdoBjeAE</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1125 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1044" t="n">
+        <v>17102471</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>676350</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>25617</v>
+      </c>
+      <c r="G1044" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1044" t="inlineStr">
+        <is>
+          <t>00:49:54.597339</t>
+        </is>
+      </c>
+      <c r="I1044" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>N1C_G3sfzXo</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' PERFORMANCE [IN YOUR AREA] SEOUL</t>
+        </is>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1045" t="n">
+        <v>29704886</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>1034262</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>26374</v>
+      </c>
+      <c r="G1045" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1045" t="inlineStr">
+        <is>
+          <t>00:49:54.597343</t>
+        </is>
+      </c>
+      <c r="I1045" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>5hwepTxNKtE</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0805 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1046" t="n">
+        <v>72777813</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>1183610</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>44061</v>
+      </c>
+      <c r="G1046" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1046" t="inlineStr">
+        <is>
+          <t>00:49:54.597347</t>
+        </is>
+      </c>
+      <c r="I1046" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>4KRdmXcJWQU</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1047" t="n">
+        <v>8759834</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>415993</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>11729</v>
+      </c>
+      <c r="G1047" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1047" t="inlineStr">
+        <is>
+          <t>00:49:54.597351</t>
+        </is>
+      </c>
+      <c r="I1047" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>HhyRAPKiXi4</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1048" t="n">
+        <v>3983557</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>203218</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>7213</v>
+      </c>
+      <c r="G1048" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1048" t="inlineStr">
+        <is>
+          <t>00:49:54.597355</t>
+        </is>
+      </c>
+      <c r="I1048" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>PMsBMoc9eFg</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0722 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1049" t="n">
+        <v>12211226</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>439701</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>19912</v>
+      </c>
+      <c r="G1049" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1049" t="inlineStr">
+        <is>
+          <t>00:49:54.817524</t>
+        </is>
+      </c>
+      <c r="I1049" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>xqWjJP_WT-0</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1050" t="n">
+        <v>13206101</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>687645</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>24679</v>
+      </c>
+      <c r="G1050" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1050" t="inlineStr">
+        <is>
+          <t>00:49:54.817548</t>
+        </is>
+      </c>
+      <c r="I1050" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>WaIGc9QmV2w</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1051" t="n">
+        <v>3357124</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>185621</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>7354</v>
+      </c>
+      <c r="G1051" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1051" t="inlineStr">
+        <is>
+          <t>00:49:54.817552</t>
+        </is>
+      </c>
+      <c r="I1051" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>67otJZ6qe9Y</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0715 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1052" t="n">
+        <v>44044245</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>981240</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>33565</v>
+      </c>
+      <c r="G1052" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1052" t="inlineStr">
+        <is>
+          <t>00:49:54.817556</t>
+        </is>
+      </c>
+      <c r="I1052" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>PZ5t29qgGAM</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1053" t="n">
+        <v>11320504</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>511242</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>18488</v>
+      </c>
+      <c r="G1053" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1053" t="inlineStr">
+        <is>
+          <t>00:49:54.817560</t>
+        </is>
+      </c>
+      <c r="I1053" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>dEnDjgoLLY4</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1054" t="n">
+        <v>6471238</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>327007</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>12289</v>
+      </c>
+      <c r="G1054" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1054" t="inlineStr">
+        <is>
+          <t>00:49:54.817564</t>
+        </is>
+      </c>
+      <c r="I1054" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>0uje7GB8Azk</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1055" t="n">
+        <v>10022864</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>351698</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>13470</v>
+      </c>
+      <c r="G1055" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1055" t="inlineStr">
+        <is>
+          <t>00:49:54.817567</t>
+        </is>
+      </c>
+      <c r="I1055" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>F6IR7luozPw</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0708 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1056" t="n">
+        <v>3908289</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>226799</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>12155</v>
+      </c>
+      <c r="G1056" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1056" t="inlineStr">
+        <is>
+          <t>00:49:54.817571</t>
+        </is>
+      </c>
+      <c r="I1056" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>rw2-h5JNLqM</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1057" t="n">
+        <v>15135452</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>692868</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>22354</v>
+      </c>
+      <c r="G1057" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1057" t="inlineStr">
+        <is>
+          <t>00:49:54.817574</t>
+        </is>
+      </c>
+      <c r="I1057" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>TIOCHR0OxOQ</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0701 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1058" t="n">
+        <v>4462970</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>260869</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>14771</v>
+      </c>
+      <c r="G1058" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1058" t="inlineStr">
+        <is>
+          <t>00:49:54.817578</t>
+        </is>
+      </c>
+      <c r="I1058" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>PUcGXTSCRLA</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0624 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1059" t="n">
+        <v>7591696</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>351493</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>13062</v>
+      </c>
+      <c r="G1059" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1059" t="inlineStr">
+        <is>
+          <t>00:49:54.817581</t>
+        </is>
+      </c>
+      <c r="I1059" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>b5dUYf_uPaY</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1060" t="n">
+        <v>44053137</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>1105881</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>33819</v>
+      </c>
+      <c r="G1060" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1060" t="inlineStr">
+        <is>
+          <t>00:49:54.817585</t>
+        </is>
+      </c>
+      <c r="I1060" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>n7ukhNJvQ8s</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1061" t="n">
+        <v>63821625</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>1131861</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>40078</v>
+      </c>
+      <c r="G1061" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1061" t="inlineStr">
+        <is>
+          <t>00:49:54.817588</t>
+        </is>
+      </c>
+      <c r="I1061" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>f1xIeTCgoFk</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>BLACKPINK - INTRO +  ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2018 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1062" t="n">
+        <v>35624251</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>772715</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>23949</v>
+      </c>
+      <c r="G1062" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1062" t="inlineStr">
+        <is>
+          <t>00:49:54.817592</t>
+        </is>
+      </c>
+      <c r="I1062" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>skIfzl96Gc0</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SO HOT' (THEBLACKLABEL Remix) in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1063" t="n">
+        <v>87628754</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>2154443</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>63137</v>
+      </c>
+      <c r="G1063" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1063" t="inlineStr">
+        <is>
+          <t>00:49:54.817595</t>
+        </is>
+      </c>
+      <c r="I1063" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>PoHD4wfwC6Y</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1064" t="n">
+        <v>8397037</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>300170</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>7160</v>
+      </c>
+      <c r="G1064" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1064" t="inlineStr">
+        <is>
+          <t>00:49:54.817599</t>
+        </is>
+      </c>
+      <c r="I1064" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>wwuZtpS8FNI</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 1001 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1065" t="n">
+        <v>35275978</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>580105</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>15697</v>
+      </c>
+      <c r="G1065" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1065" t="inlineStr">
+        <is>
+          <t>00:49:54.817602</t>
+        </is>
+      </c>
+      <c r="I1065" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>GE7x2fVVsXM</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>BLACKPINK - OPENING MEDLDY 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1066" t="n">
+        <v>16250636</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>445901</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>10610</v>
+      </c>
+      <c r="G1066" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1066" t="inlineStr">
+        <is>
+          <t>00:49:54.817606</t>
+        </is>
+      </c>
+      <c r="I1066" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>_7TMluHVx4Y</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SURE THING (Miguel)' COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1067" t="n">
+        <v>109497984</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>1771362</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>69454</v>
+      </c>
+      <c r="G1067" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1067" t="inlineStr">
+        <is>
+          <t>00:49:54.817609</t>
+        </is>
+      </c>
+      <c r="I1067" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>X3P6dnL2OyY</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'PARTITION (Beyonce)' DANCE COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1068" t="n">
+        <v>48794191</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>1227590</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>30772</v>
+      </c>
+      <c r="G1068" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1068" t="inlineStr">
+        <is>
+          <t>00:49:54.817613</t>
+        </is>
+      </c>
+      <c r="I1068" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>RczrR4FVKzg</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST) Remix ver.' 0723 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1069" t="n">
+        <v>20888963</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>625024</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>19592</v>
+      </c>
+      <c r="G1069" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1069" t="inlineStr">
+        <is>
+          <t>00:49:55.027886</t>
+        </is>
+      </c>
+      <c r="I1069" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>vW1PeCzs7Sg</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0716 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1070" t="n">
+        <v>4603404</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>204544</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>6755</v>
+      </c>
+      <c r="G1070" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1070" t="inlineStr">
+        <is>
+          <t>00:49:55.027913</t>
+        </is>
+      </c>
+      <c r="I1070" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>ZL8LqlKtpVE</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0709 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1071" t="n">
+        <v>4522058</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>211977</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>6455</v>
+      </c>
+      <c r="G1071" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1071" t="inlineStr">
+        <is>
+          <t>00:49:55.027918</t>
+        </is>
+      </c>
+      <c r="I1071" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>fWOAe_xXTQs</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0702 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1072" t="n">
+        <v>7131212</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>308282</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>11344</v>
+      </c>
+      <c r="G1072" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1072" t="inlineStr">
+        <is>
+          <t>00:49:55.027922</t>
+        </is>
+      </c>
+      <c r="I1072" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>TWRSR7y1288</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0625 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1073" t="n">
+        <v>31718014</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>750887</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>23566</v>
+      </c>
+      <c r="G1073" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1073" t="inlineStr">
+        <is>
+          <t>00:49:55.027983</t>
+        </is>
+      </c>
+      <c r="I1073" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>VQLn90MACUQ</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난 (PLAYING WITH FIRE)’ + ‘붐바야 (BOOMBAYAH)’  in 2017 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1074" t="n">
+        <v>51500653</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>1046982</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>22140</v>
+      </c>
+      <c r="G1074" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1074" t="inlineStr">
+        <is>
+          <t>00:49:55.027988</t>
+        </is>
+      </c>
+      <c r="I1074" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>_paRxWTIyAo</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1075" t="n">
+        <v>121610143</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>1968245</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>39469</v>
+      </c>
+      <c r="G1075" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1075" t="inlineStr">
+        <is>
+          <t>00:49:55.027993</t>
+        </is>
+      </c>
+      <c r="I1075" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>FOv-Rsp1LS0</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - Interview(마지막 무대 인사) + '불장난(PLAYING WITH FIRE)' 1211 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1076" t="n">
+        <v>2832431</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>127399</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>5447</v>
+      </c>
+      <c r="G1076" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1076" t="inlineStr">
+        <is>
+          <t>00:49:55.027997</t>
+        </is>
+      </c>
+      <c r="I1076" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>hTDRE5d5A2M</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1204 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1077" t="n">
+        <v>4060026</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>199377</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>6802</v>
+      </c>
+      <c r="G1077" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1077" t="inlineStr">
+        <is>
+          <t>00:49:55.028001</t>
+        </is>
+      </c>
+      <c r="I1077" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>HoAdqZW4ptY</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1127 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1078" t="n">
+        <v>6876875</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>269511</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>7413</v>
+      </c>
+      <c r="G1078" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1078" t="inlineStr">
+        <is>
+          <t>00:49:55.028007</t>
+        </is>
+      </c>
+      <c r="I1078" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>TklpzjGlqFE</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1120 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1079" t="n">
+        <v>13591700</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>366261</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>8693</v>
+      </c>
+      <c r="G1079" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1079" t="inlineStr">
+        <is>
+          <t>00:49:55.028011</t>
+        </is>
+      </c>
+      <c r="I1079" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>ZwVTC_686Sw</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 MELON MUSIC AWARDS</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1080" t="n">
+        <v>77758695</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>1372936</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>35272</v>
+      </c>
+      <c r="G1080" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1080" t="inlineStr">
+        <is>
+          <t>00:49:55.028016</t>
+        </is>
+      </c>
+      <c r="I1080" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>_NVwS4mcVYg</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1081" t="n">
+        <v>22431529</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>626799</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>19900</v>
+      </c>
+      <c r="G1081" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1081" t="inlineStr">
+        <is>
+          <t>00:49:55.028020</t>
+        </is>
+      </c>
+      <c r="I1081" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>5LWCPzwiN28</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1082" t="n">
+        <v>67262397</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>963567</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>32147</v>
+      </c>
+      <c r="G1082" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1082" t="inlineStr">
+        <is>
+          <t>00:49:55.028024</t>
+        </is>
+      </c>
+      <c r="I1082" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>o4rSRaqvHyc</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0911 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1083" t="n">
+        <v>6192950</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>253902</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>6884</v>
+      </c>
+      <c r="G1083" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1083" t="inlineStr">
+        <is>
+          <t>00:49:55.028028</t>
+        </is>
+      </c>
+      <c r="I1083" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>6F0UWgSSQqU</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0904 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1084" t="n">
+        <v>9644623</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>255288</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>9287</v>
+      </c>
+      <c r="G1084" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1084" t="inlineStr">
+        <is>
+          <t>00:49:55.028032</t>
+        </is>
+      </c>
+      <c r="I1084" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>13XTnp3Lp84</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1085" t="n">
+        <v>31567864</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>649421</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>20486</v>
+      </c>
+      <c r="G1085" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1085" t="inlineStr">
+        <is>
+          <t>00:49:55.028037</t>
+        </is>
+      </c>
+      <c r="I1085" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>EKHdMwRaU60</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1086" t="n">
+        <v>60685487</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>828823</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>23106</v>
+      </c>
+      <c r="G1086" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1086" t="inlineStr">
+        <is>
+          <t>00:49:55.028041</t>
+        </is>
+      </c>
+      <c r="I1086" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>metZ_f8aqC0</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0821 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1087" t="n">
+        <v>41550972</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>891532</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>26122</v>
+      </c>
+      <c r="G1087" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1087" t="inlineStr">
+        <is>
+          <t>00:49:55.028045</t>
+        </is>
+      </c>
+      <c r="I1087" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>RGmL76BBGZk</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0821 SBS Inkigayo : '휘파람(WHISTLE)' NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1088" t="n">
+        <v>17051094</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>540915</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>14615</v>
+      </c>
+      <c r="G1088" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1088" t="inlineStr">
+        <is>
+          <t>00:49:55.028049</t>
+        </is>
+      </c>
+      <c r="I1088" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>vAqAp1tJnkc</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람’(WHISTLE) 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1089" t="n">
+        <v>48076636</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>857681</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>29208</v>
+      </c>
+      <c r="G1089" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1089" t="inlineStr">
+        <is>
+          <t>00:49:55.184257</t>
+        </is>
+      </c>
+      <c r="I1089" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>LpSH8MrYCfg</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1090" t="n">
+        <v>168484949</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>2538684</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>80113</v>
+      </c>
+      <c r="G1090" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H1090" t="inlineStr">
+        <is>
+          <t>00:49:55.184280</t>
+        </is>
+      </c>
+      <c r="I1090" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_videos_count_data.xlsx
+++ b/CLEANED_videos_count_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1090"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45129,6 +45129,4967 @@
         </is>
       </c>
     </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>YudHcBIxlYw</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1091" t="n">
+        <v>396326583</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>10144636</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>1346751</v>
+      </c>
+      <c r="G1091" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1091" t="inlineStr">
+        <is>
+          <t>00:49:23.751481</t>
+        </is>
+      </c>
+      <c r="I1091" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>POe9SOEKotk</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1092" t="n">
+        <v>526504717</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>10844997</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>2238302</v>
+      </c>
+      <c r="G1092" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1092" t="inlineStr">
+        <is>
+          <t>00:49:23.751508</t>
+        </is>
+      </c>
+      <c r="I1092" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>gQlMMD8auMs</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1093" t="n">
+        <v>737068916</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>16090505</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>3567077</v>
+      </c>
+      <c r="G1093" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1093" t="inlineStr">
+        <is>
+          <t>00:49:23.751513</t>
+        </is>
+      </c>
+      <c r="I1093" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>awkkyBH2zEo</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' M\/V</t>
+        </is>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1094" t="n">
+        <v>655867598</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>17324123</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>2814457</v>
+      </c>
+      <c r="G1094" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1094" t="inlineStr">
+        <is>
+          <t>00:49:23.751516</t>
+        </is>
+      </c>
+      <c r="I1094" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>K9_VFxzCuQ0</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' M\/V</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1095" t="n">
+        <v>268603533</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>7384598</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>1241499</v>
+      </c>
+      <c r="G1095" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1095" t="inlineStr">
+        <is>
+          <t>00:49:23.751520</t>
+        </is>
+      </c>
+      <c r="I1095" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>CKZvWhCqx1s</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' M\/V</t>
+        </is>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1096" t="n">
+        <v>343045357</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>11350355</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>2587901</v>
+      </c>
+      <c r="G1096" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1096" t="inlineStr">
+        <is>
+          <t>00:49:23.751524</t>
+        </is>
+      </c>
+      <c r="I1096" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>dyRsYk0LyA8</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' M\/V</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1097" t="n">
+        <v>709820336</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>15500429</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>2043129</v>
+      </c>
+      <c r="G1097" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1097" t="inlineStr">
+        <is>
+          <t>00:49:23.751527</t>
+        </is>
+      </c>
+      <c r="I1097" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>vRXZj0DzXIA</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Ice Cream (with Selena Gomez)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1098" t="n">
+        <v>872246520</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>19923857</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>3025901</v>
+      </c>
+      <c r="G1098" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1098" t="inlineStr">
+        <is>
+          <t>00:49:23.751531</t>
+        </is>
+      </c>
+      <c r="I1098" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>ioNng23DkIM</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' M\/V</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1099" t="n">
+        <v>1243719261</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>24756111</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>5097893</v>
+      </c>
+      <c r="G1099" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1099" t="inlineStr">
+        <is>
+          <t>00:49:23.751534</t>
+        </is>
+      </c>
+      <c r="I1099" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>2S24-y0Ij3Y</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' M\/V</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1100" t="n">
+        <v>1874614124</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>25020968</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>2479329</v>
+      </c>
+      <c r="G1100" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1100" t="inlineStr">
+        <is>
+          <t>00:49:23.751538</t>
+        </is>
+      </c>
+      <c r="I1100" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>b73BI9eUkjM</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' M\/V</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1101" t="n">
+        <v>962464912</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>14622742</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>3009732</v>
+      </c>
+      <c r="G1101" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1101" t="inlineStr">
+        <is>
+          <t>00:49:23.751542</t>
+        </is>
+      </c>
+      <c r="I1101" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>IHNzOHi8sJs</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1102" t="n">
+        <v>2125129090</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>23433948</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>3284669</v>
+      </c>
+      <c r="G1102" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1102" t="inlineStr">
+        <is>
+          <t>00:49:23.751545</t>
+        </is>
+      </c>
+      <c r="I1102" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>Amq-qlqbjYA</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '마지막처럼 (AS IF IT'S YOUR LAST)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1103" t="n">
+        <v>1322754183</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>13254525</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>1658970</v>
+      </c>
+      <c r="G1103" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1103" t="inlineStr">
+        <is>
+          <t>00:49:23.751549</t>
+        </is>
+      </c>
+      <c r="I1103" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>FzVR_fymZw4</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' M\/V</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1104" t="n">
+        <v>351512784</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>6131676</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>479260</v>
+      </c>
+      <c r="G1104" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1104" t="inlineStr">
+        <is>
+          <t>00:49:23.751552</t>
+        </is>
+      </c>
+      <c r="I1104" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>9pdj4iJD08s</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1105" t="n">
+        <v>843592826</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>8587065</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>530039</v>
+      </c>
+      <c r="G1105" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1105" t="inlineStr">
+        <is>
+          <t>00:49:23.751556</t>
+        </is>
+      </c>
+      <c r="I1105" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>dISNgvVpWlo</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1106" t="n">
+        <v>863881058</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>9965232</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>617203</v>
+      </c>
+      <c r="G1106" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1106" t="inlineStr">
+        <is>
+          <t>00:49:23.751559</t>
+        </is>
+      </c>
+      <c r="I1106" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>bwmSjveL3Lc</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1107" t="n">
+        <v>1635558098</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>16169298</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>1123354</v>
+      </c>
+      <c r="G1107" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1107" t="inlineStr">
+        <is>
+          <t>00:49:23.751562</t>
+        </is>
+      </c>
+      <c r="I1107" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>4XZz3WXRw0A</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1108" t="n">
+        <v>124064077</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>2976846</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>97002</v>
+      </c>
+      <c r="G1108" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1108" t="inlineStr">
+        <is>
+          <t>00:49:23.751566</t>
+        </is>
+      </c>
+      <c r="I1108" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>RFMi3v0TXP8</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1109" t="n">
+        <v>206457687</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>4829069</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>132898</v>
+      </c>
+      <c r="G1109" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1109" t="inlineStr">
+        <is>
+          <t>00:49:23.751573</t>
+        </is>
+      </c>
+      <c r="I1109" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>fr-eHz87XoM</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1110" t="n">
+        <v>116771564</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>3696093</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>82417</v>
+      </c>
+      <c r="G1110" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1110" t="inlineStr">
+        <is>
+          <t>00:49:24.003452</t>
+        </is>
+      </c>
+      <c r="I1110" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>ZJ6QQLDIzrI</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1111" t="n">
+        <v>86474677</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>3023423</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>67367</v>
+      </c>
+      <c r="G1111" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1111" t="inlineStr">
+        <is>
+          <t>00:49:24.003477</t>
+        </is>
+      </c>
+      <c r="I1111" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>z6CSW2yu8Mg</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' Dance Performance</t>
+        </is>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1112" t="n">
+        <v>109048683</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>3340932</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>145855</v>
+      </c>
+      <c r="G1112" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1112" t="inlineStr">
+        <is>
+          <t>00:49:24.003482</t>
+        </is>
+      </c>
+      <c r="I1112" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>YxksUfnuEbI</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1113" t="n">
+        <v>289906148</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>5550411</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>230034</v>
+      </c>
+      <c r="G1113" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1113" t="inlineStr">
+        <is>
+          <t>00:49:24.003486</t>
+        </is>
+      </c>
+      <c r="I1113" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>32si5cfrCNc</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1114" t="n">
+        <v>1501028769</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>17802672</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>926703</v>
+      </c>
+      <c r="G1114" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1114" t="inlineStr">
+        <is>
+          <t>00:49:24.003490</t>
+        </is>
+      </c>
+      <c r="I1114" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>kqXGnxJ-S3k</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>JENNIE - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1115" t="n">
+        <v>11023752</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>953053</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>26985</v>
+      </c>
+      <c r="G1115" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1115" t="inlineStr">
+        <is>
+          <t>00:49:24.003495</t>
+        </is>
+      </c>
+      <c r="I1115" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>bqzDuRz_P7g</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Don't Know What To Do' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1116" t="n">
+        <v>311886409</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>4281404</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>118675</v>
+      </c>
+      <c r="G1116" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1116" t="inlineStr">
+        <is>
+          <t>00:49:24.003499</t>
+        </is>
+      </c>
+      <c r="I1116" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>MOwaUlXZxkI</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1117" t="n">
+        <v>491000337</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>6137840</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>169518</v>
+      </c>
+      <c r="G1117" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1117" t="inlineStr">
+        <is>
+          <t>00:49:24.003503</t>
+        </is>
+      </c>
+      <c r="I1117" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>Ws5SOMeA3_E</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1118" t="n">
+        <v>16057802</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>752964</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>18777</v>
+      </c>
+      <c r="G1118" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1118" t="inlineStr">
+        <is>
+          <t>00:49:24.003507</t>
+        </is>
+      </c>
+      <c r="I1118" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>k-wmRTFVwPA</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY ALTERNATE EDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1119" t="n">
+        <v>3970426</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>260116</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>4715</v>
+      </c>
+      <c r="G1119" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1119" t="inlineStr">
+        <is>
+          <t>00:49:24.003511</t>
+        </is>
+      </c>
+      <c r="I1119" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>vdDuCvCrcKg</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY UNEDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C1120" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1120" t="n">
+        <v>277656646</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>4398453</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>200226</v>
+      </c>
+      <c r="G1120" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1120" t="inlineStr">
+        <is>
+          <t>00:49:24.003515</t>
+        </is>
+      </c>
+      <c r="I1120" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>89kTb73csYg</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Forever Young' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1121" t="n">
+        <v>234045377</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>3953231</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>125694</v>
+      </c>
+      <c r="G1121" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1121" t="inlineStr">
+        <is>
+          <t>00:49:24.003519</t>
+        </is>
+      </c>
+      <c r="I1121" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>jOJbXvjZ-cQ</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1122" t="n">
+        <v>493532504</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>5635528</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>183857</v>
+      </c>
+      <c r="G1122" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1122" t="inlineStr">
+        <is>
+          <t>00:49:24.003523</t>
+        </is>
+      </c>
+      <c r="I1122" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>hKUJmA9O6iA</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1123" t="n">
+        <v>282530159</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>3060255</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>76125</v>
+      </c>
+      <c r="G1123" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1123" t="inlineStr">
+        <is>
+          <t>00:49:24.003527</t>
+        </is>
+      </c>
+      <c r="I1123" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>NvWfJTbrTBY</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난(PLAYING WITH FIRE)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1124" t="n">
+        <v>217901967</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>2362065</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>61941</v>
+      </c>
+      <c r="G1124" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1124" t="inlineStr">
+        <is>
+          <t>00:49:24.003531</t>
+        </is>
+      </c>
+      <c r="I1124" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>ivoS3HUJB3Q</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1125" t="n">
+        <v>299152624</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>3121872</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>76211</v>
+      </c>
+      <c r="G1125" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1125" t="inlineStr">
+        <is>
+          <t>00:49:24.003535</t>
+        </is>
+      </c>
+      <c r="I1125" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>1kYrp_Bs8DU</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1126" t="n">
+        <v>180195551</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>2118011</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>57162</v>
+      </c>
+      <c r="G1126" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1126" t="inlineStr">
+        <is>
+          <t>00:49:24.003539</t>
+        </is>
+      </c>
+      <c r="I1126" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>3fg8pyLKvXE</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>BLACKPINK - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1127" t="n">
+        <v>87152666</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>2894289</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>90161</v>
+      </c>
+      <c r="G1127" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1127" t="inlineStr">
+        <is>
+          <t>00:49:24.003543</t>
+        </is>
+      </c>
+      <c r="I1127" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>VLpUsmBafMQ</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1128" t="n">
+        <v>33130901</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>710821</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>14207</v>
+      </c>
+      <c r="G1128" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1128" t="inlineStr">
+        <is>
+          <t>00:49:24.003547</t>
+        </is>
+      </c>
+      <c r="I1128" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>z9tifvQSu-g</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Typa Girl’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1129" t="n">
+        <v>56980098</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>1232279</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>21935</v>
+      </c>
+      <c r="G1129" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1129" t="inlineStr">
+        <is>
+          <t>00:49:24.003551</t>
+        </is>
+      </c>
+      <c r="I1129" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>NpVJidAKOqc</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1130" t="n">
+        <v>24201010</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>634069</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>11428</v>
+      </c>
+      <c r="G1130" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1130" t="inlineStr">
+        <is>
+          <t>00:49:24.211398</t>
+        </is>
+      </c>
+      <c r="I1130" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>PjrAwC4TIPA</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1131" t="n">
+        <v>154215661</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>3741958</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>98758</v>
+      </c>
+      <c r="G1131" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1131" t="inlineStr">
+        <is>
+          <t>00:49:24.211425</t>
+        </is>
+      </c>
+      <c r="I1131" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>RkKXbweBCcI</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1132" t="n">
+        <v>45017118</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>2783052</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>60703</v>
+      </c>
+      <c r="G1132" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1132" t="inlineStr">
+        <is>
+          <t>00:49:24.211430</t>
+        </is>
+      </c>
+      <c r="I1132" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>aEiznLJCb9o</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' 0926 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1133" t="n">
+        <v>21691137</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>1461521</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>41792</v>
+      </c>
+      <c r="G1133" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1133" t="inlineStr">
+        <is>
+          <t>00:49:24.211435</t>
+        </is>
+      </c>
+      <c r="I1133" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>dNCWe_6HAM8</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' EXCLUSIVE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1134" t="n">
+        <v>905512634</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>13997720</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>937695</v>
+      </c>
+      <c r="G1134" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1134" t="inlineStr">
+        <is>
+          <t>00:49:24.211439</t>
+        </is>
+      </c>
+      <c r="I1134" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>08x_TcTyw8o</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1135" t="n">
+        <v>93516749</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>3541294</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>94883</v>
+      </c>
+      <c r="G1135" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1135" t="inlineStr">
+        <is>
+          <t>00:49:24.211443</t>
+        </is>
+      </c>
+      <c r="I1135" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>kZZYkrDWUls</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0404 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1136" t="n">
+        <v>6094506</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>553241</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>24568</v>
+      </c>
+      <c r="G1136" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1136" t="inlineStr">
+        <is>
+          <t>00:49:24.211447</t>
+        </is>
+      </c>
+      <c r="I1136" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>VFBj5sWfbH4</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0328 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1137" t="n">
+        <v>6142580</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>581970</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>24769</v>
+      </c>
+      <c r="G1137" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1137" t="inlineStr">
+        <is>
+          <t>00:49:24.211451</t>
+        </is>
+      </c>
+      <c r="I1137" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>AkISOALL8Cw</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0321 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1138" t="n">
+        <v>10838008</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>826817</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>29968</v>
+      </c>
+      <c r="G1138" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1138" t="inlineStr">
+        <is>
+          <t>00:49:24.211455</t>
+        </is>
+      </c>
+      <c r="I1138" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>Q88P1gpOJxA</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1139" t="n">
+        <v>27020591</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>2005929</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>75628</v>
+      </c>
+      <c r="G1139" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1139" t="inlineStr">
+        <is>
+          <t>00:49:24.211459</t>
+        </is>
+      </c>
+      <c r="I1139" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>fjp4thii1WY</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1140" t="n">
+        <v>14337877</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>1440904</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>45878</v>
+      </c>
+      <c r="G1140" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1140" t="inlineStr">
+        <is>
+          <t>00:49:24.211463</t>
+        </is>
+      </c>
+      <c r="I1140" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>MBStYsiE618</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1025 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1141" t="n">
+        <v>31339593</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>1431833</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>52484</v>
+      </c>
+      <c r="G1141" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1141" t="inlineStr">
+        <is>
+          <t>00:49:24.211467</t>
+        </is>
+      </c>
+      <c r="I1141" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>3l5jwqPT2yk</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' Jimmy Kimmel Live</t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1142" t="n">
+        <v>56000646</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>2213174</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>58854</v>
+      </c>
+      <c r="G1142" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1142" t="inlineStr">
+        <is>
+          <t>00:49:24.211471</t>
+        </is>
+      </c>
+      <c r="I1142" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>UcvYlihruvo</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1018 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1143" t="n">
+        <v>8769427</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>759262</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>27518</v>
+      </c>
+      <c r="G1143" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1143" t="inlineStr">
+        <is>
+          <t>00:49:24.211475</t>
+        </is>
+      </c>
+      <c r="I1143" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>Fwg9-MXdBYA</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1011 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1144" t="n">
+        <v>15883068</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>1286595</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>35221</v>
+      </c>
+      <c r="G1144" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1144" t="inlineStr">
+        <is>
+          <t>00:49:24.211478</t>
+        </is>
+      </c>
+      <c r="I1144" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>gU2HqP4NxUs</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ 1011 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1145" t="n">
+        <v>325791803</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>5160302</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>142950</v>
+      </c>
+      <c r="G1145" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1145" t="inlineStr">
+        <is>
+          <t>00:49:24.211482</t>
+        </is>
+      </c>
+      <c r="I1145" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>7PpUuLYWcs8</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0719 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1146" t="n">
+        <v>12823332</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>812037</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>28754</v>
+      </c>
+      <c r="G1146" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1146" t="inlineStr">
+        <is>
+          <t>00:49:24.211486</t>
+        </is>
+      </c>
+      <c r="I1146" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>04lxLDmFaOE</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0712 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1147" t="n">
+        <v>10329831</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>832094</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>37853</v>
+      </c>
+      <c r="G1147" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1147" t="inlineStr">
+        <is>
+          <t>00:49:24.211490</t>
+        </is>
+      </c>
+      <c r="I1147" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>JLOwA3o6Zr0</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0705 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1148" t="n">
+        <v>13437175</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>971654</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>36168</v>
+      </c>
+      <c r="G1148" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1148" t="inlineStr">
+        <is>
+          <t>00:49:24.211495</t>
+        </is>
+      </c>
+      <c r="I1148" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>t0RcZWn085g</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0628 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1149" t="n">
+        <v>52033505</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>2286280</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>59220</v>
+      </c>
+      <c r="G1149" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1149" t="inlineStr">
+        <is>
+          <t>00:49:24.211498</t>
+        </is>
+      </c>
+      <c r="I1149" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>tOCUE8wRQYY</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>BLACKPINK ‐ Kill This Love -JP Ver.- Live at BLACKPINK 2019-2020 WORLD TOUR IN YOUR AREA-TOKYO DOME-</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1150" t="n">
+        <v>37035598</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>1228685</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>44969</v>
+      </c>
+      <c r="G1150" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1150" t="inlineStr">
+        <is>
+          <t>00:49:24.451078</t>
+        </is>
+      </c>
+      <c r="I1150" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>-6XwN_wu3KU</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1151" t="n">
+        <v>24865012</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>1077125</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>26098</v>
+      </c>
+      <c r="G1151" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1151" t="inlineStr">
+        <is>
+          <t>00:49:24.451105</t>
+        </is>
+      </c>
+      <c r="I1151" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>_HhAzr5DLik</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1152" t="n">
+        <v>14538945</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>700388</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>22471</v>
+      </c>
+      <c r="G1152" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1152" t="inlineStr">
+        <is>
+          <t>00:49:24.451110</t>
+        </is>
+      </c>
+      <c r="I1152" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>a5gUds01aXY</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' 2019 Coachella Live Performance</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1153" t="n">
+        <v>50641936</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>1886954</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>89566</v>
+      </c>
+      <c r="G1153" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1153" t="inlineStr">
+        <is>
+          <t>00:49:24.451114</t>
+        </is>
+      </c>
+      <c r="I1153" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>vx9CSpnROfs</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0414 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1154" t="n">
+        <v>121229903</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>2330532</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>54742</v>
+      </c>
+      <c r="G1154" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1154" t="inlineStr">
+        <is>
+          <t>00:49:24.451118</t>
+        </is>
+      </c>
+      <c r="I1154" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>RgI8UNOqczE</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1155" t="n">
+        <v>11376914</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>502548</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>16976</v>
+      </c>
+      <c r="G1155" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1155" t="inlineStr">
+        <is>
+          <t>00:49:24.451123</t>
+        </is>
+      </c>
+      <c r="I1155" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>sL175y19MUU</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1156" t="n">
+        <v>12340556</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>463535</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>11736</v>
+      </c>
+      <c r="G1156" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1156" t="inlineStr">
+        <is>
+          <t>00:49:24.451127</t>
+        </is>
+      </c>
+      <c r="I1156" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>GXBDwS2Tizo</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1157" t="n">
+        <v>22246037</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>1033696</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>26526</v>
+      </c>
+      <c r="G1157" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1157" t="inlineStr">
+        <is>
+          <t>00:49:24.451131</t>
+        </is>
+      </c>
+      <c r="I1157" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>rt6G9Vwt1xc</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1158" t="n">
+        <v>17936863</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>793993</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>24508</v>
+      </c>
+      <c r="G1158" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1158" t="inlineStr">
+        <is>
+          <t>00:49:24.451135</t>
+        </is>
+      </c>
+      <c r="I1158" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>MkG24J87IUk</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1159" t="n">
+        <v>49496606</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>1709793</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>46451</v>
+      </c>
+      <c r="G1159" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1159" t="inlineStr">
+        <is>
+          <t>00:49:24.451139</t>
+        </is>
+      </c>
+      <c r="I1159" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>o4GHoqGtRkg</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Don't Know What To Do’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1160" t="n">
+        <v>67658412</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>1722242</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>48437</v>
+      </c>
+      <c r="G1160" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1160" t="inlineStr">
+        <is>
+          <t>00:49:24.451142</t>
+        </is>
+      </c>
+      <c r="I1160" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>cxNIewNXpcg</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SOLO' + '뚜두뚜두(DDU-DU DDU-DU)' + 'FOREVER YOUNG' in 2018 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1161" t="n">
+        <v>383373844</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>6189799</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>209145</v>
+      </c>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1161" t="inlineStr">
+        <is>
+          <t>00:49:24.451146</t>
+        </is>
+      </c>
+      <c r="I1161" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>7nukOecMf-U</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1216 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1162" t="n">
+        <v>4905625</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>224811</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>7750</v>
+      </c>
+      <c r="G1162" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1162" t="inlineStr">
+        <is>
+          <t>00:49:24.451150</t>
+        </is>
+      </c>
+      <c r="I1162" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>CPSH3ljpkZ4</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1209 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1163" t="n">
+        <v>13091312</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>413079</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>13155</v>
+      </c>
+      <c r="G1163" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1163" t="inlineStr">
+        <is>
+          <t>00:49:24.451154</t>
+        </is>
+      </c>
+      <c r="I1163" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>hxDXhh2sE1g</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1202 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1164" t="n">
+        <v>5929304</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>253722</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>9487</v>
+      </c>
+      <c r="G1164" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1164" t="inlineStr">
+        <is>
+          <t>00:49:24.451158</t>
+        </is>
+      </c>
+      <c r="I1164" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>smimdoBjeAE</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1125 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1165" t="n">
+        <v>17103220</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>676368</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>25618</v>
+      </c>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1165" t="inlineStr">
+        <is>
+          <t>00:49:24.451162</t>
+        </is>
+      </c>
+      <c r="I1165" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>N1C_G3sfzXo</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' PERFORMANCE [IN YOUR AREA] SEOUL</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1166" t="n">
+        <v>29708246</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>1034321</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>26377</v>
+      </c>
+      <c r="G1166" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1166" t="inlineStr">
+        <is>
+          <t>00:49:24.451166</t>
+        </is>
+      </c>
+      <c r="I1166" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>5hwepTxNKtE</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0805 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1167" t="n">
+        <v>72799264</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>1183706</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>44061</v>
+      </c>
+      <c r="G1167" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1167" t="inlineStr">
+        <is>
+          <t>00:49:24.451170</t>
+        </is>
+      </c>
+      <c r="I1167" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>4KRdmXcJWQU</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1168" t="n">
+        <v>8760259</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>416005</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>11729</v>
+      </c>
+      <c r="G1168" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1168" t="inlineStr">
+        <is>
+          <t>00:49:24.451174</t>
+        </is>
+      </c>
+      <c r="I1168" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>HhyRAPKiXi4</t>
+        </is>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1169" t="n">
+        <v>3983935</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>203231</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>7211</v>
+      </c>
+      <c r="G1169" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1169" t="inlineStr">
+        <is>
+          <t>00:49:24.451178</t>
+        </is>
+      </c>
+      <c r="I1169" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>PMsBMoc9eFg</t>
+        </is>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0722 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1170" t="n">
+        <v>12211595</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>439700</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>19912</v>
+      </c>
+      <c r="G1170" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1170" t="inlineStr">
+        <is>
+          <t>00:49:24.670493</t>
+        </is>
+      </c>
+      <c r="I1170" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>xqWjJP_WT-0</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1171" t="n">
+        <v>13207694</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>687670</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>24680</v>
+      </c>
+      <c r="G1171" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1171" t="inlineStr">
+        <is>
+          <t>00:49:24.670519</t>
+        </is>
+      </c>
+      <c r="I1171" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>WaIGc9QmV2w</t>
+        </is>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1172" t="n">
+        <v>3357390</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>185627</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>7354</v>
+      </c>
+      <c r="G1172" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1172" t="inlineStr">
+        <is>
+          <t>00:49:24.670524</t>
+        </is>
+      </c>
+      <c r="I1172" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>67otJZ6qe9Y</t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0715 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1173" t="n">
+        <v>44058643</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>981350</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>33568</v>
+      </c>
+      <c r="G1173" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1173" t="inlineStr">
+        <is>
+          <t>00:49:24.670530</t>
+        </is>
+      </c>
+      <c r="I1173" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>PZ5t29qgGAM</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1174" t="n">
+        <v>11322058</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>511266</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>18488</v>
+      </c>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1174" t="inlineStr">
+        <is>
+          <t>00:49:24.670534</t>
+        </is>
+      </c>
+      <c r="I1174" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>dEnDjgoLLY4</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1175" t="n">
+        <v>6471671</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>327012</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>12289</v>
+      </c>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>00:49:24.670538</t>
+        </is>
+      </c>
+      <c r="I1175" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>0uje7GB8Azk</t>
+        </is>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1176" t="n">
+        <v>10024503</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>351729</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>13475</v>
+      </c>
+      <c r="G1176" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1176" t="inlineStr">
+        <is>
+          <t>00:49:24.670542</t>
+        </is>
+      </c>
+      <c r="I1176" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>F6IR7luozPw</t>
+        </is>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0708 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1177" t="n">
+        <v>3908419</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>226798</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>12155</v>
+      </c>
+      <c r="G1177" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1177" t="inlineStr">
+        <is>
+          <t>00:49:24.670546</t>
+        </is>
+      </c>
+      <c r="I1177" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>rw2-h5JNLqM</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1178" t="n">
+        <v>15135905</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>692874</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>22354</v>
+      </c>
+      <c r="G1178" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1178" t="inlineStr">
+        <is>
+          <t>00:49:24.670550</t>
+        </is>
+      </c>
+      <c r="I1178" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>TIOCHR0OxOQ</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0701 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1179" t="n">
+        <v>4463043</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>260868</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>14771</v>
+      </c>
+      <c r="G1179" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1179" t="inlineStr">
+        <is>
+          <t>00:49:24.670554</t>
+        </is>
+      </c>
+      <c r="I1179" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>PUcGXTSCRLA</t>
+        </is>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0624 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1180" t="n">
+        <v>7591802</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>351495</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>13062</v>
+      </c>
+      <c r="G1180" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1180" t="inlineStr">
+        <is>
+          <t>00:49:24.670558</t>
+        </is>
+      </c>
+      <c r="I1180" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>b5dUYf_uPaY</t>
+        </is>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1181" t="n">
+        <v>44057886</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>1105906</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>33817</v>
+      </c>
+      <c r="G1181" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1181" t="inlineStr">
+        <is>
+          <t>00:49:24.670562</t>
+        </is>
+      </c>
+      <c r="I1181" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>n7ukhNJvQ8s</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1182" t="n">
+        <v>63822697</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>1131873</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>40075</v>
+      </c>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1182" t="inlineStr">
+        <is>
+          <t>00:49:24.670566</t>
+        </is>
+      </c>
+      <c r="I1182" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>f1xIeTCgoFk</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>BLACKPINK - INTRO +  ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2018 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1183" t="n">
+        <v>35626227</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>772737</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>23948</v>
+      </c>
+      <c r="G1183" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1183" t="inlineStr">
+        <is>
+          <t>00:49:24.670570</t>
+        </is>
+      </c>
+      <c r="I1183" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>skIfzl96Gc0</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SO HOT' (THEBLACKLABEL Remix) in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1184" t="n">
+        <v>87637398</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>2154561</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>63138</v>
+      </c>
+      <c r="G1184" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1184" t="inlineStr">
+        <is>
+          <t>00:49:24.670575</t>
+        </is>
+      </c>
+      <c r="I1184" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>PoHD4wfwC6Y</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1185" t="n">
+        <v>8397459</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>300182</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>7160</v>
+      </c>
+      <c r="G1185" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1185" t="inlineStr">
+        <is>
+          <t>00:49:24.670579</t>
+        </is>
+      </c>
+      <c r="I1185" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>wwuZtpS8FNI</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 1001 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1186" t="n">
+        <v>35285425</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>580177</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>15677</v>
+      </c>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1186" t="inlineStr">
+        <is>
+          <t>00:49:24.670583</t>
+        </is>
+      </c>
+      <c r="I1186" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>GE7x2fVVsXM</t>
+        </is>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>BLACKPINK - OPENING MEDLDY 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1187" t="n">
+        <v>16251748</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>445925</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>10610</v>
+      </c>
+      <c r="G1187" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1187" t="inlineStr">
+        <is>
+          <t>00:49:24.670587</t>
+        </is>
+      </c>
+      <c r="I1187" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>_7TMluHVx4Y</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SURE THING (Miguel)' COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1188" t="n">
+        <v>109521693</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>1771572</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>69454</v>
+      </c>
+      <c r="G1188" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1188" t="inlineStr">
+        <is>
+          <t>00:49:24.670591</t>
+        </is>
+      </c>
+      <c r="I1188" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>X3P6dnL2OyY</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'PARTITION (Beyonce)' DANCE COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1189" t="n">
+        <v>48798604</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>1227693</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>30774</v>
+      </c>
+      <c r="G1189" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1189" t="inlineStr">
+        <is>
+          <t>00:49:24.670595</t>
+        </is>
+      </c>
+      <c r="I1189" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>RczrR4FVKzg</t>
+        </is>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST) Remix ver.' 0723 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1190" t="n">
+        <v>20890350</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>625031</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>19593</v>
+      </c>
+      <c r="G1190" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1190" t="inlineStr">
+        <is>
+          <t>00:49:24.881728</t>
+        </is>
+      </c>
+      <c r="I1190" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>vW1PeCzs7Sg</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0716 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1191" t="n">
+        <v>4603500</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>204546</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>6755</v>
+      </c>
+      <c r="G1191" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1191" t="inlineStr">
+        <is>
+          <t>00:49:24.881754</t>
+        </is>
+      </c>
+      <c r="I1191" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>ZL8LqlKtpVE</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0709 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1192" t="n">
+        <v>4522167</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>211979</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>6455</v>
+      </c>
+      <c r="G1192" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1192" t="inlineStr">
+        <is>
+          <t>00:49:24.881759</t>
+        </is>
+      </c>
+      <c r="I1192" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>fWOAe_xXTQs</t>
+        </is>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0702 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1193" t="n">
+        <v>7131421</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>308283</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>11346</v>
+      </c>
+      <c r="G1193" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1193" t="inlineStr">
+        <is>
+          <t>00:49:24.881763</t>
+        </is>
+      </c>
+      <c r="I1193" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>TWRSR7y1288</t>
+        </is>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0625 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1194" t="n">
+        <v>31719946</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>750913</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>23567</v>
+      </c>
+      <c r="G1194" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1194" t="inlineStr">
+        <is>
+          <t>00:49:24.881767</t>
+        </is>
+      </c>
+      <c r="I1194" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>VQLn90MACUQ</t>
+        </is>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난 (PLAYING WITH FIRE)’ + ‘붐바야 (BOOMBAYAH)’  in 2017 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1195" t="n">
+        <v>51504788</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>1047037</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>22139</v>
+      </c>
+      <c r="G1195" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1195" t="inlineStr">
+        <is>
+          <t>00:49:24.881771</t>
+        </is>
+      </c>
+      <c r="I1195" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>_paRxWTIyAo</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1196" t="n">
+        <v>121629785</v>
+      </c>
+      <c r="E1196" t="n">
+        <v>1968353</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>39472</v>
+      </c>
+      <c r="G1196" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1196" t="inlineStr">
+        <is>
+          <t>00:49:24.881775</t>
+        </is>
+      </c>
+      <c r="I1196" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>FOv-Rsp1LS0</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - Interview(마지막 무대 인사) + '불장난(PLAYING WITH FIRE)' 1211 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1197" t="n">
+        <v>2832660</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>127406</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>5447</v>
+      </c>
+      <c r="G1197" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1197" t="inlineStr">
+        <is>
+          <t>00:49:24.881778</t>
+        </is>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>hTDRE5d5A2M</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1204 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1198" t="n">
+        <v>4060153</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>199383</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>6802</v>
+      </c>
+      <c r="G1198" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1198" t="inlineStr">
+        <is>
+          <t>00:49:24.881782</t>
+        </is>
+      </c>
+      <c r="I1198" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>HoAdqZW4ptY</t>
+        </is>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1127 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1199" t="n">
+        <v>6877455</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>269534</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>7413</v>
+      </c>
+      <c r="G1199" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1199" t="inlineStr">
+        <is>
+          <t>00:49:24.881788</t>
+        </is>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>TklpzjGlqFE</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1120 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1200" t="n">
+        <v>13595877</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>366289</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>8693</v>
+      </c>
+      <c r="G1200" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1200" t="inlineStr">
+        <is>
+          <t>00:49:24.881792</t>
+        </is>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>ZwVTC_686Sw</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 MELON MUSIC AWARDS</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1201" t="n">
+        <v>77761835</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>1372995</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>35274</v>
+      </c>
+      <c r="G1201" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1201" t="inlineStr">
+        <is>
+          <t>00:49:24.881796</t>
+        </is>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>_NVwS4mcVYg</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1202" t="n">
+        <v>22433317</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>626830</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>19901</v>
+      </c>
+      <c r="G1202" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1202" t="inlineStr">
+        <is>
+          <t>00:49:24.881800</t>
+        </is>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>5LWCPzwiN28</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1203" t="n">
+        <v>67270504</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>963622</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>32148</v>
+      </c>
+      <c r="G1203" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1203" t="inlineStr">
+        <is>
+          <t>00:49:24.881804</t>
+        </is>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>o4rSRaqvHyc</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0911 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1204" t="n">
+        <v>6193223</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>253910</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>6884</v>
+      </c>
+      <c r="G1204" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1204" t="inlineStr">
+        <is>
+          <t>00:49:24.881808</t>
+        </is>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>6F0UWgSSQqU</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0904 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1205" t="n">
+        <v>9645106</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>255297</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>9287</v>
+      </c>
+      <c r="G1205" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1205" t="inlineStr">
+        <is>
+          <t>00:49:24.881812</t>
+        </is>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>13XTnp3Lp84</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1206" t="n">
+        <v>31571167</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>649455</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>20485</v>
+      </c>
+      <c r="G1206" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1206" t="inlineStr">
+        <is>
+          <t>00:49:24.881816</t>
+        </is>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>EKHdMwRaU60</t>
+        </is>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1207" t="n">
+        <v>60691294</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>828857</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>23106</v>
+      </c>
+      <c r="G1207" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1207" t="inlineStr">
+        <is>
+          <t>00:49:24.881820</t>
+        </is>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>metZ_f8aqC0</t>
+        </is>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0821 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1208" t="n">
+        <v>41557813</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>891599</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>26127</v>
+      </c>
+      <c r="G1208" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1208" t="inlineStr">
+        <is>
+          <t>00:49:24.881824</t>
+        </is>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>RGmL76BBGZk</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0821 SBS Inkigayo : '휘파람(WHISTLE)' NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1209" t="n">
+        <v>17053609</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>540953</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>14615</v>
+      </c>
+      <c r="G1209" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1209" t="inlineStr">
+        <is>
+          <t>00:49:24.881828</t>
+        </is>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>vAqAp1tJnkc</t>
+        </is>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람’(WHISTLE) 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1210" t="n">
+        <v>48079612</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>857715</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>29209</v>
+      </c>
+      <c r="G1210" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1210" t="inlineStr">
+        <is>
+          <t>00:49:25.033824</t>
+        </is>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>LpSH8MrYCfg</t>
+        </is>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1211" t="n">
+        <v>168507745</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>2538864</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>80121</v>
+      </c>
+      <c r="G1211" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="H1211" t="inlineStr">
+        <is>
+          <t>00:49:25.033852</t>
+        </is>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_videos_count_data.xlsx
+++ b/CLEANED_videos_count_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50090,6 +50090,4967 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>YudHcBIxlYw</t>
+        </is>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1212" t="n">
+        <v>397032041</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>10148008</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>1347143</v>
+      </c>
+      <c r="G1212" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1212" t="inlineStr">
+        <is>
+          <t>00:49:24.227246</t>
+        </is>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>POe9SOEKotk</t>
+        </is>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1213" t="n">
+        <v>527023772</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>10847488</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>2238218</v>
+      </c>
+      <c r="G1213" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1213" t="inlineStr">
+        <is>
+          <t>00:49:24.227271</t>
+        </is>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>gQlMMD8auMs</t>
+        </is>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1214" t="n">
+        <v>737692226</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>16093150</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>3566912</v>
+      </c>
+      <c r="G1214" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1214" t="inlineStr">
+        <is>
+          <t>00:49:24.227277</t>
+        </is>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>awkkyBH2zEo</t>
+        </is>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' M\/V</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1215" t="n">
+        <v>656100514</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>17325133</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>2814638</v>
+      </c>
+      <c r="G1215" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1215" t="inlineStr">
+        <is>
+          <t>00:49:24.227281</t>
+        </is>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>K9_VFxzCuQ0</t>
+        </is>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' M\/V</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1216" t="n">
+        <v>268728890</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>7385458</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>1241561</v>
+      </c>
+      <c r="G1216" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1216" t="inlineStr">
+        <is>
+          <t>00:49:24.227285</t>
+        </is>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>CKZvWhCqx1s</t>
+        </is>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' M\/V</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1217" t="n">
+        <v>343138966</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>11351159</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>2588104</v>
+      </c>
+      <c r="G1217" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1217" t="inlineStr">
+        <is>
+          <t>00:49:24.227290</t>
+        </is>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>dyRsYk0LyA8</t>
+        </is>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' M\/V</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1218" t="n">
+        <v>710048086</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>15501540</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>2043103</v>
+      </c>
+      <c r="G1218" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1218" t="inlineStr">
+        <is>
+          <t>00:49:24.227294</t>
+        </is>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>vRXZj0DzXIA</t>
+        </is>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Ice Cream (with Selena Gomez)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1219" t="n">
+        <v>872430828</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>19924782</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>3025588</v>
+      </c>
+      <c r="G1219" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1219" t="inlineStr">
+        <is>
+          <t>00:49:24.227298</t>
+        </is>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>ioNng23DkIM</t>
+        </is>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' M\/V</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1220" t="n">
+        <v>1243919579</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>24757182</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>5097910</v>
+      </c>
+      <c r="G1220" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1220" t="inlineStr">
+        <is>
+          <t>00:49:24.227303</t>
+        </is>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>2S24-y0Ij3Y</t>
+        </is>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' M\/V</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1221" t="n">
+        <v>1875083923</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>25023298</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>2479313</v>
+      </c>
+      <c r="G1221" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1221" t="inlineStr">
+        <is>
+          <t>00:49:24.227307</t>
+        </is>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>b73BI9eUkjM</t>
+        </is>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' M\/V</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1222" t="n">
+        <v>962875378</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>14624516</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>3013159</v>
+      </c>
+      <c r="G1222" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1222" t="inlineStr">
+        <is>
+          <t>00:49:24.227311</t>
+        </is>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>IHNzOHi8sJs</t>
+        </is>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1223" t="n">
+        <v>2125484860</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>23436143</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>3284692</v>
+      </c>
+      <c r="G1223" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1223" t="inlineStr">
+        <is>
+          <t>00:49:24.227315</t>
+        </is>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>Amq-qlqbjYA</t>
+        </is>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '마지막처럼 (AS IF IT'S YOUR LAST)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1224" t="n">
+        <v>1323017272</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>13255824</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1658995</v>
+      </c>
+      <c r="G1224" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1224" t="inlineStr">
+        <is>
+          <t>00:49:24.227319</t>
+        </is>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>FzVR_fymZw4</t>
+        </is>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' M\/V</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1225" t="n">
+        <v>351571533</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>6132154</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>479268</v>
+      </c>
+      <c r="G1225" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1225" t="inlineStr">
+        <is>
+          <t>00:49:24.227323</t>
+        </is>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>9pdj4iJD08s</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1226" t="n">
+        <v>843737454</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>8587953</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>530059</v>
+      </c>
+      <c r="G1226" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1226" t="inlineStr">
+        <is>
+          <t>00:49:24.227327</t>
+        </is>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>dISNgvVpWlo</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1227" t="n">
+        <v>864015420</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>9966262</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>617217</v>
+      </c>
+      <c r="G1227" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1227" t="inlineStr">
+        <is>
+          <t>00:49:24.227331</t>
+        </is>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>bwmSjveL3Lc</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1228" t="n">
+        <v>1635894095</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>16171283</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1123371</v>
+      </c>
+      <c r="G1228" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1228" t="inlineStr">
+        <is>
+          <t>00:49:24.227335</t>
+        </is>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>4XZz3WXRw0A</t>
+        </is>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1229" t="n">
+        <v>124245511</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>2977744</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>97054</v>
+      </c>
+      <c r="G1229" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1229" t="inlineStr">
+        <is>
+          <t>00:49:24.227339</t>
+        </is>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>RFMi3v0TXP8</t>
+        </is>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1230" t="n">
+        <v>206635329</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>4829854</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>132912</v>
+      </c>
+      <c r="G1230" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1230" t="inlineStr">
+        <is>
+          <t>00:49:24.227347</t>
+        </is>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>fr-eHz87XoM</t>
+        </is>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1231" t="n">
+        <v>116821473</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>3696440</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>82427</v>
+      </c>
+      <c r="G1231" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1231" t="inlineStr">
+        <is>
+          <t>00:49:24.482708</t>
+        </is>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>ZJ6QQLDIzrI</t>
+        </is>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1232" t="n">
+        <v>86505774</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>3023576</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>67377</v>
+      </c>
+      <c r="G1232" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1232" t="inlineStr">
+        <is>
+          <t>00:49:24.482732</t>
+        </is>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>z6CSW2yu8Mg</t>
+        </is>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' Dance Performance</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1233" t="n">
+        <v>109084853</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>3341173</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>145870</v>
+      </c>
+      <c r="G1233" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1233" t="inlineStr">
+        <is>
+          <t>00:49:24.482738</t>
+        </is>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>YxksUfnuEbI</t>
+        </is>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1234" t="n">
+        <v>289982093</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>5550814</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>230036</v>
+      </c>
+      <c r="G1234" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1234" t="inlineStr">
+        <is>
+          <t>00:49:24.482742</t>
+        </is>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>32si5cfrCNc</t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1235" t="n">
+        <v>1501702066</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>17806796</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>926798</v>
+      </c>
+      <c r="G1235" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1235" t="inlineStr">
+        <is>
+          <t>00:49:24.482746</t>
+        </is>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>kqXGnxJ-S3k</t>
+        </is>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>JENNIE - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1236" t="n">
+        <v>11024582</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>953060</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>26985</v>
+      </c>
+      <c r="G1236" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1236" t="inlineStr">
+        <is>
+          <t>00:49:24.482751</t>
+        </is>
+      </c>
+      <c r="I1236" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>bqzDuRz_P7g</t>
+        </is>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Don't Know What To Do' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1237" t="n">
+        <v>311974017</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>4281897</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>118676</v>
+      </c>
+      <c r="G1237" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1237" t="inlineStr">
+        <is>
+          <t>00:49:24.482756</t>
+        </is>
+      </c>
+      <c r="I1237" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>MOwaUlXZxkI</t>
+        </is>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1238" t="n">
+        <v>491080343</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>6138280</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>169516</v>
+      </c>
+      <c r="G1238" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1238" t="inlineStr">
+        <is>
+          <t>00:49:24.482760</t>
+        </is>
+      </c>
+      <c r="I1238" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>Ws5SOMeA3_E</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1239" t="n">
+        <v>16059876</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>752999</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>18778</v>
+      </c>
+      <c r="G1239" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1239" t="inlineStr">
+        <is>
+          <t>00:49:24.482764</t>
+        </is>
+      </c>
+      <c r="I1239" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>k-wmRTFVwPA</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY ALTERNATE EDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1240" t="n">
+        <v>3970786</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>260114</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>4714</v>
+      </c>
+      <c r="G1240" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1240" t="inlineStr">
+        <is>
+          <t>00:49:24.482768</t>
+        </is>
+      </c>
+      <c r="I1240" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>vdDuCvCrcKg</t>
+        </is>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY UNEDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1241" t="n">
+        <v>277709000</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>4398815</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>200289</v>
+      </c>
+      <c r="G1241" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1241" t="inlineStr">
+        <is>
+          <t>00:49:24.482773</t>
+        </is>
+      </c>
+      <c r="I1241" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>89kTb73csYg</t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Forever Young' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1242" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1242" t="n">
+        <v>234081947</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>3953608</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>125692</v>
+      </c>
+      <c r="G1242" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1242" t="inlineStr">
+        <is>
+          <t>00:49:24.482777</t>
+        </is>
+      </c>
+      <c r="I1242" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>jOJbXvjZ-cQ</t>
+        </is>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1243" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1243" t="n">
+        <v>493568361</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>5635793</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>183857</v>
+      </c>
+      <c r="G1243" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1243" t="inlineStr">
+        <is>
+          <t>00:49:24.482781</t>
+        </is>
+      </c>
+      <c r="I1243" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>hKUJmA9O6iA</t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1244" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1244" t="n">
+        <v>282580048</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>3060582</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>76128</v>
+      </c>
+      <c r="G1244" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1244" t="inlineStr">
+        <is>
+          <t>00:49:24.482785</t>
+        </is>
+      </c>
+      <c r="I1244" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>NvWfJTbrTBY</t>
+        </is>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난(PLAYING WITH FIRE)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1245" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1245" t="n">
+        <v>217935147</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>2362258</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>61942</v>
+      </c>
+      <c r="G1245" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1245" t="inlineStr">
+        <is>
+          <t>00:49:24.482789</t>
+        </is>
+      </c>
+      <c r="I1245" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>ivoS3HUJB3Q</t>
+        </is>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1246" t="n">
+        <v>299217500</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>3122332</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>76219</v>
+      </c>
+      <c r="G1246" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1246" t="inlineStr">
+        <is>
+          <t>00:49:24.482793</t>
+        </is>
+      </c>
+      <c r="I1246" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>1kYrp_Bs8DU</t>
+        </is>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1247" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1247" t="n">
+        <v>180219186</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>2118146</v>
+      </c>
+      <c r="F1247" t="n">
+        <v>57160</v>
+      </c>
+      <c r="G1247" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1247" t="inlineStr">
+        <is>
+          <t>00:49:24.482797</t>
+        </is>
+      </c>
+      <c r="I1247" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>3fg8pyLKvXE</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>BLACKPINK - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1248" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1248" t="n">
+        <v>87166755</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>2894747</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>90166</v>
+      </c>
+      <c r="G1248" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1248" t="inlineStr">
+        <is>
+          <t>00:49:24.482801</t>
+        </is>
+      </c>
+      <c r="I1248" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>VLpUsmBafMQ</t>
+        </is>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1249" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1249" t="n">
+        <v>33322444</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>712405</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>14224</v>
+      </c>
+      <c r="G1249" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1249" t="inlineStr">
+        <is>
+          <t>00:49:24.482805</t>
+        </is>
+      </c>
+      <c r="I1249" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>z9tifvQSu-g</t>
+        </is>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Typa Girl’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1250" t="n">
+        <v>57172065</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>1233799</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>21960</v>
+      </c>
+      <c r="G1250" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1250" t="inlineStr">
+        <is>
+          <t>00:49:24.482809</t>
+        </is>
+      </c>
+      <c r="I1250" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>NpVJidAKOqc</t>
+        </is>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1251" t="n">
+        <v>24290970</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>634756</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>11435</v>
+      </c>
+      <c r="G1251" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1251" t="inlineStr">
+        <is>
+          <t>00:49:24.668105</t>
+        </is>
+      </c>
+      <c r="I1251" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>PjrAwC4TIPA</t>
+        </is>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1252" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1252" t="n">
+        <v>154371389</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>3742620</v>
+      </c>
+      <c r="F1252" t="n">
+        <v>98765</v>
+      </c>
+      <c r="G1252" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1252" t="inlineStr">
+        <is>
+          <t>00:49:24.668129</t>
+        </is>
+      </c>
+      <c r="I1252" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>RkKXbweBCcI</t>
+        </is>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C1253" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1253" t="n">
+        <v>45043592</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>2783193</v>
+      </c>
+      <c r="F1253" t="n">
+        <v>60701</v>
+      </c>
+      <c r="G1253" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1253" t="inlineStr">
+        <is>
+          <t>00:49:24.668134</t>
+        </is>
+      </c>
+      <c r="I1253" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>aEiznLJCb9o</t>
+        </is>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' 0926 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1254" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1254" t="n">
+        <v>21692221</v>
+      </c>
+      <c r="E1254" t="n">
+        <v>1461487</v>
+      </c>
+      <c r="F1254" t="n">
+        <v>41793</v>
+      </c>
+      <c r="G1254" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1254" t="inlineStr">
+        <is>
+          <t>00:49:24.668139</t>
+        </is>
+      </c>
+      <c r="I1254" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>dNCWe_6HAM8</t>
+        </is>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' EXCLUSIVE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1255" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1255" t="n">
+        <v>906129979</v>
+      </c>
+      <c r="E1255" t="n">
+        <v>14001252</v>
+      </c>
+      <c r="F1255" t="n">
+        <v>940513</v>
+      </c>
+      <c r="G1255" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1255" t="inlineStr">
+        <is>
+          <t>00:49:24.668143</t>
+        </is>
+      </c>
+      <c r="I1255" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>08x_TcTyw8o</t>
+        </is>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C1256" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1256" t="n">
+        <v>93530470</v>
+      </c>
+      <c r="E1256" t="n">
+        <v>3541311</v>
+      </c>
+      <c r="F1256" t="n">
+        <v>94889</v>
+      </c>
+      <c r="G1256" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1256" t="inlineStr">
+        <is>
+          <t>00:49:24.668147</t>
+        </is>
+      </c>
+      <c r="I1256" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>kZZYkrDWUls</t>
+        </is>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0404 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1257" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1257" t="n">
+        <v>6094833</v>
+      </c>
+      <c r="E1257" t="n">
+        <v>553244</v>
+      </c>
+      <c r="F1257" t="n">
+        <v>24568</v>
+      </c>
+      <c r="G1257" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1257" t="inlineStr">
+        <is>
+          <t>00:49:24.668151</t>
+        </is>
+      </c>
+      <c r="I1257" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>VFBj5sWfbH4</t>
+        </is>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0328 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1258" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1258" t="n">
+        <v>6142885</v>
+      </c>
+      <c r="E1258" t="n">
+        <v>581957</v>
+      </c>
+      <c r="F1258" t="n">
+        <v>24767</v>
+      </c>
+      <c r="G1258" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1258" t="inlineStr">
+        <is>
+          <t>00:49:24.668155</t>
+        </is>
+      </c>
+      <c r="I1258" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>AkISOALL8Cw</t>
+        </is>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0321 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1259" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1259" t="n">
+        <v>10839051</v>
+      </c>
+      <c r="E1259" t="n">
+        <v>826823</v>
+      </c>
+      <c r="F1259" t="n">
+        <v>29964</v>
+      </c>
+      <c r="G1259" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1259" t="inlineStr">
+        <is>
+          <t>00:49:24.668159</t>
+        </is>
+      </c>
+      <c r="I1259" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>Q88P1gpOJxA</t>
+        </is>
+      </c>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1260" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1260" t="n">
+        <v>27022274</v>
+      </c>
+      <c r="E1260" t="n">
+        <v>2005918</v>
+      </c>
+      <c r="F1260" t="n">
+        <v>75628</v>
+      </c>
+      <c r="G1260" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1260" t="inlineStr">
+        <is>
+          <t>00:49:24.668163</t>
+        </is>
+      </c>
+      <c r="I1260" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>fjp4thii1WY</t>
+        </is>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1261" t="n">
+        <v>14339178</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>1440890</v>
+      </c>
+      <c r="F1261" t="n">
+        <v>45876</v>
+      </c>
+      <c r="G1261" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1261" t="inlineStr">
+        <is>
+          <t>00:49:24.668167</t>
+        </is>
+      </c>
+      <c r="I1261" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>MBStYsiE618</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1025 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1262" t="n">
+        <v>31342154</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>1431849</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>52484</v>
+      </c>
+      <c r="G1262" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1262" t="inlineStr">
+        <is>
+          <t>00:49:24.668171</t>
+        </is>
+      </c>
+      <c r="I1262" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>3l5jwqPT2yk</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' Jimmy Kimmel Live</t>
+        </is>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1263" t="n">
+        <v>56008808</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>2213241</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>58853</v>
+      </c>
+      <c r="G1263" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1263" t="inlineStr">
+        <is>
+          <t>00:49:24.668175</t>
+        </is>
+      </c>
+      <c r="I1263" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>UcvYlihruvo</t>
+        </is>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1018 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1264" t="n">
+        <v>8769663</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>759253</v>
+      </c>
+      <c r="F1264" t="n">
+        <v>27517</v>
+      </c>
+      <c r="G1264" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1264" t="inlineStr">
+        <is>
+          <t>00:49:24.668179</t>
+        </is>
+      </c>
+      <c r="I1264" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>Fwg9-MXdBYA</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1011 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1265" t="n">
+        <v>15883504</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>1286581</v>
+      </c>
+      <c r="F1265" t="n">
+        <v>35219</v>
+      </c>
+      <c r="G1265" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1265" t="inlineStr">
+        <is>
+          <t>00:49:24.668183</t>
+        </is>
+      </c>
+      <c r="I1265" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>gU2HqP4NxUs</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ 1011 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1266" t="n">
+        <v>325887992</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>5160907</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>142947</v>
+      </c>
+      <c r="G1266" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1266" t="inlineStr">
+        <is>
+          <t>00:49:24.668187</t>
+        </is>
+      </c>
+      <c r="I1266" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>7PpUuLYWcs8</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0719 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1267" t="n">
+        <v>12823797</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>812021</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>28754</v>
+      </c>
+      <c r="G1267" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1267" t="inlineStr">
+        <is>
+          <t>00:49:24.668190</t>
+        </is>
+      </c>
+      <c r="I1267" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>04lxLDmFaOE</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0712 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1268" t="n">
+        <v>10330071</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>832090</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>37852</v>
+      </c>
+      <c r="G1268" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1268" t="inlineStr">
+        <is>
+          <t>00:49:24.668195</t>
+        </is>
+      </c>
+      <c r="I1268" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>JLOwA3o6Zr0</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0705 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1269" t="n">
+        <v>13437494</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>971644</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>36167</v>
+      </c>
+      <c r="G1269" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1269" t="inlineStr">
+        <is>
+          <t>00:49:24.668199</t>
+        </is>
+      </c>
+      <c r="I1269" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>t0RcZWn085g</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0628 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1270" t="n">
+        <v>52037747</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>2286312</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>59219</v>
+      </c>
+      <c r="G1270" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1270" t="inlineStr">
+        <is>
+          <t>00:49:24.668244</t>
+        </is>
+      </c>
+      <c r="I1270" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>tOCUE8wRQYY</t>
+        </is>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>BLACKPINK ‐ Kill This Love -JP Ver.- Live at BLACKPINK 2019-2020 WORLD TOUR IN YOUR AREA-TOKYO DOME-</t>
+        </is>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1271" t="n">
+        <v>37040917</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>1228697</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>44968</v>
+      </c>
+      <c r="G1271" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1271" t="inlineStr">
+        <is>
+          <t>00:49:24.922728</t>
+        </is>
+      </c>
+      <c r="I1271" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>-6XwN_wu3KU</t>
+        </is>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1272" t="n">
+        <v>24868117</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>1077161</v>
+      </c>
+      <c r="F1272" t="n">
+        <v>26097</v>
+      </c>
+      <c r="G1272" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1272" t="inlineStr">
+        <is>
+          <t>00:49:24.922752</t>
+        </is>
+      </c>
+      <c r="I1272" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>_HhAzr5DLik</t>
+        </is>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1273" t="n">
+        <v>14540753</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>700424</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>22472</v>
+      </c>
+      <c r="G1273" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1273" t="inlineStr">
+        <is>
+          <t>00:49:24.922757</t>
+        </is>
+      </c>
+      <c r="I1273" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>a5gUds01aXY</t>
+        </is>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' 2019 Coachella Live Performance</t>
+        </is>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1274" t="n">
+        <v>50646541</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>1886954</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>89567</v>
+      </c>
+      <c r="G1274" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1274" t="inlineStr">
+        <is>
+          <t>00:49:24.922762</t>
+        </is>
+      </c>
+      <c r="I1274" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>vx9CSpnROfs</t>
+        </is>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0414 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1275" t="n">
+        <v>121248054</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>2330638</v>
+      </c>
+      <c r="F1275" t="n">
+        <v>54737</v>
+      </c>
+      <c r="G1275" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1275" t="inlineStr">
+        <is>
+          <t>00:49:24.922766</t>
+        </is>
+      </c>
+      <c r="I1275" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>RgI8UNOqczE</t>
+        </is>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1276" t="n">
+        <v>11377517</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>502543</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>16973</v>
+      </c>
+      <c r="G1276" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1276" t="inlineStr">
+        <is>
+          <t>00:49:24.922770</t>
+        </is>
+      </c>
+      <c r="I1276" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>sL175y19MUU</t>
+        </is>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1277" t="n">
+        <v>12341500</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>463561</v>
+      </c>
+      <c r="F1277" t="n">
+        <v>11736</v>
+      </c>
+      <c r="G1277" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1277" t="inlineStr">
+        <is>
+          <t>00:49:24.922774</t>
+        </is>
+      </c>
+      <c r="I1277" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>GXBDwS2Tizo</t>
+        </is>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1278" t="n">
+        <v>22247579</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>1033695</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>26525</v>
+      </c>
+      <c r="G1278" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1278" t="inlineStr">
+        <is>
+          <t>00:49:24.922778</t>
+        </is>
+      </c>
+      <c r="I1278" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>rt6G9Vwt1xc</t>
+        </is>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1279" t="n">
+        <v>17938370</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>794008</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>24509</v>
+      </c>
+      <c r="G1279" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1279" t="inlineStr">
+        <is>
+          <t>00:49:24.922783</t>
+        </is>
+      </c>
+      <c r="I1279" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>MkG24J87IUk</t>
+        </is>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1280" t="n">
+        <v>49498822</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>1709795</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>46452</v>
+      </c>
+      <c r="G1280" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1280" t="inlineStr">
+        <is>
+          <t>00:49:24.922786</t>
+        </is>
+      </c>
+      <c r="I1280" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>o4GHoqGtRkg</t>
+        </is>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Don't Know What To Do’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1281" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1281" t="n">
+        <v>67667125</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>1722349</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>48436</v>
+      </c>
+      <c r="G1281" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1281" t="inlineStr">
+        <is>
+          <t>00:49:24.922790</t>
+        </is>
+      </c>
+      <c r="I1281" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>cxNIewNXpcg</t>
+        </is>
+      </c>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SOLO' + '뚜두뚜두(DDU-DU DDU-DU)' + 'FOREVER YOUNG' in 2018 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1282" t="n">
+        <v>383429251</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>6190228</v>
+      </c>
+      <c r="F1282" t="n">
+        <v>209153</v>
+      </c>
+      <c r="G1282" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1282" t="inlineStr">
+        <is>
+          <t>00:49:24.922795</t>
+        </is>
+      </c>
+      <c r="I1282" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>7nukOecMf-U</t>
+        </is>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1216 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1283" t="n">
+        <v>4905830</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>224816</v>
+      </c>
+      <c r="F1283" t="n">
+        <v>7750</v>
+      </c>
+      <c r="G1283" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1283" t="inlineStr">
+        <is>
+          <t>00:49:24.922799</t>
+        </is>
+      </c>
+      <c r="I1283" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>CPSH3ljpkZ4</t>
+        </is>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1209 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1284" t="n">
+        <v>13091890</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>413087</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>13156</v>
+      </c>
+      <c r="G1284" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1284" t="inlineStr">
+        <is>
+          <t>00:49:24.922803</t>
+        </is>
+      </c>
+      <c r="I1284" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>hxDXhh2sE1g</t>
+        </is>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1202 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1285" t="n">
+        <v>5929432</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>253729</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>9487</v>
+      </c>
+      <c r="G1285" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1285" t="inlineStr">
+        <is>
+          <t>00:49:24.922807</t>
+        </is>
+      </c>
+      <c r="I1285" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>smimdoBjeAE</t>
+        </is>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1125 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1286" t="n">
+        <v>17104015</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>676389</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>25618</v>
+      </c>
+      <c r="G1286" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1286" t="inlineStr">
+        <is>
+          <t>00:49:24.922811</t>
+        </is>
+      </c>
+      <c r="I1286" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>N1C_G3sfzXo</t>
+        </is>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' PERFORMANCE [IN YOUR AREA] SEOUL</t>
+        </is>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1287" t="n">
+        <v>29711827</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>1034362</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>26376</v>
+      </c>
+      <c r="G1287" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1287" t="inlineStr">
+        <is>
+          <t>00:49:24.922815</t>
+        </is>
+      </c>
+      <c r="I1287" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>5hwepTxNKtE</t>
+        </is>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0805 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1288" t="n">
+        <v>72819045</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>1183807</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>44063</v>
+      </c>
+      <c r="G1288" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1288" t="inlineStr">
+        <is>
+          <t>00:49:24.922819</t>
+        </is>
+      </c>
+      <c r="I1288" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>4KRdmXcJWQU</t>
+        </is>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1289" t="n">
+        <v>8760663</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>415999</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>11729</v>
+      </c>
+      <c r="G1289" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1289" t="inlineStr">
+        <is>
+          <t>00:49:24.922823</t>
+        </is>
+      </c>
+      <c r="I1289" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>HhyRAPKiXi4</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1290" t="n">
+        <v>3984292</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>203243</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>7212</v>
+      </c>
+      <c r="G1290" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1290" t="inlineStr">
+        <is>
+          <t>00:49:24.922827</t>
+        </is>
+      </c>
+      <c r="I1290" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>PMsBMoc9eFg</t>
+        </is>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0722 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1291" t="n">
+        <v>12212008</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>439704</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>19912</v>
+      </c>
+      <c r="G1291" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1291" t="inlineStr">
+        <is>
+          <t>00:49:25.130992</t>
+        </is>
+      </c>
+      <c r="I1291" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>xqWjJP_WT-0</t>
+        </is>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1292" t="n">
+        <v>13208824</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>687683</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>24679</v>
+      </c>
+      <c r="G1292" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1292" t="inlineStr">
+        <is>
+          <t>00:49:25.131014</t>
+        </is>
+      </c>
+      <c r="I1292" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>WaIGc9QmV2w</t>
+        </is>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1293" t="n">
+        <v>3357655</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>185639</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>7354</v>
+      </c>
+      <c r="G1293" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1293" t="inlineStr">
+        <is>
+          <t>00:49:25.131019</t>
+        </is>
+      </c>
+      <c r="I1293" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>67otJZ6qe9Y</t>
+        </is>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0715 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1294" t="n">
+        <v>44073300</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>981495</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>33568</v>
+      </c>
+      <c r="G1294" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1294" t="inlineStr">
+        <is>
+          <t>00:49:25.131023</t>
+        </is>
+      </c>
+      <c r="I1294" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>PZ5t29qgGAM</t>
+        </is>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1295" t="n">
+        <v>11323816</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>511268</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>18487</v>
+      </c>
+      <c r="G1295" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1295" t="inlineStr">
+        <is>
+          <t>00:49:25.131027</t>
+        </is>
+      </c>
+      <c r="I1295" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>dEnDjgoLLY4</t>
+        </is>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1296" t="n">
+        <v>6472130</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>327015</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>12290</v>
+      </c>
+      <c r="G1296" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1296" t="inlineStr">
+        <is>
+          <t>00:49:25.131030</t>
+        </is>
+      </c>
+      <c r="I1296" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>0uje7GB8Azk</t>
+        </is>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1297" t="n">
+        <v>10026505</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>351741</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>13474</v>
+      </c>
+      <c r="G1297" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1297" t="inlineStr">
+        <is>
+          <t>00:49:25.131034</t>
+        </is>
+      </c>
+      <c r="I1297" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>F6IR7luozPw</t>
+        </is>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0708 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1298" t="n">
+        <v>3908537</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>226795</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>12155</v>
+      </c>
+      <c r="G1298" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1298" t="inlineStr">
+        <is>
+          <t>00:49:25.131038</t>
+        </is>
+      </c>
+      <c r="I1298" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>rw2-h5JNLqM</t>
+        </is>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1299" t="n">
+        <v>15136403</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>692868</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>22354</v>
+      </c>
+      <c r="G1299" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1299" t="inlineStr">
+        <is>
+          <t>00:49:25.131041</t>
+        </is>
+      </c>
+      <c r="I1299" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>TIOCHR0OxOQ</t>
+        </is>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0701 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1300" t="n">
+        <v>4463129</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>260868</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>14771</v>
+      </c>
+      <c r="G1300" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1300" t="inlineStr">
+        <is>
+          <t>00:49:25.131045</t>
+        </is>
+      </c>
+      <c r="I1300" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>PUcGXTSCRLA</t>
+        </is>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0624 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1301" t="n">
+        <v>7591937</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>351492</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>13062</v>
+      </c>
+      <c r="G1301" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1301" t="inlineStr">
+        <is>
+          <t>00:49:25.131048</t>
+        </is>
+      </c>
+      <c r="I1301" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>b5dUYf_uPaY</t>
+        </is>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1302" t="n">
+        <v>44062384</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>1105924</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>33817</v>
+      </c>
+      <c r="G1302" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1302" t="inlineStr">
+        <is>
+          <t>00:49:25.131052</t>
+        </is>
+      </c>
+      <c r="I1302" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>n7ukhNJvQ8s</t>
+        </is>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1303" t="n">
+        <v>63823798</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>1131873</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>40074</v>
+      </c>
+      <c r="G1303" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1303" t="inlineStr">
+        <is>
+          <t>00:49:25.131055</t>
+        </is>
+      </c>
+      <c r="I1303" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>f1xIeTCgoFk</t>
+        </is>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>BLACKPINK - INTRO +  ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2018 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1304" t="n">
+        <v>35628202</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>772764</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>23948</v>
+      </c>
+      <c r="G1304" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1304" t="inlineStr">
+        <is>
+          <t>00:49:25.131059</t>
+        </is>
+      </c>
+      <c r="I1304" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>skIfzl96Gc0</t>
+        </is>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SO HOT' (THEBLACKLABEL Remix) in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1305" t="n">
+        <v>87647011</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>2154664</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>63138</v>
+      </c>
+      <c r="G1305" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1305" t="inlineStr">
+        <is>
+          <t>00:49:25.131063</t>
+        </is>
+      </c>
+      <c r="I1305" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>PoHD4wfwC6Y</t>
+        </is>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1306" t="n">
+        <v>8397928</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>300192</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>7160</v>
+      </c>
+      <c r="G1306" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1306" t="inlineStr">
+        <is>
+          <t>00:49:25.131066</t>
+        </is>
+      </c>
+      <c r="I1306" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>wwuZtpS8FNI</t>
+        </is>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 1001 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1307" t="n">
+        <v>35293932</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>580207</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>15697</v>
+      </c>
+      <c r="G1307" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1307" t="inlineStr">
+        <is>
+          <t>00:49:25.131069</t>
+        </is>
+      </c>
+      <c r="I1307" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>GE7x2fVVsXM</t>
+        </is>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>BLACKPINK - OPENING MEDLDY 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1308" t="n">
+        <v>16252998</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>445952</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>10609</v>
+      </c>
+      <c r="G1308" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1308" t="inlineStr">
+        <is>
+          <t>00:49:25.131073</t>
+        </is>
+      </c>
+      <c r="I1308" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>_7TMluHVx4Y</t>
+        </is>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SURE THING (Miguel)' COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1309" t="n">
+        <v>109547018</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>1771828</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>69463</v>
+      </c>
+      <c r="G1309" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1309" t="inlineStr">
+        <is>
+          <t>00:49:25.131076</t>
+        </is>
+      </c>
+      <c r="I1309" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>X3P6dnL2OyY</t>
+        </is>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'PARTITION (Beyonce)' DANCE COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1310" t="n">
+        <v>48803721</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>1227827</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>30775</v>
+      </c>
+      <c r="G1310" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1310" t="inlineStr">
+        <is>
+          <t>00:49:25.131080</t>
+        </is>
+      </c>
+      <c r="I1310" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>RczrR4FVKzg</t>
+        </is>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST) Remix ver.' 0723 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1311" t="n">
+        <v>20891707</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>625040</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>19592</v>
+      </c>
+      <c r="G1311" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1311" t="inlineStr">
+        <is>
+          <t>00:49:25.340172</t>
+        </is>
+      </c>
+      <c r="I1311" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>vW1PeCzs7Sg</t>
+        </is>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0716 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1312" t="n">
+        <v>4603590</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>204543</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>6755</v>
+      </c>
+      <c r="G1312" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1312" t="inlineStr">
+        <is>
+          <t>00:49:25.340197</t>
+        </is>
+      </c>
+      <c r="I1312" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>ZL8LqlKtpVE</t>
+        </is>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0709 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1313" t="n">
+        <v>4522263</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>211979</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>6455</v>
+      </c>
+      <c r="G1313" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1313" t="inlineStr">
+        <is>
+          <t>00:49:25.340202</t>
+        </is>
+      </c>
+      <c r="I1313" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>fWOAe_xXTQs</t>
+        </is>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0702 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1314" t="n">
+        <v>7131643</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>308287</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>11346</v>
+      </c>
+      <c r="G1314" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1314" t="inlineStr">
+        <is>
+          <t>00:49:25.340206</t>
+        </is>
+      </c>
+      <c r="I1314" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>TWRSR7y1288</t>
+        </is>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0625 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1315" t="n">
+        <v>31721806</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>750929</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>23567</v>
+      </c>
+      <c r="G1315" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1315" t="inlineStr">
+        <is>
+          <t>00:49:25.340211</t>
+        </is>
+      </c>
+      <c r="I1315" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>VQLn90MACUQ</t>
+        </is>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난 (PLAYING WITH FIRE)’ + ‘붐바야 (BOOMBAYAH)’  in 2017 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1316" t="n">
+        <v>51508637</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>1047075</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>22138</v>
+      </c>
+      <c r="G1316" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1316" t="inlineStr">
+        <is>
+          <t>00:49:25.340215</t>
+        </is>
+      </c>
+      <c r="I1316" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>_paRxWTIyAo</t>
+        </is>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1317" t="n">
+        <v>121649855</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>1968432</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>39472</v>
+      </c>
+      <c r="G1317" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1317" t="inlineStr">
+        <is>
+          <t>00:49:25.340219</t>
+        </is>
+      </c>
+      <c r="I1317" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>FOv-Rsp1LS0</t>
+        </is>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - Interview(마지막 무대 인사) + '불장난(PLAYING WITH FIRE)' 1211 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1318" t="n">
+        <v>2832784</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>127412</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>5447</v>
+      </c>
+      <c r="G1318" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1318" t="inlineStr">
+        <is>
+          <t>00:49:25.340224</t>
+        </is>
+      </c>
+      <c r="I1318" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>hTDRE5d5A2M</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1204 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1319" t="n">
+        <v>4060270</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>199379</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>6802</v>
+      </c>
+      <c r="G1319" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1319" t="inlineStr">
+        <is>
+          <t>00:49:25.340228</t>
+        </is>
+      </c>
+      <c r="I1319" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>HoAdqZW4ptY</t>
+        </is>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1127 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1320" t="n">
+        <v>6877968</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>269543</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>7413</v>
+      </c>
+      <c r="G1320" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1320" t="inlineStr">
+        <is>
+          <t>00:49:25.340234</t>
+        </is>
+      </c>
+      <c r="I1320" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>TklpzjGlqFE</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1120 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1321" t="n">
+        <v>13600275</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>366324</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>8694</v>
+      </c>
+      <c r="G1321" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1321" t="inlineStr">
+        <is>
+          <t>00:49:25.340238</t>
+        </is>
+      </c>
+      <c r="I1321" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>ZwVTC_686Sw</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 MELON MUSIC AWARDS</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1322" t="n">
+        <v>77765598</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>1373043</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>35274</v>
+      </c>
+      <c r="G1322" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1322" t="inlineStr">
+        <is>
+          <t>00:49:25.340242</t>
+        </is>
+      </c>
+      <c r="I1322" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>_NVwS4mcVYg</t>
+        </is>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1323" t="n">
+        <v>22435160</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>626841</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>19902</v>
+      </c>
+      <c r="G1323" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1323" t="inlineStr">
+        <is>
+          <t>00:49:25.340246</t>
+        </is>
+      </c>
+      <c r="I1323" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>5LWCPzwiN28</t>
+        </is>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1324" t="n">
+        <v>67278877</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>963694</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>32147</v>
+      </c>
+      <c r="G1324" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1324" t="inlineStr">
+        <is>
+          <t>00:49:25.340250</t>
+        </is>
+      </c>
+      <c r="I1324" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t>o4rSRaqvHyc</t>
+        </is>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0911 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1325" t="n">
+        <v>6193467</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>253915</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>6885</v>
+      </c>
+      <c r="G1325" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1325" t="inlineStr">
+        <is>
+          <t>00:49:25.340254</t>
+        </is>
+      </c>
+      <c r="I1325" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t>6F0UWgSSQqU</t>
+        </is>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0904 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1326" t="n">
+        <v>9645536</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>255294</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>9287</v>
+      </c>
+      <c r="G1326" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1326" t="inlineStr">
+        <is>
+          <t>00:49:25.340258</t>
+        </is>
+      </c>
+      <c r="I1326" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>13XTnp3Lp84</t>
+        </is>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1327" t="n">
+        <v>31575295</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>649493</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>20485</v>
+      </c>
+      <c r="G1327" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1327" t="inlineStr">
+        <is>
+          <t>00:49:25.340262</t>
+        </is>
+      </c>
+      <c r="I1327" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>EKHdMwRaU60</t>
+        </is>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1328" t="n">
+        <v>60697094</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>828887</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>23106</v>
+      </c>
+      <c r="G1328" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1328" t="inlineStr">
+        <is>
+          <t>00:49:25.340265</t>
+        </is>
+      </c>
+      <c r="I1328" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>metZ_f8aqC0</t>
+        </is>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0821 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1329" t="n">
+        <v>41564242</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>891674</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>26129</v>
+      </c>
+      <c r="G1329" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1329" t="inlineStr">
+        <is>
+          <t>00:49:25.340269</t>
+        </is>
+      </c>
+      <c r="I1329" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>RGmL76BBGZk</t>
+        </is>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0821 SBS Inkigayo : '휘파람(WHISTLE)' NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1330" t="n">
+        <v>17055728</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>540974</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>14615</v>
+      </c>
+      <c r="G1330" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1330" t="inlineStr">
+        <is>
+          <t>00:49:25.340273</t>
+        </is>
+      </c>
+      <c r="I1330" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>vAqAp1tJnkc</t>
+        </is>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람’(WHISTLE) 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1331" t="n">
+        <v>48082558</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>857734</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>29209</v>
+      </c>
+      <c r="G1331" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1331" t="inlineStr">
+        <is>
+          <t>00:49:25.461952</t>
+        </is>
+      </c>
+      <c r="I1331" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>LpSH8MrYCfg</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1332" t="n">
+        <v>168531068</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>2539044</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>80120</v>
+      </c>
+      <c r="G1332" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="H1332" t="inlineStr">
+        <is>
+          <t>00:49:25.461974</t>
+        </is>
+      </c>
+      <c r="I1332" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_videos_count_data.xlsx
+++ b/CLEANED_videos_count_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1332"/>
+  <dimension ref="A1:I1453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55051,6 +55051,4967 @@
         </is>
       </c>
     </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>YudHcBIxlYw</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1333" t="n">
+        <v>397768477</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>10151820</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>1347621</v>
+      </c>
+      <c r="G1333" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1333" t="inlineStr">
+        <is>
+          <t>00:48:00.635726</t>
+        </is>
+      </c>
+      <c r="I1333" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>POe9SOEKotk</t>
+        </is>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1334" t="n">
+        <v>527563171</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>10850285</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>2237754</v>
+      </c>
+      <c r="G1334" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1334" t="inlineStr">
+        <is>
+          <t>00:48:00.635748</t>
+        </is>
+      </c>
+      <c r="I1334" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>gQlMMD8auMs</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1335" t="n">
+        <v>738355803</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>16096326</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>3566113</v>
+      </c>
+      <c r="G1335" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1335" t="inlineStr">
+        <is>
+          <t>00:48:00.635753</t>
+        </is>
+      </c>
+      <c r="I1335" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>awkkyBH2zEo</t>
+        </is>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' M\/V</t>
+        </is>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1336" t="n">
+        <v>656335661</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>17326410</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>2814930</v>
+      </c>
+      <c r="G1336" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1336" t="inlineStr">
+        <is>
+          <t>00:48:00.635757</t>
+        </is>
+      </c>
+      <c r="I1336" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>K9_VFxzCuQ0</t>
+        </is>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' M\/V</t>
+        </is>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1337" t="n">
+        <v>268847081</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>7386416</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>1241676</v>
+      </c>
+      <c r="G1337" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1337" t="inlineStr">
+        <is>
+          <t>00:48:00.635761</t>
+        </is>
+      </c>
+      <c r="I1337" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>CKZvWhCqx1s</t>
+        </is>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' M\/V</t>
+        </is>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1338" t="n">
+        <v>343238915</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>11352037</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>2588310</v>
+      </c>
+      <c r="G1338" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1338" t="inlineStr">
+        <is>
+          <t>00:48:00.635764</t>
+        </is>
+      </c>
+      <c r="I1338" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>dyRsYk0LyA8</t>
+        </is>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' M\/V</t>
+        </is>
+      </c>
+      <c r="C1339" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1339" t="n">
+        <v>710260684</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>15502691</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>2042978</v>
+      </c>
+      <c r="G1339" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1339" t="inlineStr">
+        <is>
+          <t>00:48:00.635768</t>
+        </is>
+      </c>
+      <c r="I1339" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>vRXZj0DzXIA</t>
+        </is>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Ice Cream (with Selena Gomez)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1340" t="n">
+        <v>872615790</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>19925781</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>3025475</v>
+      </c>
+      <c r="G1340" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1340" t="inlineStr">
+        <is>
+          <t>00:48:00.635772</t>
+        </is>
+      </c>
+      <c r="I1340" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>ioNng23DkIM</t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' M\/V</t>
+        </is>
+      </c>
+      <c r="C1341" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1341" t="n">
+        <v>1244124550</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>24758295</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>5097895</v>
+      </c>
+      <c r="G1341" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1341" t="inlineStr">
+        <is>
+          <t>00:48:00.635775</t>
+        </is>
+      </c>
+      <c r="I1341" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>2S24-y0Ij3Y</t>
+        </is>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' M\/V</t>
+        </is>
+      </c>
+      <c r="C1342" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1342" t="n">
+        <v>1875545205</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>25026011</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>2479376</v>
+      </c>
+      <c r="G1342" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1342" t="inlineStr">
+        <is>
+          <t>00:48:00.635779</t>
+        </is>
+      </c>
+      <c r="I1342" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>b73BI9eUkjM</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' M\/V</t>
+        </is>
+      </c>
+      <c r="C1343" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1343" t="n">
+        <v>963273054</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>14626359</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>3019947</v>
+      </c>
+      <c r="G1343" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1343" t="inlineStr">
+        <is>
+          <t>00:48:00.635783</t>
+        </is>
+      </c>
+      <c r="I1343" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>IHNzOHi8sJs</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1344" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1344" t="n">
+        <v>2125852783</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>23438556</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>3284597</v>
+      </c>
+      <c r="G1344" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1344" t="inlineStr">
+        <is>
+          <t>00:48:00.635786</t>
+        </is>
+      </c>
+      <c r="I1344" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>Amq-qlqbjYA</t>
+        </is>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '마지막처럼 (AS IF IT'S YOUR LAST)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1345" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1345" t="n">
+        <v>1323288714</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>13257272</v>
+      </c>
+      <c r="F1345" t="n">
+        <v>1658999</v>
+      </c>
+      <c r="G1345" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1345" t="inlineStr">
+        <is>
+          <t>00:48:00.635790</t>
+        </is>
+      </c>
+      <c r="I1345" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>FzVR_fymZw4</t>
+        </is>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' M\/V</t>
+        </is>
+      </c>
+      <c r="C1346" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1346" t="n">
+        <v>351626667</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>6132676</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>479263</v>
+      </c>
+      <c r="G1346" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1346" t="inlineStr">
+        <is>
+          <t>00:48:00.635794</t>
+        </is>
+      </c>
+      <c r="I1346" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>9pdj4iJD08s</t>
+        </is>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1347" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1347" t="n">
+        <v>843887859</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>8588859</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>530074</v>
+      </c>
+      <c r="G1347" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1347" t="inlineStr">
+        <is>
+          <t>00:48:00.635798</t>
+        </is>
+      </c>
+      <c r="I1347" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>dISNgvVpWlo</t>
+        </is>
+      </c>
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1348" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1348" t="n">
+        <v>864150098</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>9967395</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>617232</v>
+      </c>
+      <c r="G1348" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1348" t="inlineStr">
+        <is>
+          <t>00:48:00.635801</t>
+        </is>
+      </c>
+      <c r="I1348" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>bwmSjveL3Lc</t>
+        </is>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1349" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1349" t="n">
+        <v>1636246027</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>16173464</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>1123425</v>
+      </c>
+      <c r="G1349" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1349" t="inlineStr">
+        <is>
+          <t>00:48:00.635805</t>
+        </is>
+      </c>
+      <c r="I1349" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>4XZz3WXRw0A</t>
+        </is>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1350" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1350" t="n">
+        <v>124433113</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>2978608</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>97096</v>
+      </c>
+      <c r="G1350" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1350" t="inlineStr">
+        <is>
+          <t>00:48:00.635809</t>
+        </is>
+      </c>
+      <c r="I1350" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>RFMi3v0TXP8</t>
+        </is>
+      </c>
+      <c r="B1351" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1351" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1351" t="n">
+        <v>206819303</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>4830707</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>132933</v>
+      </c>
+      <c r="G1351" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1351" t="inlineStr">
+        <is>
+          <t>00:48:00.635816</t>
+        </is>
+      </c>
+      <c r="I1351" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>fr-eHz87XoM</t>
+        </is>
+      </c>
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1352" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1352" t="n">
+        <v>116873333</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>3696799</v>
+      </c>
+      <c r="F1352" t="n">
+        <v>82420</v>
+      </c>
+      <c r="G1352" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1352" t="inlineStr">
+        <is>
+          <t>00:48:00.846321</t>
+        </is>
+      </c>
+      <c r="I1352" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>ZJ6QQLDIzrI</t>
+        </is>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1353" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1353" t="n">
+        <v>86537094</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>3023691</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>67377</v>
+      </c>
+      <c r="G1353" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1353" t="inlineStr">
+        <is>
+          <t>00:48:00.846341</t>
+        </is>
+      </c>
+      <c r="I1353" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>z6CSW2yu8Mg</t>
+        </is>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' Dance Performance</t>
+        </is>
+      </c>
+      <c r="C1354" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1354" t="n">
+        <v>109121831</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>3341445</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>145890</v>
+      </c>
+      <c r="G1354" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1354" t="inlineStr">
+        <is>
+          <t>00:48:00.846345</t>
+        </is>
+      </c>
+      <c r="I1354" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>YxksUfnuEbI</t>
+        </is>
+      </c>
+      <c r="B1355" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1355" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1355" t="n">
+        <v>290058403</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>5551246</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>229993</v>
+      </c>
+      <c r="G1355" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1355" t="inlineStr">
+        <is>
+          <t>00:48:00.846349</t>
+        </is>
+      </c>
+      <c r="I1355" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>32si5cfrCNc</t>
+        </is>
+      </c>
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1356" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1356" t="n">
+        <v>1502392701</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>17810869</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>926900</v>
+      </c>
+      <c r="G1356" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1356" t="inlineStr">
+        <is>
+          <t>00:48:00.846353</t>
+        </is>
+      </c>
+      <c r="I1356" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>kqXGnxJ-S3k</t>
+        </is>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t>JENNIE - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1357" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1357" t="n">
+        <v>11025662</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>953068</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>26985</v>
+      </c>
+      <c r="G1357" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1357" t="inlineStr">
+        <is>
+          <t>00:48:00.846357</t>
+        </is>
+      </c>
+      <c r="I1357" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>bqzDuRz_P7g</t>
+        </is>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Don't Know What To Do' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1358" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1358" t="n">
+        <v>312062633</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>4282470</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>118682</v>
+      </c>
+      <c r="G1358" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1358" t="inlineStr">
+        <is>
+          <t>00:48:00.846360</t>
+        </is>
+      </c>
+      <c r="I1358" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>MOwaUlXZxkI</t>
+        </is>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1359" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1359" t="n">
+        <v>491165626</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>6138786</v>
+      </c>
+      <c r="F1359" t="n">
+        <v>169523</v>
+      </c>
+      <c r="G1359" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1359" t="inlineStr">
+        <is>
+          <t>00:48:00.846364</t>
+        </is>
+      </c>
+      <c r="I1359" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>Ws5SOMeA3_E</t>
+        </is>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1360" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1360" t="n">
+        <v>16061954</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>753040</v>
+      </c>
+      <c r="F1360" t="n">
+        <v>18781</v>
+      </c>
+      <c r="G1360" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1360" t="inlineStr">
+        <is>
+          <t>00:48:00.846368</t>
+        </is>
+      </c>
+      <c r="I1360" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>k-wmRTFVwPA</t>
+        </is>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY ALTERNATE EDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C1361" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1361" t="n">
+        <v>3971225</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>260116</v>
+      </c>
+      <c r="F1361" t="n">
+        <v>4714</v>
+      </c>
+      <c r="G1361" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1361" t="inlineStr">
+        <is>
+          <t>00:48:00.846372</t>
+        </is>
+      </c>
+      <c r="I1361" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>vdDuCvCrcKg</t>
+        </is>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY UNEDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C1362" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1362" t="n">
+        <v>277769875</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>4399249</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>200336</v>
+      </c>
+      <c r="G1362" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1362" t="inlineStr">
+        <is>
+          <t>00:48:00.846375</t>
+        </is>
+      </c>
+      <c r="I1362" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>89kTb73csYg</t>
+        </is>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Forever Young' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1363" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1363" t="n">
+        <v>234118160</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>3953991</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>125702</v>
+      </c>
+      <c r="G1363" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1363" t="inlineStr">
+        <is>
+          <t>00:48:00.846379</t>
+        </is>
+      </c>
+      <c r="I1363" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>jOJbXvjZ-cQ</t>
+        </is>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1364" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1364" t="n">
+        <v>493605645</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>5636053</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>183865</v>
+      </c>
+      <c r="G1364" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1364" t="inlineStr">
+        <is>
+          <t>00:48:00.846383</t>
+        </is>
+      </c>
+      <c r="I1364" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>hKUJmA9O6iA</t>
+        </is>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1365" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1365" t="n">
+        <v>282630847</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>3060944</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>76137</v>
+      </c>
+      <c r="G1365" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1365" t="inlineStr">
+        <is>
+          <t>00:48:00.846386</t>
+        </is>
+      </c>
+      <c r="I1365" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>NvWfJTbrTBY</t>
+        </is>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난(PLAYING WITH FIRE)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1366" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1366" t="n">
+        <v>217970938</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>2362500</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>61941</v>
+      </c>
+      <c r="G1366" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1366" t="inlineStr">
+        <is>
+          <t>00:48:00.846390</t>
+        </is>
+      </c>
+      <c r="I1366" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>ivoS3HUJB3Q</t>
+        </is>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1367" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1367" t="n">
+        <v>299285864</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>3122856</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>76230</v>
+      </c>
+      <c r="G1367" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1367" t="inlineStr">
+        <is>
+          <t>00:48:00.846394</t>
+        </is>
+      </c>
+      <c r="I1367" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>1kYrp_Bs8DU</t>
+        </is>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1368" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1368" t="n">
+        <v>180244280</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>2118348</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>57163</v>
+      </c>
+      <c r="G1368" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1368" t="inlineStr">
+        <is>
+          <t>00:48:00.846397</t>
+        </is>
+      </c>
+      <c r="I1368" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>3fg8pyLKvXE</t>
+        </is>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>BLACKPINK - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1369" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1369" t="n">
+        <v>87180887</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>2895162</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>90175</v>
+      </c>
+      <c r="G1369" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1369" t="inlineStr">
+        <is>
+          <t>00:48:00.846401</t>
+        </is>
+      </c>
+      <c r="I1369" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>VLpUsmBafMQ</t>
+        </is>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1370" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1370" t="n">
+        <v>33517834</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>713969</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>14245</v>
+      </c>
+      <c r="G1370" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1370" t="inlineStr">
+        <is>
+          <t>00:48:00.846405</t>
+        </is>
+      </c>
+      <c r="I1370" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>z9tifvQSu-g</t>
+        </is>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Typa Girl’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1371" t="n">
+        <v>57367429</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>1235350</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>21973</v>
+      </c>
+      <c r="G1371" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1371" t="inlineStr">
+        <is>
+          <t>00:48:00.846408</t>
+        </is>
+      </c>
+      <c r="I1371" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>NpVJidAKOqc</t>
+        </is>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1372" t="n">
+        <v>24381765</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>635422</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>11439</v>
+      </c>
+      <c r="G1372" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1372" t="inlineStr">
+        <is>
+          <t>00:48:01.051050</t>
+        </is>
+      </c>
+      <c r="I1372" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>PjrAwC4TIPA</t>
+        </is>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1373" t="n">
+        <v>154526873</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>3743364</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>98771</v>
+      </c>
+      <c r="G1373" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1373" t="inlineStr">
+        <is>
+          <t>00:48:01.051071</t>
+        </is>
+      </c>
+      <c r="I1373" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>RkKXbweBCcI</t>
+        </is>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1374" t="n">
+        <v>45069299</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>2783299</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>60699</v>
+      </c>
+      <c r="G1374" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1374" t="inlineStr">
+        <is>
+          <t>00:48:01.051076</t>
+        </is>
+      </c>
+      <c r="I1374" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>aEiznLJCb9o</t>
+        </is>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' 0926 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1375" t="n">
+        <v>21693352</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>1461466</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>41793</v>
+      </c>
+      <c r="G1375" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1375" t="inlineStr">
+        <is>
+          <t>00:48:01.051079</t>
+        </is>
+      </c>
+      <c r="I1375" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>dNCWe_6HAM8</t>
+        </is>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' EXCLUSIVE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1376" t="n">
+        <v>906702650</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>14004578</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>943000</v>
+      </c>
+      <c r="G1376" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1376" t="inlineStr">
+        <is>
+          <t>00:48:01.051083</t>
+        </is>
+      </c>
+      <c r="I1376" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>08x_TcTyw8o</t>
+        </is>
+      </c>
+      <c r="B1377" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C1377" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1377" t="n">
+        <v>93544341</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>3541349</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>94901</v>
+      </c>
+      <c r="G1377" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1377" t="inlineStr">
+        <is>
+          <t>00:48:01.051087</t>
+        </is>
+      </c>
+      <c r="I1377" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>kZZYkrDWUls</t>
+        </is>
+      </c>
+      <c r="B1378" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0404 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1378" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1378" t="n">
+        <v>6095203</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>553244</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>24568</v>
+      </c>
+      <c r="G1378" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1378" t="inlineStr">
+        <is>
+          <t>00:48:01.051091</t>
+        </is>
+      </c>
+      <c r="I1378" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>VFBj5sWfbH4</t>
+        </is>
+      </c>
+      <c r="B1379" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0328 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1379" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1379" t="n">
+        <v>6143248</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>581954</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>24764</v>
+      </c>
+      <c r="G1379" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1379" t="inlineStr">
+        <is>
+          <t>00:48:01.051094</t>
+        </is>
+      </c>
+      <c r="I1379" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>AkISOALL8Cw</t>
+        </is>
+      </c>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0321 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1380" t="n">
+        <v>10840051</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>826821</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>29961</v>
+      </c>
+      <c r="G1380" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1380" t="inlineStr">
+        <is>
+          <t>00:48:01.051098</t>
+        </is>
+      </c>
+      <c r="I1380" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>Q88P1gpOJxA</t>
+        </is>
+      </c>
+      <c r="B1381" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1381" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1381" t="n">
+        <v>27023966</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>2005903</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>75630</v>
+      </c>
+      <c r="G1381" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1381" t="inlineStr">
+        <is>
+          <t>00:48:01.051102</t>
+        </is>
+      </c>
+      <c r="I1381" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>fjp4thii1WY</t>
+        </is>
+      </c>
+      <c r="B1382" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1382" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1382" t="n">
+        <v>14340522</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>1440880</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>45874</v>
+      </c>
+      <c r="G1382" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1382" t="inlineStr">
+        <is>
+          <t>00:48:01.051105</t>
+        </is>
+      </c>
+      <c r="I1382" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>MBStYsiE618</t>
+        </is>
+      </c>
+      <c r="B1383" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1025 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1383" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1383" t="n">
+        <v>31344866</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>1431861</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>52475</v>
+      </c>
+      <c r="G1383" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1383" t="inlineStr">
+        <is>
+          <t>00:48:01.051109</t>
+        </is>
+      </c>
+      <c r="I1383" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>3l5jwqPT2yk</t>
+        </is>
+      </c>
+      <c r="B1384" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' Jimmy Kimmel Live</t>
+        </is>
+      </c>
+      <c r="C1384" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1384" t="n">
+        <v>56018747</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>2213318</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>58848</v>
+      </c>
+      <c r="G1384" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1384" t="inlineStr">
+        <is>
+          <t>00:48:01.051113</t>
+        </is>
+      </c>
+      <c r="I1384" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t>UcvYlihruvo</t>
+        </is>
+      </c>
+      <c r="B1385" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1018 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1385" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1385" t="n">
+        <v>8769918</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>759246</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>27515</v>
+      </c>
+      <c r="G1385" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1385" t="inlineStr">
+        <is>
+          <t>00:48:01.051117</t>
+        </is>
+      </c>
+      <c r="I1385" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>Fwg9-MXdBYA</t>
+        </is>
+      </c>
+      <c r="B1386" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1011 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1386" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1386" t="n">
+        <v>15883968</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>1286566</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>35201</v>
+      </c>
+      <c r="G1386" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1386" t="inlineStr">
+        <is>
+          <t>00:48:01.051120</t>
+        </is>
+      </c>
+      <c r="I1386" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>gU2HqP4NxUs</t>
+        </is>
+      </c>
+      <c r="B1387" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ 1011 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1387" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1387" t="n">
+        <v>325980854</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>5161479</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>142948</v>
+      </c>
+      <c r="G1387" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1387" t="inlineStr">
+        <is>
+          <t>00:48:01.051124</t>
+        </is>
+      </c>
+      <c r="I1387" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>7PpUuLYWcs8</t>
+        </is>
+      </c>
+      <c r="B1388" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0719 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1388" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1388" t="n">
+        <v>12824228</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>812020</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>28752</v>
+      </c>
+      <c r="G1388" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1388" t="inlineStr">
+        <is>
+          <t>00:48:01.051128</t>
+        </is>
+      </c>
+      <c r="I1388" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>04lxLDmFaOE</t>
+        </is>
+      </c>
+      <c r="B1389" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0712 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1389" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1389" t="n">
+        <v>10330301</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>832092</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>37852</v>
+      </c>
+      <c r="G1389" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1389" t="inlineStr">
+        <is>
+          <t>00:48:01.051131</t>
+        </is>
+      </c>
+      <c r="I1389" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>JLOwA3o6Zr0</t>
+        </is>
+      </c>
+      <c r="B1390" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0705 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1390" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1390" t="n">
+        <v>13437889</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>971633</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>36164</v>
+      </c>
+      <c r="G1390" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1390" t="inlineStr">
+        <is>
+          <t>00:48:01.051135</t>
+        </is>
+      </c>
+      <c r="I1390" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>t0RcZWn085g</t>
+        </is>
+      </c>
+      <c r="B1391" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0628 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1391" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1391" t="n">
+        <v>52042105</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>2286340</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>59215</v>
+      </c>
+      <c r="G1391" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1391" t="inlineStr">
+        <is>
+          <t>00:48:01.051139</t>
+        </is>
+      </c>
+      <c r="I1391" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>tOCUE8wRQYY</t>
+        </is>
+      </c>
+      <c r="B1392" t="inlineStr">
+        <is>
+          <t>BLACKPINK ‐ Kill This Love -JP Ver.- Live at BLACKPINK 2019-2020 WORLD TOUR IN YOUR AREA-TOKYO DOME-</t>
+        </is>
+      </c>
+      <c r="C1392" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1392" t="n">
+        <v>37047912</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>1228757</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>44969</v>
+      </c>
+      <c r="G1392" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1392" t="inlineStr">
+        <is>
+          <t>00:48:01.252948</t>
+        </is>
+      </c>
+      <c r="I1392" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>-6XwN_wu3KU</t>
+        </is>
+      </c>
+      <c r="B1393" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C1393" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1393" t="n">
+        <v>24871423</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>1077208</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>26098</v>
+      </c>
+      <c r="G1393" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1393" t="inlineStr">
+        <is>
+          <t>00:48:01.252969</t>
+        </is>
+      </c>
+      <c r="I1393" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>_HhAzr5DLik</t>
+        </is>
+      </c>
+      <c r="B1394" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C1394" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1394" t="n">
+        <v>14542486</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>700451</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>22472</v>
+      </c>
+      <c r="G1394" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1394" t="inlineStr">
+        <is>
+          <t>00:48:01.252974</t>
+        </is>
+      </c>
+      <c r="I1394" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>a5gUds01aXY</t>
+        </is>
+      </c>
+      <c r="B1395" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' 2019 Coachella Live Performance</t>
+        </is>
+      </c>
+      <c r="C1395" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1395" t="n">
+        <v>50651622</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>1886983</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>89569</v>
+      </c>
+      <c r="G1395" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1395" t="inlineStr">
+        <is>
+          <t>00:48:01.252978</t>
+        </is>
+      </c>
+      <c r="I1395" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>vx9CSpnROfs</t>
+        </is>
+      </c>
+      <c r="B1396" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0414 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1396" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1396" t="n">
+        <v>121270578</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>2330813</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>54738</v>
+      </c>
+      <c r="G1396" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1396" t="inlineStr">
+        <is>
+          <t>00:48:01.252981</t>
+        </is>
+      </c>
+      <c r="I1396" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>RgI8UNOqczE</t>
+        </is>
+      </c>
+      <c r="B1397" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1397" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1397" t="n">
+        <v>11378248</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>502533</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>16972</v>
+      </c>
+      <c r="G1397" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1397" t="inlineStr">
+        <is>
+          <t>00:48:01.252985</t>
+        </is>
+      </c>
+      <c r="I1397" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>sL175y19MUU</t>
+        </is>
+      </c>
+      <c r="B1398" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1398" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1398" t="n">
+        <v>12342632</v>
+      </c>
+      <c r="E1398" t="n">
+        <v>463573</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>11738</v>
+      </c>
+      <c r="G1398" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1398" t="inlineStr">
+        <is>
+          <t>00:48:01.252989</t>
+        </is>
+      </c>
+      <c r="I1398" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>GXBDwS2Tizo</t>
+        </is>
+      </c>
+      <c r="B1399" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1399" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1399" t="n">
+        <v>22249372</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>1033709</v>
+      </c>
+      <c r="F1399" t="n">
+        <v>26525</v>
+      </c>
+      <c r="G1399" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1399" t="inlineStr">
+        <is>
+          <t>00:48:01.252993</t>
+        </is>
+      </c>
+      <c r="I1399" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>rt6G9Vwt1xc</t>
+        </is>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1400" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1400" t="n">
+        <v>17939752</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>794015</v>
+      </c>
+      <c r="F1400" t="n">
+        <v>24511</v>
+      </c>
+      <c r="G1400" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1400" t="inlineStr">
+        <is>
+          <t>00:48:01.252996</t>
+        </is>
+      </c>
+      <c r="I1400" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>MkG24J87IUk</t>
+        </is>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1401" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1401" t="n">
+        <v>49501248</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>1709822</v>
+      </c>
+      <c r="F1401" t="n">
+        <v>46452</v>
+      </c>
+      <c r="G1401" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1401" t="inlineStr">
+        <is>
+          <t>00:48:01.253000</t>
+        </is>
+      </c>
+      <c r="I1401" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>o4GHoqGtRkg</t>
+        </is>
+      </c>
+      <c r="B1402" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Don't Know What To Do’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1402" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1402" t="n">
+        <v>67676345</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>1722464</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>48437</v>
+      </c>
+      <c r="G1402" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1402" t="inlineStr">
+        <is>
+          <t>00:48:01.253004</t>
+        </is>
+      </c>
+      <c r="I1402" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>cxNIewNXpcg</t>
+        </is>
+      </c>
+      <c r="B1403" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SOLO' + '뚜두뚜두(DDU-DU DDU-DU)' + 'FOREVER YOUNG' in 2018 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1403" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1403" t="n">
+        <v>383484285</v>
+      </c>
+      <c r="E1403" t="n">
+        <v>6190658</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>209155</v>
+      </c>
+      <c r="G1403" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1403" t="inlineStr">
+        <is>
+          <t>00:48:01.253007</t>
+        </is>
+      </c>
+      <c r="I1403" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>7nukOecMf-U</t>
+        </is>
+      </c>
+      <c r="B1404" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1216 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1404" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1404" t="n">
+        <v>4906061</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>224826</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>7750</v>
+      </c>
+      <c r="G1404" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1404" t="inlineStr">
+        <is>
+          <t>00:48:01.253011</t>
+        </is>
+      </c>
+      <c r="I1404" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>CPSH3ljpkZ4</t>
+        </is>
+      </c>
+      <c r="B1405" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1209 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1405" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1405" t="n">
+        <v>13092509</v>
+      </c>
+      <c r="E1405" t="n">
+        <v>413100</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>13156</v>
+      </c>
+      <c r="G1405" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1405" t="inlineStr">
+        <is>
+          <t>00:48:01.253015</t>
+        </is>
+      </c>
+      <c r="I1405" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>hxDXhh2sE1g</t>
+        </is>
+      </c>
+      <c r="B1406" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1202 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1406" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1406" t="n">
+        <v>5929585</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>253732</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>9487</v>
+      </c>
+      <c r="G1406" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1406" t="inlineStr">
+        <is>
+          <t>00:48:01.253018</t>
+        </is>
+      </c>
+      <c r="I1406" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>smimdoBjeAE</t>
+        </is>
+      </c>
+      <c r="B1407" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1125 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1407" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1407" t="n">
+        <v>17104906</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>676415</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>25618</v>
+      </c>
+      <c r="G1407" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1407" t="inlineStr">
+        <is>
+          <t>00:48:01.253022</t>
+        </is>
+      </c>
+      <c r="I1407" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>N1C_G3sfzXo</t>
+        </is>
+      </c>
+      <c r="B1408" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' PERFORMANCE [IN YOUR AREA] SEOUL</t>
+        </is>
+      </c>
+      <c r="C1408" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1408" t="n">
+        <v>29716268</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>1034416</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>26380</v>
+      </c>
+      <c r="G1408" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1408" t="inlineStr">
+        <is>
+          <t>00:48:01.253025</t>
+        </is>
+      </c>
+      <c r="I1408" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>5hwepTxNKtE</t>
+        </is>
+      </c>
+      <c r="B1409" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0805 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1409" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1409" t="n">
+        <v>72840772</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>1183939</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>44060</v>
+      </c>
+      <c r="G1409" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1409" t="inlineStr">
+        <is>
+          <t>00:48:01.253030</t>
+        </is>
+      </c>
+      <c r="I1409" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>4KRdmXcJWQU</t>
+        </is>
+      </c>
+      <c r="B1410" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1410" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1410" t="n">
+        <v>8761088</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>415997</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>11729</v>
+      </c>
+      <c r="G1410" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1410" t="inlineStr">
+        <is>
+          <t>00:48:01.253033</t>
+        </is>
+      </c>
+      <c r="I1410" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>HhyRAPKiXi4</t>
+        </is>
+      </c>
+      <c r="B1411" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1411" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1411" t="n">
+        <v>3984614</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>203250</v>
+      </c>
+      <c r="F1411" t="n">
+        <v>7213</v>
+      </c>
+      <c r="G1411" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1411" t="inlineStr">
+        <is>
+          <t>00:48:01.253037</t>
+        </is>
+      </c>
+      <c r="I1411" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>PMsBMoc9eFg</t>
+        </is>
+      </c>
+      <c r="B1412" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0722 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1412" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1412" t="n">
+        <v>12212464</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>439709</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>19912</v>
+      </c>
+      <c r="G1412" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1412" t="inlineStr">
+        <is>
+          <t>00:48:01.451535</t>
+        </is>
+      </c>
+      <c r="I1412" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>xqWjJP_WT-0</t>
+        </is>
+      </c>
+      <c r="B1413" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1413" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1413" t="n">
+        <v>13209938</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>687692</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>24672</v>
+      </c>
+      <c r="G1413" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1413" t="inlineStr">
+        <is>
+          <t>00:48:01.451556</t>
+        </is>
+      </c>
+      <c r="I1413" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>WaIGc9QmV2w</t>
+        </is>
+      </c>
+      <c r="B1414" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1414" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1414" t="n">
+        <v>3357870</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>185641</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>7354</v>
+      </c>
+      <c r="G1414" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1414" t="inlineStr">
+        <is>
+          <t>00:48:01.451560</t>
+        </is>
+      </c>
+      <c r="I1414" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>67otJZ6qe9Y</t>
+        </is>
+      </c>
+      <c r="B1415" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0715 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1415" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1415" t="n">
+        <v>44088082</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>981615</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>33569</v>
+      </c>
+      <c r="G1415" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1415" t="inlineStr">
+        <is>
+          <t>00:48:01.451564</t>
+        </is>
+      </c>
+      <c r="I1415" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>PZ5t29qgGAM</t>
+        </is>
+      </c>
+      <c r="B1416" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1416" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1416" t="n">
+        <v>11325293</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>511283</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>18487</v>
+      </c>
+      <c r="G1416" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1416" t="inlineStr">
+        <is>
+          <t>00:48:01.451568</t>
+        </is>
+      </c>
+      <c r="I1416" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>dEnDjgoLLY4</t>
+        </is>
+      </c>
+      <c r="B1417" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1417" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1417" t="n">
+        <v>6472554</v>
+      </c>
+      <c r="E1417" t="n">
+        <v>327019</v>
+      </c>
+      <c r="F1417" t="n">
+        <v>12290</v>
+      </c>
+      <c r="G1417" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1417" t="inlineStr">
+        <is>
+          <t>00:48:01.451572</t>
+        </is>
+      </c>
+      <c r="I1417" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>0uje7GB8Azk</t>
+        </is>
+      </c>
+      <c r="B1418" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1418" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1418" t="n">
+        <v>10028086</v>
+      </c>
+      <c r="E1418" t="n">
+        <v>351757</v>
+      </c>
+      <c r="F1418" t="n">
+        <v>13477</v>
+      </c>
+      <c r="G1418" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1418" t="inlineStr">
+        <is>
+          <t>00:48:01.451575</t>
+        </is>
+      </c>
+      <c r="I1418" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>F6IR7luozPw</t>
+        </is>
+      </c>
+      <c r="B1419" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0708 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1419" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1419" t="n">
+        <v>3908638</v>
+      </c>
+      <c r="E1419" t="n">
+        <v>226797</v>
+      </c>
+      <c r="F1419" t="n">
+        <v>12155</v>
+      </c>
+      <c r="G1419" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1419" t="inlineStr">
+        <is>
+          <t>00:48:01.451579</t>
+        </is>
+      </c>
+      <c r="I1419" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>rw2-h5JNLqM</t>
+        </is>
+      </c>
+      <c r="B1420" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1420" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1420" t="n">
+        <v>15136884</v>
+      </c>
+      <c r="E1420" t="n">
+        <v>692873</v>
+      </c>
+      <c r="F1420" t="n">
+        <v>22354</v>
+      </c>
+      <c r="G1420" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1420" t="inlineStr">
+        <is>
+          <t>00:48:01.451582</t>
+        </is>
+      </c>
+      <c r="I1420" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t>TIOCHR0OxOQ</t>
+        </is>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0701 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1421" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1421" t="n">
+        <v>4463218</v>
+      </c>
+      <c r="E1421" t="n">
+        <v>260871</v>
+      </c>
+      <c r="F1421" t="n">
+        <v>14771</v>
+      </c>
+      <c r="G1421" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1421" t="inlineStr">
+        <is>
+          <t>00:48:01.451586</t>
+        </is>
+      </c>
+      <c r="I1421" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>PUcGXTSCRLA</t>
+        </is>
+      </c>
+      <c r="B1422" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0624 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1422" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1422" t="n">
+        <v>7592056</v>
+      </c>
+      <c r="E1422" t="n">
+        <v>351489</v>
+      </c>
+      <c r="F1422" t="n">
+        <v>13061</v>
+      </c>
+      <c r="G1422" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1422" t="inlineStr">
+        <is>
+          <t>00:48:01.451590</t>
+        </is>
+      </c>
+      <c r="I1422" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
+        <is>
+          <t>b5dUYf_uPaY</t>
+        </is>
+      </c>
+      <c r="B1423" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1423" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1423" t="n">
+        <v>44067801</v>
+      </c>
+      <c r="E1423" t="n">
+        <v>1105946</v>
+      </c>
+      <c r="F1423" t="n">
+        <v>33817</v>
+      </c>
+      <c r="G1423" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1423" t="inlineStr">
+        <is>
+          <t>00:48:01.451593</t>
+        </is>
+      </c>
+      <c r="I1423" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
+        <is>
+          <t>n7ukhNJvQ8s</t>
+        </is>
+      </c>
+      <c r="B1424" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1424" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1424" t="n">
+        <v>63824943</v>
+      </c>
+      <c r="E1424" t="n">
+        <v>1131868</v>
+      </c>
+      <c r="F1424" t="n">
+        <v>40073</v>
+      </c>
+      <c r="G1424" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1424" t="inlineStr">
+        <is>
+          <t>00:48:01.451597</t>
+        </is>
+      </c>
+      <c r="I1424" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>f1xIeTCgoFk</t>
+        </is>
+      </c>
+      <c r="B1425" t="inlineStr">
+        <is>
+          <t>BLACKPINK - INTRO +  ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2018 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C1425" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1425" t="n">
+        <v>35630263</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>772789</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>23948</v>
+      </c>
+      <c r="G1425" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1425" t="inlineStr">
+        <is>
+          <t>00:48:01.451601</t>
+        </is>
+      </c>
+      <c r="I1425" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
+          <t>skIfzl96Gc0</t>
+        </is>
+      </c>
+      <c r="B1426" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SO HOT' (THEBLACKLABEL Remix) in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1426" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1426" t="n">
+        <v>87655692</v>
+      </c>
+      <c r="E1426" t="n">
+        <v>2154768</v>
+      </c>
+      <c r="F1426" t="n">
+        <v>63136</v>
+      </c>
+      <c r="G1426" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1426" t="inlineStr">
+        <is>
+          <t>00:48:01.451605</t>
+        </is>
+      </c>
+      <c r="I1426" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t>PoHD4wfwC6Y</t>
+        </is>
+      </c>
+      <c r="B1427" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1427" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1427" t="n">
+        <v>8398342</v>
+      </c>
+      <c r="E1427" t="n">
+        <v>300202</v>
+      </c>
+      <c r="F1427" t="n">
+        <v>7159</v>
+      </c>
+      <c r="G1427" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1427" t="inlineStr">
+        <is>
+          <t>00:48:01.451608</t>
+        </is>
+      </c>
+      <c r="I1427" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>wwuZtpS8FNI</t>
+        </is>
+      </c>
+      <c r="B1428" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 1001 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1428" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1428" t="n">
+        <v>35302770</v>
+      </c>
+      <c r="E1428" t="n">
+        <v>580252</v>
+      </c>
+      <c r="F1428" t="n">
+        <v>15698</v>
+      </c>
+      <c r="G1428" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1428" t="inlineStr">
+        <is>
+          <t>00:48:01.451612</t>
+        </is>
+      </c>
+      <c r="I1428" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>GE7x2fVVsXM</t>
+        </is>
+      </c>
+      <c r="B1429" t="inlineStr">
+        <is>
+          <t>BLACKPINK - OPENING MEDLDY 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1429" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1429" t="n">
+        <v>16254464</v>
+      </c>
+      <c r="E1429" t="n">
+        <v>445994</v>
+      </c>
+      <c r="F1429" t="n">
+        <v>10608</v>
+      </c>
+      <c r="G1429" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1429" t="inlineStr">
+        <is>
+          <t>00:48:01.451616</t>
+        </is>
+      </c>
+      <c r="I1429" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>_7TMluHVx4Y</t>
+        </is>
+      </c>
+      <c r="B1430" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SURE THING (Miguel)' COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1430" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1430" t="n">
+        <v>109572307</v>
+      </c>
+      <c r="E1430" t="n">
+        <v>1772094</v>
+      </c>
+      <c r="F1430" t="n">
+        <v>69470</v>
+      </c>
+      <c r="G1430" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1430" t="inlineStr">
+        <is>
+          <t>00:48:01.451619</t>
+        </is>
+      </c>
+      <c r="I1430" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>X3P6dnL2OyY</t>
+        </is>
+      </c>
+      <c r="B1431" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'PARTITION (Beyonce)' DANCE COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1431" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1431" t="n">
+        <v>48808827</v>
+      </c>
+      <c r="E1431" t="n">
+        <v>1227927</v>
+      </c>
+      <c r="F1431" t="n">
+        <v>30774</v>
+      </c>
+      <c r="G1431" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1431" t="inlineStr">
+        <is>
+          <t>00:48:01.451623</t>
+        </is>
+      </c>
+      <c r="I1431" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="inlineStr">
+        <is>
+          <t>RczrR4FVKzg</t>
+        </is>
+      </c>
+      <c r="B1432" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST) Remix ver.' 0723 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1432" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1432" t="n">
+        <v>20893213</v>
+      </c>
+      <c r="E1432" t="n">
+        <v>625064</v>
+      </c>
+      <c r="F1432" t="n">
+        <v>19590</v>
+      </c>
+      <c r="G1432" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1432" t="inlineStr">
+        <is>
+          <t>00:48:01.682496</t>
+        </is>
+      </c>
+      <c r="I1432" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="inlineStr">
+        <is>
+          <t>vW1PeCzs7Sg</t>
+        </is>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0716 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1433" t="n">
+        <v>4603701</v>
+      </c>
+      <c r="E1433" t="n">
+        <v>204546</v>
+      </c>
+      <c r="F1433" t="n">
+        <v>6755</v>
+      </c>
+      <c r="G1433" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1433" t="inlineStr">
+        <is>
+          <t>00:48:01.682519</t>
+        </is>
+      </c>
+      <c r="I1433" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="inlineStr">
+        <is>
+          <t>ZL8LqlKtpVE</t>
+        </is>
+      </c>
+      <c r="B1434" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0709 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1434" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1434" t="n">
+        <v>4522396</v>
+      </c>
+      <c r="E1434" t="n">
+        <v>211981</v>
+      </c>
+      <c r="F1434" t="n">
+        <v>6455</v>
+      </c>
+      <c r="G1434" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1434" t="inlineStr">
+        <is>
+          <t>00:48:01.682523</t>
+        </is>
+      </c>
+      <c r="I1434" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="inlineStr">
+        <is>
+          <t>fWOAe_xXTQs</t>
+        </is>
+      </c>
+      <c r="B1435" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0702 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1435" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1435" t="n">
+        <v>7131903</v>
+      </c>
+      <c r="E1435" t="n">
+        <v>308297</v>
+      </c>
+      <c r="F1435" t="n">
+        <v>11345</v>
+      </c>
+      <c r="G1435" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1435" t="inlineStr">
+        <is>
+          <t>00:48:01.682527</t>
+        </is>
+      </c>
+      <c r="I1435" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="inlineStr">
+        <is>
+          <t>TWRSR7y1288</t>
+        </is>
+      </c>
+      <c r="B1436" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0625 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1436" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1436" t="n">
+        <v>31723729</v>
+      </c>
+      <c r="E1436" t="n">
+        <v>750960</v>
+      </c>
+      <c r="F1436" t="n">
+        <v>23567</v>
+      </c>
+      <c r="G1436" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1436" t="inlineStr">
+        <is>
+          <t>00:48:01.682530</t>
+        </is>
+      </c>
+      <c r="I1436" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="inlineStr">
+        <is>
+          <t>VQLn90MACUQ</t>
+        </is>
+      </c>
+      <c r="B1437" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난 (PLAYING WITH FIRE)’ + ‘붐바야 (BOOMBAYAH)’  in 2017 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C1437" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1437" t="n">
+        <v>51512509</v>
+      </c>
+      <c r="E1437" t="n">
+        <v>1047138</v>
+      </c>
+      <c r="F1437" t="n">
+        <v>22132</v>
+      </c>
+      <c r="G1437" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1437" t="inlineStr">
+        <is>
+          <t>00:48:01.682534</t>
+        </is>
+      </c>
+      <c r="I1437" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="inlineStr">
+        <is>
+          <t>_paRxWTIyAo</t>
+        </is>
+      </c>
+      <c r="B1438" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1438" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1438" t="n">
+        <v>121670625</v>
+      </c>
+      <c r="E1438" t="n">
+        <v>1968564</v>
+      </c>
+      <c r="F1438" t="n">
+        <v>39474</v>
+      </c>
+      <c r="G1438" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1438" t="inlineStr">
+        <is>
+          <t>00:48:01.682538</t>
+        </is>
+      </c>
+      <c r="I1438" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="inlineStr">
+        <is>
+          <t>FOv-Rsp1LS0</t>
+        </is>
+      </c>
+      <c r="B1439" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - Interview(마지막 무대 인사) + '불장난(PLAYING WITH FIRE)' 1211 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1439" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1439" t="n">
+        <v>2832908</v>
+      </c>
+      <c r="E1439" t="n">
+        <v>127414</v>
+      </c>
+      <c r="F1439" t="n">
+        <v>5447</v>
+      </c>
+      <c r="G1439" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1439" t="inlineStr">
+        <is>
+          <t>00:48:01.682542</t>
+        </is>
+      </c>
+      <c r="I1439" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="inlineStr">
+        <is>
+          <t>hTDRE5d5A2M</t>
+        </is>
+      </c>
+      <c r="B1440" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1204 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1440" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1440" t="n">
+        <v>4060456</v>
+      </c>
+      <c r="E1440" t="n">
+        <v>199381</v>
+      </c>
+      <c r="F1440" t="n">
+        <v>6802</v>
+      </c>
+      <c r="G1440" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1440" t="inlineStr">
+        <is>
+          <t>00:48:01.682545</t>
+        </is>
+      </c>
+      <c r="I1440" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr">
+        <is>
+          <t>HoAdqZW4ptY</t>
+        </is>
+      </c>
+      <c r="B1441" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1127 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1441" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1441" t="n">
+        <v>6878567</v>
+      </c>
+      <c r="E1441" t="n">
+        <v>269558</v>
+      </c>
+      <c r="F1441" t="n">
+        <v>7413</v>
+      </c>
+      <c r="G1441" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1441" t="inlineStr">
+        <is>
+          <t>00:48:01.682550</t>
+        </is>
+      </c>
+      <c r="I1441" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="inlineStr">
+        <is>
+          <t>TklpzjGlqFE</t>
+        </is>
+      </c>
+      <c r="B1442" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1120 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1442" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1442" t="n">
+        <v>13604583</v>
+      </c>
+      <c r="E1442" t="n">
+        <v>366345</v>
+      </c>
+      <c r="F1442" t="n">
+        <v>8693</v>
+      </c>
+      <c r="G1442" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1442" t="inlineStr">
+        <is>
+          <t>00:48:01.682554</t>
+        </is>
+      </c>
+      <c r="I1442" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t>ZwVTC_686Sw</t>
+        </is>
+      </c>
+      <c r="B1443" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 MELON MUSIC AWARDS</t>
+        </is>
+      </c>
+      <c r="C1443" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1443" t="n">
+        <v>77769648</v>
+      </c>
+      <c r="E1443" t="n">
+        <v>1373097</v>
+      </c>
+      <c r="F1443" t="n">
+        <v>35272</v>
+      </c>
+      <c r="G1443" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1443" t="inlineStr">
+        <is>
+          <t>00:48:01.682558</t>
+        </is>
+      </c>
+      <c r="I1443" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t>_NVwS4mcVYg</t>
+        </is>
+      </c>
+      <c r="B1444" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1444" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1444" t="n">
+        <v>22437097</v>
+      </c>
+      <c r="E1444" t="n">
+        <v>626865</v>
+      </c>
+      <c r="F1444" t="n">
+        <v>19903</v>
+      </c>
+      <c r="G1444" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1444" t="inlineStr">
+        <is>
+          <t>00:48:01.682562</t>
+        </is>
+      </c>
+      <c r="I1444" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t>5LWCPzwiN28</t>
+        </is>
+      </c>
+      <c r="B1445" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1445" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1445" t="n">
+        <v>67287854</v>
+      </c>
+      <c r="E1445" t="n">
+        <v>963761</v>
+      </c>
+      <c r="F1445" t="n">
+        <v>32148</v>
+      </c>
+      <c r="G1445" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1445" t="inlineStr">
+        <is>
+          <t>00:48:01.682565</t>
+        </is>
+      </c>
+      <c r="I1445" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t>o4rSRaqvHyc</t>
+        </is>
+      </c>
+      <c r="B1446" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0911 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1446" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1446" t="n">
+        <v>6193815</v>
+      </c>
+      <c r="E1446" t="n">
+        <v>253921</v>
+      </c>
+      <c r="F1446" t="n">
+        <v>6888</v>
+      </c>
+      <c r="G1446" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1446" t="inlineStr">
+        <is>
+          <t>00:48:01.682569</t>
+        </is>
+      </c>
+      <c r="I1446" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>6F0UWgSSQqU</t>
+        </is>
+      </c>
+      <c r="B1447" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0904 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1447" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1447" t="n">
+        <v>9646036</v>
+      </c>
+      <c r="E1447" t="n">
+        <v>255299</v>
+      </c>
+      <c r="F1447" t="n">
+        <v>9288</v>
+      </c>
+      <c r="G1447" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1447" t="inlineStr">
+        <is>
+          <t>00:48:01.682573</t>
+        </is>
+      </c>
+      <c r="I1447" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>13XTnp3Lp84</t>
+        </is>
+      </c>
+      <c r="B1448" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1448" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1448" t="n">
+        <v>31579543</v>
+      </c>
+      <c r="E1448" t="n">
+        <v>649539</v>
+      </c>
+      <c r="F1448" t="n">
+        <v>20485</v>
+      </c>
+      <c r="G1448" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1448" t="inlineStr">
+        <is>
+          <t>00:48:01.682576</t>
+        </is>
+      </c>
+      <c r="I1448" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>EKHdMwRaU60</t>
+        </is>
+      </c>
+      <c r="B1449" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1449" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1449" t="n">
+        <v>60704051</v>
+      </c>
+      <c r="E1449" t="n">
+        <v>828923</v>
+      </c>
+      <c r="F1449" t="n">
+        <v>23106</v>
+      </c>
+      <c r="G1449" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1449" t="inlineStr">
+        <is>
+          <t>00:48:01.682580</t>
+        </is>
+      </c>
+      <c r="I1449" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t>metZ_f8aqC0</t>
+        </is>
+      </c>
+      <c r="B1450" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0821 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1450" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1450" t="n">
+        <v>41570297</v>
+      </c>
+      <c r="E1450" t="n">
+        <v>891743</v>
+      </c>
+      <c r="F1450" t="n">
+        <v>26130</v>
+      </c>
+      <c r="G1450" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1450" t="inlineStr">
+        <is>
+          <t>00:48:01.682583</t>
+        </is>
+      </c>
+      <c r="I1450" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t>RGmL76BBGZk</t>
+        </is>
+      </c>
+      <c r="B1451" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0821 SBS Inkigayo : '휘파람(WHISTLE)' NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1451" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1451" t="n">
+        <v>17057498</v>
+      </c>
+      <c r="E1451" t="n">
+        <v>541012</v>
+      </c>
+      <c r="F1451" t="n">
+        <v>14615</v>
+      </c>
+      <c r="G1451" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1451" t="inlineStr">
+        <is>
+          <t>00:48:01.682587</t>
+        </is>
+      </c>
+      <c r="I1451" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t>vAqAp1tJnkc</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람’(WHISTLE) 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1452" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1452" t="n">
+        <v>48085744</v>
+      </c>
+      <c r="E1452" t="n">
+        <v>857782</v>
+      </c>
+      <c r="F1452" t="n">
+        <v>29209</v>
+      </c>
+      <c r="G1452" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1452" t="inlineStr">
+        <is>
+          <t>00:48:01.823586</t>
+        </is>
+      </c>
+      <c r="I1452" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t>LpSH8MrYCfg</t>
+        </is>
+      </c>
+      <c r="B1453" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1453" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1453" t="n">
+        <v>168554159</v>
+      </c>
+      <c r="E1453" t="n">
+        <v>2539240</v>
+      </c>
+      <c r="F1453" t="n">
+        <v>80120</v>
+      </c>
+      <c r="G1453" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H1453" t="inlineStr">
+        <is>
+          <t>00:48:01.823606</t>
+        </is>
+      </c>
+      <c r="I1453" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_videos_count_data.xlsx
+++ b/CLEANED_videos_count_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1453"/>
+  <dimension ref="A1:I1574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60012,6 +60012,4967 @@
         </is>
       </c>
     </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>YudHcBIxlYw</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1454" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1454" t="n">
+        <v>398554283</v>
+      </c>
+      <c r="E1454" t="n">
+        <v>10155731</v>
+      </c>
+      <c r="F1454" t="n">
+        <v>1348169</v>
+      </c>
+      <c r="G1454" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1454" t="inlineStr">
+        <is>
+          <t>00:56:10.711073</t>
+        </is>
+      </c>
+      <c r="I1454" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>POe9SOEKotk</t>
+        </is>
+      </c>
+      <c r="B1455" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1455" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1455" t="n">
+        <v>528149573</v>
+      </c>
+      <c r="E1455" t="n">
+        <v>10853432</v>
+      </c>
+      <c r="F1455" t="n">
+        <v>2237804</v>
+      </c>
+      <c r="G1455" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1455" t="inlineStr">
+        <is>
+          <t>00:56:10.711096</t>
+        </is>
+      </c>
+      <c r="I1455" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>gQlMMD8auMs</t>
+        </is>
+      </c>
+      <c r="B1456" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1456" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1456" t="n">
+        <v>739075786</v>
+      </c>
+      <c r="E1456" t="n">
+        <v>16099538</v>
+      </c>
+      <c r="F1456" t="n">
+        <v>3566124</v>
+      </c>
+      <c r="G1456" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1456" t="inlineStr">
+        <is>
+          <t>00:56:10.711101</t>
+        </is>
+      </c>
+      <c r="I1456" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>awkkyBH2zEo</t>
+        </is>
+      </c>
+      <c r="B1457" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' M\/V</t>
+        </is>
+      </c>
+      <c r="C1457" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1457" t="n">
+        <v>656596175</v>
+      </c>
+      <c r="E1457" t="n">
+        <v>17327660</v>
+      </c>
+      <c r="F1457" t="n">
+        <v>2814808</v>
+      </c>
+      <c r="G1457" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1457" t="inlineStr">
+        <is>
+          <t>00:56:10.711105</t>
+        </is>
+      </c>
+      <c r="I1457" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>K9_VFxzCuQ0</t>
+        </is>
+      </c>
+      <c r="B1458" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' M\/V</t>
+        </is>
+      </c>
+      <c r="C1458" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1458" t="n">
+        <v>268974672</v>
+      </c>
+      <c r="E1458" t="n">
+        <v>7387475</v>
+      </c>
+      <c r="F1458" t="n">
+        <v>1241807</v>
+      </c>
+      <c r="G1458" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1458" t="inlineStr">
+        <is>
+          <t>00:56:10.711109</t>
+        </is>
+      </c>
+      <c r="I1458" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t>CKZvWhCqx1s</t>
+        </is>
+      </c>
+      <c r="B1459" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' M\/V</t>
+        </is>
+      </c>
+      <c r="C1459" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1459" t="n">
+        <v>343352592</v>
+      </c>
+      <c r="E1459" t="n">
+        <v>11353047</v>
+      </c>
+      <c r="F1459" t="n">
+        <v>2588559</v>
+      </c>
+      <c r="G1459" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1459" t="inlineStr">
+        <is>
+          <t>00:56:10.711113</t>
+        </is>
+      </c>
+      <c r="I1459" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>dyRsYk0LyA8</t>
+        </is>
+      </c>
+      <c r="B1460" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' M\/V</t>
+        </is>
+      </c>
+      <c r="C1460" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1460" t="n">
+        <v>710485347</v>
+      </c>
+      <c r="E1460" t="n">
+        <v>15503954</v>
+      </c>
+      <c r="F1460" t="n">
+        <v>2042920</v>
+      </c>
+      <c r="G1460" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1460" t="inlineStr">
+        <is>
+          <t>00:56:10.711116</t>
+        </is>
+      </c>
+      <c r="I1460" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>vRXZj0DzXIA</t>
+        </is>
+      </c>
+      <c r="B1461" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Ice Cream (with Selena Gomez)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1461" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1461" t="n">
+        <v>872825286</v>
+      </c>
+      <c r="E1461" t="n">
+        <v>19927021</v>
+      </c>
+      <c r="F1461" t="n">
+        <v>3025455</v>
+      </c>
+      <c r="G1461" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1461" t="inlineStr">
+        <is>
+          <t>00:56:10.711120</t>
+        </is>
+      </c>
+      <c r="I1461" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t>ioNng23DkIM</t>
+        </is>
+      </c>
+      <c r="B1462" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' M\/V</t>
+        </is>
+      </c>
+      <c r="C1462" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1462" t="n">
+        <v>1244336733</v>
+      </c>
+      <c r="E1462" t="n">
+        <v>24759317</v>
+      </c>
+      <c r="F1462" t="n">
+        <v>5097746</v>
+      </c>
+      <c r="G1462" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1462" t="inlineStr">
+        <is>
+          <t>00:56:10.711124</t>
+        </is>
+      </c>
+      <c r="I1462" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="inlineStr">
+        <is>
+          <t>2S24-y0Ij3Y</t>
+        </is>
+      </c>
+      <c r="B1463" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' M\/V</t>
+        </is>
+      </c>
+      <c r="C1463" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1463" t="n">
+        <v>1876063155</v>
+      </c>
+      <c r="E1463" t="n">
+        <v>25028713</v>
+      </c>
+      <c r="F1463" t="n">
+        <v>2479368</v>
+      </c>
+      <c r="G1463" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1463" t="inlineStr">
+        <is>
+          <t>00:56:10.711128</t>
+        </is>
+      </c>
+      <c r="I1463" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t>b73BI9eUkjM</t>
+        </is>
+      </c>
+      <c r="B1464" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' M\/V</t>
+        </is>
+      </c>
+      <c r="C1464" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1464" t="n">
+        <v>963682336</v>
+      </c>
+      <c r="E1464" t="n">
+        <v>14628487</v>
+      </c>
+      <c r="F1464" t="n">
+        <v>3025316</v>
+      </c>
+      <c r="G1464" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1464" t="inlineStr">
+        <is>
+          <t>00:56:10.711131</t>
+        </is>
+      </c>
+      <c r="I1464" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="inlineStr">
+        <is>
+          <t>IHNzOHi8sJs</t>
+        </is>
+      </c>
+      <c r="B1465" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1465" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1465" t="n">
+        <v>2126266522</v>
+      </c>
+      <c r="E1465" t="n">
+        <v>23441146</v>
+      </c>
+      <c r="F1465" t="n">
+        <v>3284581</v>
+      </c>
+      <c r="G1465" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1465" t="inlineStr">
+        <is>
+          <t>00:56:10.711135</t>
+        </is>
+      </c>
+      <c r="I1465" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t>Amq-qlqbjYA</t>
+        </is>
+      </c>
+      <c r="B1466" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '마지막처럼 (AS IF IT'S YOUR LAST)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1466" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1466" t="n">
+        <v>1323577976</v>
+      </c>
+      <c r="E1466" t="n">
+        <v>13258722</v>
+      </c>
+      <c r="F1466" t="n">
+        <v>1658988</v>
+      </c>
+      <c r="G1466" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1466" t="inlineStr">
+        <is>
+          <t>00:56:10.711138</t>
+        </is>
+      </c>
+      <c r="I1466" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t>FzVR_fymZw4</t>
+        </is>
+      </c>
+      <c r="B1467" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' M\/V</t>
+        </is>
+      </c>
+      <c r="C1467" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1467" t="n">
+        <v>351684939</v>
+      </c>
+      <c r="E1467" t="n">
+        <v>6133223</v>
+      </c>
+      <c r="F1467" t="n">
+        <v>479273</v>
+      </c>
+      <c r="G1467" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1467" t="inlineStr">
+        <is>
+          <t>00:56:10.711141</t>
+        </is>
+      </c>
+      <c r="I1467" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t>9pdj4iJD08s</t>
+        </is>
+      </c>
+      <c r="B1468" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1468" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1468" t="n">
+        <v>844041220</v>
+      </c>
+      <c r="E1468" t="n">
+        <v>8589843</v>
+      </c>
+      <c r="F1468" t="n">
+        <v>530093</v>
+      </c>
+      <c r="G1468" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1468" t="inlineStr">
+        <is>
+          <t>00:56:10.711145</t>
+        </is>
+      </c>
+      <c r="I1468" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="inlineStr">
+        <is>
+          <t>dISNgvVpWlo</t>
+        </is>
+      </c>
+      <c r="B1469" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1469" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1469" t="n">
+        <v>864301919</v>
+      </c>
+      <c r="E1469" t="n">
+        <v>9968733</v>
+      </c>
+      <c r="F1469" t="n">
+        <v>617232</v>
+      </c>
+      <c r="G1469" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1469" t="inlineStr">
+        <is>
+          <t>00:56:10.711148</t>
+        </is>
+      </c>
+      <c r="I1469" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t>bwmSjveL3Lc</t>
+        </is>
+      </c>
+      <c r="B1470" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1470" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1470" t="n">
+        <v>1636642856</v>
+      </c>
+      <c r="E1470" t="n">
+        <v>16175809</v>
+      </c>
+      <c r="F1470" t="n">
+        <v>1123484</v>
+      </c>
+      <c r="G1470" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1470" t="inlineStr">
+        <is>
+          <t>00:56:10.711152</t>
+        </is>
+      </c>
+      <c r="I1470" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="inlineStr">
+        <is>
+          <t>4XZz3WXRw0A</t>
+        </is>
+      </c>
+      <c r="B1471" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1471" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1471" t="n">
+        <v>124637692</v>
+      </c>
+      <c r="E1471" t="n">
+        <v>2979585</v>
+      </c>
+      <c r="F1471" t="n">
+        <v>97144</v>
+      </c>
+      <c r="G1471" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1471" t="inlineStr">
+        <is>
+          <t>00:56:10.711155</t>
+        </is>
+      </c>
+      <c r="I1471" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="inlineStr">
+        <is>
+          <t>RFMi3v0TXP8</t>
+        </is>
+      </c>
+      <c r="B1472" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1472" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1472" t="n">
+        <v>207027176</v>
+      </c>
+      <c r="E1472" t="n">
+        <v>4831567</v>
+      </c>
+      <c r="F1472" t="n">
+        <v>132942</v>
+      </c>
+      <c r="G1472" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1472" t="inlineStr">
+        <is>
+          <t>00:56:10.711162</t>
+        </is>
+      </c>
+      <c r="I1472" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t>fr-eHz87XoM</t>
+        </is>
+      </c>
+      <c r="B1473" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1473" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1473" t="n">
+        <v>116929886</v>
+      </c>
+      <c r="E1473" t="n">
+        <v>3697171</v>
+      </c>
+      <c r="F1473" t="n">
+        <v>82409</v>
+      </c>
+      <c r="G1473" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1473" t="inlineStr">
+        <is>
+          <t>00:56:10.896244</t>
+        </is>
+      </c>
+      <c r="I1473" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t>ZJ6QQLDIzrI</t>
+        </is>
+      </c>
+      <c r="B1474" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1474" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1474" t="n">
+        <v>86573469</v>
+      </c>
+      <c r="E1474" t="n">
+        <v>3023845</v>
+      </c>
+      <c r="F1474" t="n">
+        <v>67379</v>
+      </c>
+      <c r="G1474" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1474" t="inlineStr">
+        <is>
+          <t>00:56:10.896269</t>
+        </is>
+      </c>
+      <c r="I1474" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="inlineStr">
+        <is>
+          <t>z6CSW2yu8Mg</t>
+        </is>
+      </c>
+      <c r="B1475" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' Dance Performance</t>
+        </is>
+      </c>
+      <c r="C1475" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1475" t="n">
+        <v>109163841</v>
+      </c>
+      <c r="E1475" t="n">
+        <v>3341708</v>
+      </c>
+      <c r="F1475" t="n">
+        <v>145883</v>
+      </c>
+      <c r="G1475" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1475" t="inlineStr">
+        <is>
+          <t>00:56:10.896274</t>
+        </is>
+      </c>
+      <c r="I1475" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="inlineStr">
+        <is>
+          <t>YxksUfnuEbI</t>
+        </is>
+      </c>
+      <c r="B1476" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1476" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1476" t="n">
+        <v>290142545</v>
+      </c>
+      <c r="E1476" t="n">
+        <v>5551688</v>
+      </c>
+      <c r="F1476" t="n">
+        <v>229988</v>
+      </c>
+      <c r="G1476" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1476" t="inlineStr">
+        <is>
+          <t>00:56:10.896278</t>
+        </is>
+      </c>
+      <c r="I1476" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="inlineStr">
+        <is>
+          <t>32si5cfrCNc</t>
+        </is>
+      </c>
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1477" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1477" t="n">
+        <v>1503144680</v>
+      </c>
+      <c r="E1477" t="n">
+        <v>17814919</v>
+      </c>
+      <c r="F1477" t="n">
+        <v>926855</v>
+      </c>
+      <c r="G1477" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1477" t="inlineStr">
+        <is>
+          <t>00:56:10.896282</t>
+        </is>
+      </c>
+      <c r="I1477" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="inlineStr">
+        <is>
+          <t>kqXGnxJ-S3k</t>
+        </is>
+      </c>
+      <c r="B1478" t="inlineStr">
+        <is>
+          <t>JENNIE - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1478" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1478" t="n">
+        <v>11026816</v>
+      </c>
+      <c r="E1478" t="n">
+        <v>953075</v>
+      </c>
+      <c r="F1478" t="n">
+        <v>26987</v>
+      </c>
+      <c r="G1478" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1478" t="inlineStr">
+        <is>
+          <t>00:56:10.896286</t>
+        </is>
+      </c>
+      <c r="I1478" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t>bqzDuRz_P7g</t>
+        </is>
+      </c>
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Don't Know What To Do' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1479" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1479" t="n">
+        <v>312156395</v>
+      </c>
+      <c r="E1479" t="n">
+        <v>4283097</v>
+      </c>
+      <c r="F1479" t="n">
+        <v>118681</v>
+      </c>
+      <c r="G1479" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1479" t="inlineStr">
+        <is>
+          <t>00:56:10.896291</t>
+        </is>
+      </c>
+      <c r="I1479" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t>MOwaUlXZxkI</t>
+        </is>
+      </c>
+      <c r="B1480" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1480" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1480" t="n">
+        <v>491261454</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>6139292</v>
+      </c>
+      <c r="F1480" t="n">
+        <v>169509</v>
+      </c>
+      <c r="G1480" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1480" t="inlineStr">
+        <is>
+          <t>00:56:10.896295</t>
+        </is>
+      </c>
+      <c r="I1480" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t>Ws5SOMeA3_E</t>
+        </is>
+      </c>
+      <c r="B1481" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1481" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1481" t="n">
+        <v>16064335</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>753069</v>
+      </c>
+      <c r="F1481" t="n">
+        <v>18798</v>
+      </c>
+      <c r="G1481" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1481" t="inlineStr">
+        <is>
+          <t>00:56:10.896299</t>
+        </is>
+      </c>
+      <c r="I1481" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t>k-wmRTFVwPA</t>
+        </is>
+      </c>
+      <c r="B1482" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY ALTERNATE EDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C1482" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1482" t="n">
+        <v>3971738</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>260118</v>
+      </c>
+      <c r="F1482" t="n">
+        <v>4715</v>
+      </c>
+      <c r="G1482" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1482" t="inlineStr">
+        <is>
+          <t>00:56:10.896303</t>
+        </is>
+      </c>
+      <c r="I1482" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t>vdDuCvCrcKg</t>
+        </is>
+      </c>
+      <c r="B1483" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY UNEDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C1483" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1483" t="n">
+        <v>277837855</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>4399721</v>
+      </c>
+      <c r="F1483" t="n">
+        <v>200408</v>
+      </c>
+      <c r="G1483" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1483" t="inlineStr">
+        <is>
+          <t>00:56:10.896307</t>
+        </is>
+      </c>
+      <c r="I1483" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t>89kTb73csYg</t>
+        </is>
+      </c>
+      <c r="B1484" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Forever Young' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1484" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1484" t="n">
+        <v>234157859</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>3954408</v>
+      </c>
+      <c r="F1484" t="n">
+        <v>125703</v>
+      </c>
+      <c r="G1484" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1484" t="inlineStr">
+        <is>
+          <t>00:56:10.896311</t>
+        </is>
+      </c>
+      <c r="I1484" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>jOJbXvjZ-cQ</t>
+        </is>
+      </c>
+      <c r="B1485" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1485" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1485" t="n">
+        <v>493647580</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>5636347</v>
+      </c>
+      <c r="F1485" t="n">
+        <v>183864</v>
+      </c>
+      <c r="G1485" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1485" t="inlineStr">
+        <is>
+          <t>00:56:10.896315</t>
+        </is>
+      </c>
+      <c r="I1485" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>hKUJmA9O6iA</t>
+        </is>
+      </c>
+      <c r="B1486" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1486" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1486" t="n">
+        <v>282685974</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>3061262</v>
+      </c>
+      <c r="F1486" t="n">
+        <v>76132</v>
+      </c>
+      <c r="G1486" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1486" t="inlineStr">
+        <is>
+          <t>00:56:10.896319</t>
+        </is>
+      </c>
+      <c r="I1486" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>NvWfJTbrTBY</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난(PLAYING WITH FIRE)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1487" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1487" t="n">
+        <v>218009312</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>2362736</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>61941</v>
+      </c>
+      <c r="G1487" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1487" t="inlineStr">
+        <is>
+          <t>00:56:10.896323</t>
+        </is>
+      </c>
+      <c r="I1487" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>ivoS3HUJB3Q</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1488" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1488" t="n">
+        <v>299363529</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>3123315</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>76238</v>
+      </c>
+      <c r="G1488" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1488" t="inlineStr">
+        <is>
+          <t>00:56:10.896327</t>
+        </is>
+      </c>
+      <c r="I1488" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>1kYrp_Bs8DU</t>
+        </is>
+      </c>
+      <c r="B1489" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1489" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1489" t="n">
+        <v>180270147</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>2118522</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>57163</v>
+      </c>
+      <c r="G1489" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1489" t="inlineStr">
+        <is>
+          <t>00:56:10.896331</t>
+        </is>
+      </c>
+      <c r="I1489" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>3fg8pyLKvXE</t>
+        </is>
+      </c>
+      <c r="B1490" t="inlineStr">
+        <is>
+          <t>BLACKPINK - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1490" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1490" t="n">
+        <v>87196357</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>2895505</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>90180</v>
+      </c>
+      <c r="G1490" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1490" t="inlineStr">
+        <is>
+          <t>00:56:10.896335</t>
+        </is>
+      </c>
+      <c r="I1490" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>VLpUsmBafMQ</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1491" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1491" t="n">
+        <v>33730193</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>715687</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>14270</v>
+      </c>
+      <c r="G1491" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1491" t="inlineStr">
+        <is>
+          <t>00:56:10.896339</t>
+        </is>
+      </c>
+      <c r="I1491" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>z9tifvQSu-g</t>
+        </is>
+      </c>
+      <c r="B1492" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Typa Girl’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1492" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1492" t="n">
+        <v>57585721</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>1237062</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>21992</v>
+      </c>
+      <c r="G1492" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1492" t="inlineStr">
+        <is>
+          <t>00:56:10.896343</t>
+        </is>
+      </c>
+      <c r="I1492" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>NpVJidAKOqc</t>
+        </is>
+      </c>
+      <c r="B1493" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1493" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1493" t="n">
+        <v>24479238</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>636218</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>11443</v>
+      </c>
+      <c r="G1493" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1493" t="inlineStr">
+        <is>
+          <t>00:56:11.112705</t>
+        </is>
+      </c>
+      <c r="I1493" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>PjrAwC4TIPA</t>
+        </is>
+      </c>
+      <c r="B1494" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1494" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1494" t="n">
+        <v>154691202</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>3744119</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>98776</v>
+      </c>
+      <c r="G1494" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1494" t="inlineStr">
+        <is>
+          <t>00:56:11.112732</t>
+        </is>
+      </c>
+      <c r="I1494" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>RkKXbweBCcI</t>
+        </is>
+      </c>
+      <c r="B1495" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C1495" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1495" t="n">
+        <v>45095444</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>2783404</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>60699</v>
+      </c>
+      <c r="G1495" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1495" t="inlineStr">
+        <is>
+          <t>00:56:11.112737</t>
+        </is>
+      </c>
+      <c r="I1495" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>aEiznLJCb9o</t>
+        </is>
+      </c>
+      <c r="B1496" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' 0926 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1496" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1496" t="n">
+        <v>21694602</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>1461443</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>41791</v>
+      </c>
+      <c r="G1496" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1496" t="inlineStr">
+        <is>
+          <t>00:56:11.112741</t>
+        </is>
+      </c>
+      <c r="I1496" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>dNCWe_6HAM8</t>
+        </is>
+      </c>
+      <c r="B1497" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' EXCLUSIVE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1497" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1497" t="n">
+        <v>907291277</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>14008023</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>943496</v>
+      </c>
+      <c r="G1497" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1497" t="inlineStr">
+        <is>
+          <t>00:56:11.112746</t>
+        </is>
+      </c>
+      <c r="I1497" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>08x_TcTyw8o</t>
+        </is>
+      </c>
+      <c r="B1498" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C1498" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1498" t="n">
+        <v>93559150</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>3541396</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>94903</v>
+      </c>
+      <c r="G1498" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1498" t="inlineStr">
+        <is>
+          <t>00:56:11.112750</t>
+        </is>
+      </c>
+      <c r="I1498" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>kZZYkrDWUls</t>
+        </is>
+      </c>
+      <c r="B1499" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0404 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1499" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1499" t="n">
+        <v>6095626</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>553229</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>24568</v>
+      </c>
+      <c r="G1499" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1499" t="inlineStr">
+        <is>
+          <t>00:56:11.112754</t>
+        </is>
+      </c>
+      <c r="I1499" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>VFBj5sWfbH4</t>
+        </is>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0328 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1500" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1500" t="n">
+        <v>6143626</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>581943</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>24762</v>
+      </c>
+      <c r="G1500" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1500" t="inlineStr">
+        <is>
+          <t>00:56:11.112758</t>
+        </is>
+      </c>
+      <c r="I1500" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>AkISOALL8Cw</t>
+        </is>
+      </c>
+      <c r="B1501" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0321 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1501" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1501" t="n">
+        <v>10841251</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>826822</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>29957</v>
+      </c>
+      <c r="G1501" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1501" t="inlineStr">
+        <is>
+          <t>00:56:11.112761</t>
+        </is>
+      </c>
+      <c r="I1501" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>Q88P1gpOJxA</t>
+        </is>
+      </c>
+      <c r="B1502" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1502" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1502" t="n">
+        <v>27026056</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>2005883</v>
+      </c>
+      <c r="F1502" t="n">
+        <v>75627</v>
+      </c>
+      <c r="G1502" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1502" t="inlineStr">
+        <is>
+          <t>00:56:11.112765</t>
+        </is>
+      </c>
+      <c r="I1502" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>fjp4thii1WY</t>
+        </is>
+      </c>
+      <c r="B1503" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1503" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1503" t="n">
+        <v>14341916</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>1440882</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>45874</v>
+      </c>
+      <c r="G1503" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1503" t="inlineStr">
+        <is>
+          <t>00:56:11.112769</t>
+        </is>
+      </c>
+      <c r="I1503" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>MBStYsiE618</t>
+        </is>
+      </c>
+      <c r="B1504" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1025 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1504" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1504" t="n">
+        <v>31348000</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>1431852</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>52475</v>
+      </c>
+      <c r="G1504" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1504" t="inlineStr">
+        <is>
+          <t>00:56:11.112773</t>
+        </is>
+      </c>
+      <c r="I1504" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>3l5jwqPT2yk</t>
+        </is>
+      </c>
+      <c r="B1505" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' Jimmy Kimmel Live</t>
+        </is>
+      </c>
+      <c r="C1505" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1505" t="n">
+        <v>56028485</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>2213412</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>58844</v>
+      </c>
+      <c r="G1505" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1505" t="inlineStr">
+        <is>
+          <t>00:56:11.112777</t>
+        </is>
+      </c>
+      <c r="I1505" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>UcvYlihruvo</t>
+        </is>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1018 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1506" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1506" t="n">
+        <v>8770171</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>759221</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>27514</v>
+      </c>
+      <c r="G1506" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1506" t="inlineStr">
+        <is>
+          <t>00:56:11.112781</t>
+        </is>
+      </c>
+      <c r="I1506" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>Fwg9-MXdBYA</t>
+        </is>
+      </c>
+      <c r="B1507" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1011 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1507" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1507" t="n">
+        <v>15884420</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>1286547</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>35202</v>
+      </c>
+      <c r="G1507" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1507" t="inlineStr">
+        <is>
+          <t>00:56:11.112785</t>
+        </is>
+      </c>
+      <c r="I1507" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>gU2HqP4NxUs</t>
+        </is>
+      </c>
+      <c r="B1508" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ 1011 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1508" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1508" t="n">
+        <v>326078392</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>5162040</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>142951</v>
+      </c>
+      <c r="G1508" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1508" t="inlineStr">
+        <is>
+          <t>00:56:11.112789</t>
+        </is>
+      </c>
+      <c r="I1508" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>7PpUuLYWcs8</t>
+        </is>
+      </c>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0719 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1509" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1509" t="n">
+        <v>12824724</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>812007</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>28751</v>
+      </c>
+      <c r="G1509" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1509" t="inlineStr">
+        <is>
+          <t>00:56:11.112793</t>
+        </is>
+      </c>
+      <c r="I1509" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>04lxLDmFaOE</t>
+        </is>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0712 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1510" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1510" t="n">
+        <v>10330586</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>832079</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>37850</v>
+      </c>
+      <c r="G1510" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1510" t="inlineStr">
+        <is>
+          <t>00:56:11.112797</t>
+        </is>
+      </c>
+      <c r="I1510" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>JLOwA3o6Zr0</t>
+        </is>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0705 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1511" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1511" t="n">
+        <v>13438271</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>971616</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>36149</v>
+      </c>
+      <c r="G1511" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1511" t="inlineStr">
+        <is>
+          <t>00:56:11.112802</t>
+        </is>
+      </c>
+      <c r="I1511" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>t0RcZWn085g</t>
+        </is>
+      </c>
+      <c r="B1512" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0628 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1512" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1512" t="n">
+        <v>52046775</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>2286343</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>59215</v>
+      </c>
+      <c r="G1512" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1512" t="inlineStr">
+        <is>
+          <t>00:56:11.112806</t>
+        </is>
+      </c>
+      <c r="I1512" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>tOCUE8wRQYY</t>
+        </is>
+      </c>
+      <c r="B1513" t="inlineStr">
+        <is>
+          <t>BLACKPINK ‐ Kill This Love -JP Ver.- Live at BLACKPINK 2019-2020 WORLD TOUR IN YOUR AREA-TOKYO DOME-</t>
+        </is>
+      </c>
+      <c r="C1513" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1513" t="n">
+        <v>37054452</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>1228800</v>
+      </c>
+      <c r="F1513" t="n">
+        <v>44961</v>
+      </c>
+      <c r="G1513" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1513" t="inlineStr">
+        <is>
+          <t>00:56:11.339503</t>
+        </is>
+      </c>
+      <c r="I1513" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t>-6XwN_wu3KU</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1514" t="n">
+        <v>24874975</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>1077262</v>
+      </c>
+      <c r="F1514" t="n">
+        <v>26098</v>
+      </c>
+      <c r="G1514" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1514" t="inlineStr">
+        <is>
+          <t>00:56:11.339527</t>
+        </is>
+      </c>
+      <c r="I1514" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t>_HhAzr5DLik</t>
+        </is>
+      </c>
+      <c r="B1515" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C1515" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1515" t="n">
+        <v>14544507</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>700487</v>
+      </c>
+      <c r="F1515" t="n">
+        <v>22472</v>
+      </c>
+      <c r="G1515" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1515" t="inlineStr">
+        <is>
+          <t>00:56:11.339532</t>
+        </is>
+      </c>
+      <c r="I1515" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>a5gUds01aXY</t>
+        </is>
+      </c>
+      <c r="B1516" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' 2019 Coachella Live Performance</t>
+        </is>
+      </c>
+      <c r="C1516" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1516" t="n">
+        <v>50656834</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>1887006</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>89568</v>
+      </c>
+      <c r="G1516" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1516" t="inlineStr">
+        <is>
+          <t>00:56:11.339536</t>
+        </is>
+      </c>
+      <c r="I1516" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>vx9CSpnROfs</t>
+        </is>
+      </c>
+      <c r="B1517" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0414 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1517" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1517" t="n">
+        <v>121293887</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>2330927</v>
+      </c>
+      <c r="F1517" t="n">
+        <v>54734</v>
+      </c>
+      <c r="G1517" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1517" t="inlineStr">
+        <is>
+          <t>00:56:11.339541</t>
+        </is>
+      </c>
+      <c r="I1517" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t>RgI8UNOqczE</t>
+        </is>
+      </c>
+      <c r="B1518" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1518" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1518" t="n">
+        <v>11378978</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>502536</v>
+      </c>
+      <c r="F1518" t="n">
+        <v>16972</v>
+      </c>
+      <c r="G1518" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1518" t="inlineStr">
+        <is>
+          <t>00:56:11.339545</t>
+        </is>
+      </c>
+      <c r="I1518" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t>sL175y19MUU</t>
+        </is>
+      </c>
+      <c r="B1519" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1519" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1519" t="n">
+        <v>12343725</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>463579</v>
+      </c>
+      <c r="F1519" t="n">
+        <v>11737</v>
+      </c>
+      <c r="G1519" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1519" t="inlineStr">
+        <is>
+          <t>00:56:11.339549</t>
+        </is>
+      </c>
+      <c r="I1519" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t>GXBDwS2Tizo</t>
+        </is>
+      </c>
+      <c r="B1520" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1520" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1520" t="n">
+        <v>22250941</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>1033695</v>
+      </c>
+      <c r="F1520" t="n">
+        <v>26525</v>
+      </c>
+      <c r="G1520" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1520" t="inlineStr">
+        <is>
+          <t>00:56:11.339553</t>
+        </is>
+      </c>
+      <c r="I1520" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t>rt6G9Vwt1xc</t>
+        </is>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1521" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1521" t="n">
+        <v>17941380</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>794032</v>
+      </c>
+      <c r="F1521" t="n">
+        <v>24510</v>
+      </c>
+      <c r="G1521" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1521" t="inlineStr">
+        <is>
+          <t>00:56:11.339557</t>
+        </is>
+      </c>
+      <c r="I1521" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>MkG24J87IUk</t>
+        </is>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1522" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1522" t="n">
+        <v>49503798</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>1709828</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>46452</v>
+      </c>
+      <c r="G1522" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1522" t="inlineStr">
+        <is>
+          <t>00:56:11.339561</t>
+        </is>
+      </c>
+      <c r="I1522" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>o4GHoqGtRkg</t>
+        </is>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Don't Know What To Do’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1523" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1523" t="n">
+        <v>67686094</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>1722568</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>48437</v>
+      </c>
+      <c r="G1523" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1523" t="inlineStr">
+        <is>
+          <t>00:56:11.339565</t>
+        </is>
+      </c>
+      <c r="I1523" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>cxNIewNXpcg</t>
+        </is>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SOLO' + '뚜두뚜두(DDU-DU DDU-DU)' + 'FOREVER YOUNG' in 2018 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1524" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1524" t="n">
+        <v>383553150</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>6191092</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>209163</v>
+      </c>
+      <c r="G1524" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1524" t="inlineStr">
+        <is>
+          <t>00:56:11.339569</t>
+        </is>
+      </c>
+      <c r="I1524" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>7nukOecMf-U</t>
+        </is>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1216 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1525" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1525" t="n">
+        <v>4906295</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>224826</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>7751</v>
+      </c>
+      <c r="G1525" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1525" t="inlineStr">
+        <is>
+          <t>00:56:11.339573</t>
+        </is>
+      </c>
+      <c r="I1525" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>CPSH3ljpkZ4</t>
+        </is>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1209 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1526" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1526" t="n">
+        <v>13093131</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>413103</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>13156</v>
+      </c>
+      <c r="G1526" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1526" t="inlineStr">
+        <is>
+          <t>00:56:11.339577</t>
+        </is>
+      </c>
+      <c r="I1526" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>hxDXhh2sE1g</t>
+        </is>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1202 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1527" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1527" t="n">
+        <v>5929758</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>253733</v>
+      </c>
+      <c r="F1527" t="n">
+        <v>9488</v>
+      </c>
+      <c r="G1527" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1527" t="inlineStr">
+        <is>
+          <t>00:56:11.339581</t>
+        </is>
+      </c>
+      <c r="I1527" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>smimdoBjeAE</t>
+        </is>
+      </c>
+      <c r="B1528" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1125 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1528" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1528" t="n">
+        <v>17105970</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>676454</v>
+      </c>
+      <c r="F1528" t="n">
+        <v>25619</v>
+      </c>
+      <c r="G1528" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1528" t="inlineStr">
+        <is>
+          <t>00:56:11.339585</t>
+        </is>
+      </c>
+      <c r="I1528" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>N1C_G3sfzXo</t>
+        </is>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' PERFORMANCE [IN YOUR AREA] SEOUL</t>
+        </is>
+      </c>
+      <c r="C1529" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1529" t="n">
+        <v>29720870</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>1034458</v>
+      </c>
+      <c r="F1529" t="n">
+        <v>26389</v>
+      </c>
+      <c r="G1529" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1529" t="inlineStr">
+        <is>
+          <t>00:56:11.339589</t>
+        </is>
+      </c>
+      <c r="I1529" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>5hwepTxNKtE</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0805 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1530" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1530" t="n">
+        <v>72866656</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>1184079</v>
+      </c>
+      <c r="F1530" t="n">
+        <v>44063</v>
+      </c>
+      <c r="G1530" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1530" t="inlineStr">
+        <is>
+          <t>00:56:11.339593</t>
+        </is>
+      </c>
+      <c r="I1530" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>4KRdmXcJWQU</t>
+        </is>
+      </c>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1531" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1531" t="n">
+        <v>8761562</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>415996</v>
+      </c>
+      <c r="F1531" t="n">
+        <v>11730</v>
+      </c>
+      <c r="G1531" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1531" t="inlineStr">
+        <is>
+          <t>00:56:11.339597</t>
+        </is>
+      </c>
+      <c r="I1531" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>HhyRAPKiXi4</t>
+        </is>
+      </c>
+      <c r="B1532" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1532" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1532" t="n">
+        <v>3985000</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>203257</v>
+      </c>
+      <c r="F1532" t="n">
+        <v>7215</v>
+      </c>
+      <c r="G1532" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1532" t="inlineStr">
+        <is>
+          <t>00:56:11.339601</t>
+        </is>
+      </c>
+      <c r="I1532" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>PMsBMoc9eFg</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0722 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1533" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1533" t="n">
+        <v>12212953</v>
+      </c>
+      <c r="E1533" t="n">
+        <v>439706</v>
+      </c>
+      <c r="F1533" t="n">
+        <v>19911</v>
+      </c>
+      <c r="G1533" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1533" t="inlineStr">
+        <is>
+          <t>00:56:11.579604</t>
+        </is>
+      </c>
+      <c r="I1533" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t>xqWjJP_WT-0</t>
+        </is>
+      </c>
+      <c r="B1534" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1534" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1534" t="n">
+        <v>13211207</v>
+      </c>
+      <c r="E1534" t="n">
+        <v>687706</v>
+      </c>
+      <c r="F1534" t="n">
+        <v>24670</v>
+      </c>
+      <c r="G1534" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1534" t="inlineStr">
+        <is>
+          <t>00:56:11.579629</t>
+        </is>
+      </c>
+      <c r="I1534" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t>WaIGc9QmV2w</t>
+        </is>
+      </c>
+      <c r="B1535" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1535" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1535" t="n">
+        <v>3358138</v>
+      </c>
+      <c r="E1535" t="n">
+        <v>185645</v>
+      </c>
+      <c r="F1535" t="n">
+        <v>7354</v>
+      </c>
+      <c r="G1535" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1535" t="inlineStr">
+        <is>
+          <t>00:56:11.579634</t>
+        </is>
+      </c>
+      <c r="I1535" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t>67otJZ6qe9Y</t>
+        </is>
+      </c>
+      <c r="B1536" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0715 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1536" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1536" t="n">
+        <v>44103573</v>
+      </c>
+      <c r="E1536" t="n">
+        <v>981720</v>
+      </c>
+      <c r="F1536" t="n">
+        <v>33570</v>
+      </c>
+      <c r="G1536" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1536" t="inlineStr">
+        <is>
+          <t>00:56:11.579639</t>
+        </is>
+      </c>
+      <c r="I1536" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t>PZ5t29qgGAM</t>
+        </is>
+      </c>
+      <c r="B1537" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1537" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1537" t="n">
+        <v>11326723</v>
+      </c>
+      <c r="E1537" t="n">
+        <v>511304</v>
+      </c>
+      <c r="F1537" t="n">
+        <v>18487</v>
+      </c>
+      <c r="G1537" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1537" t="inlineStr">
+        <is>
+          <t>00:56:11.579643</t>
+        </is>
+      </c>
+      <c r="I1537" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>dEnDjgoLLY4</t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1538" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1538" t="n">
+        <v>6473005</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>327023</v>
+      </c>
+      <c r="F1538" t="n">
+        <v>12289</v>
+      </c>
+      <c r="G1538" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1538" t="inlineStr">
+        <is>
+          <t>00:56:11.579647</t>
+        </is>
+      </c>
+      <c r="I1538" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>0uje7GB8Azk</t>
+        </is>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1539" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1539" t="n">
+        <v>10030667</v>
+      </c>
+      <c r="E1539" t="n">
+        <v>351794</v>
+      </c>
+      <c r="F1539" t="n">
+        <v>13478</v>
+      </c>
+      <c r="G1539" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1539" t="inlineStr">
+        <is>
+          <t>00:56:11.579651</t>
+        </is>
+      </c>
+      <c r="I1539" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t>F6IR7luozPw</t>
+        </is>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0708 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1540" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1540" t="n">
+        <v>3908768</v>
+      </c>
+      <c r="E1540" t="n">
+        <v>226799</v>
+      </c>
+      <c r="F1540" t="n">
+        <v>12155</v>
+      </c>
+      <c r="G1540" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1540" t="inlineStr">
+        <is>
+          <t>00:56:11.579655</t>
+        </is>
+      </c>
+      <c r="I1540" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t>rw2-h5JNLqM</t>
+        </is>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1541" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1541" t="n">
+        <v>15137415</v>
+      </c>
+      <c r="E1541" t="n">
+        <v>692864</v>
+      </c>
+      <c r="F1541" t="n">
+        <v>22353</v>
+      </c>
+      <c r="G1541" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1541" t="inlineStr">
+        <is>
+          <t>00:56:11.579659</t>
+        </is>
+      </c>
+      <c r="I1541" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>TIOCHR0OxOQ</t>
+        </is>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0701 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1542" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1542" t="n">
+        <v>4463322</v>
+      </c>
+      <c r="E1542" t="n">
+        <v>260875</v>
+      </c>
+      <c r="F1542" t="n">
+        <v>14771</v>
+      </c>
+      <c r="G1542" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1542" t="inlineStr">
+        <is>
+          <t>00:56:11.579663</t>
+        </is>
+      </c>
+      <c r="I1542" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
+          <t>PUcGXTSCRLA</t>
+        </is>
+      </c>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0624 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1543" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1543" t="n">
+        <v>7592196</v>
+      </c>
+      <c r="E1543" t="n">
+        <v>351491</v>
+      </c>
+      <c r="F1543" t="n">
+        <v>13061</v>
+      </c>
+      <c r="G1543" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1543" t="inlineStr">
+        <is>
+          <t>00:56:11.579667</t>
+        </is>
+      </c>
+      <c r="I1543" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t>b5dUYf_uPaY</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1544" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1544" t="n">
+        <v>44073308</v>
+      </c>
+      <c r="E1544" t="n">
+        <v>1105978</v>
+      </c>
+      <c r="F1544" t="n">
+        <v>33818</v>
+      </c>
+      <c r="G1544" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1544" t="inlineStr">
+        <is>
+          <t>00:56:11.579671</t>
+        </is>
+      </c>
+      <c r="I1544" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t>n7ukhNJvQ8s</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1545" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1545" t="n">
+        <v>63826139</v>
+      </c>
+      <c r="E1545" t="n">
+        <v>1131877</v>
+      </c>
+      <c r="F1545" t="n">
+        <v>40074</v>
+      </c>
+      <c r="G1545" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1545" t="inlineStr">
+        <is>
+          <t>00:56:11.579675</t>
+        </is>
+      </c>
+      <c r="I1545" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t>f1xIeTCgoFk</t>
+        </is>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>BLACKPINK - INTRO +  ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2018 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C1546" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1546" t="n">
+        <v>35632287</v>
+      </c>
+      <c r="E1546" t="n">
+        <v>772827</v>
+      </c>
+      <c r="F1546" t="n">
+        <v>23948</v>
+      </c>
+      <c r="G1546" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1546" t="inlineStr">
+        <is>
+          <t>00:56:11.579680</t>
+        </is>
+      </c>
+      <c r="I1546" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t>skIfzl96Gc0</t>
+        </is>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SO HOT' (THEBLACKLABEL Remix) in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1547" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1547" t="n">
+        <v>87664639</v>
+      </c>
+      <c r="E1547" t="n">
+        <v>2154876</v>
+      </c>
+      <c r="F1547" t="n">
+        <v>63136</v>
+      </c>
+      <c r="G1547" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1547" t="inlineStr">
+        <is>
+          <t>00:56:11.579684</t>
+        </is>
+      </c>
+      <c r="I1547" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t>PoHD4wfwC6Y</t>
+        </is>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1548" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1548" t="n">
+        <v>8398814</v>
+      </c>
+      <c r="E1548" t="n">
+        <v>300203</v>
+      </c>
+      <c r="F1548" t="n">
+        <v>7159</v>
+      </c>
+      <c r="G1548" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1548" t="inlineStr">
+        <is>
+          <t>00:56:11.579688</t>
+        </is>
+      </c>
+      <c r="I1548" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>wwuZtpS8FNI</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 1001 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1549" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1549" t="n">
+        <v>35311882</v>
+      </c>
+      <c r="E1549" t="n">
+        <v>580316</v>
+      </c>
+      <c r="F1549" t="n">
+        <v>15699</v>
+      </c>
+      <c r="G1549" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1549" t="inlineStr">
+        <is>
+          <t>00:56:11.579692</t>
+        </is>
+      </c>
+      <c r="I1549" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>GE7x2fVVsXM</t>
+        </is>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>BLACKPINK - OPENING MEDLDY 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1550" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1550" t="n">
+        <v>16255930</v>
+      </c>
+      <c r="E1550" t="n">
+        <v>446023</v>
+      </c>
+      <c r="F1550" t="n">
+        <v>10608</v>
+      </c>
+      <c r="G1550" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1550" t="inlineStr">
+        <is>
+          <t>00:56:11.579696</t>
+        </is>
+      </c>
+      <c r="I1550" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>_7TMluHVx4Y</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SURE THING (Miguel)' COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1551" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1551" t="n">
+        <v>109597951</v>
+      </c>
+      <c r="E1551" t="n">
+        <v>1772379</v>
+      </c>
+      <c r="F1551" t="n">
+        <v>69477</v>
+      </c>
+      <c r="G1551" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1551" t="inlineStr">
+        <is>
+          <t>00:56:11.579700</t>
+        </is>
+      </c>
+      <c r="I1551" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t>X3P6dnL2OyY</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'PARTITION (Beyonce)' DANCE COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1552" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1552" t="n">
+        <v>48814380</v>
+      </c>
+      <c r="E1552" t="n">
+        <v>1228027</v>
+      </c>
+      <c r="F1552" t="n">
+        <v>30770</v>
+      </c>
+      <c r="G1552" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1552" t="inlineStr">
+        <is>
+          <t>00:56:11.579703</t>
+        </is>
+      </c>
+      <c r="I1552" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>RczrR4FVKzg</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST) Remix ver.' 0723 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1553" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1553" t="n">
+        <v>20894893</v>
+      </c>
+      <c r="E1553" t="n">
+        <v>625079</v>
+      </c>
+      <c r="F1553" t="n">
+        <v>19586</v>
+      </c>
+      <c r="G1553" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1553" t="inlineStr">
+        <is>
+          <t>00:56:11.803564</t>
+        </is>
+      </c>
+      <c r="I1553" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>vW1PeCzs7Sg</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0716 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1554" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1554" t="n">
+        <v>4603840</v>
+      </c>
+      <c r="E1554" t="n">
+        <v>204552</v>
+      </c>
+      <c r="F1554" t="n">
+        <v>6755</v>
+      </c>
+      <c r="G1554" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1554" t="inlineStr">
+        <is>
+          <t>00:56:11.803586</t>
+        </is>
+      </c>
+      <c r="I1554" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>ZL8LqlKtpVE</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0709 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1555" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1555" t="n">
+        <v>4522531</v>
+      </c>
+      <c r="E1555" t="n">
+        <v>211985</v>
+      </c>
+      <c r="F1555" t="n">
+        <v>6455</v>
+      </c>
+      <c r="G1555" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1555" t="inlineStr">
+        <is>
+          <t>00:56:11.803591</t>
+        </is>
+      </c>
+      <c r="I1555" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>fWOAe_xXTQs</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0702 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1556" t="n">
+        <v>7132103</v>
+      </c>
+      <c r="E1556" t="n">
+        <v>308303</v>
+      </c>
+      <c r="F1556" t="n">
+        <v>11345</v>
+      </c>
+      <c r="G1556" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1556" t="inlineStr">
+        <is>
+          <t>00:56:11.803595</t>
+        </is>
+      </c>
+      <c r="I1556" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>TWRSR7y1288</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0625 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1557" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1557" t="n">
+        <v>31725613</v>
+      </c>
+      <c r="E1557" t="n">
+        <v>750984</v>
+      </c>
+      <c r="F1557" t="n">
+        <v>23568</v>
+      </c>
+      <c r="G1557" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1557" t="inlineStr">
+        <is>
+          <t>00:56:11.803598</t>
+        </is>
+      </c>
+      <c r="I1557" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>VQLn90MACUQ</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난 (PLAYING WITH FIRE)’ + ‘붐바야 (BOOMBAYAH)’  in 2017 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C1558" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1558" t="n">
+        <v>51516415</v>
+      </c>
+      <c r="E1558" t="n">
+        <v>1047189</v>
+      </c>
+      <c r="F1558" t="n">
+        <v>22133</v>
+      </c>
+      <c r="G1558" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1558" t="inlineStr">
+        <is>
+          <t>00:56:11.803602</t>
+        </is>
+      </c>
+      <c r="I1558" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>_paRxWTIyAo</t>
+        </is>
+      </c>
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1559" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1559" t="n">
+        <v>121695196</v>
+      </c>
+      <c r="E1559" t="n">
+        <v>1968678</v>
+      </c>
+      <c r="F1559" t="n">
+        <v>39475</v>
+      </c>
+      <c r="G1559" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1559" t="inlineStr">
+        <is>
+          <t>00:56:11.803606</t>
+        </is>
+      </c>
+      <c r="I1559" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>FOv-Rsp1LS0</t>
+        </is>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - Interview(마지막 무대 인사) + '불장난(PLAYING WITH FIRE)' 1211 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1560" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1560" t="n">
+        <v>2833026</v>
+      </c>
+      <c r="E1560" t="n">
+        <v>127420</v>
+      </c>
+      <c r="F1560" t="n">
+        <v>5448</v>
+      </c>
+      <c r="G1560" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1560" t="inlineStr">
+        <is>
+          <t>00:56:11.803609</t>
+        </is>
+      </c>
+      <c r="I1560" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t>hTDRE5d5A2M</t>
+        </is>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1204 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1561" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1561" t="n">
+        <v>4060594</v>
+      </c>
+      <c r="E1561" t="n">
+        <v>199386</v>
+      </c>
+      <c r="F1561" t="n">
+        <v>6802</v>
+      </c>
+      <c r="G1561" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1561" t="inlineStr">
+        <is>
+          <t>00:56:11.803613</t>
+        </is>
+      </c>
+      <c r="I1561" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>HoAdqZW4ptY</t>
+        </is>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1127 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1562" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1562" t="n">
+        <v>6879063</v>
+      </c>
+      <c r="E1562" t="n">
+        <v>269572</v>
+      </c>
+      <c r="F1562" t="n">
+        <v>7413</v>
+      </c>
+      <c r="G1562" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1562" t="inlineStr">
+        <is>
+          <t>00:56:11.803617</t>
+        </is>
+      </c>
+      <c r="I1562" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>TklpzjGlqFE</t>
+        </is>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1120 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1563" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1563" t="n">
+        <v>13608904</v>
+      </c>
+      <c r="E1563" t="n">
+        <v>366367</v>
+      </c>
+      <c r="F1563" t="n">
+        <v>8693</v>
+      </c>
+      <c r="G1563" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1563" t="inlineStr">
+        <is>
+          <t>00:56:11.803620</t>
+        </is>
+      </c>
+      <c r="I1563" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>ZwVTC_686Sw</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 MELON MUSIC AWARDS</t>
+        </is>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1564" t="n">
+        <v>77773467</v>
+      </c>
+      <c r="E1564" t="n">
+        <v>1373133</v>
+      </c>
+      <c r="F1564" t="n">
+        <v>35272</v>
+      </c>
+      <c r="G1564" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1564" t="inlineStr">
+        <is>
+          <t>00:56:11.803623</t>
+        </is>
+      </c>
+      <c r="I1564" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>_NVwS4mcVYg</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1565" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1565" t="n">
+        <v>22438853</v>
+      </c>
+      <c r="E1565" t="n">
+        <v>626873</v>
+      </c>
+      <c r="F1565" t="n">
+        <v>19904</v>
+      </c>
+      <c r="G1565" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1565" t="inlineStr">
+        <is>
+          <t>00:56:11.803627</t>
+        </is>
+      </c>
+      <c r="I1565" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>5LWCPzwiN28</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1566" t="n">
+        <v>67297265</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>963822</v>
+      </c>
+      <c r="F1566" t="n">
+        <v>32148</v>
+      </c>
+      <c r="G1566" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1566" t="inlineStr">
+        <is>
+          <t>00:56:11.803630</t>
+        </is>
+      </c>
+      <c r="I1566" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>o4rSRaqvHyc</t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0911 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1567" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1567" t="n">
+        <v>6194111</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>253936</v>
+      </c>
+      <c r="F1567" t="n">
+        <v>6889</v>
+      </c>
+      <c r="G1567" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1567" t="inlineStr">
+        <is>
+          <t>00:56:11.803634</t>
+        </is>
+      </c>
+      <c r="I1567" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>6F0UWgSSQqU</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0904 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1568" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1568" t="n">
+        <v>9646545</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>255313</v>
+      </c>
+      <c r="F1568" t="n">
+        <v>9288</v>
+      </c>
+      <c r="G1568" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1568" t="inlineStr">
+        <is>
+          <t>00:56:11.803637</t>
+        </is>
+      </c>
+      <c r="I1568" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t>13XTnp3Lp84</t>
+        </is>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1569" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1569" t="n">
+        <v>31583753</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>649566</v>
+      </c>
+      <c r="F1569" t="n">
+        <v>20487</v>
+      </c>
+      <c r="G1569" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1569" t="inlineStr">
+        <is>
+          <t>00:56:11.803640</t>
+        </is>
+      </c>
+      <c r="I1569" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t>EKHdMwRaU60</t>
+        </is>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1570" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1570" t="n">
+        <v>60710556</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>828978</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>23105</v>
+      </c>
+      <c r="G1570" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1570" t="inlineStr">
+        <is>
+          <t>00:56:11.803644</t>
+        </is>
+      </c>
+      <c r="I1570" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t>metZ_f8aqC0</t>
+        </is>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0821 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1571" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1571" t="n">
+        <v>41576493</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>891797</v>
+      </c>
+      <c r="F1571" t="n">
+        <v>26130</v>
+      </c>
+      <c r="G1571" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1571" t="inlineStr">
+        <is>
+          <t>00:56:11.803648</t>
+        </is>
+      </c>
+      <c r="I1571" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>RGmL76BBGZk</t>
+        </is>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0821 SBS Inkigayo : '휘파람(WHISTLE)' NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1572" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1572" t="n">
+        <v>17059096</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>541033</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>14615</v>
+      </c>
+      <c r="G1572" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1572" t="inlineStr">
+        <is>
+          <t>00:56:11.803651</t>
+        </is>
+      </c>
+      <c r="I1572" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>vAqAp1tJnkc</t>
+        </is>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람’(WHISTLE) 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1573" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1573" t="n">
+        <v>48088790</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>857834</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>29208</v>
+      </c>
+      <c r="G1573" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1573" t="inlineStr">
+        <is>
+          <t>00:56:11.937290</t>
+        </is>
+      </c>
+      <c r="I1573" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t>LpSH8MrYCfg</t>
+        </is>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1574" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1574" t="n">
+        <v>168579469</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>2539406</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>80102</v>
+      </c>
+      <c r="G1574" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="H1574" t="inlineStr">
+        <is>
+          <t>00:56:11.937312</t>
+        </is>
+      </c>
+      <c r="I1574" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_videos_count_data.xlsx
+++ b/CLEANED_videos_count_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1574"/>
+  <dimension ref="A1:I1695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64973,6 +64973,4967 @@
         </is>
       </c>
     </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>YudHcBIxlYw</t>
+        </is>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1575" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1575" t="n">
+        <v>399256092</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>10159268</v>
+      </c>
+      <c r="F1575" t="n">
+        <v>1348982</v>
+      </c>
+      <c r="G1575" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1575" t="inlineStr">
+        <is>
+          <t>00:50:24.043409</t>
+        </is>
+      </c>
+      <c r="I1575" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t>POe9SOEKotk</t>
+        </is>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1576" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1576" t="n">
+        <v>528652750</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>10855888</v>
+      </c>
+      <c r="F1576" t="n">
+        <v>2233076</v>
+      </c>
+      <c r="G1576" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1576" t="inlineStr">
+        <is>
+          <t>00:50:24.043434</t>
+        </is>
+      </c>
+      <c r="I1576" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t>gQlMMD8auMs</t>
+        </is>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1577" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1577" t="n">
+        <v>739714048</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>16102001</v>
+      </c>
+      <c r="F1577" t="n">
+        <v>3565786</v>
+      </c>
+      <c r="G1577" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1577" t="inlineStr">
+        <is>
+          <t>00:50:24.043439</t>
+        </is>
+      </c>
+      <c r="I1577" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="inlineStr">
+        <is>
+          <t>awkkyBH2zEo</t>
+        </is>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' M\/V</t>
+        </is>
+      </c>
+      <c r="C1578" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1578" t="n">
+        <v>656833023</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>17328682</v>
+      </c>
+      <c r="F1578" t="n">
+        <v>2814799</v>
+      </c>
+      <c r="G1578" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1578" t="inlineStr">
+        <is>
+          <t>00:50:24.043443</t>
+        </is>
+      </c>
+      <c r="I1578" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="inlineStr">
+        <is>
+          <t>K9_VFxzCuQ0</t>
+        </is>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' M\/V</t>
+        </is>
+      </c>
+      <c r="C1579" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1579" t="n">
+        <v>269101883</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>7388383</v>
+      </c>
+      <c r="F1579" t="n">
+        <v>1241965</v>
+      </c>
+      <c r="G1579" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1579" t="inlineStr">
+        <is>
+          <t>00:50:24.043447</t>
+        </is>
+      </c>
+      <c r="I1579" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="inlineStr">
+        <is>
+          <t>CKZvWhCqx1s</t>
+        </is>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' M\/V</t>
+        </is>
+      </c>
+      <c r="C1580" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1580" t="n">
+        <v>343455680</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>11353935</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>2588827</v>
+      </c>
+      <c r="G1580" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1580" t="inlineStr">
+        <is>
+          <t>00:50:24.043450</t>
+        </is>
+      </c>
+      <c r="I1580" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="inlineStr">
+        <is>
+          <t>dyRsYk0LyA8</t>
+        </is>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' M\/V</t>
+        </is>
+      </c>
+      <c r="C1581" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1581" t="n">
+        <v>710701565</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>15505089</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>2042977</v>
+      </c>
+      <c r="G1581" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1581" t="inlineStr">
+        <is>
+          <t>00:50:24.043454</t>
+        </is>
+      </c>
+      <c r="I1581" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="inlineStr">
+        <is>
+          <t>vRXZj0DzXIA</t>
+        </is>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Ice Cream (with Selena Gomez)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1582" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1582" t="n">
+        <v>873000880</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>19927810</v>
+      </c>
+      <c r="F1582" t="n">
+        <v>3025416</v>
+      </c>
+      <c r="G1582" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1582" t="inlineStr">
+        <is>
+          <t>00:50:24.043458</t>
+        </is>
+      </c>
+      <c r="I1582" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="inlineStr">
+        <is>
+          <t>ioNng23DkIM</t>
+        </is>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' M\/V</t>
+        </is>
+      </c>
+      <c r="C1583" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1583" t="n">
+        <v>1244531643</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>24760056</v>
+      </c>
+      <c r="F1583" t="n">
+        <v>5097728</v>
+      </c>
+      <c r="G1583" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1583" t="inlineStr">
+        <is>
+          <t>00:50:24.043462</t>
+        </is>
+      </c>
+      <c r="I1583" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="inlineStr">
+        <is>
+          <t>2S24-y0Ij3Y</t>
+        </is>
+      </c>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' M\/V</t>
+        </is>
+      </c>
+      <c r="C1584" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1584" t="n">
+        <v>1876501586</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>25030558</v>
+      </c>
+      <c r="F1584" t="n">
+        <v>2479651</v>
+      </c>
+      <c r="G1584" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1584" t="inlineStr">
+        <is>
+          <t>00:50:24.043466</t>
+        </is>
+      </c>
+      <c r="I1584" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="inlineStr">
+        <is>
+          <t>b73BI9eUkjM</t>
+        </is>
+      </c>
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' M\/V</t>
+        </is>
+      </c>
+      <c r="C1585" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1585" t="n">
+        <v>964101558</v>
+      </c>
+      <c r="E1585" t="n">
+        <v>14630432</v>
+      </c>
+      <c r="F1585" t="n">
+        <v>3030513</v>
+      </c>
+      <c r="G1585" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1585" t="inlineStr">
+        <is>
+          <t>00:50:24.043469</t>
+        </is>
+      </c>
+      <c r="I1585" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="inlineStr">
+        <is>
+          <t>IHNzOHi8sJs</t>
+        </is>
+      </c>
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1586" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1586" t="n">
+        <v>2126633296</v>
+      </c>
+      <c r="E1586" t="n">
+        <v>23443086</v>
+      </c>
+      <c r="F1586" t="n">
+        <v>3284419</v>
+      </c>
+      <c r="G1586" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1586" t="inlineStr">
+        <is>
+          <t>00:50:24.043473</t>
+        </is>
+      </c>
+      <c r="I1586" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="inlineStr">
+        <is>
+          <t>Amq-qlqbjYA</t>
+        </is>
+      </c>
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '마지막처럼 (AS IF IT'S YOUR LAST)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1587" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1587" t="n">
+        <v>1323843358</v>
+      </c>
+      <c r="E1587" t="n">
+        <v>13260008</v>
+      </c>
+      <c r="F1587" t="n">
+        <v>1659011</v>
+      </c>
+      <c r="G1587" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1587" t="inlineStr">
+        <is>
+          <t>00:50:24.043477</t>
+        </is>
+      </c>
+      <c r="I1587" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="inlineStr">
+        <is>
+          <t>FzVR_fymZw4</t>
+        </is>
+      </c>
+      <c r="B1588" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' M\/V</t>
+        </is>
+      </c>
+      <c r="C1588" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1588" t="n">
+        <v>351743820</v>
+      </c>
+      <c r="E1588" t="n">
+        <v>6133668</v>
+      </c>
+      <c r="F1588" t="n">
+        <v>479283</v>
+      </c>
+      <c r="G1588" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1588" t="inlineStr">
+        <is>
+          <t>00:50:24.043480</t>
+        </is>
+      </c>
+      <c r="I1588" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="inlineStr">
+        <is>
+          <t>9pdj4iJD08s</t>
+        </is>
+      </c>
+      <c r="B1589" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1589" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1589" t="n">
+        <v>844182380</v>
+      </c>
+      <c r="E1589" t="n">
+        <v>8590619</v>
+      </c>
+      <c r="F1589" t="n">
+        <v>530105</v>
+      </c>
+      <c r="G1589" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1589" t="inlineStr">
+        <is>
+          <t>00:50:24.043484</t>
+        </is>
+      </c>
+      <c r="I1589" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="inlineStr">
+        <is>
+          <t>dISNgvVpWlo</t>
+        </is>
+      </c>
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1590" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1590" t="n">
+        <v>864448484</v>
+      </c>
+      <c r="E1590" t="n">
+        <v>9969634</v>
+      </c>
+      <c r="F1590" t="n">
+        <v>617235</v>
+      </c>
+      <c r="G1590" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1590" t="inlineStr">
+        <is>
+          <t>00:50:24.043487</t>
+        </is>
+      </c>
+      <c r="I1590" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="inlineStr">
+        <is>
+          <t>bwmSjveL3Lc</t>
+        </is>
+      </c>
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1591" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1591" t="n">
+        <v>1636995579</v>
+      </c>
+      <c r="E1591" t="n">
+        <v>16177557</v>
+      </c>
+      <c r="F1591" t="n">
+        <v>1123521</v>
+      </c>
+      <c r="G1591" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1591" t="inlineStr">
+        <is>
+          <t>00:50:24.043491</t>
+        </is>
+      </c>
+      <c r="I1591" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="inlineStr">
+        <is>
+          <t>4XZz3WXRw0A</t>
+        </is>
+      </c>
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1592" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1592" t="n">
+        <v>124810563</v>
+      </c>
+      <c r="E1592" t="n">
+        <v>2980320</v>
+      </c>
+      <c r="F1592" t="n">
+        <v>97211</v>
+      </c>
+      <c r="G1592" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1592" t="inlineStr">
+        <is>
+          <t>00:50:24.043494</t>
+        </is>
+      </c>
+      <c r="I1592" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="inlineStr">
+        <is>
+          <t>RFMi3v0TXP8</t>
+        </is>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1593" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1593" t="n">
+        <v>207196978</v>
+      </c>
+      <c r="E1593" t="n">
+        <v>4832213</v>
+      </c>
+      <c r="F1593" t="n">
+        <v>132959</v>
+      </c>
+      <c r="G1593" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1593" t="inlineStr">
+        <is>
+          <t>00:50:24.043502</t>
+        </is>
+      </c>
+      <c r="I1593" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="inlineStr">
+        <is>
+          <t>fr-eHz87XoM</t>
+        </is>
+      </c>
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1594" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1594" t="n">
+        <v>116975329</v>
+      </c>
+      <c r="E1594" t="n">
+        <v>3697485</v>
+      </c>
+      <c r="F1594" t="n">
+        <v>82418</v>
+      </c>
+      <c r="G1594" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1594" t="inlineStr">
+        <is>
+          <t>00:50:24.325513</t>
+        </is>
+      </c>
+      <c r="I1594" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="inlineStr">
+        <is>
+          <t>ZJ6QQLDIzrI</t>
+        </is>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1595" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1595" t="n">
+        <v>86607000</v>
+      </c>
+      <c r="E1595" t="n">
+        <v>3024007</v>
+      </c>
+      <c r="F1595" t="n">
+        <v>67390</v>
+      </c>
+      <c r="G1595" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1595" t="inlineStr">
+        <is>
+          <t>00:50:24.325534</t>
+        </is>
+      </c>
+      <c r="I1595" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="inlineStr">
+        <is>
+          <t>z6CSW2yu8Mg</t>
+        </is>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' Dance Performance</t>
+        </is>
+      </c>
+      <c r="C1596" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1596" t="n">
+        <v>109195977</v>
+      </c>
+      <c r="E1596" t="n">
+        <v>3341928</v>
+      </c>
+      <c r="F1596" t="n">
+        <v>145895</v>
+      </c>
+      <c r="G1596" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1596" t="inlineStr">
+        <is>
+          <t>00:50:24.325539</t>
+        </is>
+      </c>
+      <c r="I1596" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="inlineStr">
+        <is>
+          <t>YxksUfnuEbI</t>
+        </is>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1597" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1597" t="n">
+        <v>290211055</v>
+      </c>
+      <c r="E1597" t="n">
+        <v>5551978</v>
+      </c>
+      <c r="F1597" t="n">
+        <v>229986</v>
+      </c>
+      <c r="G1597" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1597" t="inlineStr">
+        <is>
+          <t>00:50:24.325542</t>
+        </is>
+      </c>
+      <c r="I1597" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t>32si5cfrCNc</t>
+        </is>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1598" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1598" t="n">
+        <v>1503740414</v>
+      </c>
+      <c r="E1598" t="n">
+        <v>17818035</v>
+      </c>
+      <c r="F1598" t="n">
+        <v>926969</v>
+      </c>
+      <c r="G1598" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1598" t="inlineStr">
+        <is>
+          <t>00:50:24.325546</t>
+        </is>
+      </c>
+      <c r="I1598" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t>kqXGnxJ-S3k</t>
+        </is>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>JENNIE - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1599" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1599" t="n">
+        <v>11027776</v>
+      </c>
+      <c r="E1599" t="n">
+        <v>953071</v>
+      </c>
+      <c r="F1599" t="n">
+        <v>26985</v>
+      </c>
+      <c r="G1599" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1599" t="inlineStr">
+        <is>
+          <t>00:50:24.325550</t>
+        </is>
+      </c>
+      <c r="I1599" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t>bqzDuRz_P7g</t>
+        </is>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Don't Know What To Do' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1600" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1600" t="n">
+        <v>312239969</v>
+      </c>
+      <c r="E1600" t="n">
+        <v>4283649</v>
+      </c>
+      <c r="F1600" t="n">
+        <v>118679</v>
+      </c>
+      <c r="G1600" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1600" t="inlineStr">
+        <is>
+          <t>00:50:24.325554</t>
+        </is>
+      </c>
+      <c r="I1600" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t>MOwaUlXZxkI</t>
+        </is>
+      </c>
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1601" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1601" t="n">
+        <v>491341724</v>
+      </c>
+      <c r="E1601" t="n">
+        <v>6139613</v>
+      </c>
+      <c r="F1601" t="n">
+        <v>169514</v>
+      </c>
+      <c r="G1601" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1601" t="inlineStr">
+        <is>
+          <t>00:50:24.325557</t>
+        </is>
+      </c>
+      <c r="I1601" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t>Ws5SOMeA3_E</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1602" t="n">
+        <v>16066508</v>
+      </c>
+      <c r="E1602" t="n">
+        <v>753108</v>
+      </c>
+      <c r="F1602" t="n">
+        <v>18799</v>
+      </c>
+      <c r="G1602" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1602" t="inlineStr">
+        <is>
+          <t>00:50:24.325561</t>
+        </is>
+      </c>
+      <c r="I1602" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t>k-wmRTFVwPA</t>
+        </is>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY ALTERNATE EDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C1603" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1603" t="n">
+        <v>3972184</v>
+      </c>
+      <c r="E1603" t="n">
+        <v>260127</v>
+      </c>
+      <c r="F1603" t="n">
+        <v>4715</v>
+      </c>
+      <c r="G1603" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1603" t="inlineStr">
+        <is>
+          <t>00:50:24.325564</t>
+        </is>
+      </c>
+      <c r="I1603" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t>vdDuCvCrcKg</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY UNEDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C1604" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1604" t="n">
+        <v>277889995</v>
+      </c>
+      <c r="E1604" t="n">
+        <v>4400104</v>
+      </c>
+      <c r="F1604" t="n">
+        <v>200438</v>
+      </c>
+      <c r="G1604" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1604" t="inlineStr">
+        <is>
+          <t>00:50:24.325568</t>
+        </is>
+      </c>
+      <c r="I1604" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>89kTb73csYg</t>
+        </is>
+      </c>
+      <c r="B1605" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Forever Young' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1605" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1605" t="n">
+        <v>234194525</v>
+      </c>
+      <c r="E1605" t="n">
+        <v>3954705</v>
+      </c>
+      <c r="F1605" t="n">
+        <v>125705</v>
+      </c>
+      <c r="G1605" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1605" t="inlineStr">
+        <is>
+          <t>00:50:24.325571</t>
+        </is>
+      </c>
+      <c r="I1605" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>jOJbXvjZ-cQ</t>
+        </is>
+      </c>
+      <c r="B1606" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1606" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1606" t="n">
+        <v>493685114</v>
+      </c>
+      <c r="E1606" t="n">
+        <v>5636479</v>
+      </c>
+      <c r="F1606" t="n">
+        <v>183865</v>
+      </c>
+      <c r="G1606" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1606" t="inlineStr">
+        <is>
+          <t>00:50:24.325575</t>
+        </is>
+      </c>
+      <c r="I1606" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t>hKUJmA9O6iA</t>
+        </is>
+      </c>
+      <c r="B1607" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1607" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1607" t="n">
+        <v>282735564</v>
+      </c>
+      <c r="E1607" t="n">
+        <v>3061564</v>
+      </c>
+      <c r="F1607" t="n">
+        <v>76138</v>
+      </c>
+      <c r="G1607" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1607" t="inlineStr">
+        <is>
+          <t>00:50:24.325579</t>
+        </is>
+      </c>
+      <c r="I1607" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="inlineStr">
+        <is>
+          <t>NvWfJTbrTBY</t>
+        </is>
+      </c>
+      <c r="B1608" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난(PLAYING WITH FIRE)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1608" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1608" t="n">
+        <v>218040059</v>
+      </c>
+      <c r="E1608" t="n">
+        <v>2362898</v>
+      </c>
+      <c r="F1608" t="n">
+        <v>61946</v>
+      </c>
+      <c r="G1608" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1608" t="inlineStr">
+        <is>
+          <t>00:50:24.325582</t>
+        </is>
+      </c>
+      <c r="I1608" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="inlineStr">
+        <is>
+          <t>ivoS3HUJB3Q</t>
+        </is>
+      </c>
+      <c r="B1609" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1609" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1609" t="n">
+        <v>299434505</v>
+      </c>
+      <c r="E1609" t="n">
+        <v>3123680</v>
+      </c>
+      <c r="F1609" t="n">
+        <v>76254</v>
+      </c>
+      <c r="G1609" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1609" t="inlineStr">
+        <is>
+          <t>00:50:24.325585</t>
+        </is>
+      </c>
+      <c r="I1609" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="inlineStr">
+        <is>
+          <t>1kYrp_Bs8DU</t>
+        </is>
+      </c>
+      <c r="B1610" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1610" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1610" t="n">
+        <v>180291326</v>
+      </c>
+      <c r="E1610" t="n">
+        <v>2118617</v>
+      </c>
+      <c r="F1610" t="n">
+        <v>57165</v>
+      </c>
+      <c r="G1610" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1610" t="inlineStr">
+        <is>
+          <t>00:50:24.325589</t>
+        </is>
+      </c>
+      <c r="I1610" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="inlineStr">
+        <is>
+          <t>3fg8pyLKvXE</t>
+        </is>
+      </c>
+      <c r="B1611" t="inlineStr">
+        <is>
+          <t>BLACKPINK - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1611" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1611" t="n">
+        <v>87210612</v>
+      </c>
+      <c r="E1611" t="n">
+        <v>2895836</v>
+      </c>
+      <c r="F1611" t="n">
+        <v>90199</v>
+      </c>
+      <c r="G1611" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1611" t="inlineStr">
+        <is>
+          <t>00:50:24.325593</t>
+        </is>
+      </c>
+      <c r="I1611" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="inlineStr">
+        <is>
+          <t>VLpUsmBafMQ</t>
+        </is>
+      </c>
+      <c r="B1612" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1612" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1612" t="n">
+        <v>33931303</v>
+      </c>
+      <c r="E1612" t="n">
+        <v>717278</v>
+      </c>
+      <c r="F1612" t="n">
+        <v>14285</v>
+      </c>
+      <c r="G1612" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1612" t="inlineStr">
+        <is>
+          <t>00:50:24.325596</t>
+        </is>
+      </c>
+      <c r="I1612" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="inlineStr">
+        <is>
+          <t>z9tifvQSu-g</t>
+        </is>
+      </c>
+      <c r="B1613" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Typa Girl’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1613" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1613" t="n">
+        <v>57807604</v>
+      </c>
+      <c r="E1613" t="n">
+        <v>1238584</v>
+      </c>
+      <c r="F1613" t="n">
+        <v>22014</v>
+      </c>
+      <c r="G1613" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1613" t="inlineStr">
+        <is>
+          <t>00:50:24.325600</t>
+        </is>
+      </c>
+      <c r="I1613" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="inlineStr">
+        <is>
+          <t>NpVJidAKOqc</t>
+        </is>
+      </c>
+      <c r="B1614" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1614" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1614" t="n">
+        <v>24564667</v>
+      </c>
+      <c r="E1614" t="n">
+        <v>636859</v>
+      </c>
+      <c r="F1614" t="n">
+        <v>11448</v>
+      </c>
+      <c r="G1614" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1614" t="inlineStr">
+        <is>
+          <t>00:50:24.571638</t>
+        </is>
+      </c>
+      <c r="I1614" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="inlineStr">
+        <is>
+          <t>PjrAwC4TIPA</t>
+        </is>
+      </c>
+      <c r="B1615" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1615" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1615" t="n">
+        <v>154833563</v>
+      </c>
+      <c r="E1615" t="n">
+        <v>3744689</v>
+      </c>
+      <c r="F1615" t="n">
+        <v>98781</v>
+      </c>
+      <c r="G1615" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1615" t="inlineStr">
+        <is>
+          <t>00:50:24.571660</t>
+        </is>
+      </c>
+      <c r="I1615" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="inlineStr">
+        <is>
+          <t>RkKXbweBCcI</t>
+        </is>
+      </c>
+      <c r="B1616" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C1616" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1616" t="n">
+        <v>45117260</v>
+      </c>
+      <c r="E1616" t="n">
+        <v>2783378</v>
+      </c>
+      <c r="F1616" t="n">
+        <v>60694</v>
+      </c>
+      <c r="G1616" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1616" t="inlineStr">
+        <is>
+          <t>00:50:24.571665</t>
+        </is>
+      </c>
+      <c r="I1616" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t>aEiznLJCb9o</t>
+        </is>
+      </c>
+      <c r="B1617" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' 0926 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1617" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1617" t="n">
+        <v>21695639</v>
+      </c>
+      <c r="E1617" t="n">
+        <v>1461403</v>
+      </c>
+      <c r="F1617" t="n">
+        <v>41797</v>
+      </c>
+      <c r="G1617" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1617" t="inlineStr">
+        <is>
+          <t>00:50:24.571668</t>
+        </is>
+      </c>
+      <c r="I1617" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>dNCWe_6HAM8</t>
+        </is>
+      </c>
+      <c r="B1618" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' EXCLUSIVE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1618" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1618" t="n">
+        <v>907790397</v>
+      </c>
+      <c r="E1618" t="n">
+        <v>14010920</v>
+      </c>
+      <c r="F1618" t="n">
+        <v>944881</v>
+      </c>
+      <c r="G1618" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1618" t="inlineStr">
+        <is>
+          <t>00:50:24.571672</t>
+        </is>
+      </c>
+      <c r="I1618" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t>08x_TcTyw8o</t>
+        </is>
+      </c>
+      <c r="B1619" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C1619" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1619" t="n">
+        <v>93570900</v>
+      </c>
+      <c r="E1619" t="n">
+        <v>3541391</v>
+      </c>
+      <c r="F1619" t="n">
+        <v>94908</v>
+      </c>
+      <c r="G1619" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1619" t="inlineStr">
+        <is>
+          <t>00:50:24.571676</t>
+        </is>
+      </c>
+      <c r="I1619" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="inlineStr">
+        <is>
+          <t>kZZYkrDWUls</t>
+        </is>
+      </c>
+      <c r="B1620" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0404 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1620" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1620" t="n">
+        <v>6096049</v>
+      </c>
+      <c r="E1620" t="n">
+        <v>553218</v>
+      </c>
+      <c r="F1620" t="n">
+        <v>24567</v>
+      </c>
+      <c r="G1620" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1620" t="inlineStr">
+        <is>
+          <t>00:50:24.571679</t>
+        </is>
+      </c>
+      <c r="I1620" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t>VFBj5sWfbH4</t>
+        </is>
+      </c>
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0328 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1621" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1621" t="n">
+        <v>6144018</v>
+      </c>
+      <c r="E1621" t="n">
+        <v>581928</v>
+      </c>
+      <c r="F1621" t="n">
+        <v>24762</v>
+      </c>
+      <c r="G1621" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1621" t="inlineStr">
+        <is>
+          <t>00:50:24.571683</t>
+        </is>
+      </c>
+      <c r="I1621" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="inlineStr">
+        <is>
+          <t>AkISOALL8Cw</t>
+        </is>
+      </c>
+      <c r="B1622" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0321 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1622" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1622" t="n">
+        <v>10842326</v>
+      </c>
+      <c r="E1622" t="n">
+        <v>826806</v>
+      </c>
+      <c r="F1622" t="n">
+        <v>29960</v>
+      </c>
+      <c r="G1622" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1622" t="inlineStr">
+        <is>
+          <t>00:50:24.571686</t>
+        </is>
+      </c>
+      <c r="I1622" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>Q88P1gpOJxA</t>
+        </is>
+      </c>
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1623" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1623" t="n">
+        <v>27028060</v>
+      </c>
+      <c r="E1623" t="n">
+        <v>2005870</v>
+      </c>
+      <c r="F1623" t="n">
+        <v>75629</v>
+      </c>
+      <c r="G1623" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1623" t="inlineStr">
+        <is>
+          <t>00:50:24.571690</t>
+        </is>
+      </c>
+      <c r="I1623" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t>fjp4thii1WY</t>
+        </is>
+      </c>
+      <c r="B1624" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1624" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1624" t="n">
+        <v>14343219</v>
+      </c>
+      <c r="E1624" t="n">
+        <v>1440860</v>
+      </c>
+      <c r="F1624" t="n">
+        <v>45875</v>
+      </c>
+      <c r="G1624" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1624" t="inlineStr">
+        <is>
+          <t>00:50:24.571693</t>
+        </is>
+      </c>
+      <c r="I1624" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t>MBStYsiE618</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1025 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1625" t="n">
+        <v>31350864</v>
+      </c>
+      <c r="E1625" t="n">
+        <v>1431844</v>
+      </c>
+      <c r="F1625" t="n">
+        <v>52471</v>
+      </c>
+      <c r="G1625" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1625" t="inlineStr">
+        <is>
+          <t>00:50:24.571697</t>
+        </is>
+      </c>
+      <c r="I1625" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>3l5jwqPT2yk</t>
+        </is>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' Jimmy Kimmel Live</t>
+        </is>
+      </c>
+      <c r="C1626" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1626" t="n">
+        <v>56037693</v>
+      </c>
+      <c r="E1626" t="n">
+        <v>2213476</v>
+      </c>
+      <c r="F1626" t="n">
+        <v>58841</v>
+      </c>
+      <c r="G1626" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1626" t="inlineStr">
+        <is>
+          <t>00:50:24.571701</t>
+        </is>
+      </c>
+      <c r="I1626" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>UcvYlihruvo</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1018 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1627" t="n">
+        <v>8770413</v>
+      </c>
+      <c r="E1627" t="n">
+        <v>759204</v>
+      </c>
+      <c r="F1627" t="n">
+        <v>27514</v>
+      </c>
+      <c r="G1627" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1627" t="inlineStr">
+        <is>
+          <t>00:50:24.571704</t>
+        </is>
+      </c>
+      <c r="I1627" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>Fwg9-MXdBYA</t>
+        </is>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1011 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1628" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1628" t="n">
+        <v>15884845</v>
+      </c>
+      <c r="E1628" t="n">
+        <v>1286516</v>
+      </c>
+      <c r="F1628" t="n">
+        <v>35201</v>
+      </c>
+      <c r="G1628" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1628" t="inlineStr">
+        <is>
+          <t>00:50:24.571708</t>
+        </is>
+      </c>
+      <c r="I1628" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>gU2HqP4NxUs</t>
+        </is>
+      </c>
+      <c r="B1629" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ 1011 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1629" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1629" t="n">
+        <v>326153834</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>5162411</v>
+      </c>
+      <c r="F1629" t="n">
+        <v>142953</v>
+      </c>
+      <c r="G1629" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1629" t="inlineStr">
+        <is>
+          <t>00:50:24.571711</t>
+        </is>
+      </c>
+      <c r="I1629" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>7PpUuLYWcs8</t>
+        </is>
+      </c>
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0719 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1630" t="n">
+        <v>12825207</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>811991</v>
+      </c>
+      <c r="F1630" t="n">
+        <v>28749</v>
+      </c>
+      <c r="G1630" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1630" t="inlineStr">
+        <is>
+          <t>00:50:24.571715</t>
+        </is>
+      </c>
+      <c r="I1630" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>04lxLDmFaOE</t>
+        </is>
+      </c>
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0712 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1631" t="n">
+        <v>10330890</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>832059</v>
+      </c>
+      <c r="F1631" t="n">
+        <v>37851</v>
+      </c>
+      <c r="G1631" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1631" t="inlineStr">
+        <is>
+          <t>00:50:24.571718</t>
+        </is>
+      </c>
+      <c r="I1631" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>JLOwA3o6Zr0</t>
+        </is>
+      </c>
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0705 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1632" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1632" t="n">
+        <v>13438630</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>971594</v>
+      </c>
+      <c r="F1632" t="n">
+        <v>36143</v>
+      </c>
+      <c r="G1632" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1632" t="inlineStr">
+        <is>
+          <t>00:50:24.571722</t>
+        </is>
+      </c>
+      <c r="I1632" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>t0RcZWn085g</t>
+        </is>
+      </c>
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0628 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1633" t="n">
+        <v>52050581</v>
+      </c>
+      <c r="E1633" t="n">
+        <v>2286346</v>
+      </c>
+      <c r="F1633" t="n">
+        <v>59215</v>
+      </c>
+      <c r="G1633" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1633" t="inlineStr">
+        <is>
+          <t>00:50:24.571726</t>
+        </is>
+      </c>
+      <c r="I1633" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>tOCUE8wRQYY</t>
+        </is>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>BLACKPINK ‐ Kill This Love -JP Ver.- Live at BLACKPINK 2019-2020 WORLD TOUR IN YOUR AREA-TOKYO DOME-</t>
+        </is>
+      </c>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1634" t="n">
+        <v>37059722</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>1228830</v>
+      </c>
+      <c r="F1634" t="n">
+        <v>44960</v>
+      </c>
+      <c r="G1634" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1634" t="inlineStr">
+        <is>
+          <t>00:50:24.850890</t>
+        </is>
+      </c>
+      <c r="I1634" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>-6XwN_wu3KU</t>
+        </is>
+      </c>
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C1635" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1635" t="n">
+        <v>24878187</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>1077307</v>
+      </c>
+      <c r="F1635" t="n">
+        <v>26099</v>
+      </c>
+      <c r="G1635" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1635" t="inlineStr">
+        <is>
+          <t>00:50:24.850912</t>
+        </is>
+      </c>
+      <c r="I1635" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>_HhAzr5DLik</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1636" t="n">
+        <v>14546267</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>700511</v>
+      </c>
+      <c r="F1636" t="n">
+        <v>22469</v>
+      </c>
+      <c r="G1636" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1636" t="inlineStr">
+        <is>
+          <t>00:50:24.850916</t>
+        </is>
+      </c>
+      <c r="I1636" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>a5gUds01aXY</t>
+        </is>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' 2019 Coachella Live Performance</t>
+        </is>
+      </c>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1637" t="n">
+        <v>50661090</v>
+      </c>
+      <c r="E1637" t="n">
+        <v>1887024</v>
+      </c>
+      <c r="F1637" t="n">
+        <v>89550</v>
+      </c>
+      <c r="G1637" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1637" t="inlineStr">
+        <is>
+          <t>00:50:24.850920</t>
+        </is>
+      </c>
+      <c r="I1637" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>vx9CSpnROfs</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0414 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1638" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1638" t="n">
+        <v>121311341</v>
+      </c>
+      <c r="E1638" t="n">
+        <v>2330999</v>
+      </c>
+      <c r="F1638" t="n">
+        <v>54736</v>
+      </c>
+      <c r="G1638" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1638" t="inlineStr">
+        <is>
+          <t>00:50:24.850924</t>
+        </is>
+      </c>
+      <c r="I1638" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>RgI8UNOqczE</t>
+        </is>
+      </c>
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1639" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1639" t="n">
+        <v>11379689</v>
+      </c>
+      <c r="E1639" t="n">
+        <v>502529</v>
+      </c>
+      <c r="F1639" t="n">
+        <v>16974</v>
+      </c>
+      <c r="G1639" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1639" t="inlineStr">
+        <is>
+          <t>00:50:24.850927</t>
+        </is>
+      </c>
+      <c r="I1639" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>sL175y19MUU</t>
+        </is>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1640" t="n">
+        <v>12344745</v>
+      </c>
+      <c r="E1640" t="n">
+        <v>463595</v>
+      </c>
+      <c r="F1640" t="n">
+        <v>11740</v>
+      </c>
+      <c r="G1640" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1640" t="inlineStr">
+        <is>
+          <t>00:50:24.850931</t>
+        </is>
+      </c>
+      <c r="I1640" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>GXBDwS2Tizo</t>
+        </is>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1641" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1641" t="n">
+        <v>22252477</v>
+      </c>
+      <c r="E1641" t="n">
+        <v>1033674</v>
+      </c>
+      <c r="F1641" t="n">
+        <v>26526</v>
+      </c>
+      <c r="G1641" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1641" t="inlineStr">
+        <is>
+          <t>00:50:24.850934</t>
+        </is>
+      </c>
+      <c r="I1641" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t>rt6G9Vwt1xc</t>
+        </is>
+      </c>
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1642" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1642" t="n">
+        <v>17943287</v>
+      </c>
+      <c r="E1642" t="n">
+        <v>794034</v>
+      </c>
+      <c r="F1642" t="n">
+        <v>24511</v>
+      </c>
+      <c r="G1642" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1642" t="inlineStr">
+        <is>
+          <t>00:50:24.850938</t>
+        </is>
+      </c>
+      <c r="I1642" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t>MkG24J87IUk</t>
+        </is>
+      </c>
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1643" t="n">
+        <v>49505914</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>1709815</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>46451</v>
+      </c>
+      <c r="G1643" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1643" t="inlineStr">
+        <is>
+          <t>00:50:24.850941</t>
+        </is>
+      </c>
+      <c r="I1643" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>o4GHoqGtRkg</t>
+        </is>
+      </c>
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Don't Know What To Do’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1644" t="n">
+        <v>67694461</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>1722652</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>48438</v>
+      </c>
+      <c r="G1644" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1644" t="inlineStr">
+        <is>
+          <t>00:50:24.850945</t>
+        </is>
+      </c>
+      <c r="I1644" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>cxNIewNXpcg</t>
+        </is>
+      </c>
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SOLO' + '뚜두뚜두(DDU-DU DDU-DU)' + 'FOREVER YOUNG' in 2018 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1645" t="n">
+        <v>383660992</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>6191559</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>209165</v>
+      </c>
+      <c r="G1645" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1645" t="inlineStr">
+        <is>
+          <t>00:50:24.850948</t>
+        </is>
+      </c>
+      <c r="I1645" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>7nukOecMf-U</t>
+        </is>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1216 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1646" t="n">
+        <v>4906508</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>224831</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>7751</v>
+      </c>
+      <c r="G1646" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1646" t="inlineStr">
+        <is>
+          <t>00:50:24.850952</t>
+        </is>
+      </c>
+      <c r="I1646" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>CPSH3ljpkZ4</t>
+        </is>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1209 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1647" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1647" t="n">
+        <v>13093682</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>413107</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>13156</v>
+      </c>
+      <c r="G1647" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1647" t="inlineStr">
+        <is>
+          <t>00:50:24.850955</t>
+        </is>
+      </c>
+      <c r="I1647" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>hxDXhh2sE1g</t>
+        </is>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1202 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1648" t="n">
+        <v>5929917</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>253738</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>9488</v>
+      </c>
+      <c r="G1648" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1648" t="inlineStr">
+        <is>
+          <t>00:50:24.850959</t>
+        </is>
+      </c>
+      <c r="I1648" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>smimdoBjeAE</t>
+        </is>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1125 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1649" t="n">
+        <v>17106906</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>676483</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>25618</v>
+      </c>
+      <c r="G1649" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1649" t="inlineStr">
+        <is>
+          <t>00:50:24.850962</t>
+        </is>
+      </c>
+      <c r="I1649" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>N1C_G3sfzXo</t>
+        </is>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' PERFORMANCE [IN YOUR AREA] SEOUL</t>
+        </is>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1650" t="n">
+        <v>29724433</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>1034512</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>26389</v>
+      </c>
+      <c r="G1650" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1650" t="inlineStr">
+        <is>
+          <t>00:50:24.850966</t>
+        </is>
+      </c>
+      <c r="I1650" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>5hwepTxNKtE</t>
+        </is>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0805 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1651" t="n">
+        <v>72891441</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>1184164</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>44071</v>
+      </c>
+      <c r="G1651" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1651" t="inlineStr">
+        <is>
+          <t>00:50:24.850970</t>
+        </is>
+      </c>
+      <c r="I1651" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>4KRdmXcJWQU</t>
+        </is>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1652" t="n">
+        <v>8762112</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>415992</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>11731</v>
+      </c>
+      <c r="G1652" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1652" t="inlineStr">
+        <is>
+          <t>00:50:24.850973</t>
+        </is>
+      </c>
+      <c r="I1652" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>HhyRAPKiXi4</t>
+        </is>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1653" t="n">
+        <v>3985337</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>203255</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>7216</v>
+      </c>
+      <c r="G1653" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1653" t="inlineStr">
+        <is>
+          <t>00:50:24.850976</t>
+        </is>
+      </c>
+      <c r="I1653" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>PMsBMoc9eFg</t>
+        </is>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0722 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1654" t="n">
+        <v>12213371</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>439698</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>19911</v>
+      </c>
+      <c r="G1654" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1654" t="inlineStr">
+        <is>
+          <t>00:50:25.124153</t>
+        </is>
+      </c>
+      <c r="I1654" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>xqWjJP_WT-0</t>
+        </is>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1655" t="n">
+        <v>13213168</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>687712</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>24669</v>
+      </c>
+      <c r="G1655" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1655" t="inlineStr">
+        <is>
+          <t>00:50:25.124176</t>
+        </is>
+      </c>
+      <c r="I1655" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>WaIGc9QmV2w</t>
+        </is>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1656" t="n">
+        <v>3358392</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>185647</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>7354</v>
+      </c>
+      <c r="G1656" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1656" t="inlineStr">
+        <is>
+          <t>00:50:25.124180</t>
+        </is>
+      </c>
+      <c r="I1656" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>67otJZ6qe9Y</t>
+        </is>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0715 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1657" t="n">
+        <v>44118169</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>981860</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>33573</v>
+      </c>
+      <c r="G1657" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1657" t="inlineStr">
+        <is>
+          <t>00:50:25.124184</t>
+        </is>
+      </c>
+      <c r="I1657" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>PZ5t29qgGAM</t>
+        </is>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1658" t="n">
+        <v>11328185</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>511307</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>18488</v>
+      </c>
+      <c r="G1658" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1658" t="inlineStr">
+        <is>
+          <t>00:50:25.124188</t>
+        </is>
+      </c>
+      <c r="I1658" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>dEnDjgoLLY4</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1659" t="n">
+        <v>6473450</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>327023</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>12288</v>
+      </c>
+      <c r="G1659" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1659" t="inlineStr">
+        <is>
+          <t>00:50:25.124191</t>
+        </is>
+      </c>
+      <c r="I1659" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>0uje7GB8Azk</t>
+        </is>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1660" t="n">
+        <v>10032819</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>351815</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>13478</v>
+      </c>
+      <c r="G1660" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1660" t="inlineStr">
+        <is>
+          <t>00:50:25.124195</t>
+        </is>
+      </c>
+      <c r="I1660" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>F6IR7luozPw</t>
+        </is>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0708 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1661" t="n">
+        <v>3908873</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>226798</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>12155</v>
+      </c>
+      <c r="G1661" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1661" t="inlineStr">
+        <is>
+          <t>00:50:25.124198</t>
+        </is>
+      </c>
+      <c r="I1661" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t>rw2-h5JNLqM</t>
+        </is>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1662" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1662" t="n">
+        <v>15138019</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>692847</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>22354</v>
+      </c>
+      <c r="G1662" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1662" t="inlineStr">
+        <is>
+          <t>00:50:25.124202</t>
+        </is>
+      </c>
+      <c r="I1662" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>TIOCHR0OxOQ</t>
+        </is>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0701 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1663" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1663" t="n">
+        <v>4463403</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>260871</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>14771</v>
+      </c>
+      <c r="G1663" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1663" t="inlineStr">
+        <is>
+          <t>00:50:25.124205</t>
+        </is>
+      </c>
+      <c r="I1663" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>PUcGXTSCRLA</t>
+        </is>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0624 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1664" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1664" t="n">
+        <v>7592325</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>351490</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>13061</v>
+      </c>
+      <c r="G1664" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1664" t="inlineStr">
+        <is>
+          <t>00:50:25.124209</t>
+        </is>
+      </c>
+      <c r="I1664" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>b5dUYf_uPaY</t>
+        </is>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1665" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1665" t="n">
+        <v>44077287</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>1105984</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>33816</v>
+      </c>
+      <c r="G1665" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1665" t="inlineStr">
+        <is>
+          <t>00:50:25.124213</t>
+        </is>
+      </c>
+      <c r="I1665" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t>n7ukhNJvQ8s</t>
+        </is>
+      </c>
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1666" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1666" t="n">
+        <v>63827316</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>1131868</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>40070</v>
+      </c>
+      <c r="G1666" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1666" t="inlineStr">
+        <is>
+          <t>00:50:25.124216</t>
+        </is>
+      </c>
+      <c r="I1666" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t>f1xIeTCgoFk</t>
+        </is>
+      </c>
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>BLACKPINK - INTRO +  ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2018 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C1667" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1667" t="n">
+        <v>35634204</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>772831</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>23948</v>
+      </c>
+      <c r="G1667" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1667" t="inlineStr">
+        <is>
+          <t>00:50:25.124220</t>
+        </is>
+      </c>
+      <c r="I1667" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="inlineStr">
+        <is>
+          <t>skIfzl96Gc0</t>
+        </is>
+      </c>
+      <c r="B1668" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SO HOT' (THEBLACKLABEL Remix) in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1668" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1668" t="n">
+        <v>87672238</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>2154955</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>63135</v>
+      </c>
+      <c r="G1668" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1668" t="inlineStr">
+        <is>
+          <t>00:50:25.124223</t>
+        </is>
+      </c>
+      <c r="I1668" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="inlineStr">
+        <is>
+          <t>PoHD4wfwC6Y</t>
+        </is>
+      </c>
+      <c r="B1669" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1669" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1669" t="n">
+        <v>8399278</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>300203</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>7159</v>
+      </c>
+      <c r="G1669" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1669" t="inlineStr">
+        <is>
+          <t>00:50:25.124227</t>
+        </is>
+      </c>
+      <c r="I1669" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>wwuZtpS8FNI</t>
+        </is>
+      </c>
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 1001 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1670" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1670" t="n">
+        <v>35319959</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>580358</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>15699</v>
+      </c>
+      <c r="G1670" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1670" t="inlineStr">
+        <is>
+          <t>00:50:25.124230</t>
+        </is>
+      </c>
+      <c r="I1670" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>GE7x2fVVsXM</t>
+        </is>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>BLACKPINK - OPENING MEDLDY 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1671" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1671" t="n">
+        <v>16257093</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>446040</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>10609</v>
+      </c>
+      <c r="G1671" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1671" t="inlineStr">
+        <is>
+          <t>00:50:25.124234</t>
+        </is>
+      </c>
+      <c r="I1671" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>_7TMluHVx4Y</t>
+        </is>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SURE THING (Miguel)' COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1672" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1672" t="n">
+        <v>109619796</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>1772599</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>69475</v>
+      </c>
+      <c r="G1672" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1672" t="inlineStr">
+        <is>
+          <t>00:50:25.124237</t>
+        </is>
+      </c>
+      <c r="I1672" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t>X3P6dnL2OyY</t>
+        </is>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'PARTITION (Beyonce)' DANCE COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1673" t="n">
+        <v>48819261</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>1228109</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>30767</v>
+      </c>
+      <c r="G1673" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1673" t="inlineStr">
+        <is>
+          <t>00:50:25.124241</t>
+        </is>
+      </c>
+      <c r="I1673" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t>RczrR4FVKzg</t>
+        </is>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST) Remix ver.' 0723 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1674" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1674" t="n">
+        <v>20896579</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>625085</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>19586</v>
+      </c>
+      <c r="G1674" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1674" t="inlineStr">
+        <is>
+          <t>00:50:25.360454</t>
+        </is>
+      </c>
+      <c r="I1674" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t>vW1PeCzs7Sg</t>
+        </is>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0716 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1675" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1675" t="n">
+        <v>4603978</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>204554</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>6755</v>
+      </c>
+      <c r="G1675" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1675" t="inlineStr">
+        <is>
+          <t>00:50:25.360475</t>
+        </is>
+      </c>
+      <c r="I1675" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="inlineStr">
+        <is>
+          <t>ZL8LqlKtpVE</t>
+        </is>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0709 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1676" t="n">
+        <v>4522652</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>211981</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>6455</v>
+      </c>
+      <c r="G1676" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1676" t="inlineStr">
+        <is>
+          <t>00:50:25.360479</t>
+        </is>
+      </c>
+      <c r="I1676" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="inlineStr">
+        <is>
+          <t>fWOAe_xXTQs</t>
+        </is>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0702 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1677" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1677" t="n">
+        <v>7132349</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>308305</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>11345</v>
+      </c>
+      <c r="G1677" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1677" t="inlineStr">
+        <is>
+          <t>00:50:25.360483</t>
+        </is>
+      </c>
+      <c r="I1677" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="inlineStr">
+        <is>
+          <t>TWRSR7y1288</t>
+        </is>
+      </c>
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0625 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1678" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1678" t="n">
+        <v>31727291</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>750991</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>23567</v>
+      </c>
+      <c r="G1678" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1678" t="inlineStr">
+        <is>
+          <t>00:50:25.360486</t>
+        </is>
+      </c>
+      <c r="I1678" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t>VQLn90MACUQ</t>
+        </is>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난 (PLAYING WITH FIRE)’ + ‘붐바야 (BOOMBAYAH)’  in 2017 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1679" t="n">
+        <v>51520065</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>1047221</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>22133</v>
+      </c>
+      <c r="G1679" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1679" t="inlineStr">
+        <is>
+          <t>00:50:25.360490</t>
+        </is>
+      </c>
+      <c r="I1679" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t>_paRxWTIyAo</t>
+        </is>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1680" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1680" t="n">
+        <v>121725225</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>1968793</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>39477</v>
+      </c>
+      <c r="G1680" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1680" t="inlineStr">
+        <is>
+          <t>00:50:25.360494</t>
+        </is>
+      </c>
+      <c r="I1680" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>FOv-Rsp1LS0</t>
+        </is>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - Interview(마지막 무대 인사) + '불장난(PLAYING WITH FIRE)' 1211 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1681" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1681" t="n">
+        <v>2833168</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>127418</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>5448</v>
+      </c>
+      <c r="G1681" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1681" t="inlineStr">
+        <is>
+          <t>00:50:25.360497</t>
+        </is>
+      </c>
+      <c r="I1681" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>hTDRE5d5A2M</t>
+        </is>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1204 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1682" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1682" t="n">
+        <v>4060709</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>199378</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>6802</v>
+      </c>
+      <c r="G1682" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1682" t="inlineStr">
+        <is>
+          <t>00:50:25.360501</t>
+        </is>
+      </c>
+      <c r="I1682" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>HoAdqZW4ptY</t>
+        </is>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1127 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1683" t="n">
+        <v>6879514</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>269576</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>7413</v>
+      </c>
+      <c r="G1683" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1683" t="inlineStr">
+        <is>
+          <t>00:50:25.360504</t>
+        </is>
+      </c>
+      <c r="I1683" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>TklpzjGlqFE</t>
+        </is>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1120 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1684" t="n">
+        <v>13612318</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>366374</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>8692</v>
+      </c>
+      <c r="G1684" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1684" t="inlineStr">
+        <is>
+          <t>00:50:25.360508</t>
+        </is>
+      </c>
+      <c r="I1684" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>ZwVTC_686Sw</t>
+        </is>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 MELON MUSIC AWARDS</t>
+        </is>
+      </c>
+      <c r="C1685" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1685" t="n">
+        <v>77777019</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>1373145</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>35272</v>
+      </c>
+      <c r="G1685" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1685" t="inlineStr">
+        <is>
+          <t>00:50:25.360511</t>
+        </is>
+      </c>
+      <c r="I1685" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>_NVwS4mcVYg</t>
+        </is>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1686" t="n">
+        <v>22440462</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>626886</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>19904</v>
+      </c>
+      <c r="G1686" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1686" t="inlineStr">
+        <is>
+          <t>00:50:25.360515</t>
+        </is>
+      </c>
+      <c r="I1686" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>5LWCPzwiN28</t>
+        </is>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1687" t="n">
+        <v>67305085</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>963841</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>32150</v>
+      </c>
+      <c r="G1687" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1687" t="inlineStr">
+        <is>
+          <t>00:50:25.360518</t>
+        </is>
+      </c>
+      <c r="I1687" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>o4rSRaqvHyc</t>
+        </is>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0911 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1688" t="n">
+        <v>6194334</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>253943</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>6889</v>
+      </c>
+      <c r="G1688" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1688" t="inlineStr">
+        <is>
+          <t>00:50:25.360522</t>
+        </is>
+      </c>
+      <c r="I1688" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>6F0UWgSSQqU</t>
+        </is>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0904 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1689" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1689" t="n">
+        <v>9647137</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>255313</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>9287</v>
+      </c>
+      <c r="G1689" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1689" t="inlineStr">
+        <is>
+          <t>00:50:25.360525</t>
+        </is>
+      </c>
+      <c r="I1689" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>13XTnp3Lp84</t>
+        </is>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1690" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1690" t="n">
+        <v>31587703</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>649601</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>20487</v>
+      </c>
+      <c r="G1690" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1690" t="inlineStr">
+        <is>
+          <t>00:50:25.360529</t>
+        </is>
+      </c>
+      <c r="I1690" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>EKHdMwRaU60</t>
+        </is>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1691" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1691" t="n">
+        <v>60715684</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>828988</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>23106</v>
+      </c>
+      <c r="G1691" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1691" t="inlineStr">
+        <is>
+          <t>00:50:25.360532</t>
+        </is>
+      </c>
+      <c r="I1691" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>metZ_f8aqC0</t>
+        </is>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0821 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1692" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1692" t="n">
+        <v>41581886</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>891834</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>26128</v>
+      </c>
+      <c r="G1692" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1692" t="inlineStr">
+        <is>
+          <t>00:50:25.360536</t>
+        </is>
+      </c>
+      <c r="I1692" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>RGmL76BBGZk</t>
+        </is>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0821 SBS Inkigayo : '휘파람(WHISTLE)' NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1693" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1693" t="n">
+        <v>17060512</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>541039</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>14615</v>
+      </c>
+      <c r="G1693" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1693" t="inlineStr">
+        <is>
+          <t>00:50:25.360539</t>
+        </is>
+      </c>
+      <c r="I1693" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>vAqAp1tJnkc</t>
+        </is>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람’(WHISTLE) 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1694" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1694" t="n">
+        <v>48091425</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>857847</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>29208</v>
+      </c>
+      <c r="G1694" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1694" t="inlineStr">
+        <is>
+          <t>00:50:25.538066</t>
+        </is>
+      </c>
+      <c r="I1694" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>LpSH8MrYCfg</t>
+        </is>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1695" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1695" t="n">
+        <v>168604474</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>2539467</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>80103</v>
+      </c>
+      <c r="G1695" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H1695" t="inlineStr">
+        <is>
+          <t>00:50:25.538088</t>
+        </is>
+      </c>
+      <c r="I1695" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_videos_count_data.xlsx
+++ b/CLEANED_videos_count_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1695"/>
+  <dimension ref="A1:I1816"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69934,6 +69934,4967 @@
         </is>
       </c>
     </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>YudHcBIxlYw</t>
+        </is>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1696" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1696" t="n">
+        <v>399839414</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>10162388</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>1349690</v>
+      </c>
+      <c r="G1696" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1696" t="inlineStr">
+        <is>
+          <t>00:50:14.540005</t>
+        </is>
+      </c>
+      <c r="I1696" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>POe9SOEKotk</t>
+        </is>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1697" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1697" t="n">
+        <v>529082067</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>10857994</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>2225761</v>
+      </c>
+      <c r="G1697" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1697" t="inlineStr">
+        <is>
+          <t>00:50:14.540030</t>
+        </is>
+      </c>
+      <c r="I1697" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>gQlMMD8auMs</t>
+        </is>
+      </c>
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1698" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1698" t="n">
+        <v>740251806</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>16104339</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>3565160</v>
+      </c>
+      <c r="G1698" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1698" t="inlineStr">
+        <is>
+          <t>00:50:14.540035</t>
+        </is>
+      </c>
+      <c r="I1698" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>awkkyBH2zEo</t>
+        </is>
+      </c>
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' M\/V</t>
+        </is>
+      </c>
+      <c r="C1699" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1699" t="n">
+        <v>657039715</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>17329753</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>2814388</v>
+      </c>
+      <c r="G1699" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1699" t="inlineStr">
+        <is>
+          <t>00:50:14.540040</t>
+        </is>
+      </c>
+      <c r="I1699" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>K9_VFxzCuQ0</t>
+        </is>
+      </c>
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' M\/V</t>
+        </is>
+      </c>
+      <c r="C1700" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1700" t="n">
+        <v>269217916</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>7389227</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>1242031</v>
+      </c>
+      <c r="G1700" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1700" t="inlineStr">
+        <is>
+          <t>00:50:14.540044</t>
+        </is>
+      </c>
+      <c r="I1700" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>CKZvWhCqx1s</t>
+        </is>
+      </c>
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' M\/V</t>
+        </is>
+      </c>
+      <c r="C1701" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1701" t="n">
+        <v>343543859</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>11354810</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>2588936</v>
+      </c>
+      <c r="G1701" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1701" t="inlineStr">
+        <is>
+          <t>00:50:14.540048</t>
+        </is>
+      </c>
+      <c r="I1701" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>dyRsYk0LyA8</t>
+        </is>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' M\/V</t>
+        </is>
+      </c>
+      <c r="C1702" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1702" t="n">
+        <v>710907589</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>15506213</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>2042975</v>
+      </c>
+      <c r="G1702" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1702" t="inlineStr">
+        <is>
+          <t>00:50:14.540052</t>
+        </is>
+      </c>
+      <c r="I1702" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>vRXZj0DzXIA</t>
+        </is>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Ice Cream (with Selena Gomez)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1703" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1703" t="n">
+        <v>873141543</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>19928677</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>3025309</v>
+      </c>
+      <c r="G1703" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1703" t="inlineStr">
+        <is>
+          <t>00:50:14.540056</t>
+        </is>
+      </c>
+      <c r="I1703" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>ioNng23DkIM</t>
+        </is>
+      </c>
+      <c r="B1704" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' M\/V</t>
+        </is>
+      </c>
+      <c r="C1704" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1704" t="n">
+        <v>1244701481</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>24760967</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>5097345</v>
+      </c>
+      <c r="G1704" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1704" t="inlineStr">
+        <is>
+          <t>00:50:14.540060</t>
+        </is>
+      </c>
+      <c r="I1704" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>2S24-y0Ij3Y</t>
+        </is>
+      </c>
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' M\/V</t>
+        </is>
+      </c>
+      <c r="C1705" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1705" t="n">
+        <v>1876860394</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>25032597</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>2479656</v>
+      </c>
+      <c r="G1705" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1705" t="inlineStr">
+        <is>
+          <t>00:50:14.540064</t>
+        </is>
+      </c>
+      <c r="I1705" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>b73BI9eUkjM</t>
+        </is>
+      </c>
+      <c r="B1706" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' M\/V</t>
+        </is>
+      </c>
+      <c r="C1706" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1706" t="n">
+        <v>964519411</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>14632226</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>3035355</v>
+      </c>
+      <c r="G1706" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1706" t="inlineStr">
+        <is>
+          <t>00:50:14.540067</t>
+        </is>
+      </c>
+      <c r="I1706" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t>IHNzOHi8sJs</t>
+        </is>
+      </c>
+      <c r="B1707" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1707" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1707" t="n">
+        <v>2126945408</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>23445056</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>3284058</v>
+      </c>
+      <c r="G1707" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1707" t="inlineStr">
+        <is>
+          <t>00:50:14.540071</t>
+        </is>
+      </c>
+      <c r="I1707" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="inlineStr">
+        <is>
+          <t>Amq-qlqbjYA</t>
+        </is>
+      </c>
+      <c r="B1708" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '마지막처럼 (AS IF IT'S YOUR LAST)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1708" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1708" t="n">
+        <v>1324083662</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>13261178</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>1659003</v>
+      </c>
+      <c r="G1708" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1708" t="inlineStr">
+        <is>
+          <t>00:50:14.540075</t>
+        </is>
+      </c>
+      <c r="I1708" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t>FzVR_fymZw4</t>
+        </is>
+      </c>
+      <c r="B1709" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' M\/V</t>
+        </is>
+      </c>
+      <c r="C1709" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1709" t="n">
+        <v>351795335</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>6134125</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>479268</v>
+      </c>
+      <c r="G1709" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1709" t="inlineStr">
+        <is>
+          <t>00:50:14.540078</t>
+        </is>
+      </c>
+      <c r="I1709" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
+        <is>
+          <t>9pdj4iJD08s</t>
+        </is>
+      </c>
+      <c r="B1710" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1710" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1710" t="n">
+        <v>844315388</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>8591321</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>530103</v>
+      </c>
+      <c r="G1710" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1710" t="inlineStr">
+        <is>
+          <t>00:50:14.540082</t>
+        </is>
+      </c>
+      <c r="I1710" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t>dISNgvVpWlo</t>
+        </is>
+      </c>
+      <c r="B1711" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1711" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1711" t="n">
+        <v>864572360</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>9970506</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>617173</v>
+      </c>
+      <c r="G1711" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1711" t="inlineStr">
+        <is>
+          <t>00:50:14.540085</t>
+        </is>
+      </c>
+      <c r="I1711" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t>bwmSjveL3Lc</t>
+        </is>
+      </c>
+      <c r="B1712" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1712" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1712" t="n">
+        <v>1637286168</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>16179193</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>1123545</v>
+      </c>
+      <c r="G1712" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1712" t="inlineStr">
+        <is>
+          <t>00:50:14.540088</t>
+        </is>
+      </c>
+      <c r="I1712" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>4XZz3WXRw0A</t>
+        </is>
+      </c>
+      <c r="B1713" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1713" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1713" t="n">
+        <v>124941941</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>2980943</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>97300</v>
+      </c>
+      <c r="G1713" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1713" t="inlineStr">
+        <is>
+          <t>00:50:14.540092</t>
+        </is>
+      </c>
+      <c r="I1713" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t>RFMi3v0TXP8</t>
+        </is>
+      </c>
+      <c r="B1714" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1714" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1714" t="n">
+        <v>207335772</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>4832871</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>132952</v>
+      </c>
+      <c r="G1714" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1714" t="inlineStr">
+        <is>
+          <t>00:50:14.540099</t>
+        </is>
+      </c>
+      <c r="I1714" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>fr-eHz87XoM</t>
+        </is>
+      </c>
+      <c r="B1715" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1715" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1715" t="n">
+        <v>117013336</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>3697780</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>82416</v>
+      </c>
+      <c r="G1715" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1715" t="inlineStr">
+        <is>
+          <t>00:50:14.753927</t>
+        </is>
+      </c>
+      <c r="I1715" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>ZJ6QQLDIzrI</t>
+        </is>
+      </c>
+      <c r="B1716" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1716" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1716" t="n">
+        <v>86634346</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>3024166</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>67388</v>
+      </c>
+      <c r="G1716" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1716" t="inlineStr">
+        <is>
+          <t>00:50:14.753952</t>
+        </is>
+      </c>
+      <c r="I1716" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>z6CSW2yu8Mg</t>
+        </is>
+      </c>
+      <c r="B1717" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' Dance Performance</t>
+        </is>
+      </c>
+      <c r="C1717" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1717" t="n">
+        <v>109221685</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>3342163</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>145898</v>
+      </c>
+      <c r="G1717" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1717" t="inlineStr">
+        <is>
+          <t>00:50:14.753956</t>
+        </is>
+      </c>
+      <c r="I1717" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>YxksUfnuEbI</t>
+        </is>
+      </c>
+      <c r="B1718" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1718" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1718" t="n">
+        <v>290268943</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>5552359</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>229977</v>
+      </c>
+      <c r="G1718" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1718" t="inlineStr">
+        <is>
+          <t>00:50:14.753960</t>
+        </is>
+      </c>
+      <c r="I1718" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t>32si5cfrCNc</t>
+        </is>
+      </c>
+      <c r="B1719" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1719" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1719" t="n">
+        <v>1504210732</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>17820886</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>927022</v>
+      </c>
+      <c r="G1719" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1719" t="inlineStr">
+        <is>
+          <t>00:50:14.753964</t>
+        </is>
+      </c>
+      <c r="I1719" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>kqXGnxJ-S3k</t>
+        </is>
+      </c>
+      <c r="B1720" t="inlineStr">
+        <is>
+          <t>JENNIE - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1720" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1720" t="n">
+        <v>11028513</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>953071</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>26985</v>
+      </c>
+      <c r="G1720" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1720" t="inlineStr">
+        <is>
+          <t>00:50:14.753967</t>
+        </is>
+      </c>
+      <c r="I1720" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t>bqzDuRz_P7g</t>
+        </is>
+      </c>
+      <c r="B1721" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Don't Know What To Do' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1721" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1721" t="n">
+        <v>312315240</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>4284127</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>118683</v>
+      </c>
+      <c r="G1721" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1721" t="inlineStr">
+        <is>
+          <t>00:50:14.753971</t>
+        </is>
+      </c>
+      <c r="I1721" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t>MOwaUlXZxkI</t>
+        </is>
+      </c>
+      <c r="B1722" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1722" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1722" t="n">
+        <v>491408249</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>6140017</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>169516</v>
+      </c>
+      <c r="G1722" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1722" t="inlineStr">
+        <is>
+          <t>00:50:14.753975</t>
+        </is>
+      </c>
+      <c r="I1722" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t>Ws5SOMeA3_E</t>
+        </is>
+      </c>
+      <c r="B1723" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1723" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1723" t="n">
+        <v>16068381</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>753148</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>18798</v>
+      </c>
+      <c r="G1723" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1723" t="inlineStr">
+        <is>
+          <t>00:50:14.753978</t>
+        </is>
+      </c>
+      <c r="I1723" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="inlineStr">
+        <is>
+          <t>k-wmRTFVwPA</t>
+        </is>
+      </c>
+      <c r="B1724" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY ALTERNATE EDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C1724" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1724" t="n">
+        <v>3972568</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>260137</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>4715</v>
+      </c>
+      <c r="G1724" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1724" t="inlineStr">
+        <is>
+          <t>00:50:14.753981</t>
+        </is>
+      </c>
+      <c r="I1724" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="inlineStr">
+        <is>
+          <t>vdDuCvCrcKg</t>
+        </is>
+      </c>
+      <c r="B1725" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY UNEDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C1725" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1725" t="n">
+        <v>277933888</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>4400497</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>200476</v>
+      </c>
+      <c r="G1725" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1725" t="inlineStr">
+        <is>
+          <t>00:50:14.753985</t>
+        </is>
+      </c>
+      <c r="I1725" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="inlineStr">
+        <is>
+          <t>89kTb73csYg</t>
+        </is>
+      </c>
+      <c r="B1726" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Forever Young' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1726" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1726" t="n">
+        <v>234224497</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>3955033</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>125703</v>
+      </c>
+      <c r="G1726" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1726" t="inlineStr">
+        <is>
+          <t>00:50:14.753988</t>
+        </is>
+      </c>
+      <c r="I1726" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t>jOJbXvjZ-cQ</t>
+        </is>
+      </c>
+      <c r="B1727" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1727" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1727" t="n">
+        <v>493715122</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>5636703</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>183867</v>
+      </c>
+      <c r="G1727" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1727" t="inlineStr">
+        <is>
+          <t>00:50:14.753992</t>
+        </is>
+      </c>
+      <c r="I1727" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>hKUJmA9O6iA</t>
+        </is>
+      </c>
+      <c r="B1728" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1728" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1728" t="n">
+        <v>282776860</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>3061853</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>76139</v>
+      </c>
+      <c r="G1728" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1728" t="inlineStr">
+        <is>
+          <t>00:50:14.753995</t>
+        </is>
+      </c>
+      <c r="I1728" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>NvWfJTbrTBY</t>
+        </is>
+      </c>
+      <c r="B1729" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난(PLAYING WITH FIRE)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1729" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1729" t="n">
+        <v>218067381</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>2363092</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>61944</v>
+      </c>
+      <c r="G1729" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1729" t="inlineStr">
+        <is>
+          <t>00:50:14.753999</t>
+        </is>
+      </c>
+      <c r="I1729" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="inlineStr">
+        <is>
+          <t>ivoS3HUJB3Q</t>
+        </is>
+      </c>
+      <c r="B1730" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1730" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1730" t="n">
+        <v>299491243</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>3124065</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>76264</v>
+      </c>
+      <c r="G1730" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1730" t="inlineStr">
+        <is>
+          <t>00:50:14.754002</t>
+        </is>
+      </c>
+      <c r="I1730" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="inlineStr">
+        <is>
+          <t>1kYrp_Bs8DU</t>
+        </is>
+      </c>
+      <c r="B1731" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1731" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1731" t="n">
+        <v>180310678</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>2118768</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>57167</v>
+      </c>
+      <c r="G1731" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1731" t="inlineStr">
+        <is>
+          <t>00:50:14.754006</t>
+        </is>
+      </c>
+      <c r="I1731" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="inlineStr">
+        <is>
+          <t>3fg8pyLKvXE</t>
+        </is>
+      </c>
+      <c r="B1732" t="inlineStr">
+        <is>
+          <t>BLACKPINK - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1732" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1732" t="n">
+        <v>87222243</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>2896137</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>90204</v>
+      </c>
+      <c r="G1732" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1732" t="inlineStr">
+        <is>
+          <t>00:50:14.754009</t>
+        </is>
+      </c>
+      <c r="I1732" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
+          <t>VLpUsmBafMQ</t>
+        </is>
+      </c>
+      <c r="B1733" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1733" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1733" t="n">
+        <v>34100330</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>718400</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>14304</v>
+      </c>
+      <c r="G1733" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1733" t="inlineStr">
+        <is>
+          <t>00:50:14.754012</t>
+        </is>
+      </c>
+      <c r="I1733" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="inlineStr">
+        <is>
+          <t>z9tifvQSu-g</t>
+        </is>
+      </c>
+      <c r="B1734" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Typa Girl’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1734" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1734" t="n">
+        <v>57989255</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>1239741</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>22027</v>
+      </c>
+      <c r="G1734" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1734" t="inlineStr">
+        <is>
+          <t>00:50:14.754016</t>
+        </is>
+      </c>
+      <c r="I1734" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="inlineStr">
+        <is>
+          <t>NpVJidAKOqc</t>
+        </is>
+      </c>
+      <c r="B1735" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1735" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1735" t="n">
+        <v>24638989</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>637451</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>11461</v>
+      </c>
+      <c r="G1735" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1735" t="inlineStr">
+        <is>
+          <t>00:50:14.959657</t>
+        </is>
+      </c>
+      <c r="I1735" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="inlineStr">
+        <is>
+          <t>PjrAwC4TIPA</t>
+        </is>
+      </c>
+      <c r="B1736" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1736" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1736" t="n">
+        <v>154955432</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>3745329</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>98783</v>
+      </c>
+      <c r="G1736" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1736" t="inlineStr">
+        <is>
+          <t>00:50:14.959733</t>
+        </is>
+      </c>
+      <c r="I1736" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t>RkKXbweBCcI</t>
+        </is>
+      </c>
+      <c r="B1737" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C1737" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1737" t="n">
+        <v>45136879</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>2783485</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>60687</v>
+      </c>
+      <c r="G1737" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1737" t="inlineStr">
+        <is>
+          <t>00:50:14.959738</t>
+        </is>
+      </c>
+      <c r="I1737" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t>aEiznLJCb9o</t>
+        </is>
+      </c>
+      <c r="B1738" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' 0926 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1738" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1738" t="n">
+        <v>21696509</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>1461386</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>41797</v>
+      </c>
+      <c r="G1738" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1738" t="inlineStr">
+        <is>
+          <t>00:50:14.959743</t>
+        </is>
+      </c>
+      <c r="I1738" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t>dNCWe_6HAM8</t>
+        </is>
+      </c>
+      <c r="B1739" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' EXCLUSIVE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1739" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1739" t="n">
+        <v>908254347</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>14013603</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>945838</v>
+      </c>
+      <c r="G1739" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1739" t="inlineStr">
+        <is>
+          <t>00:50:14.959747</t>
+        </is>
+      </c>
+      <c r="I1739" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr">
+        <is>
+          <t>08x_TcTyw8o</t>
+        </is>
+      </c>
+      <c r="B1740" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C1740" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1740" t="n">
+        <v>93581753</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>3541437</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>94893</v>
+      </c>
+      <c r="G1740" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1740" t="inlineStr">
+        <is>
+          <t>00:50:14.959751</t>
+        </is>
+      </c>
+      <c r="I1740" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t>kZZYkrDWUls</t>
+        </is>
+      </c>
+      <c r="B1741" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0404 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1741" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1741" t="n">
+        <v>6096353</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>553212</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>24566</v>
+      </c>
+      <c r="G1741" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1741" t="inlineStr">
+        <is>
+          <t>00:50:14.959755</t>
+        </is>
+      </c>
+      <c r="I1741" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>VFBj5sWfbH4</t>
+        </is>
+      </c>
+      <c r="B1742" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0328 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1742" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1742" t="n">
+        <v>6144312</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>581919</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>24762</v>
+      </c>
+      <c r="G1742" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1742" t="inlineStr">
+        <is>
+          <t>00:50:14.959760</t>
+        </is>
+      </c>
+      <c r="I1742" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr">
+        <is>
+          <t>AkISOALL8Cw</t>
+        </is>
+      </c>
+      <c r="B1743" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0321 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1743" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1743" t="n">
+        <v>10843158</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>826817</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>29960</v>
+      </c>
+      <c r="G1743" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1743" t="inlineStr">
+        <is>
+          <t>00:50:14.959763</t>
+        </is>
+      </c>
+      <c r="I1743" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t>Q88P1gpOJxA</t>
+        </is>
+      </c>
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1744" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1744" t="n">
+        <v>27029911</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>2005883</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>75626</v>
+      </c>
+      <c r="G1744" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1744" t="inlineStr">
+        <is>
+          <t>00:50:14.959767</t>
+        </is>
+      </c>
+      <c r="I1744" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="inlineStr">
+        <is>
+          <t>fjp4thii1WY</t>
+        </is>
+      </c>
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1745" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1745" t="n">
+        <v>14344307</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>1440867</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>45872</v>
+      </c>
+      <c r="G1745" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1745" t="inlineStr">
+        <is>
+          <t>00:50:14.959771</t>
+        </is>
+      </c>
+      <c r="I1745" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t>MBStYsiE618</t>
+        </is>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1025 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1746" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1746" t="n">
+        <v>31353180</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>1431872</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>52471</v>
+      </c>
+      <c r="G1746" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1746" t="inlineStr">
+        <is>
+          <t>00:50:14.959775</t>
+        </is>
+      </c>
+      <c r="I1746" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>3l5jwqPT2yk</t>
+        </is>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' Jimmy Kimmel Live</t>
+        </is>
+      </c>
+      <c r="C1747" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1747" t="n">
+        <v>56045005</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>2213552</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>58840</v>
+      </c>
+      <c r="G1747" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1747" t="inlineStr">
+        <is>
+          <t>00:50:14.959779</t>
+        </is>
+      </c>
+      <c r="I1747" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t>UcvYlihruvo</t>
+        </is>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1018 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1748" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1748" t="n">
+        <v>8770640</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>759199</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>27513</v>
+      </c>
+      <c r="G1748" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1748" t="inlineStr">
+        <is>
+          <t>00:50:14.959783</t>
+        </is>
+      </c>
+      <c r="I1748" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>Fwg9-MXdBYA</t>
+        </is>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1011 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1749" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1749" t="n">
+        <v>15885254</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>1286519</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>35192</v>
+      </c>
+      <c r="G1749" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1749" t="inlineStr">
+        <is>
+          <t>00:50:14.959787</t>
+        </is>
+      </c>
+      <c r="I1749" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t>gU2HqP4NxUs</t>
+        </is>
+      </c>
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ 1011 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1750" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1750" t="n">
+        <v>326221238</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>5162890</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>142948</v>
+      </c>
+      <c r="G1750" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1750" t="inlineStr">
+        <is>
+          <t>00:50:14.959790</t>
+        </is>
+      </c>
+      <c r="I1750" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>7PpUuLYWcs8</t>
+        </is>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0719 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1751" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1751" t="n">
+        <v>12825606</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>811988</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>28749</v>
+      </c>
+      <c r="G1751" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1751" t="inlineStr">
+        <is>
+          <t>00:50:14.959794</t>
+        </is>
+      </c>
+      <c r="I1751" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>04lxLDmFaOE</t>
+        </is>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0712 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1752" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1752" t="n">
+        <v>10331077</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>832053</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>37850</v>
+      </c>
+      <c r="G1752" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1752" t="inlineStr">
+        <is>
+          <t>00:50:14.959798</t>
+        </is>
+      </c>
+      <c r="I1752" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t>JLOwA3o6Zr0</t>
+        </is>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0705 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1753" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1753" t="n">
+        <v>13439454</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>971598</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>36143</v>
+      </c>
+      <c r="G1753" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1753" t="inlineStr">
+        <is>
+          <t>00:50:14.959802</t>
+        </is>
+      </c>
+      <c r="I1753" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t>t0RcZWn085g</t>
+        </is>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0628 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1754" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1754" t="n">
+        <v>52053820</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>2286395</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>59213</v>
+      </c>
+      <c r="G1754" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1754" t="inlineStr">
+        <is>
+          <t>00:50:14.959806</t>
+        </is>
+      </c>
+      <c r="I1754" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t>tOCUE8wRQYY</t>
+        </is>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>BLACKPINK ‐ Kill This Love -JP Ver.- Live at BLACKPINK 2019-2020 WORLD TOUR IN YOUR AREA-TOKYO DOME-</t>
+        </is>
+      </c>
+      <c r="C1755" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1755" t="n">
+        <v>37064575</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>1228872</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>44956</v>
+      </c>
+      <c r="G1755" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1755" t="inlineStr">
+        <is>
+          <t>00:50:15.155374</t>
+        </is>
+      </c>
+      <c r="I1755" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t>-6XwN_wu3KU</t>
+        </is>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C1756" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1756" t="n">
+        <v>24880877</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>1077347</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>26099</v>
+      </c>
+      <c r="G1756" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1756" t="inlineStr">
+        <is>
+          <t>00:50:15.155399</t>
+        </is>
+      </c>
+      <c r="I1756" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="inlineStr">
+        <is>
+          <t>_HhAzr5DLik</t>
+        </is>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C1757" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1757" t="n">
+        <v>14547787</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>700542</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>22469</v>
+      </c>
+      <c r="G1757" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1757" t="inlineStr">
+        <is>
+          <t>00:50:15.155404</t>
+        </is>
+      </c>
+      <c r="I1757" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>a5gUds01aXY</t>
+        </is>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' 2019 Coachella Live Performance</t>
+        </is>
+      </c>
+      <c r="C1758" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1758" t="n">
+        <v>50664617</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>1887051</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>89548</v>
+      </c>
+      <c r="G1758" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1758" t="inlineStr">
+        <is>
+          <t>00:50:15.155408</t>
+        </is>
+      </c>
+      <c r="I1758" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t>vx9CSpnROfs</t>
+        </is>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0414 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1759" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1759" t="n">
+        <v>121326076</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>2331088</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>54736</v>
+      </c>
+      <c r="G1759" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1759" t="inlineStr">
+        <is>
+          <t>00:50:15.155412</t>
+        </is>
+      </c>
+      <c r="I1759" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="inlineStr">
+        <is>
+          <t>RgI8UNOqczE</t>
+        </is>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1760" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1760" t="n">
+        <v>11380345</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>502534</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>16974</v>
+      </c>
+      <c r="G1760" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1760" t="inlineStr">
+        <is>
+          <t>00:50:15.155416</t>
+        </is>
+      </c>
+      <c r="I1760" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t>sL175y19MUU</t>
+        </is>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1761" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1761" t="n">
+        <v>12345668</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>463616</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>11740</v>
+      </c>
+      <c r="G1761" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1761" t="inlineStr">
+        <is>
+          <t>00:50:15.155420</t>
+        </is>
+      </c>
+      <c r="I1761" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="inlineStr">
+        <is>
+          <t>GXBDwS2Tizo</t>
+        </is>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1762" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1762" t="n">
+        <v>22253968</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>1033679</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>26526</v>
+      </c>
+      <c r="G1762" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1762" t="inlineStr">
+        <is>
+          <t>00:50:15.155425</t>
+        </is>
+      </c>
+      <c r="I1762" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="inlineStr">
+        <is>
+          <t>rt6G9Vwt1xc</t>
+        </is>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1763" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1763" t="n">
+        <v>17945426</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>794059</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>24511</v>
+      </c>
+      <c r="G1763" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1763" t="inlineStr">
+        <is>
+          <t>00:50:15.155428</t>
+        </is>
+      </c>
+      <c r="I1763" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="inlineStr">
+        <is>
+          <t>MkG24J87IUk</t>
+        </is>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1764" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1764" t="n">
+        <v>49507895</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>1709825</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>46452</v>
+      </c>
+      <c r="G1764" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1764" t="inlineStr">
+        <is>
+          <t>00:50:15.155432</t>
+        </is>
+      </c>
+      <c r="I1764" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="inlineStr">
+        <is>
+          <t>o4GHoqGtRkg</t>
+        </is>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Don't Know What To Do’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1765" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1765" t="n">
+        <v>67701876</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>1722759</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>48438</v>
+      </c>
+      <c r="G1765" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1765" t="inlineStr">
+        <is>
+          <t>00:50:15.155436</t>
+        </is>
+      </c>
+      <c r="I1765" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="inlineStr">
+        <is>
+          <t>cxNIewNXpcg</t>
+        </is>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SOLO' + '뚜두뚜두(DDU-DU DDU-DU)' + 'FOREVER YOUNG' in 2018 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1766" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1766" t="n">
+        <v>383741555</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>6192022</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>209167</v>
+      </c>
+      <c r="G1766" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1766" t="inlineStr">
+        <is>
+          <t>00:50:15.155440</t>
+        </is>
+      </c>
+      <c r="I1766" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="inlineStr">
+        <is>
+          <t>7nukOecMf-U</t>
+        </is>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1216 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1767" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1767" t="n">
+        <v>4906679</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>224832</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>7751</v>
+      </c>
+      <c r="G1767" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1767" t="inlineStr">
+        <is>
+          <t>00:50:15.155444</t>
+        </is>
+      </c>
+      <c r="I1767" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="inlineStr">
+        <is>
+          <t>CPSH3ljpkZ4</t>
+        </is>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1209 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1768" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1768" t="n">
+        <v>13094158</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>413116</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>13156</v>
+      </c>
+      <c r="G1768" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1768" t="inlineStr">
+        <is>
+          <t>00:50:15.155448</t>
+        </is>
+      </c>
+      <c r="I1768" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="inlineStr">
+        <is>
+          <t>hxDXhh2sE1g</t>
+        </is>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1202 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1769" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1769" t="n">
+        <v>5930046</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>253738</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>9488</v>
+      </c>
+      <c r="G1769" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1769" t="inlineStr">
+        <is>
+          <t>00:50:15.155452</t>
+        </is>
+      </c>
+      <c r="I1769" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="inlineStr">
+        <is>
+          <t>smimdoBjeAE</t>
+        </is>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1125 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1770" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1770" t="n">
+        <v>17107784</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>676512</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>25618</v>
+      </c>
+      <c r="G1770" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1770" t="inlineStr">
+        <is>
+          <t>00:50:15.155456</t>
+        </is>
+      </c>
+      <c r="I1770" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="inlineStr">
+        <is>
+          <t>N1C_G3sfzXo</t>
+        </is>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' PERFORMANCE [IN YOUR AREA] SEOUL</t>
+        </is>
+      </c>
+      <c r="C1771" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1771" t="n">
+        <v>29727572</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>1034567</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>26389</v>
+      </c>
+      <c r="G1771" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1771" t="inlineStr">
+        <is>
+          <t>00:50:15.155460</t>
+        </is>
+      </c>
+      <c r="I1771" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="inlineStr">
+        <is>
+          <t>5hwepTxNKtE</t>
+        </is>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0805 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1772" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1772" t="n">
+        <v>72911355</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>1184279</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>44070</v>
+      </c>
+      <c r="G1772" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1772" t="inlineStr">
+        <is>
+          <t>00:50:15.155465</t>
+        </is>
+      </c>
+      <c r="I1772" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="inlineStr">
+        <is>
+          <t>4KRdmXcJWQU</t>
+        </is>
+      </c>
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1773" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1773" t="n">
+        <v>8762533</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>415990</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>11731</v>
+      </c>
+      <c r="G1773" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1773" t="inlineStr">
+        <is>
+          <t>00:50:15.155469</t>
+        </is>
+      </c>
+      <c r="I1773" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="inlineStr">
+        <is>
+          <t>HhyRAPKiXi4</t>
+        </is>
+      </c>
+      <c r="B1774" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1774" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1774" t="n">
+        <v>3985608</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>203262</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>7216</v>
+      </c>
+      <c r="G1774" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1774" t="inlineStr">
+        <is>
+          <t>00:50:15.155473</t>
+        </is>
+      </c>
+      <c r="I1774" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="inlineStr">
+        <is>
+          <t>PMsBMoc9eFg</t>
+        </is>
+      </c>
+      <c r="B1775" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0722 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1775" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1775" t="n">
+        <v>12213734</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>439700</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>19910</v>
+      </c>
+      <c r="G1775" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1775" t="inlineStr">
+        <is>
+          <t>00:50:15.343616</t>
+        </is>
+      </c>
+      <c r="I1775" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="inlineStr">
+        <is>
+          <t>xqWjJP_WT-0</t>
+        </is>
+      </c>
+      <c r="B1776" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1776" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1776" t="n">
+        <v>13214720</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>687719</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>24669</v>
+      </c>
+      <c r="G1776" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1776" t="inlineStr">
+        <is>
+          <t>00:50:15.343639</t>
+        </is>
+      </c>
+      <c r="I1776" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="inlineStr">
+        <is>
+          <t>WaIGc9QmV2w</t>
+        </is>
+      </c>
+      <c r="B1777" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1777" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1777" t="n">
+        <v>3358594</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>185647</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>7354</v>
+      </c>
+      <c r="G1777" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1777" t="inlineStr">
+        <is>
+          <t>00:50:15.343644</t>
+        </is>
+      </c>
+      <c r="I1777" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="inlineStr">
+        <is>
+          <t>67otJZ6qe9Y</t>
+        </is>
+      </c>
+      <c r="B1778" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0715 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1778" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1778" t="n">
+        <v>44130603</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>981980</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>33574</v>
+      </c>
+      <c r="G1778" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1778" t="inlineStr">
+        <is>
+          <t>00:50:15.343648</t>
+        </is>
+      </c>
+      <c r="I1778" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="inlineStr">
+        <is>
+          <t>PZ5t29qgGAM</t>
+        </is>
+      </c>
+      <c r="B1779" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1779" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1779" t="n">
+        <v>11330106</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>511336</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>18490</v>
+      </c>
+      <c r="G1779" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1779" t="inlineStr">
+        <is>
+          <t>00:50:15.343652</t>
+        </is>
+      </c>
+      <c r="I1779" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="inlineStr">
+        <is>
+          <t>dEnDjgoLLY4</t>
+        </is>
+      </c>
+      <c r="B1780" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1780" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1780" t="n">
+        <v>6473817</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>327029</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>12288</v>
+      </c>
+      <c r="G1780" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1780" t="inlineStr">
+        <is>
+          <t>00:50:15.343656</t>
+        </is>
+      </c>
+      <c r="I1780" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="inlineStr">
+        <is>
+          <t>0uje7GB8Azk</t>
+        </is>
+      </c>
+      <c r="B1781" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1781" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1781" t="n">
+        <v>10034204</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>351832</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>13478</v>
+      </c>
+      <c r="G1781" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1781" t="inlineStr">
+        <is>
+          <t>00:50:15.343659</t>
+        </is>
+      </c>
+      <c r="I1781" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="inlineStr">
+        <is>
+          <t>F6IR7luozPw</t>
+        </is>
+      </c>
+      <c r="B1782" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0708 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1782" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1782" t="n">
+        <v>3908959</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>226801</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>12152</v>
+      </c>
+      <c r="G1782" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1782" t="inlineStr">
+        <is>
+          <t>00:50:15.343663</t>
+        </is>
+      </c>
+      <c r="I1782" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="inlineStr">
+        <is>
+          <t>rw2-h5JNLqM</t>
+        </is>
+      </c>
+      <c r="B1783" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1783" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1783" t="n">
+        <v>15138413</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>692851</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>22354</v>
+      </c>
+      <c r="G1783" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1783" t="inlineStr">
+        <is>
+          <t>00:50:15.343666</t>
+        </is>
+      </c>
+      <c r="I1783" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="inlineStr">
+        <is>
+          <t>TIOCHR0OxOQ</t>
+        </is>
+      </c>
+      <c r="B1784" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0701 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1784" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1784" t="n">
+        <v>4463459</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>260869</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>14771</v>
+      </c>
+      <c r="G1784" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1784" t="inlineStr">
+        <is>
+          <t>00:50:15.343670</t>
+        </is>
+      </c>
+      <c r="I1784" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="inlineStr">
+        <is>
+          <t>PUcGXTSCRLA</t>
+        </is>
+      </c>
+      <c r="B1785" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0624 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1785" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1785" t="n">
+        <v>7592416</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>351487</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>13061</v>
+      </c>
+      <c r="G1785" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1785" t="inlineStr">
+        <is>
+          <t>00:50:15.343673</t>
+        </is>
+      </c>
+      <c r="I1785" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="inlineStr">
+        <is>
+          <t>b5dUYf_uPaY</t>
+        </is>
+      </c>
+      <c r="B1786" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1786" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1786" t="n">
+        <v>44081024</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>1106001</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>33816</v>
+      </c>
+      <c r="G1786" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1786" t="inlineStr">
+        <is>
+          <t>00:50:15.343677</t>
+        </is>
+      </c>
+      <c r="I1786" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="inlineStr">
+        <is>
+          <t>n7ukhNJvQ8s</t>
+        </is>
+      </c>
+      <c r="B1787" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1787" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1787" t="n">
+        <v>63828298</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>1131861</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>40069</v>
+      </c>
+      <c r="G1787" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1787" t="inlineStr">
+        <is>
+          <t>00:50:15.343680</t>
+        </is>
+      </c>
+      <c r="I1787" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="inlineStr">
+        <is>
+          <t>f1xIeTCgoFk</t>
+        </is>
+      </c>
+      <c r="B1788" t="inlineStr">
+        <is>
+          <t>BLACKPINK - INTRO +  ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2018 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C1788" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1788" t="n">
+        <v>35635747</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>772851</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>23948</v>
+      </c>
+      <c r="G1788" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1788" t="inlineStr">
+        <is>
+          <t>00:50:15.343684</t>
+        </is>
+      </c>
+      <c r="I1788" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="inlineStr">
+        <is>
+          <t>skIfzl96Gc0</t>
+        </is>
+      </c>
+      <c r="B1789" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SO HOT' (THEBLACKLABEL Remix) in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1789" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1789" t="n">
+        <v>87679417</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>2155060</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>63135</v>
+      </c>
+      <c r="G1789" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1789" t="inlineStr">
+        <is>
+          <t>00:50:15.343688</t>
+        </is>
+      </c>
+      <c r="I1789" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="inlineStr">
+        <is>
+          <t>PoHD4wfwC6Y</t>
+        </is>
+      </c>
+      <c r="B1790" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1790" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1790" t="n">
+        <v>8399792</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>300216</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>7159</v>
+      </c>
+      <c r="G1790" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1790" t="inlineStr">
+        <is>
+          <t>00:50:15.343691</t>
+        </is>
+      </c>
+      <c r="I1790" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="inlineStr">
+        <is>
+          <t>wwuZtpS8FNI</t>
+        </is>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 1001 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1791" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1791" t="n">
+        <v>35326859</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>580403</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>15700</v>
+      </c>
+      <c r="G1791" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1791" t="inlineStr">
+        <is>
+          <t>00:50:15.343695</t>
+        </is>
+      </c>
+      <c r="I1791" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="inlineStr">
+        <is>
+          <t>GE7x2fVVsXM</t>
+        </is>
+      </c>
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>BLACKPINK - OPENING MEDLDY 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1792" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1792" t="n">
+        <v>16257994</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>446055</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>10609</v>
+      </c>
+      <c r="G1792" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1792" t="inlineStr">
+        <is>
+          <t>00:50:15.343698</t>
+        </is>
+      </c>
+      <c r="I1792" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t>_7TMluHVx4Y</t>
+        </is>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SURE THING (Miguel)' COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1793" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1793" t="n">
+        <v>109640086</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>1772778</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>69475</v>
+      </c>
+      <c r="G1793" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1793" t="inlineStr">
+        <is>
+          <t>00:50:15.343702</t>
+        </is>
+      </c>
+      <c r="I1793" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="inlineStr">
+        <is>
+          <t>X3P6dnL2OyY</t>
+        </is>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'PARTITION (Beyonce)' DANCE COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1794" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1794" t="n">
+        <v>48823144</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>1228196</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>30767</v>
+      </c>
+      <c r="G1794" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1794" t="inlineStr">
+        <is>
+          <t>00:50:15.343705</t>
+        </is>
+      </c>
+      <c r="I1794" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="inlineStr">
+        <is>
+          <t>RczrR4FVKzg</t>
+        </is>
+      </c>
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST) Remix ver.' 0723 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1795" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1795" t="n">
+        <v>20898283</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>625097</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>19585</v>
+      </c>
+      <c r="G1795" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1795" t="inlineStr">
+        <is>
+          <t>00:50:15.554629</t>
+        </is>
+      </c>
+      <c r="I1795" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="inlineStr">
+        <is>
+          <t>vW1PeCzs7Sg</t>
+        </is>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0716 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1796" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1796" t="n">
+        <v>4604064</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>204555</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>6755</v>
+      </c>
+      <c r="G1796" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1796" t="inlineStr">
+        <is>
+          <t>00:50:15.554655</t>
+        </is>
+      </c>
+      <c r="I1796" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="inlineStr">
+        <is>
+          <t>ZL8LqlKtpVE</t>
+        </is>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0709 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1797" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1797" t="n">
+        <v>4522740</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>211981</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>6455</v>
+      </c>
+      <c r="G1797" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1797" t="inlineStr">
+        <is>
+          <t>00:50:15.554660</t>
+        </is>
+      </c>
+      <c r="I1797" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="inlineStr">
+        <is>
+          <t>fWOAe_xXTQs</t>
+        </is>
+      </c>
+      <c r="B1798" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0702 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1798" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1798" t="n">
+        <v>7132531</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>308314</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>11345</v>
+      </c>
+      <c r="G1798" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1798" t="inlineStr">
+        <is>
+          <t>00:50:15.554664</t>
+        </is>
+      </c>
+      <c r="I1798" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="inlineStr">
+        <is>
+          <t>TWRSR7y1288</t>
+        </is>
+      </c>
+      <c r="B1799" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0625 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1799" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1799" t="n">
+        <v>31728663</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>751006</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>23567</v>
+      </c>
+      <c r="G1799" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1799" t="inlineStr">
+        <is>
+          <t>00:50:15.554668</t>
+        </is>
+      </c>
+      <c r="I1799" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="inlineStr">
+        <is>
+          <t>VQLn90MACUQ</t>
+        </is>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난 (PLAYING WITH FIRE)’ + ‘붐바야 (BOOMBAYAH)’  in 2017 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C1800" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1800" t="n">
+        <v>51523095</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>1047255</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>22134</v>
+      </c>
+      <c r="G1800" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1800" t="inlineStr">
+        <is>
+          <t>00:50:15.554672</t>
+        </is>
+      </c>
+      <c r="I1800" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="inlineStr">
+        <is>
+          <t>_paRxWTIyAo</t>
+        </is>
+      </c>
+      <c r="B1801" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1801" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1801" t="n">
+        <v>121747945</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>1968894</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>39481</v>
+      </c>
+      <c r="G1801" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1801" t="inlineStr">
+        <is>
+          <t>00:50:15.554676</t>
+        </is>
+      </c>
+      <c r="I1801" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>FOv-Rsp1LS0</t>
+        </is>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - Interview(마지막 무대 인사) + '불장난(PLAYING WITH FIRE)' 1211 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1802" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1802" t="n">
+        <v>2833322</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>127423</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>5448</v>
+      </c>
+      <c r="G1802" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1802" t="inlineStr">
+        <is>
+          <t>00:50:15.554680</t>
+        </is>
+      </c>
+      <c r="I1802" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="inlineStr">
+        <is>
+          <t>hTDRE5d5A2M</t>
+        </is>
+      </c>
+      <c r="B1803" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1204 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1803" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1803" t="n">
+        <v>4060837</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>199384</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>6802</v>
+      </c>
+      <c r="G1803" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1803" t="inlineStr">
+        <is>
+          <t>00:50:15.554684</t>
+        </is>
+      </c>
+      <c r="I1803" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="inlineStr">
+        <is>
+          <t>HoAdqZW4ptY</t>
+        </is>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1127 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1804" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1804" t="n">
+        <v>6879917</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>269592</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>7413</v>
+      </c>
+      <c r="G1804" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1804" t="inlineStr">
+        <is>
+          <t>00:50:15.554691</t>
+        </is>
+      </c>
+      <c r="I1804" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="inlineStr">
+        <is>
+          <t>TklpzjGlqFE</t>
+        </is>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1120 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1805" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1805" t="n">
+        <v>13615414</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>366403</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>8692</v>
+      </c>
+      <c r="G1805" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1805" t="inlineStr">
+        <is>
+          <t>00:50:15.554695</t>
+        </is>
+      </c>
+      <c r="I1805" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="inlineStr">
+        <is>
+          <t>ZwVTC_686Sw</t>
+        </is>
+      </c>
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 MELON MUSIC AWARDS</t>
+        </is>
+      </c>
+      <c r="C1806" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1806" t="n">
+        <v>77780198</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>1373206</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>35272</v>
+      </c>
+      <c r="G1806" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1806" t="inlineStr">
+        <is>
+          <t>00:50:15.554699</t>
+        </is>
+      </c>
+      <c r="I1806" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="inlineStr">
+        <is>
+          <t>_NVwS4mcVYg</t>
+        </is>
+      </c>
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1807" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1807" t="n">
+        <v>22441714</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>626900</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>19905</v>
+      </c>
+      <c r="G1807" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1807" t="inlineStr">
+        <is>
+          <t>00:50:15.554703</t>
+        </is>
+      </c>
+      <c r="I1807" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="inlineStr">
+        <is>
+          <t>5LWCPzwiN28</t>
+        </is>
+      </c>
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1808" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1808" t="n">
+        <v>67311843</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>963903</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>32152</v>
+      </c>
+      <c r="G1808" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1808" t="inlineStr">
+        <is>
+          <t>00:50:15.554707</t>
+        </is>
+      </c>
+      <c r="I1808" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="inlineStr">
+        <is>
+          <t>o4rSRaqvHyc</t>
+        </is>
+      </c>
+      <c r="B1809" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0911 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1809" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1809" t="n">
+        <v>6194541</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>253956</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>6889</v>
+      </c>
+      <c r="G1809" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1809" t="inlineStr">
+        <is>
+          <t>00:50:15.554710</t>
+        </is>
+      </c>
+      <c r="I1809" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="inlineStr">
+        <is>
+          <t>6F0UWgSSQqU</t>
+        </is>
+      </c>
+      <c r="B1810" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0904 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1810" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1810" t="n">
+        <v>9647592</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>255324</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>9287</v>
+      </c>
+      <c r="G1810" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1810" t="inlineStr">
+        <is>
+          <t>00:50:15.554714</t>
+        </is>
+      </c>
+      <c r="I1810" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="inlineStr">
+        <is>
+          <t>13XTnp3Lp84</t>
+        </is>
+      </c>
+      <c r="B1811" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1811" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1811" t="n">
+        <v>31591833</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>649650</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>20487</v>
+      </c>
+      <c r="G1811" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1811" t="inlineStr">
+        <is>
+          <t>00:50:15.554718</t>
+        </is>
+      </c>
+      <c r="I1811" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="inlineStr">
+        <is>
+          <t>EKHdMwRaU60</t>
+        </is>
+      </c>
+      <c r="B1812" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1812" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1812" t="n">
+        <v>60720441</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>829018</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>23106</v>
+      </c>
+      <c r="G1812" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1812" t="inlineStr">
+        <is>
+          <t>00:50:15.554722</t>
+        </is>
+      </c>
+      <c r="I1812" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="inlineStr">
+        <is>
+          <t>metZ_f8aqC0</t>
+        </is>
+      </c>
+      <c r="B1813" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0821 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1813" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1813" t="n">
+        <v>41586806</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>891915</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>26131</v>
+      </c>
+      <c r="G1813" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1813" t="inlineStr">
+        <is>
+          <t>00:50:15.554726</t>
+        </is>
+      </c>
+      <c r="I1813" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="inlineStr">
+        <is>
+          <t>RGmL76BBGZk</t>
+        </is>
+      </c>
+      <c r="B1814" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0821 SBS Inkigayo : '휘파람(WHISTLE)' NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1814" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1814" t="n">
+        <v>17061862</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>541061</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>14615</v>
+      </c>
+      <c r="G1814" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1814" t="inlineStr">
+        <is>
+          <t>00:50:15.554731</t>
+        </is>
+      </c>
+      <c r="I1814" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="inlineStr">
+        <is>
+          <t>vAqAp1tJnkc</t>
+        </is>
+      </c>
+      <c r="B1815" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람’(WHISTLE) 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1815" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1815" t="n">
+        <v>48093533</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>857877</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>29207</v>
+      </c>
+      <c r="G1815" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1815" t="inlineStr">
+        <is>
+          <t>00:50:15.689982</t>
+        </is>
+      </c>
+      <c r="I1815" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="inlineStr">
+        <is>
+          <t>LpSH8MrYCfg</t>
+        </is>
+      </c>
+      <c r="B1816" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1816" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1816" t="n">
+        <v>168624635</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>2539614</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>80116</v>
+      </c>
+      <c r="G1816" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="H1816" t="inlineStr">
+        <is>
+          <t>00:50:15.690002</t>
+        </is>
+      </c>
+      <c r="I1816" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_videos_count_data.xlsx
+++ b/CLEANED_videos_count_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1816"/>
+  <dimension ref="A1:I1937"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74895,6 +74895,4967 @@
         </is>
       </c>
     </row>
+    <row r="1817">
+      <c r="A1817" t="inlineStr">
+        <is>
+          <t>YudHcBIxlYw</t>
+        </is>
+      </c>
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1817" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1817" t="n">
+        <v>400523931</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>10166662</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>1351168</v>
+      </c>
+      <c r="G1817" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1817" t="inlineStr">
+        <is>
+          <t>00:50:30.095997</t>
+        </is>
+      </c>
+      <c r="I1817" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="inlineStr">
+        <is>
+          <t>POe9SOEKotk</t>
+        </is>
+      </c>
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1818" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1818" t="n">
+        <v>529536954</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>10859864</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>2225292</v>
+      </c>
+      <c r="G1818" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1818" t="inlineStr">
+        <is>
+          <t>00:50:30.096022</t>
+        </is>
+      </c>
+      <c r="I1818" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="inlineStr">
+        <is>
+          <t>gQlMMD8auMs</t>
+        </is>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1819" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1819" t="n">
+        <v>740820143</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>16106222</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>3564176</v>
+      </c>
+      <c r="G1819" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1819" t="inlineStr">
+        <is>
+          <t>00:50:30.096028</t>
+        </is>
+      </c>
+      <c r="I1819" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="inlineStr">
+        <is>
+          <t>awkkyBH2zEo</t>
+        </is>
+      </c>
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' M\/V</t>
+        </is>
+      </c>
+      <c r="C1820" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1820" t="n">
+        <v>657261994</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>17330535</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>2814297</v>
+      </c>
+      <c r="G1820" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1820" t="inlineStr">
+        <is>
+          <t>00:50:30.096033</t>
+        </is>
+      </c>
+      <c r="I1820" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="inlineStr">
+        <is>
+          <t>K9_VFxzCuQ0</t>
+        </is>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' M\/V</t>
+        </is>
+      </c>
+      <c r="C1821" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1821" t="n">
+        <v>269340039</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>7390042</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>1242307</v>
+      </c>
+      <c r="G1821" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1821" t="inlineStr">
+        <is>
+          <t>00:50:30.096037</t>
+        </is>
+      </c>
+      <c r="I1821" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="inlineStr">
+        <is>
+          <t>CKZvWhCqx1s</t>
+        </is>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' M\/V</t>
+        </is>
+      </c>
+      <c r="C1822" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1822" t="n">
+        <v>343640814</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>11355684</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>2589195</v>
+      </c>
+      <c r="G1822" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1822" t="inlineStr">
+        <is>
+          <t>00:50:30.096042</t>
+        </is>
+      </c>
+      <c r="I1822" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="inlineStr">
+        <is>
+          <t>dyRsYk0LyA8</t>
+        </is>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' M\/V</t>
+        </is>
+      </c>
+      <c r="C1823" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1823" t="n">
+        <v>711134898</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>15506929</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>2042920</v>
+      </c>
+      <c r="G1823" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1823" t="inlineStr">
+        <is>
+          <t>00:50:30.096046</t>
+        </is>
+      </c>
+      <c r="I1823" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="inlineStr">
+        <is>
+          <t>vRXZj0DzXIA</t>
+        </is>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Ice Cream (with Selena Gomez)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1824" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1824" t="n">
+        <v>873297214</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>19929142</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>3025250</v>
+      </c>
+      <c r="G1824" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1824" t="inlineStr">
+        <is>
+          <t>00:50:30.096051</t>
+        </is>
+      </c>
+      <c r="I1824" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="inlineStr">
+        <is>
+          <t>ioNng23DkIM</t>
+        </is>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' M\/V</t>
+        </is>
+      </c>
+      <c r="C1825" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1825" t="n">
+        <v>1244886315</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>24761490</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>5097326</v>
+      </c>
+      <c r="G1825" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1825" t="inlineStr">
+        <is>
+          <t>00:50:30.096055</t>
+        </is>
+      </c>
+      <c r="I1825" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="inlineStr">
+        <is>
+          <t>2S24-y0Ij3Y</t>
+        </is>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' M\/V</t>
+        </is>
+      </c>
+      <c r="C1826" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1826" t="n">
+        <v>1877252064</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>25034120</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>2479662</v>
+      </c>
+      <c r="G1826" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1826" t="inlineStr">
+        <is>
+          <t>00:50:30.096059</t>
+        </is>
+      </c>
+      <c r="I1826" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="inlineStr">
+        <is>
+          <t>b73BI9eUkjM</t>
+        </is>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' M\/V</t>
+        </is>
+      </c>
+      <c r="C1827" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1827" t="n">
+        <v>964890009</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>14633858</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>3039045</v>
+      </c>
+      <c r="G1827" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1827" t="inlineStr">
+        <is>
+          <t>00:50:30.096063</t>
+        </is>
+      </c>
+      <c r="I1827" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="inlineStr">
+        <is>
+          <t>IHNzOHi8sJs</t>
+        </is>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1828" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1828" t="n">
+        <v>2127288551</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>23446498</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>3283685</v>
+      </c>
+      <c r="G1828" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1828" t="inlineStr">
+        <is>
+          <t>00:50:30.096068</t>
+        </is>
+      </c>
+      <c r="I1828" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="inlineStr">
+        <is>
+          <t>Amq-qlqbjYA</t>
+        </is>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '마지막처럼 (AS IF IT'S YOUR LAST)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1829" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1829" t="n">
+        <v>1324330587</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>13262142</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>1659021</v>
+      </c>
+      <c r="G1829" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1829" t="inlineStr">
+        <is>
+          <t>00:50:30.096072</t>
+        </is>
+      </c>
+      <c r="I1829" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="inlineStr">
+        <is>
+          <t>FzVR_fymZw4</t>
+        </is>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' M\/V</t>
+        </is>
+      </c>
+      <c r="C1830" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1830" t="n">
+        <v>351846158</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>6134487</v>
+      </c>
+      <c r="F1830" t="n">
+        <v>479290</v>
+      </c>
+      <c r="G1830" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1830" t="inlineStr">
+        <is>
+          <t>00:50:30.096076</t>
+        </is>
+      </c>
+      <c r="I1830" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="inlineStr">
+        <is>
+          <t>9pdj4iJD08s</t>
+        </is>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1831" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1831" t="n">
+        <v>844459858</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>8591955</v>
+      </c>
+      <c r="F1831" t="n">
+        <v>530128</v>
+      </c>
+      <c r="G1831" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1831" t="inlineStr">
+        <is>
+          <t>00:50:30.096080</t>
+        </is>
+      </c>
+      <c r="I1831" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="inlineStr">
+        <is>
+          <t>dISNgvVpWlo</t>
+        </is>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1832" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1832" t="n">
+        <v>864697535</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>9971256</v>
+      </c>
+      <c r="F1832" t="n">
+        <v>617187</v>
+      </c>
+      <c r="G1832" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1832" t="inlineStr">
+        <is>
+          <t>00:50:30.096084</t>
+        </is>
+      </c>
+      <c r="I1832" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="inlineStr">
+        <is>
+          <t>bwmSjveL3Lc</t>
+        </is>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1833" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1833" t="n">
+        <v>1637585341</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>16180451</v>
+      </c>
+      <c r="F1833" t="n">
+        <v>1123529</v>
+      </c>
+      <c r="G1833" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1833" t="inlineStr">
+        <is>
+          <t>00:50:30.096088</t>
+        </is>
+      </c>
+      <c r="I1833" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="inlineStr">
+        <is>
+          <t>4XZz3WXRw0A</t>
+        </is>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1834" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1834" t="n">
+        <v>125074622</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>2981528</v>
+      </c>
+      <c r="F1834" t="n">
+        <v>97393</v>
+      </c>
+      <c r="G1834" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1834" t="inlineStr">
+        <is>
+          <t>00:50:30.096092</t>
+        </is>
+      </c>
+      <c r="I1834" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="inlineStr">
+        <is>
+          <t>RFMi3v0TXP8</t>
+        </is>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1835" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1835" t="n">
+        <v>207487893</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>4833432</v>
+      </c>
+      <c r="F1835" t="n">
+        <v>132957</v>
+      </c>
+      <c r="G1835" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1835" t="inlineStr">
+        <is>
+          <t>00:50:30.096100</t>
+        </is>
+      </c>
+      <c r="I1835" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="inlineStr">
+        <is>
+          <t>fr-eHz87XoM</t>
+        </is>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1836" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1836" t="n">
+        <v>117053950</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>3697997</v>
+      </c>
+      <c r="F1836" t="n">
+        <v>82423</v>
+      </c>
+      <c r="G1836" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1836" t="inlineStr">
+        <is>
+          <t>00:50:30.388886</t>
+        </is>
+      </c>
+      <c r="I1836" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="inlineStr">
+        <is>
+          <t>ZJ6QQLDIzrI</t>
+        </is>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1837" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1837" t="n">
+        <v>86662296</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>3024273</v>
+      </c>
+      <c r="F1837" t="n">
+        <v>67392</v>
+      </c>
+      <c r="G1837" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1837" t="inlineStr">
+        <is>
+          <t>00:50:30.388909</t>
+        </is>
+      </c>
+      <c r="I1837" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="inlineStr">
+        <is>
+          <t>z6CSW2yu8Mg</t>
+        </is>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' Dance Performance</t>
+        </is>
+      </c>
+      <c r="C1838" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1838" t="n">
+        <v>109249057</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>3342329</v>
+      </c>
+      <c r="F1838" t="n">
+        <v>145908</v>
+      </c>
+      <c r="G1838" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1838" t="inlineStr">
+        <is>
+          <t>00:50:30.388914</t>
+        </is>
+      </c>
+      <c r="I1838" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="inlineStr">
+        <is>
+          <t>YxksUfnuEbI</t>
+        </is>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1839" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1839" t="n">
+        <v>290334789</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>5552608</v>
+      </c>
+      <c r="F1839" t="n">
+        <v>229983</v>
+      </c>
+      <c r="G1839" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1839" t="inlineStr">
+        <is>
+          <t>00:50:30.388918</t>
+        </is>
+      </c>
+      <c r="I1839" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="inlineStr">
+        <is>
+          <t>32si5cfrCNc</t>
+        </is>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1840" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1840" t="n">
+        <v>1504738032</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>17823137</v>
+      </c>
+      <c r="F1840" t="n">
+        <v>927134</v>
+      </c>
+      <c r="G1840" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1840" t="inlineStr">
+        <is>
+          <t>00:50:30.388922</t>
+        </is>
+      </c>
+      <c r="I1840" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="inlineStr">
+        <is>
+          <t>kqXGnxJ-S3k</t>
+        </is>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>JENNIE - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1841" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1841" t="n">
+        <v>11029281</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>953060</v>
+      </c>
+      <c r="F1841" t="n">
+        <v>26987</v>
+      </c>
+      <c r="G1841" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1841" t="inlineStr">
+        <is>
+          <t>00:50:30.388926</t>
+        </is>
+      </c>
+      <c r="I1841" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="inlineStr">
+        <is>
+          <t>bqzDuRz_P7g</t>
+        </is>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Don't Know What To Do' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1842" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1842" t="n">
+        <v>312396353</v>
+      </c>
+      <c r="E1842" t="n">
+        <v>4284477</v>
+      </c>
+      <c r="F1842" t="n">
+        <v>118682</v>
+      </c>
+      <c r="G1842" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1842" t="inlineStr">
+        <is>
+          <t>00:50:30.388931</t>
+        </is>
+      </c>
+      <c r="I1842" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="inlineStr">
+        <is>
+          <t>MOwaUlXZxkI</t>
+        </is>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1843" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1843" t="n">
+        <v>491478601</v>
+      </c>
+      <c r="E1843" t="n">
+        <v>6140342</v>
+      </c>
+      <c r="F1843" t="n">
+        <v>169530</v>
+      </c>
+      <c r="G1843" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1843" t="inlineStr">
+        <is>
+          <t>00:50:30.388935</t>
+        </is>
+      </c>
+      <c r="I1843" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr">
+        <is>
+          <t>Ws5SOMeA3_E</t>
+        </is>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1844" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1844" t="n">
+        <v>16070271</v>
+      </c>
+      <c r="E1844" t="n">
+        <v>753173</v>
+      </c>
+      <c r="F1844" t="n">
+        <v>18799</v>
+      </c>
+      <c r="G1844" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1844" t="inlineStr">
+        <is>
+          <t>00:50:30.388939</t>
+        </is>
+      </c>
+      <c r="I1844" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="inlineStr">
+        <is>
+          <t>k-wmRTFVwPA</t>
+        </is>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY ALTERNATE EDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C1845" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1845" t="n">
+        <v>3972948</v>
+      </c>
+      <c r="E1845" t="n">
+        <v>260139</v>
+      </c>
+      <c r="F1845" t="n">
+        <v>4715</v>
+      </c>
+      <c r="G1845" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1845" t="inlineStr">
+        <is>
+          <t>00:50:30.388943</t>
+        </is>
+      </c>
+      <c r="I1845" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="inlineStr">
+        <is>
+          <t>vdDuCvCrcKg</t>
+        </is>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY UNEDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C1846" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1846" t="n">
+        <v>277978752</v>
+      </c>
+      <c r="E1846" t="n">
+        <v>4400851</v>
+      </c>
+      <c r="F1846" t="n">
+        <v>200472</v>
+      </c>
+      <c r="G1846" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1846" t="inlineStr">
+        <is>
+          <t>00:50:30.388947</t>
+        </is>
+      </c>
+      <c r="I1846" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="inlineStr">
+        <is>
+          <t>89kTb73csYg</t>
+        </is>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Forever Young' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1847" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1847" t="n">
+        <v>234254238</v>
+      </c>
+      <c r="E1847" t="n">
+        <v>3955316</v>
+      </c>
+      <c r="F1847" t="n">
+        <v>125707</v>
+      </c>
+      <c r="G1847" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1847" t="inlineStr">
+        <is>
+          <t>00:50:30.388951</t>
+        </is>
+      </c>
+      <c r="I1847" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="inlineStr">
+        <is>
+          <t>jOJbXvjZ-cQ</t>
+        </is>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1848" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1848" t="n">
+        <v>493745064</v>
+      </c>
+      <c r="E1848" t="n">
+        <v>5636831</v>
+      </c>
+      <c r="F1848" t="n">
+        <v>183874</v>
+      </c>
+      <c r="G1848" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1848" t="inlineStr">
+        <is>
+          <t>00:50:30.388955</t>
+        </is>
+      </c>
+      <c r="I1848" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>hKUJmA9O6iA</t>
+        </is>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1849" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1849" t="n">
+        <v>282821750</v>
+      </c>
+      <c r="E1849" t="n">
+        <v>3062147</v>
+      </c>
+      <c r="F1849" t="n">
+        <v>76140</v>
+      </c>
+      <c r="G1849" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1849" t="inlineStr">
+        <is>
+          <t>00:50:30.388959</t>
+        </is>
+      </c>
+      <c r="I1849" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>NvWfJTbrTBY</t>
+        </is>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난(PLAYING WITH FIRE)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1850" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1850" t="n">
+        <v>218096709</v>
+      </c>
+      <c r="E1850" t="n">
+        <v>2363267</v>
+      </c>
+      <c r="F1850" t="n">
+        <v>61943</v>
+      </c>
+      <c r="G1850" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1850" t="inlineStr">
+        <is>
+          <t>00:50:30.388963</t>
+        </is>
+      </c>
+      <c r="I1850" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="inlineStr">
+        <is>
+          <t>ivoS3HUJB3Q</t>
+        </is>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1851" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1851" t="n">
+        <v>299546439</v>
+      </c>
+      <c r="E1851" t="n">
+        <v>3124423</v>
+      </c>
+      <c r="F1851" t="n">
+        <v>76274</v>
+      </c>
+      <c r="G1851" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1851" t="inlineStr">
+        <is>
+          <t>00:50:30.388967</t>
+        </is>
+      </c>
+      <c r="I1851" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="inlineStr">
+        <is>
+          <t>1kYrp_Bs8DU</t>
+        </is>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1852" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1852" t="n">
+        <v>180331421</v>
+      </c>
+      <c r="E1852" t="n">
+        <v>2118882</v>
+      </c>
+      <c r="F1852" t="n">
+        <v>57167</v>
+      </c>
+      <c r="G1852" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1852" t="inlineStr">
+        <is>
+          <t>00:50:30.388971</t>
+        </is>
+      </c>
+      <c r="I1852" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="inlineStr">
+        <is>
+          <t>3fg8pyLKvXE</t>
+        </is>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>BLACKPINK - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1853" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1853" t="n">
+        <v>87233983</v>
+      </c>
+      <c r="E1853" t="n">
+        <v>2896386</v>
+      </c>
+      <c r="F1853" t="n">
+        <v>90228</v>
+      </c>
+      <c r="G1853" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1853" t="inlineStr">
+        <is>
+          <t>00:50:30.388975</t>
+        </is>
+      </c>
+      <c r="I1853" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="inlineStr">
+        <is>
+          <t>VLpUsmBafMQ</t>
+        </is>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1854" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1854" t="n">
+        <v>34276475</v>
+      </c>
+      <c r="E1854" t="n">
+        <v>719575</v>
+      </c>
+      <c r="F1854" t="n">
+        <v>14319</v>
+      </c>
+      <c r="G1854" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1854" t="inlineStr">
+        <is>
+          <t>00:50:30.388979</t>
+        </is>
+      </c>
+      <c r="I1854" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="inlineStr">
+        <is>
+          <t>z9tifvQSu-g</t>
+        </is>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Typa Girl’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1855" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1855" t="n">
+        <v>58165751</v>
+      </c>
+      <c r="E1855" t="n">
+        <v>1240826</v>
+      </c>
+      <c r="F1855" t="n">
+        <v>22047</v>
+      </c>
+      <c r="G1855" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1855" t="inlineStr">
+        <is>
+          <t>00:50:30.388983</t>
+        </is>
+      </c>
+      <c r="I1855" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="inlineStr">
+        <is>
+          <t>NpVJidAKOqc</t>
+        </is>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1856" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1856" t="n">
+        <v>24717521</v>
+      </c>
+      <c r="E1856" t="n">
+        <v>638018</v>
+      </c>
+      <c r="F1856" t="n">
+        <v>11466</v>
+      </c>
+      <c r="G1856" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1856" t="inlineStr">
+        <is>
+          <t>00:50:30.646837</t>
+        </is>
+      </c>
+      <c r="I1856" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="inlineStr">
+        <is>
+          <t>PjrAwC4TIPA</t>
+        </is>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1857" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1857" t="n">
+        <v>155087713</v>
+      </c>
+      <c r="E1857" t="n">
+        <v>3745845</v>
+      </c>
+      <c r="F1857" t="n">
+        <v>98775</v>
+      </c>
+      <c r="G1857" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1857" t="inlineStr">
+        <is>
+          <t>00:50:30.646862</t>
+        </is>
+      </c>
+      <c r="I1857" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="inlineStr">
+        <is>
+          <t>RkKXbweBCcI</t>
+        </is>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C1858" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1858" t="n">
+        <v>45157494</v>
+      </c>
+      <c r="E1858" t="n">
+        <v>2783499</v>
+      </c>
+      <c r="F1858" t="n">
+        <v>60685</v>
+      </c>
+      <c r="G1858" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1858" t="inlineStr">
+        <is>
+          <t>00:50:30.646868</t>
+        </is>
+      </c>
+      <c r="I1858" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="inlineStr">
+        <is>
+          <t>aEiznLJCb9o</t>
+        </is>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' 0926 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1859" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1859" t="n">
+        <v>21697402</v>
+      </c>
+      <c r="E1859" t="n">
+        <v>1461335</v>
+      </c>
+      <c r="F1859" t="n">
+        <v>41796</v>
+      </c>
+      <c r="G1859" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1859" t="inlineStr">
+        <is>
+          <t>00:50:30.646872</t>
+        </is>
+      </c>
+      <c r="I1859" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="inlineStr">
+        <is>
+          <t>dNCWe_6HAM8</t>
+        </is>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' EXCLUSIVE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1860" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1860" t="n">
+        <v>908737613</v>
+      </c>
+      <c r="E1860" t="n">
+        <v>14015994</v>
+      </c>
+      <c r="F1860" t="n">
+        <v>947046</v>
+      </c>
+      <c r="G1860" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1860" t="inlineStr">
+        <is>
+          <t>00:50:30.646876</t>
+        </is>
+      </c>
+      <c r="I1860" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="inlineStr">
+        <is>
+          <t>08x_TcTyw8o</t>
+        </is>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C1861" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1861" t="n">
+        <v>93592676</v>
+      </c>
+      <c r="E1861" t="n">
+        <v>3541436</v>
+      </c>
+      <c r="F1861" t="n">
+        <v>94896</v>
+      </c>
+      <c r="G1861" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1861" t="inlineStr">
+        <is>
+          <t>00:50:30.646881</t>
+        </is>
+      </c>
+      <c r="I1861" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="inlineStr">
+        <is>
+          <t>kZZYkrDWUls</t>
+        </is>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0404 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1862" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1862" t="n">
+        <v>6096633</v>
+      </c>
+      <c r="E1862" t="n">
+        <v>553199</v>
+      </c>
+      <c r="F1862" t="n">
+        <v>24562</v>
+      </c>
+      <c r="G1862" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1862" t="inlineStr">
+        <is>
+          <t>00:50:30.646885</t>
+        </is>
+      </c>
+      <c r="I1862" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="inlineStr">
+        <is>
+          <t>VFBj5sWfbH4</t>
+        </is>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0328 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1863" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1863" t="n">
+        <v>6144588</v>
+      </c>
+      <c r="E1863" t="n">
+        <v>581908</v>
+      </c>
+      <c r="F1863" t="n">
+        <v>24762</v>
+      </c>
+      <c r="G1863" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1863" t="inlineStr">
+        <is>
+          <t>00:50:30.646889</t>
+        </is>
+      </c>
+      <c r="I1863" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="inlineStr">
+        <is>
+          <t>AkISOALL8Cw</t>
+        </is>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0321 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1864" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1864" t="n">
+        <v>10844047</v>
+      </c>
+      <c r="E1864" t="n">
+        <v>826798</v>
+      </c>
+      <c r="F1864" t="n">
+        <v>29958</v>
+      </c>
+      <c r="G1864" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1864" t="inlineStr">
+        <is>
+          <t>00:50:30.646893</t>
+        </is>
+      </c>
+      <c r="I1864" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="inlineStr">
+        <is>
+          <t>Q88P1gpOJxA</t>
+        </is>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1865" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1865" t="n">
+        <v>27031468</v>
+      </c>
+      <c r="E1865" t="n">
+        <v>2005837</v>
+      </c>
+      <c r="F1865" t="n">
+        <v>75625</v>
+      </c>
+      <c r="G1865" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1865" t="inlineStr">
+        <is>
+          <t>00:50:30.646897</t>
+        </is>
+      </c>
+      <c r="I1865" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>fjp4thii1WY</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1866" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1866" t="n">
+        <v>14345357</v>
+      </c>
+      <c r="E1866" t="n">
+        <v>1440857</v>
+      </c>
+      <c r="F1866" t="n">
+        <v>45872</v>
+      </c>
+      <c r="G1866" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1866" t="inlineStr">
+        <is>
+          <t>00:50:30.646901</t>
+        </is>
+      </c>
+      <c r="I1866" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>MBStYsiE618</t>
+        </is>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1025 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1867" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1867" t="n">
+        <v>31355556</v>
+      </c>
+      <c r="E1867" t="n">
+        <v>1431889</v>
+      </c>
+      <c r="F1867" t="n">
+        <v>52463</v>
+      </c>
+      <c r="G1867" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1867" t="inlineStr">
+        <is>
+          <t>00:50:30.646905</t>
+        </is>
+      </c>
+      <c r="I1867" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t>3l5jwqPT2yk</t>
+        </is>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' Jimmy Kimmel Live</t>
+        </is>
+      </c>
+      <c r="C1868" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1868" t="n">
+        <v>56053380</v>
+      </c>
+      <c r="E1868" t="n">
+        <v>2213592</v>
+      </c>
+      <c r="F1868" t="n">
+        <v>58840</v>
+      </c>
+      <c r="G1868" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1868" t="inlineStr">
+        <is>
+          <t>00:50:30.646909</t>
+        </is>
+      </c>
+      <c r="I1868" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t>UcvYlihruvo</t>
+        </is>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1018 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1869" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1869" t="n">
+        <v>8770934</v>
+      </c>
+      <c r="E1869" t="n">
+        <v>759182</v>
+      </c>
+      <c r="F1869" t="n">
+        <v>27511</v>
+      </c>
+      <c r="G1869" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1869" t="inlineStr">
+        <is>
+          <t>00:50:30.646913</t>
+        </is>
+      </c>
+      <c r="I1869" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
+        <is>
+          <t>Fwg9-MXdBYA</t>
+        </is>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1011 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1870" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1870" t="n">
+        <v>15885651</v>
+      </c>
+      <c r="E1870" t="n">
+        <v>1286486</v>
+      </c>
+      <c r="F1870" t="n">
+        <v>35191</v>
+      </c>
+      <c r="G1870" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1870" t="inlineStr">
+        <is>
+          <t>00:50:30.646917</t>
+        </is>
+      </c>
+      <c r="I1870" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
+        <is>
+          <t>gU2HqP4NxUs</t>
+        </is>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ 1011 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1871" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1871" t="n">
+        <v>326298735</v>
+      </c>
+      <c r="E1871" t="n">
+        <v>5163219</v>
+      </c>
+      <c r="F1871" t="n">
+        <v>142939</v>
+      </c>
+      <c r="G1871" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1871" t="inlineStr">
+        <is>
+          <t>00:50:30.646921</t>
+        </is>
+      </c>
+      <c r="I1871" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t>7PpUuLYWcs8</t>
+        </is>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0719 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1872" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1872" t="n">
+        <v>12825988</v>
+      </c>
+      <c r="E1872" t="n">
+        <v>811985</v>
+      </c>
+      <c r="F1872" t="n">
+        <v>28748</v>
+      </c>
+      <c r="G1872" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1872" t="inlineStr">
+        <is>
+          <t>00:50:30.646925</t>
+        </is>
+      </c>
+      <c r="I1872" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t>04lxLDmFaOE</t>
+        </is>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0712 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1873" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1873" t="n">
+        <v>10331293</v>
+      </c>
+      <c r="E1873" t="n">
+        <v>832041</v>
+      </c>
+      <c r="F1873" t="n">
+        <v>37851</v>
+      </c>
+      <c r="G1873" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1873" t="inlineStr">
+        <is>
+          <t>00:50:30.646929</t>
+        </is>
+      </c>
+      <c r="I1873" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t>JLOwA3o6Zr0</t>
+        </is>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0705 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1874" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1874" t="n">
+        <v>13440058</v>
+      </c>
+      <c r="E1874" t="n">
+        <v>971588</v>
+      </c>
+      <c r="F1874" t="n">
+        <v>36148</v>
+      </c>
+      <c r="G1874" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1874" t="inlineStr">
+        <is>
+          <t>00:50:30.646933</t>
+        </is>
+      </c>
+      <c r="I1874" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>t0RcZWn085g</t>
+        </is>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0628 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1875" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1875" t="n">
+        <v>52057055</v>
+      </c>
+      <c r="E1875" t="n">
+        <v>2286414</v>
+      </c>
+      <c r="F1875" t="n">
+        <v>59212</v>
+      </c>
+      <c r="G1875" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1875" t="inlineStr">
+        <is>
+          <t>00:50:30.646937</t>
+        </is>
+      </c>
+      <c r="I1875" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="inlineStr">
+        <is>
+          <t>tOCUE8wRQYY</t>
+        </is>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>BLACKPINK ‐ Kill This Love -JP Ver.- Live at BLACKPINK 2019-2020 WORLD TOUR IN YOUR AREA-TOKYO DOME-</t>
+        </is>
+      </c>
+      <c r="C1876" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1876" t="n">
+        <v>37069775</v>
+      </c>
+      <c r="E1876" t="n">
+        <v>1228892</v>
+      </c>
+      <c r="F1876" t="n">
+        <v>44958</v>
+      </c>
+      <c r="G1876" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1876" t="inlineStr">
+        <is>
+          <t>00:50:30.891725</t>
+        </is>
+      </c>
+      <c r="I1876" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>-6XwN_wu3KU</t>
+        </is>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C1877" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1877" t="n">
+        <v>24883482</v>
+      </c>
+      <c r="E1877" t="n">
+        <v>1077369</v>
+      </c>
+      <c r="F1877" t="n">
+        <v>26100</v>
+      </c>
+      <c r="G1877" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1877" t="inlineStr">
+        <is>
+          <t>00:50:30.891753</t>
+        </is>
+      </c>
+      <c r="I1877" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t>_HhAzr5DLik</t>
+        </is>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C1878" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1878" t="n">
+        <v>14549396</v>
+      </c>
+      <c r="E1878" t="n">
+        <v>700555</v>
+      </c>
+      <c r="F1878" t="n">
+        <v>22468</v>
+      </c>
+      <c r="G1878" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1878" t="inlineStr">
+        <is>
+          <t>00:50:30.891757</t>
+        </is>
+      </c>
+      <c r="I1878" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>a5gUds01aXY</t>
+        </is>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' 2019 Coachella Live Performance</t>
+        </is>
+      </c>
+      <c r="C1879" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1879" t="n">
+        <v>50668276</v>
+      </c>
+      <c r="E1879" t="n">
+        <v>1887046</v>
+      </c>
+      <c r="F1879" t="n">
+        <v>89548</v>
+      </c>
+      <c r="G1879" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1879" t="inlineStr">
+        <is>
+          <t>00:50:30.891761</t>
+        </is>
+      </c>
+      <c r="I1879" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t>vx9CSpnROfs</t>
+        </is>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0414 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1880" t="n">
+        <v>121342567</v>
+      </c>
+      <c r="E1880" t="n">
+        <v>2331202</v>
+      </c>
+      <c r="F1880" t="n">
+        <v>54731</v>
+      </c>
+      <c r="G1880" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1880" t="inlineStr">
+        <is>
+          <t>00:50:30.891765</t>
+        </is>
+      </c>
+      <c r="I1880" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="inlineStr">
+        <is>
+          <t>RgI8UNOqczE</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1881" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1881" t="n">
+        <v>11381220</v>
+      </c>
+      <c r="E1881" t="n">
+        <v>502527</v>
+      </c>
+      <c r="F1881" t="n">
+        <v>16974</v>
+      </c>
+      <c r="G1881" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1881" t="inlineStr">
+        <is>
+          <t>00:50:30.891768</t>
+        </is>
+      </c>
+      <c r="I1881" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="inlineStr">
+        <is>
+          <t>sL175y19MUU</t>
+        </is>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1882" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1882" t="n">
+        <v>12346848</v>
+      </c>
+      <c r="E1882" t="n">
+        <v>463621</v>
+      </c>
+      <c r="F1882" t="n">
+        <v>11741</v>
+      </c>
+      <c r="G1882" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1882" t="inlineStr">
+        <is>
+          <t>00:50:30.891772</t>
+        </is>
+      </c>
+      <c r="I1882" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="inlineStr">
+        <is>
+          <t>GXBDwS2Tizo</t>
+        </is>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1883" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1883" t="n">
+        <v>22255214</v>
+      </c>
+      <c r="E1883" t="n">
+        <v>1033663</v>
+      </c>
+      <c r="F1883" t="n">
+        <v>26523</v>
+      </c>
+      <c r="G1883" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1883" t="inlineStr">
+        <is>
+          <t>00:50:30.891776</t>
+        </is>
+      </c>
+      <c r="I1883" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="inlineStr">
+        <is>
+          <t>rt6G9Vwt1xc</t>
+        </is>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1884" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1884" t="n">
+        <v>17947411</v>
+      </c>
+      <c r="E1884" t="n">
+        <v>794067</v>
+      </c>
+      <c r="F1884" t="n">
+        <v>24511</v>
+      </c>
+      <c r="G1884" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1884" t="inlineStr">
+        <is>
+          <t>00:50:30.891779</t>
+        </is>
+      </c>
+      <c r="I1884" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="inlineStr">
+        <is>
+          <t>MkG24J87IUk</t>
+        </is>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1885" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1885" t="n">
+        <v>49510014</v>
+      </c>
+      <c r="E1885" t="n">
+        <v>1709837</v>
+      </c>
+      <c r="F1885" t="n">
+        <v>46452</v>
+      </c>
+      <c r="G1885" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1885" t="inlineStr">
+        <is>
+          <t>00:50:30.891782</t>
+        </is>
+      </c>
+      <c r="I1885" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="inlineStr">
+        <is>
+          <t>o4GHoqGtRkg</t>
+        </is>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Don't Know What To Do’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1886" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1886" t="n">
+        <v>67709725</v>
+      </c>
+      <c r="E1886" t="n">
+        <v>1722818</v>
+      </c>
+      <c r="F1886" t="n">
+        <v>48439</v>
+      </c>
+      <c r="G1886" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1886" t="inlineStr">
+        <is>
+          <t>00:50:30.891786</t>
+        </is>
+      </c>
+      <c r="I1886" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="inlineStr">
+        <is>
+          <t>cxNIewNXpcg</t>
+        </is>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SOLO' + '뚜두뚜두(DDU-DU DDU-DU)' + 'FOREVER YOUNG' in 2018 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1887" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1887" t="n">
+        <v>383784607</v>
+      </c>
+      <c r="E1887" t="n">
+        <v>6192227</v>
+      </c>
+      <c r="F1887" t="n">
+        <v>209162</v>
+      </c>
+      <c r="G1887" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1887" t="inlineStr">
+        <is>
+          <t>00:50:30.891789</t>
+        </is>
+      </c>
+      <c r="I1887" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="inlineStr">
+        <is>
+          <t>7nukOecMf-U</t>
+        </is>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1216 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1888" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1888" t="n">
+        <v>4906900</v>
+      </c>
+      <c r="E1888" t="n">
+        <v>224829</v>
+      </c>
+      <c r="F1888" t="n">
+        <v>7751</v>
+      </c>
+      <c r="G1888" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1888" t="inlineStr">
+        <is>
+          <t>00:50:30.891793</t>
+        </is>
+      </c>
+      <c r="I1888" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="inlineStr">
+        <is>
+          <t>CPSH3ljpkZ4</t>
+        </is>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1209 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1889" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1889" t="n">
+        <v>13094659</v>
+      </c>
+      <c r="E1889" t="n">
+        <v>413125</v>
+      </c>
+      <c r="F1889" t="n">
+        <v>13156</v>
+      </c>
+      <c r="G1889" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1889" t="inlineStr">
+        <is>
+          <t>00:50:30.891796</t>
+        </is>
+      </c>
+      <c r="I1889" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="inlineStr">
+        <is>
+          <t>hxDXhh2sE1g</t>
+        </is>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1202 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1890" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1890" t="n">
+        <v>5930163</v>
+      </c>
+      <c r="E1890" t="n">
+        <v>253733</v>
+      </c>
+      <c r="F1890" t="n">
+        <v>9488</v>
+      </c>
+      <c r="G1890" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1890" t="inlineStr">
+        <is>
+          <t>00:50:30.891800</t>
+        </is>
+      </c>
+      <c r="I1890" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="inlineStr">
+        <is>
+          <t>smimdoBjeAE</t>
+        </is>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1125 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1891" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1891" t="n">
+        <v>17108739</v>
+      </c>
+      <c r="E1891" t="n">
+        <v>676538</v>
+      </c>
+      <c r="F1891" t="n">
+        <v>25619</v>
+      </c>
+      <c r="G1891" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1891" t="inlineStr">
+        <is>
+          <t>00:50:30.891803</t>
+        </is>
+      </c>
+      <c r="I1891" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="inlineStr">
+        <is>
+          <t>N1C_G3sfzXo</t>
+        </is>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' PERFORMANCE [IN YOUR AREA] SEOUL</t>
+        </is>
+      </c>
+      <c r="C1892" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1892" t="n">
+        <v>29730630</v>
+      </c>
+      <c r="E1892" t="n">
+        <v>1034617</v>
+      </c>
+      <c r="F1892" t="n">
+        <v>26391</v>
+      </c>
+      <c r="G1892" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1892" t="inlineStr">
+        <is>
+          <t>00:50:30.891807</t>
+        </is>
+      </c>
+      <c r="I1892" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="inlineStr">
+        <is>
+          <t>5hwepTxNKtE</t>
+        </is>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0805 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1893" t="n">
+        <v>72931728</v>
+      </c>
+      <c r="E1893" t="n">
+        <v>1184366</v>
+      </c>
+      <c r="F1893" t="n">
+        <v>44071</v>
+      </c>
+      <c r="G1893" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1893" t="inlineStr">
+        <is>
+          <t>00:50:30.891811</t>
+        </is>
+      </c>
+      <c r="I1893" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="inlineStr">
+        <is>
+          <t>4KRdmXcJWQU</t>
+        </is>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1894" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1894" t="n">
+        <v>8763005</v>
+      </c>
+      <c r="E1894" t="n">
+        <v>415981</v>
+      </c>
+      <c r="F1894" t="n">
+        <v>11731</v>
+      </c>
+      <c r="G1894" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1894" t="inlineStr">
+        <is>
+          <t>00:50:30.891814</t>
+        </is>
+      </c>
+      <c r="I1894" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="inlineStr">
+        <is>
+          <t>HhyRAPKiXi4</t>
+        </is>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1895" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1895" t="n">
+        <v>3985895</v>
+      </c>
+      <c r="E1895" t="n">
+        <v>203269</v>
+      </c>
+      <c r="F1895" t="n">
+        <v>7219</v>
+      </c>
+      <c r="G1895" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1895" t="inlineStr">
+        <is>
+          <t>00:50:30.891817</t>
+        </is>
+      </c>
+      <c r="I1895" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="inlineStr">
+        <is>
+          <t>PMsBMoc9eFg</t>
+        </is>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0722 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1896" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1896" t="n">
+        <v>12214132</v>
+      </c>
+      <c r="E1896" t="n">
+        <v>439695</v>
+      </c>
+      <c r="F1896" t="n">
+        <v>19911</v>
+      </c>
+      <c r="G1896" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1896" t="inlineStr">
+        <is>
+          <t>00:50:31.148473</t>
+        </is>
+      </c>
+      <c r="I1896" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="inlineStr">
+        <is>
+          <t>xqWjJP_WT-0</t>
+        </is>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1897" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1897" t="n">
+        <v>13215963</v>
+      </c>
+      <c r="E1897" t="n">
+        <v>687743</v>
+      </c>
+      <c r="F1897" t="n">
+        <v>24669</v>
+      </c>
+      <c r="G1897" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1897" t="inlineStr">
+        <is>
+          <t>00:50:31.148498</t>
+        </is>
+      </c>
+      <c r="I1897" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="inlineStr">
+        <is>
+          <t>WaIGc9QmV2w</t>
+        </is>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1898" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1898" t="n">
+        <v>3358788</v>
+      </c>
+      <c r="E1898" t="n">
+        <v>185644</v>
+      </c>
+      <c r="F1898" t="n">
+        <v>7357</v>
+      </c>
+      <c r="G1898" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1898" t="inlineStr">
+        <is>
+          <t>00:50:31.148503</t>
+        </is>
+      </c>
+      <c r="I1898" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>67otJZ6qe9Y</t>
+        </is>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0715 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1899" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1899" t="n">
+        <v>44143262</v>
+      </c>
+      <c r="E1899" t="n">
+        <v>982085</v>
+      </c>
+      <c r="F1899" t="n">
+        <v>33579</v>
+      </c>
+      <c r="G1899" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1899" t="inlineStr">
+        <is>
+          <t>00:50:31.148507</t>
+        </is>
+      </c>
+      <c r="I1899" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="inlineStr">
+        <is>
+          <t>PZ5t29qgGAM</t>
+        </is>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1900" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1900" t="n">
+        <v>11332203</v>
+      </c>
+      <c r="E1900" t="n">
+        <v>511347</v>
+      </c>
+      <c r="F1900" t="n">
+        <v>18490</v>
+      </c>
+      <c r="G1900" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1900" t="inlineStr">
+        <is>
+          <t>00:50:31.148512</t>
+        </is>
+      </c>
+      <c r="I1900" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="inlineStr">
+        <is>
+          <t>dEnDjgoLLY4</t>
+        </is>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1901" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1901" t="n">
+        <v>6474367</v>
+      </c>
+      <c r="E1901" t="n">
+        <v>327025</v>
+      </c>
+      <c r="F1901" t="n">
+        <v>12288</v>
+      </c>
+      <c r="G1901" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1901" t="inlineStr">
+        <is>
+          <t>00:50:31.148516</t>
+        </is>
+      </c>
+      <c r="I1901" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="inlineStr">
+        <is>
+          <t>0uje7GB8Azk</t>
+        </is>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1902" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1902" t="n">
+        <v>10035769</v>
+      </c>
+      <c r="E1902" t="n">
+        <v>351842</v>
+      </c>
+      <c r="F1902" t="n">
+        <v>13476</v>
+      </c>
+      <c r="G1902" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1902" t="inlineStr">
+        <is>
+          <t>00:50:31.148520</t>
+        </is>
+      </c>
+      <c r="I1902" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="inlineStr">
+        <is>
+          <t>F6IR7luozPw</t>
+        </is>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0708 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1903" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1903" t="n">
+        <v>3909055</v>
+      </c>
+      <c r="E1903" t="n">
+        <v>226799</v>
+      </c>
+      <c r="F1903" t="n">
+        <v>12152</v>
+      </c>
+      <c r="G1903" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1903" t="inlineStr">
+        <is>
+          <t>00:50:31.148524</t>
+        </is>
+      </c>
+      <c r="I1903" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="inlineStr">
+        <is>
+          <t>rw2-h5JNLqM</t>
+        </is>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C1904" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1904" t="n">
+        <v>15138873</v>
+      </c>
+      <c r="E1904" t="n">
+        <v>692841</v>
+      </c>
+      <c r="F1904" t="n">
+        <v>22352</v>
+      </c>
+      <c r="G1904" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1904" t="inlineStr">
+        <is>
+          <t>00:50:31.148528</t>
+        </is>
+      </c>
+      <c r="I1904" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="inlineStr">
+        <is>
+          <t>TIOCHR0OxOQ</t>
+        </is>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0701 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1905" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1905" t="n">
+        <v>4463539</v>
+      </c>
+      <c r="E1905" t="n">
+        <v>260867</v>
+      </c>
+      <c r="F1905" t="n">
+        <v>14771</v>
+      </c>
+      <c r="G1905" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1905" t="inlineStr">
+        <is>
+          <t>00:50:31.148532</t>
+        </is>
+      </c>
+      <c r="I1905" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="inlineStr">
+        <is>
+          <t>PUcGXTSCRLA</t>
+        </is>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0624 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1906" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1906" t="n">
+        <v>7592534</v>
+      </c>
+      <c r="E1906" t="n">
+        <v>351488</v>
+      </c>
+      <c r="F1906" t="n">
+        <v>13061</v>
+      </c>
+      <c r="G1906" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1906" t="inlineStr">
+        <is>
+          <t>00:50:31.148536</t>
+        </is>
+      </c>
+      <c r="I1906" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="inlineStr">
+        <is>
+          <t>b5dUYf_uPaY</t>
+        </is>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1907" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1907" t="n">
+        <v>44084924</v>
+      </c>
+      <c r="E1907" t="n">
+        <v>1106012</v>
+      </c>
+      <c r="F1907" t="n">
+        <v>33816</v>
+      </c>
+      <c r="G1907" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1907" t="inlineStr">
+        <is>
+          <t>00:50:31.148540</t>
+        </is>
+      </c>
+      <c r="I1907" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="inlineStr">
+        <is>
+          <t>n7ukhNJvQ8s</t>
+        </is>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1908" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1908" t="n">
+        <v>63829277</v>
+      </c>
+      <c r="E1908" t="n">
+        <v>1131851</v>
+      </c>
+      <c r="F1908" t="n">
+        <v>40069</v>
+      </c>
+      <c r="G1908" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1908" t="inlineStr">
+        <is>
+          <t>00:50:31.148544</t>
+        </is>
+      </c>
+      <c r="I1908" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="inlineStr">
+        <is>
+          <t>f1xIeTCgoFk</t>
+        </is>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>BLACKPINK - INTRO +  ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2018 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C1909" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1909" t="n">
+        <v>35637583</v>
+      </c>
+      <c r="E1909" t="n">
+        <v>772883</v>
+      </c>
+      <c r="F1909" t="n">
+        <v>23947</v>
+      </c>
+      <c r="G1909" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1909" t="inlineStr">
+        <is>
+          <t>00:50:31.148549</t>
+        </is>
+      </c>
+      <c r="I1909" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="inlineStr">
+        <is>
+          <t>skIfzl96Gc0</t>
+        </is>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SO HOT' (THEBLACKLABEL Remix) in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1910" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1910" t="n">
+        <v>87686556</v>
+      </c>
+      <c r="E1910" t="n">
+        <v>2155153</v>
+      </c>
+      <c r="F1910" t="n">
+        <v>63136</v>
+      </c>
+      <c r="G1910" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1910" t="inlineStr">
+        <is>
+          <t>00:50:31.148553</t>
+        </is>
+      </c>
+      <c r="I1910" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="inlineStr">
+        <is>
+          <t>PoHD4wfwC6Y</t>
+        </is>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1911" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1911" t="n">
+        <v>8400331</v>
+      </c>
+      <c r="E1911" t="n">
+        <v>300223</v>
+      </c>
+      <c r="F1911" t="n">
+        <v>7159</v>
+      </c>
+      <c r="G1911" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1911" t="inlineStr">
+        <is>
+          <t>00:50:31.148557</t>
+        </is>
+      </c>
+      <c r="I1911" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="inlineStr">
+        <is>
+          <t>wwuZtpS8FNI</t>
+        </is>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 1001 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1912" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1912" t="n">
+        <v>35333796</v>
+      </c>
+      <c r="E1912" t="n">
+        <v>580456</v>
+      </c>
+      <c r="F1912" t="n">
+        <v>15700</v>
+      </c>
+      <c r="G1912" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1912" t="inlineStr">
+        <is>
+          <t>00:50:31.148561</t>
+        </is>
+      </c>
+      <c r="I1912" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="inlineStr">
+        <is>
+          <t>GE7x2fVVsXM</t>
+        </is>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>BLACKPINK - OPENING MEDLDY 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1913" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1913" t="n">
+        <v>16258999</v>
+      </c>
+      <c r="E1913" t="n">
+        <v>446078</v>
+      </c>
+      <c r="F1913" t="n">
+        <v>10610</v>
+      </c>
+      <c r="G1913" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1913" t="inlineStr">
+        <is>
+          <t>00:50:31.148565</t>
+        </is>
+      </c>
+      <c r="I1913" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="inlineStr">
+        <is>
+          <t>_7TMluHVx4Y</t>
+        </is>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SURE THING (Miguel)' COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1914" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1914" t="n">
+        <v>109662066</v>
+      </c>
+      <c r="E1914" t="n">
+        <v>1772935</v>
+      </c>
+      <c r="F1914" t="n">
+        <v>69475</v>
+      </c>
+      <c r="G1914" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1914" t="inlineStr">
+        <is>
+          <t>00:50:31.148569</t>
+        </is>
+      </c>
+      <c r="I1914" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="inlineStr">
+        <is>
+          <t>X3P6dnL2OyY</t>
+        </is>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'PARTITION (Beyonce)' DANCE COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C1915" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1915" t="n">
+        <v>48827146</v>
+      </c>
+      <c r="E1915" t="n">
+        <v>1228258</v>
+      </c>
+      <c r="F1915" t="n">
+        <v>30772</v>
+      </c>
+      <c r="G1915" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1915" t="inlineStr">
+        <is>
+          <t>00:50:31.148573</t>
+        </is>
+      </c>
+      <c r="I1915" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="inlineStr">
+        <is>
+          <t>RczrR4FVKzg</t>
+        </is>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST) Remix ver.' 0723 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1916" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1916" t="n">
+        <v>20900023</v>
+      </c>
+      <c r="E1916" t="n">
+        <v>625116</v>
+      </c>
+      <c r="F1916" t="n">
+        <v>19585</v>
+      </c>
+      <c r="G1916" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1916" t="inlineStr">
+        <is>
+          <t>00:50:31.409982</t>
+        </is>
+      </c>
+      <c r="I1916" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="inlineStr">
+        <is>
+          <t>vW1PeCzs7Sg</t>
+        </is>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0716 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1917" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1917" t="n">
+        <v>4604171</v>
+      </c>
+      <c r="E1917" t="n">
+        <v>204557</v>
+      </c>
+      <c r="F1917" t="n">
+        <v>6755</v>
+      </c>
+      <c r="G1917" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1917" t="inlineStr">
+        <is>
+          <t>00:50:31.410006</t>
+        </is>
+      </c>
+      <c r="I1917" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="inlineStr">
+        <is>
+          <t>ZL8LqlKtpVE</t>
+        </is>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0709 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1918" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1918" t="n">
+        <v>4522846</v>
+      </c>
+      <c r="E1918" t="n">
+        <v>211976</v>
+      </c>
+      <c r="F1918" t="n">
+        <v>6455</v>
+      </c>
+      <c r="G1918" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1918" t="inlineStr">
+        <is>
+          <t>00:50:31.410011</t>
+        </is>
+      </c>
+      <c r="I1918" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="inlineStr">
+        <is>
+          <t>fWOAe_xXTQs</t>
+        </is>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0702 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1919" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1919" t="n">
+        <v>7132751</v>
+      </c>
+      <c r="E1919" t="n">
+        <v>308319</v>
+      </c>
+      <c r="F1919" t="n">
+        <v>11345</v>
+      </c>
+      <c r="G1919" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1919" t="inlineStr">
+        <is>
+          <t>00:50:31.410016</t>
+        </is>
+      </c>
+      <c r="I1919" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="inlineStr">
+        <is>
+          <t>TWRSR7y1288</t>
+        </is>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0625 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1920" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1920" t="n">
+        <v>31730195</v>
+      </c>
+      <c r="E1920" t="n">
+        <v>751029</v>
+      </c>
+      <c r="F1920" t="n">
+        <v>23568</v>
+      </c>
+      <c r="G1920" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1920" t="inlineStr">
+        <is>
+          <t>00:50:31.410020</t>
+        </is>
+      </c>
+      <c r="I1920" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="inlineStr">
+        <is>
+          <t>VQLn90MACUQ</t>
+        </is>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난 (PLAYING WITH FIRE)’ + ‘붐바야 (BOOMBAYAH)’  in 2017 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C1921" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1921" t="n">
+        <v>51526305</v>
+      </c>
+      <c r="E1921" t="n">
+        <v>1047291</v>
+      </c>
+      <c r="F1921" t="n">
+        <v>22134</v>
+      </c>
+      <c r="G1921" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1921" t="inlineStr">
+        <is>
+          <t>00:50:31.410024</t>
+        </is>
+      </c>
+      <c r="I1921" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="inlineStr">
+        <is>
+          <t>_paRxWTIyAo</t>
+        </is>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C1922" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1922" t="n">
+        <v>121764560</v>
+      </c>
+      <c r="E1922" t="n">
+        <v>1968931</v>
+      </c>
+      <c r="F1922" t="n">
+        <v>39482</v>
+      </c>
+      <c r="G1922" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1922" t="inlineStr">
+        <is>
+          <t>00:50:31.410028</t>
+        </is>
+      </c>
+      <c r="I1922" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="inlineStr">
+        <is>
+          <t>FOv-Rsp1LS0</t>
+        </is>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - Interview(마지막 무대 인사) + '불장난(PLAYING WITH FIRE)' 1211 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1923" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1923" t="n">
+        <v>2833453</v>
+      </c>
+      <c r="E1923" t="n">
+        <v>127428</v>
+      </c>
+      <c r="F1923" t="n">
+        <v>5448</v>
+      </c>
+      <c r="G1923" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1923" t="inlineStr">
+        <is>
+          <t>00:50:31.410032</t>
+        </is>
+      </c>
+      <c r="I1923" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="inlineStr">
+        <is>
+          <t>hTDRE5d5A2M</t>
+        </is>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1204 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1924" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1924" t="n">
+        <v>4060938</v>
+      </c>
+      <c r="E1924" t="n">
+        <v>199380</v>
+      </c>
+      <c r="F1924" t="n">
+        <v>6801</v>
+      </c>
+      <c r="G1924" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1924" t="inlineStr">
+        <is>
+          <t>00:50:31.410036</t>
+        </is>
+      </c>
+      <c r="I1924" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="inlineStr">
+        <is>
+          <t>HoAdqZW4ptY</t>
+        </is>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1127 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1925" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1925" t="n">
+        <v>6880306</v>
+      </c>
+      <c r="E1925" t="n">
+        <v>269591</v>
+      </c>
+      <c r="F1925" t="n">
+        <v>7413</v>
+      </c>
+      <c r="G1925" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1925" t="inlineStr">
+        <is>
+          <t>00:50:31.410043</t>
+        </is>
+      </c>
+      <c r="I1925" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="inlineStr">
+        <is>
+          <t>TklpzjGlqFE</t>
+        </is>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1120 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1926" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1926" t="n">
+        <v>13618718</v>
+      </c>
+      <c r="E1926" t="n">
+        <v>366431</v>
+      </c>
+      <c r="F1926" t="n">
+        <v>8692</v>
+      </c>
+      <c r="G1926" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1926" t="inlineStr">
+        <is>
+          <t>00:50:31.410047</t>
+        </is>
+      </c>
+      <c r="I1926" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="inlineStr">
+        <is>
+          <t>ZwVTC_686Sw</t>
+        </is>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 MELON MUSIC AWARDS</t>
+        </is>
+      </c>
+      <c r="C1927" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1927" t="n">
+        <v>77783027</v>
+      </c>
+      <c r="E1927" t="n">
+        <v>1373189</v>
+      </c>
+      <c r="F1927" t="n">
+        <v>35272</v>
+      </c>
+      <c r="G1927" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1927" t="inlineStr">
+        <is>
+          <t>00:50:31.410051</t>
+        </is>
+      </c>
+      <c r="I1927" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="inlineStr">
+        <is>
+          <t>_NVwS4mcVYg</t>
+        </is>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1928" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1928" t="n">
+        <v>22443051</v>
+      </c>
+      <c r="E1928" t="n">
+        <v>626900</v>
+      </c>
+      <c r="F1928" t="n">
+        <v>19905</v>
+      </c>
+      <c r="G1928" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1928" t="inlineStr">
+        <is>
+          <t>00:50:31.410055</t>
+        </is>
+      </c>
+      <c r="I1928" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="inlineStr">
+        <is>
+          <t>5LWCPzwiN28</t>
+        </is>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1929" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1929" t="n">
+        <v>67319505</v>
+      </c>
+      <c r="E1929" t="n">
+        <v>963953</v>
+      </c>
+      <c r="F1929" t="n">
+        <v>32155</v>
+      </c>
+      <c r="G1929" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1929" t="inlineStr">
+        <is>
+          <t>00:50:31.410059</t>
+        </is>
+      </c>
+      <c r="I1929" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="inlineStr">
+        <is>
+          <t>o4rSRaqvHyc</t>
+        </is>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0911 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1930" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1930" t="n">
+        <v>6194755</v>
+      </c>
+      <c r="E1930" t="n">
+        <v>253953</v>
+      </c>
+      <c r="F1930" t="n">
+        <v>6889</v>
+      </c>
+      <c r="G1930" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1930" t="inlineStr">
+        <is>
+          <t>00:50:31.410063</t>
+        </is>
+      </c>
+      <c r="I1930" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="inlineStr">
+        <is>
+          <t>6F0UWgSSQqU</t>
+        </is>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0904 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1931" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1931" t="n">
+        <v>9648103</v>
+      </c>
+      <c r="E1931" t="n">
+        <v>255331</v>
+      </c>
+      <c r="F1931" t="n">
+        <v>9288</v>
+      </c>
+      <c r="G1931" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1931" t="inlineStr">
+        <is>
+          <t>00:50:31.410067</t>
+        </is>
+      </c>
+      <c r="I1931" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="inlineStr">
+        <is>
+          <t>13XTnp3Lp84</t>
+        </is>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1932" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1932" t="n">
+        <v>31595652</v>
+      </c>
+      <c r="E1932" t="n">
+        <v>649696</v>
+      </c>
+      <c r="F1932" t="n">
+        <v>20488</v>
+      </c>
+      <c r="G1932" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1932" t="inlineStr">
+        <is>
+          <t>00:50:31.410070</t>
+        </is>
+      </c>
+      <c r="I1932" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="inlineStr">
+        <is>
+          <t>EKHdMwRaU60</t>
+        </is>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1933" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1933" t="n">
+        <v>60725273</v>
+      </c>
+      <c r="E1933" t="n">
+        <v>829038</v>
+      </c>
+      <c r="F1933" t="n">
+        <v>23107</v>
+      </c>
+      <c r="G1933" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1933" t="inlineStr">
+        <is>
+          <t>00:50:31.410074</t>
+        </is>
+      </c>
+      <c r="I1933" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="inlineStr">
+        <is>
+          <t>metZ_f8aqC0</t>
+        </is>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0821 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1934" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1934" t="n">
+        <v>41591999</v>
+      </c>
+      <c r="E1934" t="n">
+        <v>891980</v>
+      </c>
+      <c r="F1934" t="n">
+        <v>26134</v>
+      </c>
+      <c r="G1934" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1934" t="inlineStr">
+        <is>
+          <t>00:50:31.410078</t>
+        </is>
+      </c>
+      <c r="I1934" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="inlineStr">
+        <is>
+          <t>RGmL76BBGZk</t>
+        </is>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0821 SBS Inkigayo : '휘파람(WHISTLE)' NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1935" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1935" t="n">
+        <v>17063180</v>
+      </c>
+      <c r="E1935" t="n">
+        <v>541069</v>
+      </c>
+      <c r="F1935" t="n">
+        <v>14615</v>
+      </c>
+      <c r="G1935" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1935" t="inlineStr">
+        <is>
+          <t>00:50:31.410082</t>
+        </is>
+      </c>
+      <c r="I1935" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="inlineStr">
+        <is>
+          <t>vAqAp1tJnkc</t>
+        </is>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람’(WHISTLE) 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1936" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1936" t="n">
+        <v>48096205</v>
+      </c>
+      <c r="E1936" t="n">
+        <v>857913</v>
+      </c>
+      <c r="F1936" t="n">
+        <v>29208</v>
+      </c>
+      <c r="G1936" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1936" t="inlineStr">
+        <is>
+          <t>00:50:31.589485</t>
+        </is>
+      </c>
+      <c r="I1936" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="inlineStr">
+        <is>
+          <t>LpSH8MrYCfg</t>
+        </is>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1937" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1937" t="n">
+        <v>168645708</v>
+      </c>
+      <c r="E1937" t="n">
+        <v>2539707</v>
+      </c>
+      <c r="F1937" t="n">
+        <v>80133</v>
+      </c>
+      <c r="G1937" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="H1937" t="inlineStr">
+        <is>
+          <t>00:50:31.589509</t>
+        </is>
+      </c>
+      <c r="I1937" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_videos_count_data.xlsx
+++ b/CLEANED_videos_count_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1937"/>
+  <dimension ref="A1:I2058"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79856,6 +79856,4967 @@
         </is>
       </c>
     </row>
+    <row r="1938">
+      <c r="A1938" t="inlineStr">
+        <is>
+          <t>YudHcBIxlYw</t>
+        </is>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1938" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1938" t="n">
+        <v>401196774</v>
+      </c>
+      <c r="E1938" t="n">
+        <v>10170043</v>
+      </c>
+      <c r="F1938" t="n">
+        <v>1351643</v>
+      </c>
+      <c r="G1938" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1938" t="inlineStr">
+        <is>
+          <t>00:49:58.798845</t>
+        </is>
+      </c>
+      <c r="I1938" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="inlineStr">
+        <is>
+          <t>POe9SOEKotk</t>
+        </is>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1939" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1939" t="n">
+        <v>530036101</v>
+      </c>
+      <c r="E1939" t="n">
+        <v>10861976</v>
+      </c>
+      <c r="F1939" t="n">
+        <v>2224979</v>
+      </c>
+      <c r="G1939" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1939" t="inlineStr">
+        <is>
+          <t>00:49:58.798889</t>
+        </is>
+      </c>
+      <c r="I1939" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="inlineStr">
+        <is>
+          <t>gQlMMD8auMs</t>
+        </is>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1940" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1940" t="n">
+        <v>741432101</v>
+      </c>
+      <c r="E1940" t="n">
+        <v>16108532</v>
+      </c>
+      <c r="F1940" t="n">
+        <v>3563645</v>
+      </c>
+      <c r="G1940" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1940" t="inlineStr">
+        <is>
+          <t>00:49:58.798895</t>
+        </is>
+      </c>
+      <c r="I1940" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="inlineStr">
+        <is>
+          <t>awkkyBH2zEo</t>
+        </is>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' M\/V</t>
+        </is>
+      </c>
+      <c r="C1941" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1941" t="n">
+        <v>657492570</v>
+      </c>
+      <c r="E1941" t="n">
+        <v>17331394</v>
+      </c>
+      <c r="F1941" t="n">
+        <v>2814339</v>
+      </c>
+      <c r="G1941" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1941" t="inlineStr">
+        <is>
+          <t>00:49:58.798900</t>
+        </is>
+      </c>
+      <c r="I1941" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="inlineStr">
+        <is>
+          <t>K9_VFxzCuQ0</t>
+        </is>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' M\/V</t>
+        </is>
+      </c>
+      <c r="C1942" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1942" t="n">
+        <v>269465287</v>
+      </c>
+      <c r="E1942" t="n">
+        <v>7390980</v>
+      </c>
+      <c r="F1942" t="n">
+        <v>1242525</v>
+      </c>
+      <c r="G1942" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1942" t="inlineStr">
+        <is>
+          <t>00:49:58.798904</t>
+        </is>
+      </c>
+      <c r="I1942" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="inlineStr">
+        <is>
+          <t>CKZvWhCqx1s</t>
+        </is>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' M\/V</t>
+        </is>
+      </c>
+      <c r="C1943" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1943" t="n">
+        <v>343743997</v>
+      </c>
+      <c r="E1943" t="n">
+        <v>11356620</v>
+      </c>
+      <c r="F1943" t="n">
+        <v>2589427</v>
+      </c>
+      <c r="G1943" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1943" t="inlineStr">
+        <is>
+          <t>00:49:58.798909</t>
+        </is>
+      </c>
+      <c r="I1943" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="inlineStr">
+        <is>
+          <t>dyRsYk0LyA8</t>
+        </is>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' M\/V</t>
+        </is>
+      </c>
+      <c r="C1944" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1944" t="n">
+        <v>711353847</v>
+      </c>
+      <c r="E1944" t="n">
+        <v>15507893</v>
+      </c>
+      <c r="F1944" t="n">
+        <v>2042871</v>
+      </c>
+      <c r="G1944" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1944" t="inlineStr">
+        <is>
+          <t>00:49:58.798913</t>
+        </is>
+      </c>
+      <c r="I1944" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="inlineStr">
+        <is>
+          <t>vRXZj0DzXIA</t>
+        </is>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Ice Cream (with Selena Gomez)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1945" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1945" t="n">
+        <v>873463602</v>
+      </c>
+      <c r="E1945" t="n">
+        <v>19929809</v>
+      </c>
+      <c r="F1945" t="n">
+        <v>3025231</v>
+      </c>
+      <c r="G1945" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1945" t="inlineStr">
+        <is>
+          <t>00:49:58.798919</t>
+        </is>
+      </c>
+      <c r="I1945" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="inlineStr">
+        <is>
+          <t>ioNng23DkIM</t>
+        </is>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' M\/V</t>
+        </is>
+      </c>
+      <c r="C1946" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1946" t="n">
+        <v>1245078675</v>
+      </c>
+      <c r="E1946" t="n">
+        <v>24762313</v>
+      </c>
+      <c r="F1946" t="n">
+        <v>5096852</v>
+      </c>
+      <c r="G1946" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1946" t="inlineStr">
+        <is>
+          <t>00:49:58.798923</t>
+        </is>
+      </c>
+      <c r="I1946" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t>2S24-y0Ij3Y</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' M\/V</t>
+        </is>
+      </c>
+      <c r="C1947" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1947" t="n">
+        <v>1877657374</v>
+      </c>
+      <c r="E1947" t="n">
+        <v>25035898</v>
+      </c>
+      <c r="F1947" t="n">
+        <v>2479631</v>
+      </c>
+      <c r="G1947" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1947" t="inlineStr">
+        <is>
+          <t>00:49:58.798928</t>
+        </is>
+      </c>
+      <c r="I1947" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="inlineStr">
+        <is>
+          <t>b73BI9eUkjM</t>
+        </is>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' M\/V</t>
+        </is>
+      </c>
+      <c r="C1948" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1948" t="n">
+        <v>965278166</v>
+      </c>
+      <c r="E1948" t="n">
+        <v>14635891</v>
+      </c>
+      <c r="F1948" t="n">
+        <v>3044270</v>
+      </c>
+      <c r="G1948" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1948" t="inlineStr">
+        <is>
+          <t>00:49:58.798933</t>
+        </is>
+      </c>
+      <c r="I1948" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="inlineStr">
+        <is>
+          <t>IHNzOHi8sJs</t>
+        </is>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C1949" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1949" t="n">
+        <v>2127630115</v>
+      </c>
+      <c r="E1949" t="n">
+        <v>23448255</v>
+      </c>
+      <c r="F1949" t="n">
+        <v>3283653</v>
+      </c>
+      <c r="G1949" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1949" t="inlineStr">
+        <is>
+          <t>00:49:58.798937</t>
+        </is>
+      </c>
+      <c r="I1949" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="inlineStr">
+        <is>
+          <t>Amq-qlqbjYA</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '마지막처럼 (AS IF IT'S YOUR LAST)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1950" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1950" t="n">
+        <v>1324577320</v>
+      </c>
+      <c r="E1950" t="n">
+        <v>13263204</v>
+      </c>
+      <c r="F1950" t="n">
+        <v>1659017</v>
+      </c>
+      <c r="G1950" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1950" t="inlineStr">
+        <is>
+          <t>00:49:58.798984</t>
+        </is>
+      </c>
+      <c r="I1950" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="inlineStr">
+        <is>
+          <t>FzVR_fymZw4</t>
+        </is>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' M\/V</t>
+        </is>
+      </c>
+      <c r="C1951" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1951" t="n">
+        <v>351896081</v>
+      </c>
+      <c r="E1951" t="n">
+        <v>6134893</v>
+      </c>
+      <c r="F1951" t="n">
+        <v>479286</v>
+      </c>
+      <c r="G1951" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1951" t="inlineStr">
+        <is>
+          <t>00:49:58.798989</t>
+        </is>
+      </c>
+      <c r="I1951" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="inlineStr">
+        <is>
+          <t>9pdj4iJD08s</t>
+        </is>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1952" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1952" t="n">
+        <v>844604780</v>
+      </c>
+      <c r="E1952" t="n">
+        <v>8592645</v>
+      </c>
+      <c r="F1952" t="n">
+        <v>530134</v>
+      </c>
+      <c r="G1952" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1952" t="inlineStr">
+        <is>
+          <t>00:49:58.798994</t>
+        </is>
+      </c>
+      <c r="I1952" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="inlineStr">
+        <is>
+          <t>dISNgvVpWlo</t>
+        </is>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1953" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1953" t="n">
+        <v>864826207</v>
+      </c>
+      <c r="E1953" t="n">
+        <v>9972088</v>
+      </c>
+      <c r="F1953" t="n">
+        <v>617191</v>
+      </c>
+      <c r="G1953" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1953" t="inlineStr">
+        <is>
+          <t>00:49:58.798998</t>
+        </is>
+      </c>
+      <c r="I1953" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="inlineStr">
+        <is>
+          <t>bwmSjveL3Lc</t>
+        </is>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' M\/V</t>
+        </is>
+      </c>
+      <c r="C1954" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D1954" t="n">
+        <v>1637885845</v>
+      </c>
+      <c r="E1954" t="n">
+        <v>16181852</v>
+      </c>
+      <c r="F1954" t="n">
+        <v>1123541</v>
+      </c>
+      <c r="G1954" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1954" t="inlineStr">
+        <is>
+          <t>00:49:58.799002</t>
+        </is>
+      </c>
+      <c r="I1954" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="inlineStr">
+        <is>
+          <t>4XZz3WXRw0A</t>
+        </is>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1955" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1955" t="n">
+        <v>125214963</v>
+      </c>
+      <c r="E1955" t="n">
+        <v>2982115</v>
+      </c>
+      <c r="F1955" t="n">
+        <v>97430</v>
+      </c>
+      <c r="G1955" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1955" t="inlineStr">
+        <is>
+          <t>00:49:58.799007</t>
+        </is>
+      </c>
+      <c r="I1955" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="inlineStr">
+        <is>
+          <t>RFMi3v0TXP8</t>
+        </is>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1956" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1956" t="n">
+        <v>207645676</v>
+      </c>
+      <c r="E1956" t="n">
+        <v>4834062</v>
+      </c>
+      <c r="F1956" t="n">
+        <v>132955</v>
+      </c>
+      <c r="G1956" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1956" t="inlineStr">
+        <is>
+          <t>00:49:58.799017</t>
+        </is>
+      </c>
+      <c r="I1956" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="inlineStr">
+        <is>
+          <t>fr-eHz87XoM</t>
+        </is>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1957" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1957" t="n">
+        <v>117098197</v>
+      </c>
+      <c r="E1957" t="n">
+        <v>3698247</v>
+      </c>
+      <c r="F1957" t="n">
+        <v>82421</v>
+      </c>
+      <c r="G1957" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1957" t="inlineStr">
+        <is>
+          <t>00:49:59.085939</t>
+        </is>
+      </c>
+      <c r="I1957" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="inlineStr">
+        <is>
+          <t>ZJ6QQLDIzrI</t>
+        </is>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1958" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1958" t="n">
+        <v>86688442</v>
+      </c>
+      <c r="E1958" t="n">
+        <v>3024356</v>
+      </c>
+      <c r="F1958" t="n">
+        <v>67397</v>
+      </c>
+      <c r="G1958" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1958" t="inlineStr">
+        <is>
+          <t>00:49:59.085965</t>
+        </is>
+      </c>
+      <c r="I1958" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="inlineStr">
+        <is>
+          <t>z6CSW2yu8Mg</t>
+        </is>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' Dance Performance</t>
+        </is>
+      </c>
+      <c r="C1959" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1959" t="n">
+        <v>109280172</v>
+      </c>
+      <c r="E1959" t="n">
+        <v>3342543</v>
+      </c>
+      <c r="F1959" t="n">
+        <v>145921</v>
+      </c>
+      <c r="G1959" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1959" t="inlineStr">
+        <is>
+          <t>00:49:59.085970</t>
+        </is>
+      </c>
+      <c r="I1959" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="inlineStr">
+        <is>
+          <t>YxksUfnuEbI</t>
+        </is>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1960" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1960" t="n">
+        <v>290403794</v>
+      </c>
+      <c r="E1960" t="n">
+        <v>5552951</v>
+      </c>
+      <c r="F1960" t="n">
+        <v>229984</v>
+      </c>
+      <c r="G1960" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1960" t="inlineStr">
+        <is>
+          <t>00:49:59.085975</t>
+        </is>
+      </c>
+      <c r="I1960" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="inlineStr">
+        <is>
+          <t>32si5cfrCNc</t>
+        </is>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1961" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1961" t="n">
+        <v>1505337176</v>
+      </c>
+      <c r="E1961" t="n">
+        <v>17825906</v>
+      </c>
+      <c r="F1961" t="n">
+        <v>927215</v>
+      </c>
+      <c r="G1961" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1961" t="inlineStr">
+        <is>
+          <t>00:49:59.085979</t>
+        </is>
+      </c>
+      <c r="I1961" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="inlineStr">
+        <is>
+          <t>kqXGnxJ-S3k</t>
+        </is>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>JENNIE - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1962" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1962" t="n">
+        <v>11030114</v>
+      </c>
+      <c r="E1962" t="n">
+        <v>953067</v>
+      </c>
+      <c r="F1962" t="n">
+        <v>26983</v>
+      </c>
+      <c r="G1962" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1962" t="inlineStr">
+        <is>
+          <t>00:49:59.085983</t>
+        </is>
+      </c>
+      <c r="I1962" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="inlineStr">
+        <is>
+          <t>bqzDuRz_P7g</t>
+        </is>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Don't Know What To Do' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1963" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1963" t="n">
+        <v>312477042</v>
+      </c>
+      <c r="E1963" t="n">
+        <v>4284859</v>
+      </c>
+      <c r="F1963" t="n">
+        <v>118671</v>
+      </c>
+      <c r="G1963" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1963" t="inlineStr">
+        <is>
+          <t>00:49:59.085988</t>
+        </is>
+      </c>
+      <c r="I1963" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="inlineStr">
+        <is>
+          <t>MOwaUlXZxkI</t>
+        </is>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1964" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1964" t="n">
+        <v>491553031</v>
+      </c>
+      <c r="E1964" t="n">
+        <v>6140664</v>
+      </c>
+      <c r="F1964" t="n">
+        <v>169531</v>
+      </c>
+      <c r="G1964" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1964" t="inlineStr">
+        <is>
+          <t>00:49:59.085992</t>
+        </is>
+      </c>
+      <c r="I1964" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="inlineStr">
+        <is>
+          <t>Ws5SOMeA3_E</t>
+        </is>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1965" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1965" t="n">
+        <v>16072408</v>
+      </c>
+      <c r="E1965" t="n">
+        <v>753230</v>
+      </c>
+      <c r="F1965" t="n">
+        <v>18799</v>
+      </c>
+      <c r="G1965" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1965" t="inlineStr">
+        <is>
+          <t>00:49:59.085997</t>
+        </is>
+      </c>
+      <c r="I1965" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="inlineStr">
+        <is>
+          <t>k-wmRTFVwPA</t>
+        </is>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY ALTERNATE EDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C1966" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1966" t="n">
+        <v>3973338</v>
+      </c>
+      <c r="E1966" t="n">
+        <v>260148</v>
+      </c>
+      <c r="F1966" t="n">
+        <v>4715</v>
+      </c>
+      <c r="G1966" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1966" t="inlineStr">
+        <is>
+          <t>00:49:59.086001</t>
+        </is>
+      </c>
+      <c r="I1966" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="inlineStr">
+        <is>
+          <t>vdDuCvCrcKg</t>
+        </is>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY UNEDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C1967" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1967" t="n">
+        <v>278035539</v>
+      </c>
+      <c r="E1967" t="n">
+        <v>4401307</v>
+      </c>
+      <c r="F1967" t="n">
+        <v>200547</v>
+      </c>
+      <c r="G1967" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1967" t="inlineStr">
+        <is>
+          <t>00:49:59.086005</t>
+        </is>
+      </c>
+      <c r="I1967" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="inlineStr">
+        <is>
+          <t>89kTb73csYg</t>
+        </is>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Forever Young' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1968" t="n">
+        <v>234285926</v>
+      </c>
+      <c r="E1968" t="n">
+        <v>3955611</v>
+      </c>
+      <c r="F1968" t="n">
+        <v>125711</v>
+      </c>
+      <c r="G1968" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1968" t="inlineStr">
+        <is>
+          <t>00:49:59.086009</t>
+        </is>
+      </c>
+      <c r="I1968" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="inlineStr">
+        <is>
+          <t>jOJbXvjZ-cQ</t>
+        </is>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C1969" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1969" t="n">
+        <v>493777227</v>
+      </c>
+      <c r="E1969" t="n">
+        <v>5637063</v>
+      </c>
+      <c r="F1969" t="n">
+        <v>183871</v>
+      </c>
+      <c r="G1969" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1969" t="inlineStr">
+        <is>
+          <t>00:49:59.086013</t>
+        </is>
+      </c>
+      <c r="I1969" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="inlineStr">
+        <is>
+          <t>hKUJmA9O6iA</t>
+        </is>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1970" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1970" t="n">
+        <v>282865951</v>
+      </c>
+      <c r="E1970" t="n">
+        <v>3062429</v>
+      </c>
+      <c r="F1970" t="n">
+        <v>76144</v>
+      </c>
+      <c r="G1970" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1970" t="inlineStr">
+        <is>
+          <t>00:49:59.086018</t>
+        </is>
+      </c>
+      <c r="I1970" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="inlineStr">
+        <is>
+          <t>NvWfJTbrTBY</t>
+        </is>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난(PLAYING WITH FIRE)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1971" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1971" t="n">
+        <v>218126373</v>
+      </c>
+      <c r="E1971" t="n">
+        <v>2363434</v>
+      </c>
+      <c r="F1971" t="n">
+        <v>61947</v>
+      </c>
+      <c r="G1971" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1971" t="inlineStr">
+        <is>
+          <t>00:49:59.086022</t>
+        </is>
+      </c>
+      <c r="I1971" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="inlineStr">
+        <is>
+          <t>ivoS3HUJB3Q</t>
+        </is>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1972" t="n">
+        <v>299600511</v>
+      </c>
+      <c r="E1972" t="n">
+        <v>3124741</v>
+      </c>
+      <c r="F1972" t="n">
+        <v>76281</v>
+      </c>
+      <c r="G1972" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1972" t="inlineStr">
+        <is>
+          <t>00:49:59.086026</t>
+        </is>
+      </c>
+      <c r="I1972" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="inlineStr">
+        <is>
+          <t>1kYrp_Bs8DU</t>
+        </is>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1973" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1973" t="n">
+        <v>180350814</v>
+      </c>
+      <c r="E1973" t="n">
+        <v>2119007</v>
+      </c>
+      <c r="F1973" t="n">
+        <v>57170</v>
+      </c>
+      <c r="G1973" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1973" t="inlineStr">
+        <is>
+          <t>00:49:59.086030</t>
+        </is>
+      </c>
+      <c r="I1973" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="inlineStr">
+        <is>
+          <t>3fg8pyLKvXE</t>
+        </is>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>BLACKPINK - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1974" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D1974" t="n">
+        <v>87246487</v>
+      </c>
+      <c r="E1974" t="n">
+        <v>2896704</v>
+      </c>
+      <c r="F1974" t="n">
+        <v>90229</v>
+      </c>
+      <c r="G1974" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1974" t="inlineStr">
+        <is>
+          <t>00:49:59.086034</t>
+        </is>
+      </c>
+      <c r="I1974" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="inlineStr">
+        <is>
+          <t>VLpUsmBafMQ</t>
+        </is>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1975" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1975" t="n">
+        <v>34455497</v>
+      </c>
+      <c r="E1975" t="n">
+        <v>720958</v>
+      </c>
+      <c r="F1975" t="n">
+        <v>14339</v>
+      </c>
+      <c r="G1975" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1975" t="inlineStr">
+        <is>
+          <t>00:49:59.086038</t>
+        </is>
+      </c>
+      <c r="I1975" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="inlineStr">
+        <is>
+          <t>z9tifvQSu-g</t>
+        </is>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Typa Girl’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1976" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1976" t="n">
+        <v>58344073</v>
+      </c>
+      <c r="E1976" t="n">
+        <v>1242148</v>
+      </c>
+      <c r="F1976" t="n">
+        <v>22059</v>
+      </c>
+      <c r="G1976" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1976" t="inlineStr">
+        <is>
+          <t>00:49:59.086059</t>
+        </is>
+      </c>
+      <c r="I1976" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="inlineStr">
+        <is>
+          <t>NpVJidAKOqc</t>
+        </is>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C1977" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1977" t="n">
+        <v>24798953</v>
+      </c>
+      <c r="E1977" t="n">
+        <v>638680</v>
+      </c>
+      <c r="F1977" t="n">
+        <v>11470</v>
+      </c>
+      <c r="G1977" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1977" t="inlineStr">
+        <is>
+          <t>00:49:59.343580</t>
+        </is>
+      </c>
+      <c r="I1977" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="inlineStr">
+        <is>
+          <t>PjrAwC4TIPA</t>
+        </is>
+      </c>
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1978" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1978" t="n">
+        <v>155229885</v>
+      </c>
+      <c r="E1978" t="n">
+        <v>3746476</v>
+      </c>
+      <c r="F1978" t="n">
+        <v>98783</v>
+      </c>
+      <c r="G1978" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1978" t="inlineStr">
+        <is>
+          <t>00:49:59.343608</t>
+        </is>
+      </c>
+      <c r="I1978" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="inlineStr">
+        <is>
+          <t>RkKXbweBCcI</t>
+        </is>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C1979" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1979" t="n">
+        <v>45178247</v>
+      </c>
+      <c r="E1979" t="n">
+        <v>2783563</v>
+      </c>
+      <c r="F1979" t="n">
+        <v>60680</v>
+      </c>
+      <c r="G1979" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1979" t="inlineStr">
+        <is>
+          <t>00:49:59.343614</t>
+        </is>
+      </c>
+      <c r="I1979" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="inlineStr">
+        <is>
+          <t>aEiznLJCb9o</t>
+        </is>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' 0926 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1980" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1980" t="n">
+        <v>21698294</v>
+      </c>
+      <c r="E1980" t="n">
+        <v>1461305</v>
+      </c>
+      <c r="F1980" t="n">
+        <v>41795</v>
+      </c>
+      <c r="G1980" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1980" t="inlineStr">
+        <is>
+          <t>00:49:59.343619</t>
+        </is>
+      </c>
+      <c r="I1980" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="inlineStr">
+        <is>
+          <t>dNCWe_6HAM8</t>
+        </is>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' EXCLUSIVE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C1981" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1981" t="n">
+        <v>909262988</v>
+      </c>
+      <c r="E1981" t="n">
+        <v>14018616</v>
+      </c>
+      <c r="F1981" t="n">
+        <v>948750</v>
+      </c>
+      <c r="G1981" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1981" t="inlineStr">
+        <is>
+          <t>00:49:59.343624</t>
+        </is>
+      </c>
+      <c r="I1981" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="inlineStr">
+        <is>
+          <t>08x_TcTyw8o</t>
+        </is>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C1982" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1982" t="n">
+        <v>93605807</v>
+      </c>
+      <c r="E1982" t="n">
+        <v>3541489</v>
+      </c>
+      <c r="F1982" t="n">
+        <v>94907</v>
+      </c>
+      <c r="G1982" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1982" t="inlineStr">
+        <is>
+          <t>00:49:59.343628</t>
+        </is>
+      </c>
+      <c r="I1982" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="inlineStr">
+        <is>
+          <t>kZZYkrDWUls</t>
+        </is>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0404 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1983" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1983" t="n">
+        <v>6096943</v>
+      </c>
+      <c r="E1983" t="n">
+        <v>553199</v>
+      </c>
+      <c r="F1983" t="n">
+        <v>24562</v>
+      </c>
+      <c r="G1983" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1983" t="inlineStr">
+        <is>
+          <t>00:49:59.343633</t>
+        </is>
+      </c>
+      <c r="I1983" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="inlineStr">
+        <is>
+          <t>VFBj5sWfbH4</t>
+        </is>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0328 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1984" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1984" t="n">
+        <v>6144910</v>
+      </c>
+      <c r="E1984" t="n">
+        <v>581906</v>
+      </c>
+      <c r="F1984" t="n">
+        <v>24762</v>
+      </c>
+      <c r="G1984" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1984" t="inlineStr">
+        <is>
+          <t>00:49:59.343637</t>
+        </is>
+      </c>
+      <c r="I1984" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="inlineStr">
+        <is>
+          <t>AkISOALL8Cw</t>
+        </is>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0321 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1985" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1985" t="n">
+        <v>10844932</v>
+      </c>
+      <c r="E1985" t="n">
+        <v>826805</v>
+      </c>
+      <c r="F1985" t="n">
+        <v>29958</v>
+      </c>
+      <c r="G1985" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1985" t="inlineStr">
+        <is>
+          <t>00:49:59.343641</t>
+        </is>
+      </c>
+      <c r="I1985" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="inlineStr">
+        <is>
+          <t>Q88P1gpOJxA</t>
+        </is>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1986" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1986" t="n">
+        <v>27033059</v>
+      </c>
+      <c r="E1986" t="n">
+        <v>2005798</v>
+      </c>
+      <c r="F1986" t="n">
+        <v>75623</v>
+      </c>
+      <c r="G1986" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1986" t="inlineStr">
+        <is>
+          <t>00:49:59.343646</t>
+        </is>
+      </c>
+      <c r="I1986" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="inlineStr">
+        <is>
+          <t>fjp4thii1WY</t>
+        </is>
+      </c>
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1987" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1987" t="n">
+        <v>14346461</v>
+      </c>
+      <c r="E1987" t="n">
+        <v>1440853</v>
+      </c>
+      <c r="F1987" t="n">
+        <v>45871</v>
+      </c>
+      <c r="G1987" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1987" t="inlineStr">
+        <is>
+          <t>00:49:59.343650</t>
+        </is>
+      </c>
+      <c r="I1987" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" t="inlineStr">
+        <is>
+          <t>MBStYsiE618</t>
+        </is>
+      </c>
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1025 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1988" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1988" t="n">
+        <v>31357942</v>
+      </c>
+      <c r="E1988" t="n">
+        <v>1431901</v>
+      </c>
+      <c r="F1988" t="n">
+        <v>52458</v>
+      </c>
+      <c r="G1988" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1988" t="inlineStr">
+        <is>
+          <t>00:49:59.343655</t>
+        </is>
+      </c>
+      <c r="I1988" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="inlineStr">
+        <is>
+          <t>3l5jwqPT2yk</t>
+        </is>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' Jimmy Kimmel Live</t>
+        </is>
+      </c>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1989" t="n">
+        <v>56061932</v>
+      </c>
+      <c r="E1989" t="n">
+        <v>2213657</v>
+      </c>
+      <c r="F1989" t="n">
+        <v>58840</v>
+      </c>
+      <c r="G1989" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1989" t="inlineStr">
+        <is>
+          <t>00:49:59.343659</t>
+        </is>
+      </c>
+      <c r="I1989" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="inlineStr">
+        <is>
+          <t>UcvYlihruvo</t>
+        </is>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1018 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1990" t="n">
+        <v>8771165</v>
+      </c>
+      <c r="E1990" t="n">
+        <v>759168</v>
+      </c>
+      <c r="F1990" t="n">
+        <v>27511</v>
+      </c>
+      <c r="G1990" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1990" t="inlineStr">
+        <is>
+          <t>00:49:59.343664</t>
+        </is>
+      </c>
+      <c r="I1990" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="inlineStr">
+        <is>
+          <t>Fwg9-MXdBYA</t>
+        </is>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1011 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1991" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1991" t="n">
+        <v>15886040</v>
+      </c>
+      <c r="E1991" t="n">
+        <v>1286467</v>
+      </c>
+      <c r="F1991" t="n">
+        <v>35191</v>
+      </c>
+      <c r="G1991" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1991" t="inlineStr">
+        <is>
+          <t>00:49:59.343668</t>
+        </is>
+      </c>
+      <c r="I1991" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="inlineStr">
+        <is>
+          <t>gU2HqP4NxUs</t>
+        </is>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ 1011 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1992" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1992" t="n">
+        <v>326384116</v>
+      </c>
+      <c r="E1992" t="n">
+        <v>5163661</v>
+      </c>
+      <c r="F1992" t="n">
+        <v>142945</v>
+      </c>
+      <c r="G1992" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1992" t="inlineStr">
+        <is>
+          <t>00:49:59.343672</t>
+        </is>
+      </c>
+      <c r="I1992" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="inlineStr">
+        <is>
+          <t>7PpUuLYWcs8</t>
+        </is>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0719 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1993" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1993" t="n">
+        <v>12826369</v>
+      </c>
+      <c r="E1993" t="n">
+        <v>811970</v>
+      </c>
+      <c r="F1993" t="n">
+        <v>28748</v>
+      </c>
+      <c r="G1993" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1993" t="inlineStr">
+        <is>
+          <t>00:49:59.343677</t>
+        </is>
+      </c>
+      <c r="I1993" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="inlineStr">
+        <is>
+          <t>04lxLDmFaOE</t>
+        </is>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0712 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C1994" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1994" t="n">
+        <v>10331499</v>
+      </c>
+      <c r="E1994" t="n">
+        <v>832032</v>
+      </c>
+      <c r="F1994" t="n">
+        <v>37850</v>
+      </c>
+      <c r="G1994" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1994" t="inlineStr">
+        <is>
+          <t>00:49:59.343681</t>
+        </is>
+      </c>
+      <c r="I1994" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="inlineStr">
+        <is>
+          <t>JLOwA3o6Zr0</t>
+        </is>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0705 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1995" t="n">
+        <v>13440395</v>
+      </c>
+      <c r="E1995" t="n">
+        <v>971579</v>
+      </c>
+      <c r="F1995" t="n">
+        <v>36148</v>
+      </c>
+      <c r="G1995" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1995" t="inlineStr">
+        <is>
+          <t>00:49:59.343686</t>
+        </is>
+      </c>
+      <c r="I1995" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="inlineStr">
+        <is>
+          <t>t0RcZWn085g</t>
+        </is>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0628 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1996" t="n">
+        <v>52060272</v>
+      </c>
+      <c r="E1996" t="n">
+        <v>2286427</v>
+      </c>
+      <c r="F1996" t="n">
+        <v>59214</v>
+      </c>
+      <c r="G1996" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1996" t="inlineStr">
+        <is>
+          <t>00:49:59.343690</t>
+        </is>
+      </c>
+      <c r="I1996" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="inlineStr">
+        <is>
+          <t>tOCUE8wRQYY</t>
+        </is>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>BLACKPINK ‐ Kill This Love -JP Ver.- Live at BLACKPINK 2019-2020 WORLD TOUR IN YOUR AREA-TOKYO DOME-</t>
+        </is>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1997" t="n">
+        <v>37075955</v>
+      </c>
+      <c r="E1997" t="n">
+        <v>1228936</v>
+      </c>
+      <c r="F1997" t="n">
+        <v>44957</v>
+      </c>
+      <c r="G1997" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1997" t="inlineStr">
+        <is>
+          <t>00:49:59.630584</t>
+        </is>
+      </c>
+      <c r="I1997" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="inlineStr">
+        <is>
+          <t>-6XwN_wu3KU</t>
+        </is>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1998" t="n">
+        <v>24886290</v>
+      </c>
+      <c r="E1998" t="n">
+        <v>1077411</v>
+      </c>
+      <c r="F1998" t="n">
+        <v>26100</v>
+      </c>
+      <c r="G1998" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1998" t="inlineStr">
+        <is>
+          <t>00:49:59.630609</t>
+        </is>
+      </c>
+      <c r="I1998" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="inlineStr">
+        <is>
+          <t>_HhAzr5DLik</t>
+        </is>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D1999" t="n">
+        <v>14551131</v>
+      </c>
+      <c r="E1999" t="n">
+        <v>700591</v>
+      </c>
+      <c r="F1999" t="n">
+        <v>22468</v>
+      </c>
+      <c r="G1999" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H1999" t="inlineStr">
+        <is>
+          <t>00:49:59.630614</t>
+        </is>
+      </c>
+      <c r="I1999" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="inlineStr">
+        <is>
+          <t>a5gUds01aXY</t>
+        </is>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' 2019 Coachella Live Performance</t>
+        </is>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2000" t="n">
+        <v>50672446</v>
+      </c>
+      <c r="E2000" t="n">
+        <v>1887057</v>
+      </c>
+      <c r="F2000" t="n">
+        <v>89548</v>
+      </c>
+      <c r="G2000" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2000" t="inlineStr">
+        <is>
+          <t>00:49:59.630618</t>
+        </is>
+      </c>
+      <c r="I2000" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="inlineStr">
+        <is>
+          <t>vx9CSpnROfs</t>
+        </is>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0414 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2001" t="n">
+        <v>121364720</v>
+      </c>
+      <c r="E2001" t="n">
+        <v>2331380</v>
+      </c>
+      <c r="F2001" t="n">
+        <v>54733</v>
+      </c>
+      <c r="G2001" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2001" t="inlineStr">
+        <is>
+          <t>00:49:59.630622</t>
+        </is>
+      </c>
+      <c r="I2001" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="inlineStr">
+        <is>
+          <t>RgI8UNOqczE</t>
+        </is>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2002" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2002" t="n">
+        <v>11385778</v>
+      </c>
+      <c r="E2002" t="n">
+        <v>502565</v>
+      </c>
+      <c r="F2002" t="n">
+        <v>16975</v>
+      </c>
+      <c r="G2002" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2002" t="inlineStr">
+        <is>
+          <t>00:49:59.630626</t>
+        </is>
+      </c>
+      <c r="I2002" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="inlineStr">
+        <is>
+          <t>sL175y19MUU</t>
+        </is>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2003" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2003" t="n">
+        <v>12350078</v>
+      </c>
+      <c r="E2003" t="n">
+        <v>463653</v>
+      </c>
+      <c r="F2003" t="n">
+        <v>11741</v>
+      </c>
+      <c r="G2003" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2003" t="inlineStr">
+        <is>
+          <t>00:49:59.630630</t>
+        </is>
+      </c>
+      <c r="I2003" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="inlineStr">
+        <is>
+          <t>GXBDwS2Tizo</t>
+        </is>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2004" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2004" t="n">
+        <v>22257607</v>
+      </c>
+      <c r="E2004" t="n">
+        <v>1033666</v>
+      </c>
+      <c r="F2004" t="n">
+        <v>26523</v>
+      </c>
+      <c r="G2004" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2004" t="inlineStr">
+        <is>
+          <t>00:49:59.630634</t>
+        </is>
+      </c>
+      <c r="I2004" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="inlineStr">
+        <is>
+          <t>rt6G9Vwt1xc</t>
+        </is>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2005" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2005" t="n">
+        <v>17950447</v>
+      </c>
+      <c r="E2005" t="n">
+        <v>794085</v>
+      </c>
+      <c r="F2005" t="n">
+        <v>24512</v>
+      </c>
+      <c r="G2005" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2005" t="inlineStr">
+        <is>
+          <t>00:49:59.630638</t>
+        </is>
+      </c>
+      <c r="I2005" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="inlineStr">
+        <is>
+          <t>MkG24J87IUk</t>
+        </is>
+      </c>
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2006" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2006" t="n">
+        <v>49516339</v>
+      </c>
+      <c r="E2006" t="n">
+        <v>1709887</v>
+      </c>
+      <c r="F2006" t="n">
+        <v>46452</v>
+      </c>
+      <c r="G2006" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2006" t="inlineStr">
+        <is>
+          <t>00:49:59.630642</t>
+        </is>
+      </c>
+      <c r="I2006" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="inlineStr">
+        <is>
+          <t>o4GHoqGtRkg</t>
+        </is>
+      </c>
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Don't Know What To Do’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2007" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2007" t="n">
+        <v>67719655</v>
+      </c>
+      <c r="E2007" t="n">
+        <v>1722906</v>
+      </c>
+      <c r="F2007" t="n">
+        <v>48439</v>
+      </c>
+      <c r="G2007" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2007" t="inlineStr">
+        <is>
+          <t>00:49:59.630646</t>
+        </is>
+      </c>
+      <c r="I2007" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="inlineStr">
+        <is>
+          <t>cxNIewNXpcg</t>
+        </is>
+      </c>
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SOLO' + '뚜두뚜두(DDU-DU DDU-DU)' + 'FOREVER YOUNG' in 2018 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C2008" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2008" t="n">
+        <v>383828476</v>
+      </c>
+      <c r="E2008" t="n">
+        <v>6192512</v>
+      </c>
+      <c r="F2008" t="n">
+        <v>209160</v>
+      </c>
+      <c r="G2008" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2008" t="inlineStr">
+        <is>
+          <t>00:49:59.630650</t>
+        </is>
+      </c>
+      <c r="I2008" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="inlineStr">
+        <is>
+          <t>7nukOecMf-U</t>
+        </is>
+      </c>
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1216 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2009" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2009" t="n">
+        <v>4907199</v>
+      </c>
+      <c r="E2009" t="n">
+        <v>224837</v>
+      </c>
+      <c r="F2009" t="n">
+        <v>7751</v>
+      </c>
+      <c r="G2009" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2009" t="inlineStr">
+        <is>
+          <t>00:49:59.630654</t>
+        </is>
+      </c>
+      <c r="I2009" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="inlineStr">
+        <is>
+          <t>CPSH3ljpkZ4</t>
+        </is>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1209 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2010" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2010" t="n">
+        <v>13095247</v>
+      </c>
+      <c r="E2010" t="n">
+        <v>413153</v>
+      </c>
+      <c r="F2010" t="n">
+        <v>13156</v>
+      </c>
+      <c r="G2010" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2010" t="inlineStr">
+        <is>
+          <t>00:49:59.630658</t>
+        </is>
+      </c>
+      <c r="I2010" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="inlineStr">
+        <is>
+          <t>hxDXhh2sE1g</t>
+        </is>
+      </c>
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1202 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2011" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2011" t="n">
+        <v>5930304</v>
+      </c>
+      <c r="E2011" t="n">
+        <v>253734</v>
+      </c>
+      <c r="F2011" t="n">
+        <v>9489</v>
+      </c>
+      <c r="G2011" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2011" t="inlineStr">
+        <is>
+          <t>00:49:59.630661</t>
+        </is>
+      </c>
+      <c r="I2011" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="inlineStr">
+        <is>
+          <t>smimdoBjeAE</t>
+        </is>
+      </c>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1125 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2012" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2012" t="n">
+        <v>17109826</v>
+      </c>
+      <c r="E2012" t="n">
+        <v>676570</v>
+      </c>
+      <c r="F2012" t="n">
+        <v>25618</v>
+      </c>
+      <c r="G2012" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2012" t="inlineStr">
+        <is>
+          <t>00:49:59.630665</t>
+        </is>
+      </c>
+      <c r="I2012" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="inlineStr">
+        <is>
+          <t>N1C_G3sfzXo</t>
+        </is>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' PERFORMANCE [IN YOUR AREA] SEOUL</t>
+        </is>
+      </c>
+      <c r="C2013" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2013" t="n">
+        <v>29734245</v>
+      </c>
+      <c r="E2013" t="n">
+        <v>1034698</v>
+      </c>
+      <c r="F2013" t="n">
+        <v>26393</v>
+      </c>
+      <c r="G2013" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2013" t="inlineStr">
+        <is>
+          <t>00:49:59.630669</t>
+        </is>
+      </c>
+      <c r="I2013" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="inlineStr">
+        <is>
+          <t>5hwepTxNKtE</t>
+        </is>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0805 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2014" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2014" t="n">
+        <v>72950615</v>
+      </c>
+      <c r="E2014" t="n">
+        <v>1184452</v>
+      </c>
+      <c r="F2014" t="n">
+        <v>44071</v>
+      </c>
+      <c r="G2014" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2014" t="inlineStr">
+        <is>
+          <t>00:49:59.630673</t>
+        </is>
+      </c>
+      <c r="I2014" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="inlineStr">
+        <is>
+          <t>4KRdmXcJWQU</t>
+        </is>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2015" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2015" t="n">
+        <v>8763382</v>
+      </c>
+      <c r="E2015" t="n">
+        <v>415992</v>
+      </c>
+      <c r="F2015" t="n">
+        <v>11731</v>
+      </c>
+      <c r="G2015" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2015" t="inlineStr">
+        <is>
+          <t>00:49:59.630677</t>
+        </is>
+      </c>
+      <c r="I2015" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="inlineStr">
+        <is>
+          <t>HhyRAPKiXi4</t>
+        </is>
+      </c>
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2016" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2016" t="n">
+        <v>3986204</v>
+      </c>
+      <c r="E2016" t="n">
+        <v>203277</v>
+      </c>
+      <c r="F2016" t="n">
+        <v>7220</v>
+      </c>
+      <c r="G2016" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2016" t="inlineStr">
+        <is>
+          <t>00:49:59.630681</t>
+        </is>
+      </c>
+      <c r="I2016" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="inlineStr">
+        <is>
+          <t>PMsBMoc9eFg</t>
+        </is>
+      </c>
+      <c r="B2017" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0722 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2017" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2017" t="n">
+        <v>12214476</v>
+      </c>
+      <c r="E2017" t="n">
+        <v>439696</v>
+      </c>
+      <c r="F2017" t="n">
+        <v>19912</v>
+      </c>
+      <c r="G2017" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2017" t="inlineStr">
+        <is>
+          <t>00:49:59.869733</t>
+        </is>
+      </c>
+      <c r="I2017" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="inlineStr">
+        <is>
+          <t>xqWjJP_WT-0</t>
+        </is>
+      </c>
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2018" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2018" t="n">
+        <v>13217497</v>
+      </c>
+      <c r="E2018" t="n">
+        <v>687754</v>
+      </c>
+      <c r="F2018" t="n">
+        <v>24670</v>
+      </c>
+      <c r="G2018" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2018" t="inlineStr">
+        <is>
+          <t>00:49:59.869759</t>
+        </is>
+      </c>
+      <c r="I2018" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="inlineStr">
+        <is>
+          <t>WaIGc9QmV2w</t>
+        </is>
+      </c>
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2019" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2019" t="n">
+        <v>3359015</v>
+      </c>
+      <c r="E2019" t="n">
+        <v>185651</v>
+      </c>
+      <c r="F2019" t="n">
+        <v>7356</v>
+      </c>
+      <c r="G2019" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2019" t="inlineStr">
+        <is>
+          <t>00:49:59.869764</t>
+        </is>
+      </c>
+      <c r="I2019" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="inlineStr">
+        <is>
+          <t>67otJZ6qe9Y</t>
+        </is>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0715 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2020" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2020" t="n">
+        <v>44156178</v>
+      </c>
+      <c r="E2020" t="n">
+        <v>982197</v>
+      </c>
+      <c r="F2020" t="n">
+        <v>33580</v>
+      </c>
+      <c r="G2020" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2020" t="inlineStr">
+        <is>
+          <t>00:49:59.869769</t>
+        </is>
+      </c>
+      <c r="I2020" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="inlineStr">
+        <is>
+          <t>PZ5t29qgGAM</t>
+        </is>
+      </c>
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2021" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2021" t="n">
+        <v>11333571</v>
+      </c>
+      <c r="E2021" t="n">
+        <v>511362</v>
+      </c>
+      <c r="F2021" t="n">
+        <v>18490</v>
+      </c>
+      <c r="G2021" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2021" t="inlineStr">
+        <is>
+          <t>00:49:59.869774</t>
+        </is>
+      </c>
+      <c r="I2021" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="inlineStr">
+        <is>
+          <t>dEnDjgoLLY4</t>
+        </is>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2022" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2022" t="n">
+        <v>6474788</v>
+      </c>
+      <c r="E2022" t="n">
+        <v>327038</v>
+      </c>
+      <c r="F2022" t="n">
+        <v>12288</v>
+      </c>
+      <c r="G2022" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2022" t="inlineStr">
+        <is>
+          <t>00:49:59.869778</t>
+        </is>
+      </c>
+      <c r="I2022" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="inlineStr">
+        <is>
+          <t>0uje7GB8Azk</t>
+        </is>
+      </c>
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2023" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2023" t="n">
+        <v>10037235</v>
+      </c>
+      <c r="E2023" t="n">
+        <v>351866</v>
+      </c>
+      <c r="F2023" t="n">
+        <v>13476</v>
+      </c>
+      <c r="G2023" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2023" t="inlineStr">
+        <is>
+          <t>00:49:59.869783</t>
+        </is>
+      </c>
+      <c r="I2023" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="inlineStr">
+        <is>
+          <t>F6IR7luozPw</t>
+        </is>
+      </c>
+      <c r="B2024" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0708 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2024" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2024" t="n">
+        <v>3909133</v>
+      </c>
+      <c r="E2024" t="n">
+        <v>226798</v>
+      </c>
+      <c r="F2024" t="n">
+        <v>12153</v>
+      </c>
+      <c r="G2024" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2024" t="inlineStr">
+        <is>
+          <t>00:49:59.869787</t>
+        </is>
+      </c>
+      <c r="I2024" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="inlineStr">
+        <is>
+          <t>rw2-h5JNLqM</t>
+        </is>
+      </c>
+      <c r="B2025" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2025" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2025" t="n">
+        <v>15139346</v>
+      </c>
+      <c r="E2025" t="n">
+        <v>692838</v>
+      </c>
+      <c r="F2025" t="n">
+        <v>22351</v>
+      </c>
+      <c r="G2025" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2025" t="inlineStr">
+        <is>
+          <t>00:49:59.869791</t>
+        </is>
+      </c>
+      <c r="I2025" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="inlineStr">
+        <is>
+          <t>TIOCHR0OxOQ</t>
+        </is>
+      </c>
+      <c r="B2026" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0701 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2026" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2026" t="n">
+        <v>4463596</v>
+      </c>
+      <c r="E2026" t="n">
+        <v>260868</v>
+      </c>
+      <c r="F2026" t="n">
+        <v>14771</v>
+      </c>
+      <c r="G2026" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2026" t="inlineStr">
+        <is>
+          <t>00:49:59.869796</t>
+        </is>
+      </c>
+      <c r="I2026" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="inlineStr">
+        <is>
+          <t>PUcGXTSCRLA</t>
+        </is>
+      </c>
+      <c r="B2027" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0624 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2027" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2027" t="n">
+        <v>7592629</v>
+      </c>
+      <c r="E2027" t="n">
+        <v>351492</v>
+      </c>
+      <c r="F2027" t="n">
+        <v>13061</v>
+      </c>
+      <c r="G2027" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2027" t="inlineStr">
+        <is>
+          <t>00:49:59.869800</t>
+        </is>
+      </c>
+      <c r="I2027" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="inlineStr">
+        <is>
+          <t>b5dUYf_uPaY</t>
+        </is>
+      </c>
+      <c r="B2028" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2028" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2028" t="n">
+        <v>44088344</v>
+      </c>
+      <c r="E2028" t="n">
+        <v>1106028</v>
+      </c>
+      <c r="F2028" t="n">
+        <v>33816</v>
+      </c>
+      <c r="G2028" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2028" t="inlineStr">
+        <is>
+          <t>00:49:59.869804</t>
+        </is>
+      </c>
+      <c r="I2028" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="inlineStr">
+        <is>
+          <t>n7ukhNJvQ8s</t>
+        </is>
+      </c>
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2029" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2029" t="n">
+        <v>63830189</v>
+      </c>
+      <c r="E2029" t="n">
+        <v>1131841</v>
+      </c>
+      <c r="F2029" t="n">
+        <v>40067</v>
+      </c>
+      <c r="G2029" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2029" t="inlineStr">
+        <is>
+          <t>00:49:59.869809</t>
+        </is>
+      </c>
+      <c r="I2029" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" t="inlineStr">
+        <is>
+          <t>f1xIeTCgoFk</t>
+        </is>
+      </c>
+      <c r="B2030" t="inlineStr">
+        <is>
+          <t>BLACKPINK - INTRO +  ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2018 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C2030" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2030" t="n">
+        <v>35639418</v>
+      </c>
+      <c r="E2030" t="n">
+        <v>772919</v>
+      </c>
+      <c r="F2030" t="n">
+        <v>23945</v>
+      </c>
+      <c r="G2030" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2030" t="inlineStr">
+        <is>
+          <t>00:49:59.869813</t>
+        </is>
+      </c>
+      <c r="I2030" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="inlineStr">
+        <is>
+          <t>skIfzl96Gc0</t>
+        </is>
+      </c>
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SO HOT' (THEBLACKLABEL Remix) in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C2031" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2031" t="n">
+        <v>87694189</v>
+      </c>
+      <c r="E2031" t="n">
+        <v>2155284</v>
+      </c>
+      <c r="F2031" t="n">
+        <v>63137</v>
+      </c>
+      <c r="G2031" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2031" t="inlineStr">
+        <is>
+          <t>00:49:59.869818</t>
+        </is>
+      </c>
+      <c r="I2031" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="inlineStr">
+        <is>
+          <t>PoHD4wfwC6Y</t>
+        </is>
+      </c>
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C2032" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2032" t="n">
+        <v>8400768</v>
+      </c>
+      <c r="E2032" t="n">
+        <v>300231</v>
+      </c>
+      <c r="F2032" t="n">
+        <v>7161</v>
+      </c>
+      <c r="G2032" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2032" t="inlineStr">
+        <is>
+          <t>00:49:59.869822</t>
+        </is>
+      </c>
+      <c r="I2032" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="inlineStr">
+        <is>
+          <t>wwuZtpS8FNI</t>
+        </is>
+      </c>
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 1001 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2033" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2033" t="n">
+        <v>35340602</v>
+      </c>
+      <c r="E2033" t="n">
+        <v>580482</v>
+      </c>
+      <c r="F2033" t="n">
+        <v>15700</v>
+      </c>
+      <c r="G2033" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2033" t="inlineStr">
+        <is>
+          <t>00:49:59.869842</t>
+        </is>
+      </c>
+      <c r="I2033" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="inlineStr">
+        <is>
+          <t>GE7x2fVVsXM</t>
+        </is>
+      </c>
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>BLACKPINK - OPENING MEDLDY 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C2034" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2034" t="n">
+        <v>16260206</v>
+      </c>
+      <c r="E2034" t="n">
+        <v>446106</v>
+      </c>
+      <c r="F2034" t="n">
+        <v>10610</v>
+      </c>
+      <c r="G2034" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2034" t="inlineStr">
+        <is>
+          <t>00:49:59.869846</t>
+        </is>
+      </c>
+      <c r="I2034" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="inlineStr">
+        <is>
+          <t>_7TMluHVx4Y</t>
+        </is>
+      </c>
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SURE THING (Miguel)' COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C2035" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2035" t="n">
+        <v>109685073</v>
+      </c>
+      <c r="E2035" t="n">
+        <v>1773166</v>
+      </c>
+      <c r="F2035" t="n">
+        <v>69477</v>
+      </c>
+      <c r="G2035" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2035" t="inlineStr">
+        <is>
+          <t>00:49:59.869850</t>
+        </is>
+      </c>
+      <c r="I2035" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="inlineStr">
+        <is>
+          <t>X3P6dnL2OyY</t>
+        </is>
+      </c>
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'PARTITION (Beyonce)' DANCE COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C2036" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2036" t="n">
+        <v>48831595</v>
+      </c>
+      <c r="E2036" t="n">
+        <v>1228352</v>
+      </c>
+      <c r="F2036" t="n">
+        <v>30772</v>
+      </c>
+      <c r="G2036" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2036" t="inlineStr">
+        <is>
+          <t>00:49:59.869854</t>
+        </is>
+      </c>
+      <c r="I2036" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="inlineStr">
+        <is>
+          <t>RczrR4FVKzg</t>
+        </is>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST) Remix ver.' 0723 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2037" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2037" t="n">
+        <v>20901876</v>
+      </c>
+      <c r="E2037" t="n">
+        <v>625143</v>
+      </c>
+      <c r="F2037" t="n">
+        <v>19585</v>
+      </c>
+      <c r="G2037" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2037" t="inlineStr">
+        <is>
+          <t>00:50:00.245484</t>
+        </is>
+      </c>
+      <c r="I2037" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="inlineStr">
+        <is>
+          <t>vW1PeCzs7Sg</t>
+        </is>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0716 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2038" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2038" t="n">
+        <v>4604261</v>
+      </c>
+      <c r="E2038" t="n">
+        <v>204556</v>
+      </c>
+      <c r="F2038" t="n">
+        <v>6755</v>
+      </c>
+      <c r="G2038" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2038" t="inlineStr">
+        <is>
+          <t>00:50:00.245509</t>
+        </is>
+      </c>
+      <c r="I2038" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="inlineStr">
+        <is>
+          <t>ZL8LqlKtpVE</t>
+        </is>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0709 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2039" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2039" t="n">
+        <v>4522954</v>
+      </c>
+      <c r="E2039" t="n">
+        <v>211973</v>
+      </c>
+      <c r="F2039" t="n">
+        <v>6455</v>
+      </c>
+      <c r="G2039" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2039" t="inlineStr">
+        <is>
+          <t>00:50:00.245515</t>
+        </is>
+      </c>
+      <c r="I2039" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="inlineStr">
+        <is>
+          <t>fWOAe_xXTQs</t>
+        </is>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0702 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2040" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2040" t="n">
+        <v>7132952</v>
+      </c>
+      <c r="E2040" t="n">
+        <v>308320</v>
+      </c>
+      <c r="F2040" t="n">
+        <v>11345</v>
+      </c>
+      <c r="G2040" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2040" t="inlineStr">
+        <is>
+          <t>00:50:00.245520</t>
+        </is>
+      </c>
+      <c r="I2040" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="inlineStr">
+        <is>
+          <t>TWRSR7y1288</t>
+        </is>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0625 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2041" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2041" t="n">
+        <v>31731812</v>
+      </c>
+      <c r="E2041" t="n">
+        <v>751038</v>
+      </c>
+      <c r="F2041" t="n">
+        <v>23569</v>
+      </c>
+      <c r="G2041" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2041" t="inlineStr">
+        <is>
+          <t>00:50:00.245524</t>
+        </is>
+      </c>
+      <c r="I2041" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="inlineStr">
+        <is>
+          <t>VQLn90MACUQ</t>
+        </is>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난 (PLAYING WITH FIRE)’ + ‘붐바야 (BOOMBAYAH)’  in 2017 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C2042" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2042" t="n">
+        <v>51529486</v>
+      </c>
+      <c r="E2042" t="n">
+        <v>1047318</v>
+      </c>
+      <c r="F2042" t="n">
+        <v>22136</v>
+      </c>
+      <c r="G2042" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2042" t="inlineStr">
+        <is>
+          <t>00:50:00.245529</t>
+        </is>
+      </c>
+      <c r="I2042" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="inlineStr">
+        <is>
+          <t>_paRxWTIyAo</t>
+        </is>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C2043" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2043" t="n">
+        <v>121780188</v>
+      </c>
+      <c r="E2043" t="n">
+        <v>1968999</v>
+      </c>
+      <c r="F2043" t="n">
+        <v>39484</v>
+      </c>
+      <c r="G2043" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2043" t="inlineStr">
+        <is>
+          <t>00:50:00.245533</t>
+        </is>
+      </c>
+      <c r="I2043" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="inlineStr">
+        <is>
+          <t>FOv-Rsp1LS0</t>
+        </is>
+      </c>
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - Interview(마지막 무대 인사) + '불장난(PLAYING WITH FIRE)' 1211 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2044" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2044" t="n">
+        <v>2833529</v>
+      </c>
+      <c r="E2044" t="n">
+        <v>127426</v>
+      </c>
+      <c r="F2044" t="n">
+        <v>5448</v>
+      </c>
+      <c r="G2044" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2044" t="inlineStr">
+        <is>
+          <t>00:50:00.245538</t>
+        </is>
+      </c>
+      <c r="I2044" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="inlineStr">
+        <is>
+          <t>hTDRE5d5A2M</t>
+        </is>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1204 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2045" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2045" t="n">
+        <v>4061038</v>
+      </c>
+      <c r="E2045" t="n">
+        <v>199380</v>
+      </c>
+      <c r="F2045" t="n">
+        <v>6801</v>
+      </c>
+      <c r="G2045" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2045" t="inlineStr">
+        <is>
+          <t>00:50:00.245542</t>
+        </is>
+      </c>
+      <c r="I2045" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="inlineStr">
+        <is>
+          <t>HoAdqZW4ptY</t>
+        </is>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1127 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2046" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2046" t="n">
+        <v>6880719</v>
+      </c>
+      <c r="E2046" t="n">
+        <v>269599</v>
+      </c>
+      <c r="F2046" t="n">
+        <v>7414</v>
+      </c>
+      <c r="G2046" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2046" t="inlineStr">
+        <is>
+          <t>00:50:00.245549</t>
+        </is>
+      </c>
+      <c r="I2046" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="inlineStr">
+        <is>
+          <t>TklpzjGlqFE</t>
+        </is>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1120 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2047" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2047" t="n">
+        <v>13622174</v>
+      </c>
+      <c r="E2047" t="n">
+        <v>366452</v>
+      </c>
+      <c r="F2047" t="n">
+        <v>8693</v>
+      </c>
+      <c r="G2047" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2047" t="inlineStr">
+        <is>
+          <t>00:50:00.245553</t>
+        </is>
+      </c>
+      <c r="I2047" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="inlineStr">
+        <is>
+          <t>ZwVTC_686Sw</t>
+        </is>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 MELON MUSIC AWARDS</t>
+        </is>
+      </c>
+      <c r="C2048" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2048" t="n">
+        <v>77785540</v>
+      </c>
+      <c r="E2048" t="n">
+        <v>1373204</v>
+      </c>
+      <c r="F2048" t="n">
+        <v>35272</v>
+      </c>
+      <c r="G2048" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2048" t="inlineStr">
+        <is>
+          <t>00:50:00.245558</t>
+        </is>
+      </c>
+      <c r="I2048" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="inlineStr">
+        <is>
+          <t>_NVwS4mcVYg</t>
+        </is>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2049" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2049" t="n">
+        <v>22444329</v>
+      </c>
+      <c r="E2049" t="n">
+        <v>626895</v>
+      </c>
+      <c r="F2049" t="n">
+        <v>19905</v>
+      </c>
+      <c r="G2049" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2049" t="inlineStr">
+        <is>
+          <t>00:50:00.245562</t>
+        </is>
+      </c>
+      <c r="I2049" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="inlineStr">
+        <is>
+          <t>5LWCPzwiN28</t>
+        </is>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2050" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2050" t="n">
+        <v>67327377</v>
+      </c>
+      <c r="E2050" t="n">
+        <v>963987</v>
+      </c>
+      <c r="F2050" t="n">
+        <v>32156</v>
+      </c>
+      <c r="G2050" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2050" t="inlineStr">
+        <is>
+          <t>00:50:00.245566</t>
+        </is>
+      </c>
+      <c r="I2050" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="inlineStr">
+        <is>
+          <t>o4rSRaqvHyc</t>
+        </is>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0911 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2051" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2051" t="n">
+        <v>6194981</v>
+      </c>
+      <c r="E2051" t="n">
+        <v>253963</v>
+      </c>
+      <c r="F2051" t="n">
+        <v>6889</v>
+      </c>
+      <c r="G2051" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2051" t="inlineStr">
+        <is>
+          <t>00:50:00.245571</t>
+        </is>
+      </c>
+      <c r="I2051" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="inlineStr">
+        <is>
+          <t>6F0UWgSSQqU</t>
+        </is>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0904 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2052" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2052" t="n">
+        <v>9648661</v>
+      </c>
+      <c r="E2052" t="n">
+        <v>255343</v>
+      </c>
+      <c r="F2052" t="n">
+        <v>9288</v>
+      </c>
+      <c r="G2052" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2052" t="inlineStr">
+        <is>
+          <t>00:50:00.245575</t>
+        </is>
+      </c>
+      <c r="I2052" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="inlineStr">
+        <is>
+          <t>13XTnp3Lp84</t>
+        </is>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2053" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2053" t="n">
+        <v>31599297</v>
+      </c>
+      <c r="E2053" t="n">
+        <v>649724</v>
+      </c>
+      <c r="F2053" t="n">
+        <v>20488</v>
+      </c>
+      <c r="G2053" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2053" t="inlineStr">
+        <is>
+          <t>00:50:00.245579</t>
+        </is>
+      </c>
+      <c r="I2053" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="inlineStr">
+        <is>
+          <t>EKHdMwRaU60</t>
+        </is>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2054" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2054" t="n">
+        <v>60729561</v>
+      </c>
+      <c r="E2054" t="n">
+        <v>829063</v>
+      </c>
+      <c r="F2054" t="n">
+        <v>23108</v>
+      </c>
+      <c r="G2054" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2054" t="inlineStr">
+        <is>
+          <t>00:50:00.245584</t>
+        </is>
+      </c>
+      <c r="I2054" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="inlineStr">
+        <is>
+          <t>metZ_f8aqC0</t>
+        </is>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0821 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2055" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2055" t="n">
+        <v>41597431</v>
+      </c>
+      <c r="E2055" t="n">
+        <v>892044</v>
+      </c>
+      <c r="F2055" t="n">
+        <v>26134</v>
+      </c>
+      <c r="G2055" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2055" t="inlineStr">
+        <is>
+          <t>00:50:00.245588</t>
+        </is>
+      </c>
+      <c r="I2055" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="inlineStr">
+        <is>
+          <t>RGmL76BBGZk</t>
+        </is>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0821 SBS Inkigayo : '휘파람(WHISTLE)' NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2056" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2056" t="n">
+        <v>17064495</v>
+      </c>
+      <c r="E2056" t="n">
+        <v>541089</v>
+      </c>
+      <c r="F2056" t="n">
+        <v>14614</v>
+      </c>
+      <c r="G2056" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2056" t="inlineStr">
+        <is>
+          <t>00:50:00.245593</t>
+        </is>
+      </c>
+      <c r="I2056" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="inlineStr">
+        <is>
+          <t>vAqAp1tJnkc</t>
+        </is>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람’(WHISTLE) 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2057" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2057" t="n">
+        <v>48098638</v>
+      </c>
+      <c r="E2057" t="n">
+        <v>857953</v>
+      </c>
+      <c r="F2057" t="n">
+        <v>29207</v>
+      </c>
+      <c r="G2057" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2057" t="inlineStr">
+        <is>
+          <t>00:50:00.431795</t>
+        </is>
+      </c>
+      <c r="I2057" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="inlineStr">
+        <is>
+          <t>LpSH8MrYCfg</t>
+        </is>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2058" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2058" t="n">
+        <v>168667038</v>
+      </c>
+      <c r="E2058" t="n">
+        <v>2539873</v>
+      </c>
+      <c r="F2058" t="n">
+        <v>80134</v>
+      </c>
+      <c r="G2058" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="H2058" t="inlineStr">
+        <is>
+          <t>00:50:00.431820</t>
+        </is>
+      </c>
+      <c r="I2058" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_videos_count_data.xlsx
+++ b/CLEANED_videos_count_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2058"/>
+  <dimension ref="A1:I2179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84817,6 +84817,4967 @@
         </is>
       </c>
     </row>
+    <row r="2059">
+      <c r="A2059" t="inlineStr">
+        <is>
+          <t>YudHcBIxlYw</t>
+        </is>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C2059" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2059" t="n">
+        <v>401856621</v>
+      </c>
+      <c r="E2059" t="n">
+        <v>10173279</v>
+      </c>
+      <c r="F2059" t="n">
+        <v>1351819</v>
+      </c>
+      <c r="G2059" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2059" t="inlineStr">
+        <is>
+          <t>00:49:45.821764</t>
+        </is>
+      </c>
+      <c r="I2059" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="inlineStr">
+        <is>
+          <t>POe9SOEKotk</t>
+        </is>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ M\/V</t>
+        </is>
+      </c>
+      <c r="C2060" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2060" t="n">
+        <v>530536312</v>
+      </c>
+      <c r="E2060" t="n">
+        <v>10864318</v>
+      </c>
+      <c r="F2060" t="n">
+        <v>2223706</v>
+      </c>
+      <c r="G2060" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2060" t="inlineStr">
+        <is>
+          <t>00:49:45.821789</t>
+        </is>
+      </c>
+      <c r="I2060" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="inlineStr">
+        <is>
+          <t>gQlMMD8auMs</t>
+        </is>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ M\/V</t>
+        </is>
+      </c>
+      <c r="C2061" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2061" t="n">
+        <v>742056931</v>
+      </c>
+      <c r="E2061" t="n">
+        <v>16111023</v>
+      </c>
+      <c r="F2061" t="n">
+        <v>3563114</v>
+      </c>
+      <c r="G2061" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2061" t="inlineStr">
+        <is>
+          <t>00:49:45.821794</t>
+        </is>
+      </c>
+      <c r="I2061" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="inlineStr">
+        <is>
+          <t>awkkyBH2zEo</t>
+        </is>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' M\/V</t>
+        </is>
+      </c>
+      <c r="C2062" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2062" t="n">
+        <v>657729393</v>
+      </c>
+      <c r="E2062" t="n">
+        <v>17332623</v>
+      </c>
+      <c r="F2062" t="n">
+        <v>2814116</v>
+      </c>
+      <c r="G2062" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2062" t="inlineStr">
+        <is>
+          <t>00:49:45.821798</t>
+        </is>
+      </c>
+      <c r="I2062" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="inlineStr">
+        <is>
+          <t>K9_VFxzCuQ0</t>
+        </is>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' M\/V</t>
+        </is>
+      </c>
+      <c r="C2063" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2063" t="n">
+        <v>269597618</v>
+      </c>
+      <c r="E2063" t="n">
+        <v>7392016</v>
+      </c>
+      <c r="F2063" t="n">
+        <v>1242449</v>
+      </c>
+      <c r="G2063" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2063" t="inlineStr">
+        <is>
+          <t>00:49:45.821802</t>
+        </is>
+      </c>
+      <c r="I2063" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="inlineStr">
+        <is>
+          <t>CKZvWhCqx1s</t>
+        </is>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' M\/V</t>
+        </is>
+      </c>
+      <c r="C2064" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2064" t="n">
+        <v>343845990</v>
+      </c>
+      <c r="E2064" t="n">
+        <v>11357593</v>
+      </c>
+      <c r="F2064" t="n">
+        <v>2589321</v>
+      </c>
+      <c r="G2064" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2064" t="inlineStr">
+        <is>
+          <t>00:49:45.821806</t>
+        </is>
+      </c>
+      <c r="I2064" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="inlineStr">
+        <is>
+          <t>dyRsYk0LyA8</t>
+        </is>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' M\/V</t>
+        </is>
+      </c>
+      <c r="C2065" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2065" t="n">
+        <v>711578669</v>
+      </c>
+      <c r="E2065" t="n">
+        <v>15509011</v>
+      </c>
+      <c r="F2065" t="n">
+        <v>2042867</v>
+      </c>
+      <c r="G2065" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2065" t="inlineStr">
+        <is>
+          <t>00:49:45.821810</t>
+        </is>
+      </c>
+      <c r="I2065" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="inlineStr">
+        <is>
+          <t>vRXZj0DzXIA</t>
+        </is>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Ice Cream (with Selena Gomez)' M\/V</t>
+        </is>
+      </c>
+      <c r="C2066" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2066" t="n">
+        <v>873629782</v>
+      </c>
+      <c r="E2066" t="n">
+        <v>19930751</v>
+      </c>
+      <c r="F2066" t="n">
+        <v>3025228</v>
+      </c>
+      <c r="G2066" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2066" t="inlineStr">
+        <is>
+          <t>00:49:45.821813</t>
+        </is>
+      </c>
+      <c r="I2066" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="inlineStr">
+        <is>
+          <t>ioNng23DkIM</t>
+        </is>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' M\/V</t>
+        </is>
+      </c>
+      <c r="C2067" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2067" t="n">
+        <v>1245265985</v>
+      </c>
+      <c r="E2067" t="n">
+        <v>24763227</v>
+      </c>
+      <c r="F2067" t="n">
+        <v>5096745</v>
+      </c>
+      <c r="G2067" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2067" t="inlineStr">
+        <is>
+          <t>00:49:45.821817</t>
+        </is>
+      </c>
+      <c r="I2067" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="inlineStr">
+        <is>
+          <t>2S24-y0Ij3Y</t>
+        </is>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' M\/V</t>
+        </is>
+      </c>
+      <c r="C2068" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2068" t="n">
+        <v>1878064849</v>
+      </c>
+      <c r="E2068" t="n">
+        <v>25038075</v>
+      </c>
+      <c r="F2068" t="n">
+        <v>2479608</v>
+      </c>
+      <c r="G2068" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2068" t="inlineStr">
+        <is>
+          <t>00:49:45.821821</t>
+        </is>
+      </c>
+      <c r="I2068" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="inlineStr">
+        <is>
+          <t>b73BI9eUkjM</t>
+        </is>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' M\/V</t>
+        </is>
+      </c>
+      <c r="C2069" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2069" t="n">
+        <v>965642935</v>
+      </c>
+      <c r="E2069" t="n">
+        <v>14638064</v>
+      </c>
+      <c r="F2069" t="n">
+        <v>3047844</v>
+      </c>
+      <c r="G2069" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2069" t="inlineStr">
+        <is>
+          <t>00:49:45.821825</t>
+        </is>
+      </c>
+      <c r="I2069" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="inlineStr">
+        <is>
+          <t>IHNzOHi8sJs</t>
+        </is>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C2070" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2070" t="n">
+        <v>2127976331</v>
+      </c>
+      <c r="E2070" t="n">
+        <v>23450330</v>
+      </c>
+      <c r="F2070" t="n">
+        <v>3283617</v>
+      </c>
+      <c r="G2070" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2070" t="inlineStr">
+        <is>
+          <t>00:49:45.821828</t>
+        </is>
+      </c>
+      <c r="I2070" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="inlineStr">
+        <is>
+          <t>Amq-qlqbjYA</t>
+        </is>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '마지막처럼 (AS IF IT'S YOUR LAST)' M\/V</t>
+        </is>
+      </c>
+      <c r="C2071" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2071" t="n">
+        <v>1324837448</v>
+      </c>
+      <c r="E2071" t="n">
+        <v>13264506</v>
+      </c>
+      <c r="F2071" t="n">
+        <v>1659042</v>
+      </c>
+      <c r="G2071" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2071" t="inlineStr">
+        <is>
+          <t>00:49:45.821832</t>
+        </is>
+      </c>
+      <c r="I2071" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" t="inlineStr">
+        <is>
+          <t>FzVR_fymZw4</t>
+        </is>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' M\/V</t>
+        </is>
+      </c>
+      <c r="C2072" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2072" t="n">
+        <v>351948251</v>
+      </c>
+      <c r="E2072" t="n">
+        <v>6135340</v>
+      </c>
+      <c r="F2072" t="n">
+        <v>479295</v>
+      </c>
+      <c r="G2072" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2072" t="inlineStr">
+        <is>
+          <t>00:49:45.821836</t>
+        </is>
+      </c>
+      <c r="I2072" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="inlineStr">
+        <is>
+          <t>9pdj4iJD08s</t>
+        </is>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C2073" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2073" t="n">
+        <v>844749274</v>
+      </c>
+      <c r="E2073" t="n">
+        <v>8593484</v>
+      </c>
+      <c r="F2073" t="n">
+        <v>530152</v>
+      </c>
+      <c r="G2073" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2073" t="inlineStr">
+        <is>
+          <t>00:49:45.821840</t>
+        </is>
+      </c>
+      <c r="I2073" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="inlineStr">
+        <is>
+          <t>dISNgvVpWlo</t>
+        </is>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C2074" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2074" t="n">
+        <v>864957645</v>
+      </c>
+      <c r="E2074" t="n">
+        <v>9973035</v>
+      </c>
+      <c r="F2074" t="n">
+        <v>617168</v>
+      </c>
+      <c r="G2074" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2074" t="inlineStr">
+        <is>
+          <t>00:49:45.821843</t>
+        </is>
+      </c>
+      <c r="I2074" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="inlineStr">
+        <is>
+          <t>bwmSjveL3Lc</t>
+        </is>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' M\/V</t>
+        </is>
+      </c>
+      <c r="C2075" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2075" t="n">
+        <v>1638193904</v>
+      </c>
+      <c r="E2075" t="n">
+        <v>16183633</v>
+      </c>
+      <c r="F2075" t="n">
+        <v>1123569</v>
+      </c>
+      <c r="G2075" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2075" t="inlineStr">
+        <is>
+          <t>00:49:45.821847</t>
+        </is>
+      </c>
+      <c r="I2075" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="inlineStr">
+        <is>
+          <t>4XZz3WXRw0A</t>
+        </is>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2076" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2076" t="n">
+        <v>125363966</v>
+      </c>
+      <c r="E2076" t="n">
+        <v>2982770</v>
+      </c>
+      <c r="F2076" t="n">
+        <v>97472</v>
+      </c>
+      <c r="G2076" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2076" t="inlineStr">
+        <is>
+          <t>00:49:45.821851</t>
+        </is>
+      </c>
+      <c r="I2076" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" t="inlineStr">
+        <is>
+          <t>RFMi3v0TXP8</t>
+        </is>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2077" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2077" t="n">
+        <v>207809353</v>
+      </c>
+      <c r="E2077" t="n">
+        <v>4834727</v>
+      </c>
+      <c r="F2077" t="n">
+        <v>132956</v>
+      </c>
+      <c r="G2077" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2077" t="inlineStr">
+        <is>
+          <t>00:49:45.821858</t>
+        </is>
+      </c>
+      <c r="I2077" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="inlineStr">
+        <is>
+          <t>fr-eHz87XoM</t>
+        </is>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2078" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2078" t="n">
+        <v>117147272</v>
+      </c>
+      <c r="E2078" t="n">
+        <v>3698634</v>
+      </c>
+      <c r="F2078" t="n">
+        <v>82415</v>
+      </c>
+      <c r="G2078" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2078" t="inlineStr">
+        <is>
+          <t>00:49:46.059049</t>
+        </is>
+      </c>
+      <c r="I2078" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="inlineStr">
+        <is>
+          <t>ZJ6QQLDIzrI</t>
+        </is>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2079" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2079" t="n">
+        <v>86717443</v>
+      </c>
+      <c r="E2079" t="n">
+        <v>3024513</v>
+      </c>
+      <c r="F2079" t="n">
+        <v>67404</v>
+      </c>
+      <c r="G2079" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2079" t="inlineStr">
+        <is>
+          <t>00:49:46.059073</t>
+        </is>
+      </c>
+      <c r="I2079" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="inlineStr">
+        <is>
+          <t>z6CSW2yu8Mg</t>
+        </is>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' Dance Performance</t>
+        </is>
+      </c>
+      <c r="C2080" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2080" t="n">
+        <v>109312729</v>
+      </c>
+      <c r="E2080" t="n">
+        <v>3342776</v>
+      </c>
+      <c r="F2080" t="n">
+        <v>145907</v>
+      </c>
+      <c r="G2080" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2080" t="inlineStr">
+        <is>
+          <t>00:49:46.059077</t>
+        </is>
+      </c>
+      <c r="I2080" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="inlineStr">
+        <is>
+          <t>YxksUfnuEbI</t>
+        </is>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2081" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2081" t="n">
+        <v>290475553</v>
+      </c>
+      <c r="E2081" t="n">
+        <v>5553327</v>
+      </c>
+      <c r="F2081" t="n">
+        <v>229982</v>
+      </c>
+      <c r="G2081" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2081" t="inlineStr">
+        <is>
+          <t>00:49:46.059081</t>
+        </is>
+      </c>
+      <c r="I2081" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="inlineStr">
+        <is>
+          <t>32si5cfrCNc</t>
+        </is>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2082" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2082" t="n">
+        <v>1505961948</v>
+      </c>
+      <c r="E2082" t="n">
+        <v>17829015</v>
+      </c>
+      <c r="F2082" t="n">
+        <v>927298</v>
+      </c>
+      <c r="G2082" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2082" t="inlineStr">
+        <is>
+          <t>00:49:46.059085</t>
+        </is>
+      </c>
+      <c r="I2082" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="inlineStr">
+        <is>
+          <t>kqXGnxJ-S3k</t>
+        </is>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>JENNIE - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2083" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2083" t="n">
+        <v>11030962</v>
+      </c>
+      <c r="E2083" t="n">
+        <v>953078</v>
+      </c>
+      <c r="F2083" t="n">
+        <v>26983</v>
+      </c>
+      <c r="G2083" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2083" t="inlineStr">
+        <is>
+          <t>00:49:46.059089</t>
+        </is>
+      </c>
+      <c r="I2083" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="inlineStr">
+        <is>
+          <t>bqzDuRz_P7g</t>
+        </is>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Don't Know What To Do' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C2084" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2084" t="n">
+        <v>312563332</v>
+      </c>
+      <c r="E2084" t="n">
+        <v>4285312</v>
+      </c>
+      <c r="F2084" t="n">
+        <v>118666</v>
+      </c>
+      <c r="G2084" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2084" t="inlineStr">
+        <is>
+          <t>00:49:46.059093</t>
+        </is>
+      </c>
+      <c r="I2084" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="inlineStr">
+        <is>
+          <t>MOwaUlXZxkI</t>
+        </is>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C2085" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2085" t="n">
+        <v>491629169</v>
+      </c>
+      <c r="E2085" t="n">
+        <v>6141073</v>
+      </c>
+      <c r="F2085" t="n">
+        <v>169532</v>
+      </c>
+      <c r="G2085" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2085" t="inlineStr">
+        <is>
+          <t>00:49:46.059097</t>
+        </is>
+      </c>
+      <c r="I2085" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="inlineStr">
+        <is>
+          <t>Ws5SOMeA3_E</t>
+        </is>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2086" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2086" t="n">
+        <v>16074468</v>
+      </c>
+      <c r="E2086" t="n">
+        <v>753310</v>
+      </c>
+      <c r="F2086" t="n">
+        <v>18805</v>
+      </c>
+      <c r="G2086" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2086" t="inlineStr">
+        <is>
+          <t>00:49:46.059101</t>
+        </is>
+      </c>
+      <c r="I2086" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" t="inlineStr">
+        <is>
+          <t>k-wmRTFVwPA</t>
+        </is>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY ALTERNATE EDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C2087" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2087" t="n">
+        <v>3973778</v>
+      </c>
+      <c r="E2087" t="n">
+        <v>260162</v>
+      </c>
+      <c r="F2087" t="n">
+        <v>4715</v>
+      </c>
+      <c r="G2087" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2087" t="inlineStr">
+        <is>
+          <t>00:49:46.059104</t>
+        </is>
+      </c>
+      <c r="I2087" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="inlineStr">
+        <is>
+          <t>vdDuCvCrcKg</t>
+        </is>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY UNEDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C2088" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2088" t="n">
+        <v>278098536</v>
+      </c>
+      <c r="E2088" t="n">
+        <v>4401841</v>
+      </c>
+      <c r="F2088" t="n">
+        <v>200578</v>
+      </c>
+      <c r="G2088" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2088" t="inlineStr">
+        <is>
+          <t>00:49:46.059108</t>
+        </is>
+      </c>
+      <c r="I2088" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="inlineStr">
+        <is>
+          <t>89kTb73csYg</t>
+        </is>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Forever Young' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C2089" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2089" t="n">
+        <v>234317890</v>
+      </c>
+      <c r="E2089" t="n">
+        <v>3955947</v>
+      </c>
+      <c r="F2089" t="n">
+        <v>125711</v>
+      </c>
+      <c r="G2089" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2089" t="inlineStr">
+        <is>
+          <t>00:49:46.059112</t>
+        </is>
+      </c>
+      <c r="I2089" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="inlineStr">
+        <is>
+          <t>jOJbXvjZ-cQ</t>
+        </is>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C2090" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2090" t="n">
+        <v>493809579</v>
+      </c>
+      <c r="E2090" t="n">
+        <v>5637301</v>
+      </c>
+      <c r="F2090" t="n">
+        <v>183874</v>
+      </c>
+      <c r="G2090" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2090" t="inlineStr">
+        <is>
+          <t>00:49:46.059115</t>
+        </is>
+      </c>
+      <c r="I2090" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="inlineStr">
+        <is>
+          <t>hKUJmA9O6iA</t>
+        </is>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2091" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2091" t="n">
+        <v>282911860</v>
+      </c>
+      <c r="E2091" t="n">
+        <v>3062721</v>
+      </c>
+      <c r="F2091" t="n">
+        <v>76147</v>
+      </c>
+      <c r="G2091" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2091" t="inlineStr">
+        <is>
+          <t>00:49:46.059119</t>
+        </is>
+      </c>
+      <c r="I2091" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="inlineStr">
+        <is>
+          <t>NvWfJTbrTBY</t>
+        </is>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난(PLAYING WITH FIRE)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2092" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2092" t="n">
+        <v>218157163</v>
+      </c>
+      <c r="E2092" t="n">
+        <v>2363634</v>
+      </c>
+      <c r="F2092" t="n">
+        <v>61952</v>
+      </c>
+      <c r="G2092" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2092" t="inlineStr">
+        <is>
+          <t>00:49:46.059122</t>
+        </is>
+      </c>
+      <c r="I2092" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="inlineStr">
+        <is>
+          <t>ivoS3HUJB3Q</t>
+        </is>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2093" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2093" t="n">
+        <v>299657587</v>
+      </c>
+      <c r="E2093" t="n">
+        <v>3125139</v>
+      </c>
+      <c r="F2093" t="n">
+        <v>76289</v>
+      </c>
+      <c r="G2093" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2093" t="inlineStr">
+        <is>
+          <t>00:49:46.059126</t>
+        </is>
+      </c>
+      <c r="I2093" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="inlineStr">
+        <is>
+          <t>1kYrp_Bs8DU</t>
+        </is>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2094" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2094" t="n">
+        <v>180371533</v>
+      </c>
+      <c r="E2094" t="n">
+        <v>2119131</v>
+      </c>
+      <c r="F2094" t="n">
+        <v>57167</v>
+      </c>
+      <c r="G2094" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2094" t="inlineStr">
+        <is>
+          <t>00:49:46.059130</t>
+        </is>
+      </c>
+      <c r="I2094" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="inlineStr">
+        <is>
+          <t>3fg8pyLKvXE</t>
+        </is>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>BLACKPINK - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2095" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2095" t="n">
+        <v>87260457</v>
+      </c>
+      <c r="E2095" t="n">
+        <v>2897223</v>
+      </c>
+      <c r="F2095" t="n">
+        <v>90239</v>
+      </c>
+      <c r="G2095" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2095" t="inlineStr">
+        <is>
+          <t>00:49:46.059133</t>
+        </is>
+      </c>
+      <c r="I2095" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="inlineStr">
+        <is>
+          <t>VLpUsmBafMQ</t>
+        </is>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C2096" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2096" t="n">
+        <v>34640239</v>
+      </c>
+      <c r="E2096" t="n">
+        <v>722351</v>
+      </c>
+      <c r="F2096" t="n">
+        <v>14354</v>
+      </c>
+      <c r="G2096" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2096" t="inlineStr">
+        <is>
+          <t>00:49:46.059137</t>
+        </is>
+      </c>
+      <c r="I2096" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="inlineStr">
+        <is>
+          <t>z9tifvQSu-g</t>
+        </is>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Typa Girl’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C2097" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2097" t="n">
+        <v>58523136</v>
+      </c>
+      <c r="E2097" t="n">
+        <v>1243439</v>
+      </c>
+      <c r="F2097" t="n">
+        <v>22082</v>
+      </c>
+      <c r="G2097" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2097" t="inlineStr">
+        <is>
+          <t>00:49:46.059141</t>
+        </is>
+      </c>
+      <c r="I2097" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="inlineStr">
+        <is>
+          <t>NpVJidAKOqc</t>
+        </is>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C2098" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2098" t="n">
+        <v>24884240</v>
+      </c>
+      <c r="E2098" t="n">
+        <v>639335</v>
+      </c>
+      <c r="F2098" t="n">
+        <v>11478</v>
+      </c>
+      <c r="G2098" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2098" t="inlineStr">
+        <is>
+          <t>00:49:46.285902</t>
+        </is>
+      </c>
+      <c r="I2098" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="inlineStr">
+        <is>
+          <t>PjrAwC4TIPA</t>
+        </is>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2099" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2099" t="n">
+        <v>155381133</v>
+      </c>
+      <c r="E2099" t="n">
+        <v>3747145</v>
+      </c>
+      <c r="F2099" t="n">
+        <v>98768</v>
+      </c>
+      <c r="G2099" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2099" t="inlineStr">
+        <is>
+          <t>00:49:46.285925</t>
+        </is>
+      </c>
+      <c r="I2099" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" t="inlineStr">
+        <is>
+          <t>RkKXbweBCcI</t>
+        </is>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C2100" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2100" t="n">
+        <v>45200336</v>
+      </c>
+      <c r="E2100" t="n">
+        <v>2783658</v>
+      </c>
+      <c r="F2100" t="n">
+        <v>60676</v>
+      </c>
+      <c r="G2100" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2100" t="inlineStr">
+        <is>
+          <t>00:49:46.285929</t>
+        </is>
+      </c>
+      <c r="I2100" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" t="inlineStr">
+        <is>
+          <t>aEiznLJCb9o</t>
+        </is>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' 0926 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2101" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2101" t="n">
+        <v>21699297</v>
+      </c>
+      <c r="E2101" t="n">
+        <v>1461307</v>
+      </c>
+      <c r="F2101" t="n">
+        <v>41787</v>
+      </c>
+      <c r="G2101" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2101" t="inlineStr">
+        <is>
+          <t>00:49:46.285933</t>
+        </is>
+      </c>
+      <c r="I2101" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" t="inlineStr">
+        <is>
+          <t>dNCWe_6HAM8</t>
+        </is>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' EXCLUSIVE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2102" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2102" t="n">
+        <v>909804877</v>
+      </c>
+      <c r="E2102" t="n">
+        <v>14021441</v>
+      </c>
+      <c r="F2102" t="n">
+        <v>950289</v>
+      </c>
+      <c r="G2102" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2102" t="inlineStr">
+        <is>
+          <t>00:49:46.285937</t>
+        </is>
+      </c>
+      <c r="I2102" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="inlineStr">
+        <is>
+          <t>08x_TcTyw8o</t>
+        </is>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C2103" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2103" t="n">
+        <v>93619676</v>
+      </c>
+      <c r="E2103" t="n">
+        <v>3541582</v>
+      </c>
+      <c r="F2103" t="n">
+        <v>94906</v>
+      </c>
+      <c r="G2103" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2103" t="inlineStr">
+        <is>
+          <t>00:49:46.285941</t>
+        </is>
+      </c>
+      <c r="I2103" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="inlineStr">
+        <is>
+          <t>kZZYkrDWUls</t>
+        </is>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0404 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2104" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2104" t="n">
+        <v>6097303</v>
+      </c>
+      <c r="E2104" t="n">
+        <v>553204</v>
+      </c>
+      <c r="F2104" t="n">
+        <v>24564</v>
+      </c>
+      <c r="G2104" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2104" t="inlineStr">
+        <is>
+          <t>00:49:46.285944</t>
+        </is>
+      </c>
+      <c r="I2104" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="inlineStr">
+        <is>
+          <t>VFBj5sWfbH4</t>
+        </is>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0328 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2105" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2105" t="n">
+        <v>6145223</v>
+      </c>
+      <c r="E2105" t="n">
+        <v>581909</v>
+      </c>
+      <c r="F2105" t="n">
+        <v>24762</v>
+      </c>
+      <c r="G2105" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2105" t="inlineStr">
+        <is>
+          <t>00:49:46.285948</t>
+        </is>
+      </c>
+      <c r="I2105" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" t="inlineStr">
+        <is>
+          <t>AkISOALL8Cw</t>
+        </is>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0321 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2106" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2106" t="n">
+        <v>10845929</v>
+      </c>
+      <c r="E2106" t="n">
+        <v>826816</v>
+      </c>
+      <c r="F2106" t="n">
+        <v>29958</v>
+      </c>
+      <c r="G2106" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2106" t="inlineStr">
+        <is>
+          <t>00:49:46.285952</t>
+        </is>
+      </c>
+      <c r="I2106" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="inlineStr">
+        <is>
+          <t>Q88P1gpOJxA</t>
+        </is>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2107" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2107" t="n">
+        <v>27034830</v>
+      </c>
+      <c r="E2107" t="n">
+        <v>2005797</v>
+      </c>
+      <c r="F2107" t="n">
+        <v>75623</v>
+      </c>
+      <c r="G2107" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2107" t="inlineStr">
+        <is>
+          <t>00:49:46.285955</t>
+        </is>
+      </c>
+      <c r="I2107" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="inlineStr">
+        <is>
+          <t>fjp4thii1WY</t>
+        </is>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2108" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2108" t="n">
+        <v>14347779</v>
+      </c>
+      <c r="E2108" t="n">
+        <v>1440864</v>
+      </c>
+      <c r="F2108" t="n">
+        <v>45869</v>
+      </c>
+      <c r="G2108" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2108" t="inlineStr">
+        <is>
+          <t>00:49:46.285959</t>
+        </is>
+      </c>
+      <c r="I2108" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" t="inlineStr">
+        <is>
+          <t>MBStYsiE618</t>
+        </is>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1025 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2109" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2109" t="n">
+        <v>31360346</v>
+      </c>
+      <c r="E2109" t="n">
+        <v>1431916</v>
+      </c>
+      <c r="F2109" t="n">
+        <v>52458</v>
+      </c>
+      <c r="G2109" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2109" t="inlineStr">
+        <is>
+          <t>00:49:46.285963</t>
+        </is>
+      </c>
+      <c r="I2109" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" t="inlineStr">
+        <is>
+          <t>3l5jwqPT2yk</t>
+        </is>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' Jimmy Kimmel Live</t>
+        </is>
+      </c>
+      <c r="C2110" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2110" t="n">
+        <v>56069470</v>
+      </c>
+      <c r="E2110" t="n">
+        <v>2213724</v>
+      </c>
+      <c r="F2110" t="n">
+        <v>58840</v>
+      </c>
+      <c r="G2110" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2110" t="inlineStr">
+        <is>
+          <t>00:49:46.285966</t>
+        </is>
+      </c>
+      <c r="I2110" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" t="inlineStr">
+        <is>
+          <t>UcvYlihruvo</t>
+        </is>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1018 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2111" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2111" t="n">
+        <v>8771399</v>
+      </c>
+      <c r="E2111" t="n">
+        <v>759165</v>
+      </c>
+      <c r="F2111" t="n">
+        <v>27510</v>
+      </c>
+      <c r="G2111" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2111" t="inlineStr">
+        <is>
+          <t>00:49:46.285970</t>
+        </is>
+      </c>
+      <c r="I2111" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="inlineStr">
+        <is>
+          <t>Fwg9-MXdBYA</t>
+        </is>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1011 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2112" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2112" t="n">
+        <v>15886422</v>
+      </c>
+      <c r="E2112" t="n">
+        <v>1286459</v>
+      </c>
+      <c r="F2112" t="n">
+        <v>35190</v>
+      </c>
+      <c r="G2112" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2112" t="inlineStr">
+        <is>
+          <t>00:49:46.285974</t>
+        </is>
+      </c>
+      <c r="I2112" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="inlineStr">
+        <is>
+          <t>gU2HqP4NxUs</t>
+        </is>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ 1011 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2113" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2113" t="n">
+        <v>326469964</v>
+      </c>
+      <c r="E2113" t="n">
+        <v>5164155</v>
+      </c>
+      <c r="F2113" t="n">
+        <v>142944</v>
+      </c>
+      <c r="G2113" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2113" t="inlineStr">
+        <is>
+          <t>00:49:46.285977</t>
+        </is>
+      </c>
+      <c r="I2113" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="inlineStr">
+        <is>
+          <t>7PpUuLYWcs8</t>
+        </is>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0719 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2114" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2114" t="n">
+        <v>12826800</v>
+      </c>
+      <c r="E2114" t="n">
+        <v>811968</v>
+      </c>
+      <c r="F2114" t="n">
+        <v>28746</v>
+      </c>
+      <c r="G2114" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2114" t="inlineStr">
+        <is>
+          <t>00:49:46.285981</t>
+        </is>
+      </c>
+      <c r="I2114" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="inlineStr">
+        <is>
+          <t>04lxLDmFaOE</t>
+        </is>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0712 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2115" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2115" t="n">
+        <v>10331724</v>
+      </c>
+      <c r="E2115" t="n">
+        <v>832022</v>
+      </c>
+      <c r="F2115" t="n">
+        <v>37849</v>
+      </c>
+      <c r="G2115" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2115" t="inlineStr">
+        <is>
+          <t>00:49:46.285985</t>
+        </is>
+      </c>
+      <c r="I2115" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="inlineStr">
+        <is>
+          <t>JLOwA3o6Zr0</t>
+        </is>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0705 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2116" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2116" t="n">
+        <v>13440736</v>
+      </c>
+      <c r="E2116" t="n">
+        <v>971575</v>
+      </c>
+      <c r="F2116" t="n">
+        <v>36147</v>
+      </c>
+      <c r="G2116" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2116" t="inlineStr">
+        <is>
+          <t>00:49:46.285989</t>
+        </is>
+      </c>
+      <c r="I2116" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="inlineStr">
+        <is>
+          <t>t0RcZWn085g</t>
+        </is>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0628 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2117" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2117" t="n">
+        <v>52063943</v>
+      </c>
+      <c r="E2117" t="n">
+        <v>2286468</v>
+      </c>
+      <c r="F2117" t="n">
+        <v>59212</v>
+      </c>
+      <c r="G2117" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2117" t="inlineStr">
+        <is>
+          <t>00:49:46.285992</t>
+        </is>
+      </c>
+      <c r="I2117" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="inlineStr">
+        <is>
+          <t>tOCUE8wRQYY</t>
+        </is>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>BLACKPINK ‐ Kill This Love -JP Ver.- Live at BLACKPINK 2019-2020 WORLD TOUR IN YOUR AREA-TOKYO DOME-</t>
+        </is>
+      </c>
+      <c r="C2118" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2118" t="n">
+        <v>37082237</v>
+      </c>
+      <c r="E2118" t="n">
+        <v>1228990</v>
+      </c>
+      <c r="F2118" t="n">
+        <v>44954</v>
+      </c>
+      <c r="G2118" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2118" t="inlineStr">
+        <is>
+          <t>00:49:46.528226</t>
+        </is>
+      </c>
+      <c r="I2118" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="inlineStr">
+        <is>
+          <t>-6XwN_wu3KU</t>
+        </is>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C2119" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2119" t="n">
+        <v>24889021</v>
+      </c>
+      <c r="E2119" t="n">
+        <v>1077468</v>
+      </c>
+      <c r="F2119" t="n">
+        <v>26098</v>
+      </c>
+      <c r="G2119" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2119" t="inlineStr">
+        <is>
+          <t>00:49:46.528248</t>
+        </is>
+      </c>
+      <c r="I2119" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="inlineStr">
+        <is>
+          <t>_HhAzr5DLik</t>
+        </is>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C2120" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2120" t="n">
+        <v>14552957</v>
+      </c>
+      <c r="E2120" t="n">
+        <v>700613</v>
+      </c>
+      <c r="F2120" t="n">
+        <v>22468</v>
+      </c>
+      <c r="G2120" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2120" t="inlineStr">
+        <is>
+          <t>00:49:46.528252</t>
+        </is>
+      </c>
+      <c r="I2120" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="inlineStr">
+        <is>
+          <t>a5gUds01aXY</t>
+        </is>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' 2019 Coachella Live Performance</t>
+        </is>
+      </c>
+      <c r="C2121" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2121" t="n">
+        <v>50676641</v>
+      </c>
+      <c r="E2121" t="n">
+        <v>1887090</v>
+      </c>
+      <c r="F2121" t="n">
+        <v>89546</v>
+      </c>
+      <c r="G2121" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2121" t="inlineStr">
+        <is>
+          <t>00:49:46.528256</t>
+        </is>
+      </c>
+      <c r="I2121" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="inlineStr">
+        <is>
+          <t>vx9CSpnROfs</t>
+        </is>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0414 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2122" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2122" t="n">
+        <v>121389213</v>
+      </c>
+      <c r="E2122" t="n">
+        <v>2331567</v>
+      </c>
+      <c r="F2122" t="n">
+        <v>54728</v>
+      </c>
+      <c r="G2122" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2122" t="inlineStr">
+        <is>
+          <t>00:49:46.528260</t>
+        </is>
+      </c>
+      <c r="I2122" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="inlineStr">
+        <is>
+          <t>RgI8UNOqczE</t>
+        </is>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2123" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2123" t="n">
+        <v>11391041</v>
+      </c>
+      <c r="E2123" t="n">
+        <v>502631</v>
+      </c>
+      <c r="F2123" t="n">
+        <v>16973</v>
+      </c>
+      <c r="G2123" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2123" t="inlineStr">
+        <is>
+          <t>00:49:46.528264</t>
+        </is>
+      </c>
+      <c r="I2123" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="inlineStr">
+        <is>
+          <t>sL175y19MUU</t>
+        </is>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2124" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2124" t="n">
+        <v>12353542</v>
+      </c>
+      <c r="E2124" t="n">
+        <v>463680</v>
+      </c>
+      <c r="F2124" t="n">
+        <v>11743</v>
+      </c>
+      <c r="G2124" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2124" t="inlineStr">
+        <is>
+          <t>00:49:46.528268</t>
+        </is>
+      </c>
+      <c r="I2124" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="inlineStr">
+        <is>
+          <t>GXBDwS2Tizo</t>
+        </is>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2125" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2125" t="n">
+        <v>22260462</v>
+      </c>
+      <c r="E2125" t="n">
+        <v>1033698</v>
+      </c>
+      <c r="F2125" t="n">
+        <v>26521</v>
+      </c>
+      <c r="G2125" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2125" t="inlineStr">
+        <is>
+          <t>00:49:46.528271</t>
+        </is>
+      </c>
+      <c r="I2125" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="inlineStr">
+        <is>
+          <t>rt6G9Vwt1xc</t>
+        </is>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2126" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2126" t="n">
+        <v>17953404</v>
+      </c>
+      <c r="E2126" t="n">
+        <v>794102</v>
+      </c>
+      <c r="F2126" t="n">
+        <v>24512</v>
+      </c>
+      <c r="G2126" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2126" t="inlineStr">
+        <is>
+          <t>00:49:46.528275</t>
+        </is>
+      </c>
+      <c r="I2126" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="inlineStr">
+        <is>
+          <t>MkG24J87IUk</t>
+        </is>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2127" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2127" t="n">
+        <v>49522742</v>
+      </c>
+      <c r="E2127" t="n">
+        <v>1709942</v>
+      </c>
+      <c r="F2127" t="n">
+        <v>46448</v>
+      </c>
+      <c r="G2127" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2127" t="inlineStr">
+        <is>
+          <t>00:49:46.528279</t>
+        </is>
+      </c>
+      <c r="I2127" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" t="inlineStr">
+        <is>
+          <t>o4GHoqGtRkg</t>
+        </is>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Don't Know What To Do’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2128" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2128" t="n">
+        <v>67729862</v>
+      </c>
+      <c r="E2128" t="n">
+        <v>1722996</v>
+      </c>
+      <c r="F2128" t="n">
+        <v>48437</v>
+      </c>
+      <c r="G2128" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2128" t="inlineStr">
+        <is>
+          <t>00:49:46.528282</t>
+        </is>
+      </c>
+      <c r="I2128" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" t="inlineStr">
+        <is>
+          <t>cxNIewNXpcg</t>
+        </is>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SOLO' + '뚜두뚜두(DDU-DU DDU-DU)' + 'FOREVER YOUNG' in 2018 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C2129" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2129" t="n">
+        <v>383875268</v>
+      </c>
+      <c r="E2129" t="n">
+        <v>6192931</v>
+      </c>
+      <c r="F2129" t="n">
+        <v>209157</v>
+      </c>
+      <c r="G2129" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2129" t="inlineStr">
+        <is>
+          <t>00:49:46.528286</t>
+        </is>
+      </c>
+      <c r="I2129" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" t="inlineStr">
+        <is>
+          <t>7nukOecMf-U</t>
+        </is>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1216 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2130" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2130" t="n">
+        <v>4907515</v>
+      </c>
+      <c r="E2130" t="n">
+        <v>224844</v>
+      </c>
+      <c r="F2130" t="n">
+        <v>7755</v>
+      </c>
+      <c r="G2130" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2130" t="inlineStr">
+        <is>
+          <t>00:49:46.528290</t>
+        </is>
+      </c>
+      <c r="I2130" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="inlineStr">
+        <is>
+          <t>CPSH3ljpkZ4</t>
+        </is>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1209 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2131" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2131" t="n">
+        <v>13095973</v>
+      </c>
+      <c r="E2131" t="n">
+        <v>413162</v>
+      </c>
+      <c r="F2131" t="n">
+        <v>13157</v>
+      </c>
+      <c r="G2131" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2131" t="inlineStr">
+        <is>
+          <t>00:49:46.528293</t>
+        </is>
+      </c>
+      <c r="I2131" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="inlineStr">
+        <is>
+          <t>hxDXhh2sE1g</t>
+        </is>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1202 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2132" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2132" t="n">
+        <v>5930484</v>
+      </c>
+      <c r="E2132" t="n">
+        <v>253746</v>
+      </c>
+      <c r="F2132" t="n">
+        <v>9493</v>
+      </c>
+      <c r="G2132" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2132" t="inlineStr">
+        <is>
+          <t>00:49:46.528297</t>
+        </is>
+      </c>
+      <c r="I2132" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="inlineStr">
+        <is>
+          <t>smimdoBjeAE</t>
+        </is>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1125 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2133" t="n">
+        <v>17110928</v>
+      </c>
+      <c r="E2133" t="n">
+        <v>676616</v>
+      </c>
+      <c r="F2133" t="n">
+        <v>25620</v>
+      </c>
+      <c r="G2133" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2133" t="inlineStr">
+        <is>
+          <t>00:49:46.528301</t>
+        </is>
+      </c>
+      <c r="I2133" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="inlineStr">
+        <is>
+          <t>N1C_G3sfzXo</t>
+        </is>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' PERFORMANCE [IN YOUR AREA] SEOUL</t>
+        </is>
+      </c>
+      <c r="C2134" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2134" t="n">
+        <v>29738193</v>
+      </c>
+      <c r="E2134" t="n">
+        <v>1034788</v>
+      </c>
+      <c r="F2134" t="n">
+        <v>26398</v>
+      </c>
+      <c r="G2134" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2134" t="inlineStr">
+        <is>
+          <t>00:49:46.528304</t>
+        </is>
+      </c>
+      <c r="I2134" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="inlineStr">
+        <is>
+          <t>5hwepTxNKtE</t>
+        </is>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0805 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2135" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2135" t="n">
+        <v>72970690</v>
+      </c>
+      <c r="E2135" t="n">
+        <v>1184567</v>
+      </c>
+      <c r="F2135" t="n">
+        <v>44070</v>
+      </c>
+      <c r="G2135" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2135" t="inlineStr">
+        <is>
+          <t>00:49:46.528308</t>
+        </is>
+      </c>
+      <c r="I2135" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="inlineStr">
+        <is>
+          <t>4KRdmXcJWQU</t>
+        </is>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2136" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2136" t="n">
+        <v>8763747</v>
+      </c>
+      <c r="E2136" t="n">
+        <v>416007</v>
+      </c>
+      <c r="F2136" t="n">
+        <v>11731</v>
+      </c>
+      <c r="G2136" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2136" t="inlineStr">
+        <is>
+          <t>00:49:46.528312</t>
+        </is>
+      </c>
+      <c r="I2136" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="inlineStr">
+        <is>
+          <t>HhyRAPKiXi4</t>
+        </is>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2137" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2137" t="n">
+        <v>3986503</v>
+      </c>
+      <c r="E2137" t="n">
+        <v>203284</v>
+      </c>
+      <c r="F2137" t="n">
+        <v>7222</v>
+      </c>
+      <c r="G2137" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2137" t="inlineStr">
+        <is>
+          <t>00:49:46.528316</t>
+        </is>
+      </c>
+      <c r="I2137" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="inlineStr">
+        <is>
+          <t>PMsBMoc9eFg</t>
+        </is>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0722 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2138" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2138" t="n">
+        <v>12214839</v>
+      </c>
+      <c r="E2138" t="n">
+        <v>439703</v>
+      </c>
+      <c r="F2138" t="n">
+        <v>19911</v>
+      </c>
+      <c r="G2138" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2138" t="inlineStr">
+        <is>
+          <t>00:49:46.773234</t>
+        </is>
+      </c>
+      <c r="I2138" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="inlineStr">
+        <is>
+          <t>xqWjJP_WT-0</t>
+        </is>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2139" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2139" t="n">
+        <v>13219943</v>
+      </c>
+      <c r="E2139" t="n">
+        <v>687783</v>
+      </c>
+      <c r="F2139" t="n">
+        <v>24670</v>
+      </c>
+      <c r="G2139" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2139" t="inlineStr">
+        <is>
+          <t>00:49:46.773256</t>
+        </is>
+      </c>
+      <c r="I2139" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="inlineStr">
+        <is>
+          <t>WaIGc9QmV2w</t>
+        </is>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2140" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2140" t="n">
+        <v>3359191</v>
+      </c>
+      <c r="E2140" t="n">
+        <v>185656</v>
+      </c>
+      <c r="F2140" t="n">
+        <v>7356</v>
+      </c>
+      <c r="G2140" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2140" t="inlineStr">
+        <is>
+          <t>00:49:46.773260</t>
+        </is>
+      </c>
+      <c r="I2140" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="inlineStr">
+        <is>
+          <t>67otJZ6qe9Y</t>
+        </is>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0715 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2141" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2141" t="n">
+        <v>44170055</v>
+      </c>
+      <c r="E2141" t="n">
+        <v>982356</v>
+      </c>
+      <c r="F2141" t="n">
+        <v>33585</v>
+      </c>
+      <c r="G2141" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2141" t="inlineStr">
+        <is>
+          <t>00:49:46.773264</t>
+        </is>
+      </c>
+      <c r="I2141" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="inlineStr">
+        <is>
+          <t>PZ5t29qgGAM</t>
+        </is>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2142" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2142" t="n">
+        <v>11335975</v>
+      </c>
+      <c r="E2142" t="n">
+        <v>511385</v>
+      </c>
+      <c r="F2142" t="n">
+        <v>18490</v>
+      </c>
+      <c r="G2142" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2142" t="inlineStr">
+        <is>
+          <t>00:49:46.773268</t>
+        </is>
+      </c>
+      <c r="I2142" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="inlineStr">
+        <is>
+          <t>dEnDjgoLLY4</t>
+        </is>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2143" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2143" t="n">
+        <v>6475208</v>
+      </c>
+      <c r="E2143" t="n">
+        <v>327055</v>
+      </c>
+      <c r="F2143" t="n">
+        <v>12288</v>
+      </c>
+      <c r="G2143" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2143" t="inlineStr">
+        <is>
+          <t>00:49:46.773272</t>
+        </is>
+      </c>
+      <c r="I2143" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="inlineStr">
+        <is>
+          <t>0uje7GB8Azk</t>
+        </is>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2144" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2144" t="n">
+        <v>10038434</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>351896</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>13477</v>
+      </c>
+      <c r="G2144" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2144" t="inlineStr">
+        <is>
+          <t>00:49:46.773275</t>
+        </is>
+      </c>
+      <c r="I2144" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="inlineStr">
+        <is>
+          <t>F6IR7luozPw</t>
+        </is>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0708 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2145" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2145" t="n">
+        <v>3909219</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>226793</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>12153</v>
+      </c>
+      <c r="G2145" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2145" t="inlineStr">
+        <is>
+          <t>00:49:46.773279</t>
+        </is>
+      </c>
+      <c r="I2145" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="inlineStr">
+        <is>
+          <t>rw2-h5JNLqM</t>
+        </is>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2146" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2146" t="n">
+        <v>15139829</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>692840</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>22351</v>
+      </c>
+      <c r="G2146" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2146" t="inlineStr">
+        <is>
+          <t>00:49:46.773282</t>
+        </is>
+      </c>
+      <c r="I2146" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="inlineStr">
+        <is>
+          <t>TIOCHR0OxOQ</t>
+        </is>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0701 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2147" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2147" t="n">
+        <v>4463663</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>260867</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>14771</v>
+      </c>
+      <c r="G2147" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2147" t="inlineStr">
+        <is>
+          <t>00:49:46.773286</t>
+        </is>
+      </c>
+      <c r="I2147" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="inlineStr">
+        <is>
+          <t>PUcGXTSCRLA</t>
+        </is>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0624 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2148" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2148" t="n">
+        <v>7592746</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>351489</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>13061</v>
+      </c>
+      <c r="G2148" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2148" t="inlineStr">
+        <is>
+          <t>00:49:46.773290</t>
+        </is>
+      </c>
+      <c r="I2148" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="inlineStr">
+        <is>
+          <t>b5dUYf_uPaY</t>
+        </is>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2149" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2149" t="n">
+        <v>44092032</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>1106057</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>33816</v>
+      </c>
+      <c r="G2149" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2149" t="inlineStr">
+        <is>
+          <t>00:49:46.773293</t>
+        </is>
+      </c>
+      <c r="I2149" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="inlineStr">
+        <is>
+          <t>n7ukhNJvQ8s</t>
+        </is>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2150" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2150" t="n">
+        <v>63831301</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>1131854</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>40066</v>
+      </c>
+      <c r="G2150" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2150" t="inlineStr">
+        <is>
+          <t>00:49:46.773297</t>
+        </is>
+      </c>
+      <c r="I2150" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="inlineStr">
+        <is>
+          <t>f1xIeTCgoFk</t>
+        </is>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>BLACKPINK - INTRO +  ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2018 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C2151" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2151" t="n">
+        <v>35641191</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>772937</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>23945</v>
+      </c>
+      <c r="G2151" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2151" t="inlineStr">
+        <is>
+          <t>00:49:46.773301</t>
+        </is>
+      </c>
+      <c r="I2151" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="inlineStr">
+        <is>
+          <t>skIfzl96Gc0</t>
+        </is>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SO HOT' (THEBLACKLABEL Remix) in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C2152" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2152" t="n">
+        <v>87701720</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>2155402</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>63139</v>
+      </c>
+      <c r="G2152" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2152" t="inlineStr">
+        <is>
+          <t>00:49:46.773305</t>
+        </is>
+      </c>
+      <c r="I2152" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="inlineStr">
+        <is>
+          <t>PoHD4wfwC6Y</t>
+        </is>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C2153" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2153" t="n">
+        <v>8401154</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>300245</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>7160</v>
+      </c>
+      <c r="G2153" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2153" t="inlineStr">
+        <is>
+          <t>00:49:46.773308</t>
+        </is>
+      </c>
+      <c r="I2153" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="inlineStr">
+        <is>
+          <t>wwuZtpS8FNI</t>
+        </is>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 1001 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2154" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2154" t="n">
+        <v>35347991</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>580531</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>15699</v>
+      </c>
+      <c r="G2154" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2154" t="inlineStr">
+        <is>
+          <t>00:49:46.773312</t>
+        </is>
+      </c>
+      <c r="I2154" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="inlineStr">
+        <is>
+          <t>GE7x2fVVsXM</t>
+        </is>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>BLACKPINK - OPENING MEDLDY 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C2155" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2155" t="n">
+        <v>16261384</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>446140</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>10610</v>
+      </c>
+      <c r="G2155" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2155" t="inlineStr">
+        <is>
+          <t>00:49:46.773315</t>
+        </is>
+      </c>
+      <c r="I2155" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="inlineStr">
+        <is>
+          <t>_7TMluHVx4Y</t>
+        </is>
+      </c>
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SURE THING (Miguel)' COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C2156" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2156" t="n">
+        <v>109710299</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>1773428</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>69480</v>
+      </c>
+      <c r="G2156" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2156" t="inlineStr">
+        <is>
+          <t>00:49:46.773319</t>
+        </is>
+      </c>
+      <c r="I2156" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="inlineStr">
+        <is>
+          <t>X3P6dnL2OyY</t>
+        </is>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'PARTITION (Beyonce)' DANCE COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C2157" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2157" t="n">
+        <v>48836311</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>1228472</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>30772</v>
+      </c>
+      <c r="G2157" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2157" t="inlineStr">
+        <is>
+          <t>00:49:46.773322</t>
+        </is>
+      </c>
+      <c r="I2157" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="inlineStr">
+        <is>
+          <t>RczrR4FVKzg</t>
+        </is>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST) Remix ver.' 0723 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2158" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2158" t="n">
+        <v>20903847</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>625165</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>19585</v>
+      </c>
+      <c r="G2158" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2158" t="inlineStr">
+        <is>
+          <t>00:49:47.035287</t>
+        </is>
+      </c>
+      <c r="I2158" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="inlineStr">
+        <is>
+          <t>vW1PeCzs7Sg</t>
+        </is>
+      </c>
+      <c r="B2159" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0716 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2159" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2159" t="n">
+        <v>4604371</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>204560</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>6755</v>
+      </c>
+      <c r="G2159" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2159" t="inlineStr">
+        <is>
+          <t>00:49:47.035310</t>
+        </is>
+      </c>
+      <c r="I2159" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="inlineStr">
+        <is>
+          <t>ZL8LqlKtpVE</t>
+        </is>
+      </c>
+      <c r="B2160" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0709 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2160" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2160" t="n">
+        <v>4523088</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>211979</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>6455</v>
+      </c>
+      <c r="G2160" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2160" t="inlineStr">
+        <is>
+          <t>00:49:47.035315</t>
+        </is>
+      </c>
+      <c r="I2160" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="inlineStr">
+        <is>
+          <t>fWOAe_xXTQs</t>
+        </is>
+      </c>
+      <c r="B2161" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0702 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2161" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2161" t="n">
+        <v>7133141</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>308322</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>11345</v>
+      </c>
+      <c r="G2161" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2161" t="inlineStr">
+        <is>
+          <t>00:49:47.035318</t>
+        </is>
+      </c>
+      <c r="I2161" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="inlineStr">
+        <is>
+          <t>TWRSR7y1288</t>
+        </is>
+      </c>
+      <c r="B2162" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0625 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2162" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2162" t="n">
+        <v>31733460</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>751067</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>23566</v>
+      </c>
+      <c r="G2162" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2162" t="inlineStr">
+        <is>
+          <t>00:49:47.035322</t>
+        </is>
+      </c>
+      <c r="I2162" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="inlineStr">
+        <is>
+          <t>VQLn90MACUQ</t>
+        </is>
+      </c>
+      <c r="B2163" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난 (PLAYING WITH FIRE)’ + ‘붐바야 (BOOMBAYAH)’  in 2017 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C2163" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2163" t="n">
+        <v>51532704</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>1047356</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>22135</v>
+      </c>
+      <c r="G2163" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2163" t="inlineStr">
+        <is>
+          <t>00:49:47.035326</t>
+        </is>
+      </c>
+      <c r="I2163" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="inlineStr">
+        <is>
+          <t>_paRxWTIyAo</t>
+        </is>
+      </c>
+      <c r="B2164" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C2164" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2164" t="n">
+        <v>121796884</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>1969110</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>39484</v>
+      </c>
+      <c r="G2164" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2164" t="inlineStr">
+        <is>
+          <t>00:49:47.035329</t>
+        </is>
+      </c>
+      <c r="I2164" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="inlineStr">
+        <is>
+          <t>FOv-Rsp1LS0</t>
+        </is>
+      </c>
+      <c r="B2165" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - Interview(마지막 무대 인사) + '불장난(PLAYING WITH FIRE)' 1211 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2165" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2165" t="n">
+        <v>2833617</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>127429</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>5448</v>
+      </c>
+      <c r="G2165" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2165" t="inlineStr">
+        <is>
+          <t>00:49:47.035333</t>
+        </is>
+      </c>
+      <c r="I2165" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="inlineStr">
+        <is>
+          <t>hTDRE5d5A2M</t>
+        </is>
+      </c>
+      <c r="B2166" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1204 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2166" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2166" t="n">
+        <v>4061155</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>199383</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>6801</v>
+      </c>
+      <c r="G2166" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2166" t="inlineStr">
+        <is>
+          <t>00:49:47.035337</t>
+        </is>
+      </c>
+      <c r="I2166" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="inlineStr">
+        <is>
+          <t>HoAdqZW4ptY</t>
+        </is>
+      </c>
+      <c r="B2167" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1127 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2167" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2167" t="n">
+        <v>6881240</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>269612</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>7414</v>
+      </c>
+      <c r="G2167" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2167" t="inlineStr">
+        <is>
+          <t>00:49:47.035341</t>
+        </is>
+      </c>
+      <c r="I2167" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="inlineStr">
+        <is>
+          <t>TklpzjGlqFE</t>
+        </is>
+      </c>
+      <c r="B2168" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1120 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2168" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2168" t="n">
+        <v>13625715</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>366476</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>8693</v>
+      </c>
+      <c r="G2168" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2168" t="inlineStr">
+        <is>
+          <t>00:49:47.035344</t>
+        </is>
+      </c>
+      <c r="I2168" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="inlineStr">
+        <is>
+          <t>ZwVTC_686Sw</t>
+        </is>
+      </c>
+      <c r="B2169" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 MELON MUSIC AWARDS</t>
+        </is>
+      </c>
+      <c r="C2169" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2169" t="n">
+        <v>77787885</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>1373210</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>35272</v>
+      </c>
+      <c r="G2169" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2169" t="inlineStr">
+        <is>
+          <t>00:49:47.035348</t>
+        </is>
+      </c>
+      <c r="I2169" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="inlineStr">
+        <is>
+          <t>_NVwS4mcVYg</t>
+        </is>
+      </c>
+      <c r="B2170" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2170" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2170" t="n">
+        <v>22445720</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>626900</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>19904</v>
+      </c>
+      <c r="G2170" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2170" t="inlineStr">
+        <is>
+          <t>00:49:47.035351</t>
+        </is>
+      </c>
+      <c r="I2170" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="inlineStr">
+        <is>
+          <t>5LWCPzwiN28</t>
+        </is>
+      </c>
+      <c r="B2171" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2171" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2171" t="n">
+        <v>67335747</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>964053</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>32157</v>
+      </c>
+      <c r="G2171" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2171" t="inlineStr">
+        <is>
+          <t>00:49:47.035355</t>
+        </is>
+      </c>
+      <c r="I2171" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="inlineStr">
+        <is>
+          <t>o4rSRaqvHyc</t>
+        </is>
+      </c>
+      <c r="B2172" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0911 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2172" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2172" t="n">
+        <v>6195222</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>253964</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>6889</v>
+      </c>
+      <c r="G2172" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2172" t="inlineStr">
+        <is>
+          <t>00:49:47.035359</t>
+        </is>
+      </c>
+      <c r="I2172" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="inlineStr">
+        <is>
+          <t>6F0UWgSSQqU</t>
+        </is>
+      </c>
+      <c r="B2173" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0904 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2173" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2173" t="n">
+        <v>9649359</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>255357</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>9288</v>
+      </c>
+      <c r="G2173" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2173" t="inlineStr">
+        <is>
+          <t>00:49:47.035362</t>
+        </is>
+      </c>
+      <c r="I2173" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="inlineStr">
+        <is>
+          <t>13XTnp3Lp84</t>
+        </is>
+      </c>
+      <c r="B2174" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2174" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2174" t="n">
+        <v>31602675</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>649771</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>20488</v>
+      </c>
+      <c r="G2174" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2174" t="inlineStr">
+        <is>
+          <t>00:49:47.035366</t>
+        </is>
+      </c>
+      <c r="I2174" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="inlineStr">
+        <is>
+          <t>EKHdMwRaU60</t>
+        </is>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2175" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2175" t="n">
+        <v>60734792</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>829098</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>23108</v>
+      </c>
+      <c r="G2175" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2175" t="inlineStr">
+        <is>
+          <t>00:49:47.035370</t>
+        </is>
+      </c>
+      <c r="I2175" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="inlineStr">
+        <is>
+          <t>metZ_f8aqC0</t>
+        </is>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0821 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2176" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2176" t="n">
+        <v>41602820</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>892116</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>26134</v>
+      </c>
+      <c r="G2176" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2176" t="inlineStr">
+        <is>
+          <t>00:49:47.035373</t>
+        </is>
+      </c>
+      <c r="I2176" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="inlineStr">
+        <is>
+          <t>RGmL76BBGZk</t>
+        </is>
+      </c>
+      <c r="B2177" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0821 SBS Inkigayo : '휘파람(WHISTLE)' NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2177" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2177" t="n">
+        <v>17066048</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>541116</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>14613</v>
+      </c>
+      <c r="G2177" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2177" t="inlineStr">
+        <is>
+          <t>00:49:47.035377</t>
+        </is>
+      </c>
+      <c r="I2177" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="inlineStr">
+        <is>
+          <t>vAqAp1tJnkc</t>
+        </is>
+      </c>
+      <c r="B2178" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람’(WHISTLE) 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2178" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2178" t="n">
+        <v>48100928</v>
+      </c>
+      <c r="E2178" t="n">
+        <v>858007</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>29207</v>
+      </c>
+      <c r="G2178" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2178" t="inlineStr">
+        <is>
+          <t>00:49:47.196093</t>
+        </is>
+      </c>
+      <c r="I2178" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="inlineStr">
+        <is>
+          <t>LpSH8MrYCfg</t>
+        </is>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2179" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2179" t="n">
+        <v>168689386</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>2540068</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>80132</v>
+      </c>
+      <c r="G2179" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="H2179" t="inlineStr">
+        <is>
+          <t>00:49:47.196116</t>
+        </is>
+      </c>
+      <c r="I2179" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CLEANED_videos_count_data.xlsx
+++ b/CLEANED_videos_count_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2179"/>
+  <dimension ref="A1:I2301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89778,6 +89778,5008 @@
         </is>
       </c>
     </row>
+    <row r="2180">
+      <c r="A2180" t="inlineStr">
+        <is>
+          <t>YudHcBIxlYw</t>
+        </is>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C2180" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2180" t="n">
+        <v>402533267</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>10177459</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>1352361</v>
+      </c>
+      <c r="G2180" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2180" t="inlineStr">
+        <is>
+          <t>00:48:54.278868</t>
+        </is>
+      </c>
+      <c r="I2180" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="inlineStr">
+        <is>
+          <t>POe9SOEKotk</t>
+        </is>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ M\/V</t>
+        </is>
+      </c>
+      <c r="C2181" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2181" t="n">
+        <v>531071160</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>10867606</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>2223357</v>
+      </c>
+      <c r="G2181" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2181" t="inlineStr">
+        <is>
+          <t>00:48:54.278893</t>
+        </is>
+      </c>
+      <c r="I2181" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="inlineStr">
+        <is>
+          <t>gQlMMD8auMs</t>
+        </is>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ M\/V</t>
+        </is>
+      </c>
+      <c r="C2182" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2182" t="n">
+        <v>742701997</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>16114544</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>3561842</v>
+      </c>
+      <c r="G2182" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2182" t="inlineStr">
+        <is>
+          <t>00:48:54.278899</t>
+        </is>
+      </c>
+      <c r="I2182" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="inlineStr">
+        <is>
+          <t>awkkyBH2zEo</t>
+        </is>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' M\/V</t>
+        </is>
+      </c>
+      <c r="C2183" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2183" t="n">
+        <v>657988039</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>17334742</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>2814134</v>
+      </c>
+      <c r="G2183" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2183" t="inlineStr">
+        <is>
+          <t>00:48:54.278903</t>
+        </is>
+      </c>
+      <c r="I2183" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="inlineStr">
+        <is>
+          <t>K9_VFxzCuQ0</t>
+        </is>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' M\/V</t>
+        </is>
+      </c>
+      <c r="C2184" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2184" t="n">
+        <v>269745148</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>7394074</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>1242456</v>
+      </c>
+      <c r="G2184" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2184" t="inlineStr">
+        <is>
+          <t>00:48:54.278907</t>
+        </is>
+      </c>
+      <c r="I2184" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="inlineStr">
+        <is>
+          <t>CKZvWhCqx1s</t>
+        </is>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' M\/V</t>
+        </is>
+      </c>
+      <c r="C2185" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2185" t="n">
+        <v>343970213</v>
+      </c>
+      <c r="E2185" t="n">
+        <v>11359769</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>2589103</v>
+      </c>
+      <c r="G2185" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2185" t="inlineStr">
+        <is>
+          <t>00:48:54.278912</t>
+        </is>
+      </c>
+      <c r="I2185" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="inlineStr">
+        <is>
+          <t>dyRsYk0LyA8</t>
+        </is>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' M\/V</t>
+        </is>
+      </c>
+      <c r="C2186" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2186" t="n">
+        <v>711797614</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>15510506</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>2042830</v>
+      </c>
+      <c r="G2186" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2186" t="inlineStr">
+        <is>
+          <t>00:48:54.278916</t>
+        </is>
+      </c>
+      <c r="I2186" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="inlineStr">
+        <is>
+          <t>vRXZj0DzXIA</t>
+        </is>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Ice Cream (with Selena Gomez)' M\/V</t>
+        </is>
+      </c>
+      <c r="C2187" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2187" t="n">
+        <v>873802285</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>19932029</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>3025165</v>
+      </c>
+      <c r="G2187" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2187" t="inlineStr">
+        <is>
+          <t>00:48:54.278920</t>
+        </is>
+      </c>
+      <c r="I2187" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="inlineStr">
+        <is>
+          <t>ioNng23DkIM</t>
+        </is>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' M\/V</t>
+        </is>
+      </c>
+      <c r="C2188" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2188" t="n">
+        <v>1245473857</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>24764696</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>5096660</v>
+      </c>
+      <c r="G2188" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2188" t="inlineStr">
+        <is>
+          <t>00:48:54.278924</t>
+        </is>
+      </c>
+      <c r="I2188" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="inlineStr">
+        <is>
+          <t>2S24-y0Ij3Y</t>
+        </is>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' M\/V</t>
+        </is>
+      </c>
+      <c r="C2189" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2189" t="n">
+        <v>1878478631</v>
+      </c>
+      <c r="E2189" t="n">
+        <v>25040721</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>2479585</v>
+      </c>
+      <c r="G2189" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2189" t="inlineStr">
+        <is>
+          <t>00:48:54.278928</t>
+        </is>
+      </c>
+      <c r="I2189" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="inlineStr">
+        <is>
+          <t>b73BI9eUkjM</t>
+        </is>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' M\/V</t>
+        </is>
+      </c>
+      <c r="C2190" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2190" t="n">
+        <v>966004908</v>
+      </c>
+      <c r="E2190" t="n">
+        <v>14644658</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>3057188</v>
+      </c>
+      <c r="G2190" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2190" t="inlineStr">
+        <is>
+          <t>00:48:54.278933</t>
+        </is>
+      </c>
+      <c r="I2190" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="inlineStr">
+        <is>
+          <t>IHNzOHi8sJs</t>
+        </is>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ M\/V</t>
+        </is>
+      </c>
+      <c r="C2191" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2191" t="n">
+        <v>2128342073</v>
+      </c>
+      <c r="E2191" t="n">
+        <v>23453133</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>3283482</v>
+      </c>
+      <c r="G2191" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2191" t="inlineStr">
+        <is>
+          <t>00:48:54.278937</t>
+        </is>
+      </c>
+      <c r="I2191" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="inlineStr">
+        <is>
+          <t>Amq-qlqbjYA</t>
+        </is>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '마지막처럼 (AS IF IT'S YOUR LAST)' M\/V</t>
+        </is>
+      </c>
+      <c r="C2192" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2192" t="n">
+        <v>1325095925</v>
+      </c>
+      <c r="E2192" t="n">
+        <v>13266217</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>1659026</v>
+      </c>
+      <c r="G2192" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2192" t="inlineStr">
+        <is>
+          <t>00:48:54.278940</t>
+        </is>
+      </c>
+      <c r="I2192" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="inlineStr">
+        <is>
+          <t>FzVR_fymZw4</t>
+        </is>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' M\/V</t>
+        </is>
+      </c>
+      <c r="C2193" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2193" t="n">
+        <v>352001434</v>
+      </c>
+      <c r="E2193" t="n">
+        <v>6136072</v>
+      </c>
+      <c r="F2193" t="n">
+        <v>479307</v>
+      </c>
+      <c r="G2193" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2193" t="inlineStr">
+        <is>
+          <t>00:48:54.278944</t>
+        </is>
+      </c>
+      <c r="I2193" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="inlineStr">
+        <is>
+          <t>9pdj4iJD08s</t>
+        </is>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C2194" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2194" t="n">
+        <v>844899354</v>
+      </c>
+      <c r="E2194" t="n">
+        <v>8594614</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>530184</v>
+      </c>
+      <c r="G2194" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2194" t="inlineStr">
+        <is>
+          <t>00:48:54.278948</t>
+        </is>
+      </c>
+      <c r="I2194" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="inlineStr">
+        <is>
+          <t>dISNgvVpWlo</t>
+        </is>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' M\/V</t>
+        </is>
+      </c>
+      <c r="C2195" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2195" t="n">
+        <v>865093409</v>
+      </c>
+      <c r="E2195" t="n">
+        <v>9974382</v>
+      </c>
+      <c r="F2195" t="n">
+        <v>616950</v>
+      </c>
+      <c r="G2195" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2195" t="inlineStr">
+        <is>
+          <t>00:48:54.278952</t>
+        </is>
+      </c>
+      <c r="I2195" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="inlineStr">
+        <is>
+          <t>bwmSjveL3Lc</t>
+        </is>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' M\/V</t>
+        </is>
+      </c>
+      <c r="C2196" t="inlineStr">
+        <is>
+          <t>Music Video</t>
+        </is>
+      </c>
+      <c r="D2196" t="n">
+        <v>1638509156</v>
+      </c>
+      <c r="E2196" t="n">
+        <v>16185907</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>1123600</v>
+      </c>
+      <c r="G2196" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2196" t="inlineStr">
+        <is>
+          <t>00:48:54.278955</t>
+        </is>
+      </c>
+      <c r="I2196" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="inlineStr">
+        <is>
+          <t>RFMi3v0TXP8</t>
+        </is>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2197" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2197" t="n">
+        <v>207991030</v>
+      </c>
+      <c r="E2197" t="n">
+        <v>4835546</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>132968</v>
+      </c>
+      <c r="G2197" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2197" t="inlineStr">
+        <is>
+          <t>00:48:54.278963</t>
+        </is>
+      </c>
+      <c r="I2197" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" t="inlineStr">
+        <is>
+          <t>fr-eHz87XoM</t>
+        </is>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2198" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2198" t="n">
+        <v>117200464</v>
+      </c>
+      <c r="E2198" t="n">
+        <v>3699135</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>82430</v>
+      </c>
+      <c r="G2198" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2198" t="inlineStr">
+        <is>
+          <t>00:48:54.278967</t>
+        </is>
+      </c>
+      <c r="I2198" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="inlineStr">
+        <is>
+          <t>ZJ6QQLDIzrI</t>
+        </is>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2199" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2199" t="n">
+        <v>86748038</v>
+      </c>
+      <c r="E2199" t="n">
+        <v>3024777</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>67408</v>
+      </c>
+      <c r="G2199" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2199" t="inlineStr">
+        <is>
+          <t>00:48:54.542322</t>
+        </is>
+      </c>
+      <c r="I2199" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="inlineStr">
+        <is>
+          <t>YxksUfnuEbI</t>
+        </is>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2200" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2200" t="n">
+        <v>290557386</v>
+      </c>
+      <c r="E2200" t="n">
+        <v>5553878</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>229983</v>
+      </c>
+      <c r="G2200" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2200" t="inlineStr">
+        <is>
+          <t>00:48:54.542346</t>
+        </is>
+      </c>
+      <c r="I2200" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="inlineStr">
+        <is>
+          <t>32si5cfrCNc</t>
+        </is>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2201" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2201" t="n">
+        <v>1506628104</v>
+      </c>
+      <c r="E2201" t="n">
+        <v>17832921</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>927387</v>
+      </c>
+      <c r="G2201" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2201" t="inlineStr">
+        <is>
+          <t>00:48:54.542351</t>
+        </is>
+      </c>
+      <c r="I2201" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="inlineStr">
+        <is>
+          <t>kqXGnxJ-S3k</t>
+        </is>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>JENNIE - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2202" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2202" t="n">
+        <v>11032458</v>
+      </c>
+      <c r="E2202" t="n">
+        <v>953126</v>
+      </c>
+      <c r="F2202" t="n">
+        <v>26983</v>
+      </c>
+      <c r="G2202" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2202" t="inlineStr">
+        <is>
+          <t>00:48:54.542356</t>
+        </is>
+      </c>
+      <c r="I2202" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="inlineStr">
+        <is>
+          <t>bqzDuRz_P7g</t>
+        </is>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Don't Know What To Do' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C2203" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2203" t="n">
+        <v>312655231</v>
+      </c>
+      <c r="E2203" t="n">
+        <v>4285971</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>118676</v>
+      </c>
+      <c r="G2203" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2203" t="inlineStr">
+        <is>
+          <t>00:48:54.542360</t>
+        </is>
+      </c>
+      <c r="I2203" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="inlineStr">
+        <is>
+          <t>MOwaUlXZxkI</t>
+        </is>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C2204" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2204" t="n">
+        <v>491710106</v>
+      </c>
+      <c r="E2204" t="n">
+        <v>6141587</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>169533</v>
+      </c>
+      <c r="G2204" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2204" t="inlineStr">
+        <is>
+          <t>00:48:54.542364</t>
+        </is>
+      </c>
+      <c r="I2204" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="inlineStr">
+        <is>
+          <t>Ws5SOMeA3_E</t>
+        </is>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2205" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2205" t="n">
+        <v>16087140</v>
+      </c>
+      <c r="E2205" t="n">
+        <v>754329</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>18815</v>
+      </c>
+      <c r="G2205" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2205" t="inlineStr">
+        <is>
+          <t>00:48:54.542368</t>
+        </is>
+      </c>
+      <c r="I2205" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="inlineStr">
+        <is>
+          <t>k-wmRTFVwPA</t>
+        </is>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY ALTERNATE EDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2206" t="n">
+        <v>3974733</v>
+      </c>
+      <c r="E2206" t="n">
+        <v>260218</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>4715</v>
+      </c>
+      <c r="G2206" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2206" t="inlineStr">
+        <is>
+          <t>00:48:54.542373</t>
+        </is>
+      </c>
+      <c r="I2206" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="inlineStr">
+        <is>
+          <t>vdDuCvCrcKg</t>
+        </is>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' CHOREOGRAPHY UNEDITED VERSION</t>
+        </is>
+      </c>
+      <c r="C2207" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2207" t="n">
+        <v>278185819</v>
+      </c>
+      <c r="E2207" t="n">
+        <v>4403580</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>200631</v>
+      </c>
+      <c r="G2207" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2207" t="inlineStr">
+        <is>
+          <t>00:48:54.542376</t>
+        </is>
+      </c>
+      <c r="I2207" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="inlineStr">
+        <is>
+          <t>89kTb73csYg</t>
+        </is>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Forever Young' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C2208" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2208" t="n">
+        <v>234352605</v>
+      </c>
+      <c r="E2208" t="n">
+        <v>3956353</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>125716</v>
+      </c>
+      <c r="G2208" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2208" t="inlineStr">
+        <is>
+          <t>00:48:54.542381</t>
+        </is>
+      </c>
+      <c r="I2208" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="inlineStr">
+        <is>
+          <t>jOJbXvjZ-cQ</t>
+        </is>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' DANCE PRACTICE VIDEO (MOVING VER.)</t>
+        </is>
+      </c>
+      <c r="C2209" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2209" t="n">
+        <v>493844696</v>
+      </c>
+      <c r="E2209" t="n">
+        <v>5637612</v>
+      </c>
+      <c r="F2209" t="n">
+        <v>183878</v>
+      </c>
+      <c r="G2209" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2209" t="inlineStr">
+        <is>
+          <t>00:48:54.542384</t>
+        </is>
+      </c>
+      <c r="I2209" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="inlineStr">
+        <is>
+          <t>hKUJmA9O6iA</t>
+        </is>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2210" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2210" t="n">
+        <v>282959386</v>
+      </c>
+      <c r="E2210" t="n">
+        <v>3063114</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>76153</v>
+      </c>
+      <c r="G2210" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2210" t="inlineStr">
+        <is>
+          <t>00:48:54.542388</t>
+        </is>
+      </c>
+      <c r="I2210" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="inlineStr">
+        <is>
+          <t>NvWfJTbrTBY</t>
+        </is>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난(PLAYING WITH FIRE)’ DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2211" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2211" t="n">
+        <v>218190546</v>
+      </c>
+      <c r="E2211" t="n">
+        <v>2363875</v>
+      </c>
+      <c r="F2211" t="n">
+        <v>61957</v>
+      </c>
+      <c r="G2211" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2211" t="inlineStr">
+        <is>
+          <t>00:48:54.542392</t>
+        </is>
+      </c>
+      <c r="I2211" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" t="inlineStr">
+        <is>
+          <t>ivoS3HUJB3Q</t>
+        </is>
+      </c>
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2212" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2212" t="n">
+        <v>299720694</v>
+      </c>
+      <c r="E2212" t="n">
+        <v>3125644</v>
+      </c>
+      <c r="F2212" t="n">
+        <v>76311</v>
+      </c>
+      <c r="G2212" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2212" t="inlineStr">
+        <is>
+          <t>00:48:54.542396</t>
+        </is>
+      </c>
+      <c r="I2212" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="inlineStr">
+        <is>
+          <t>1kYrp_Bs8DU</t>
+        </is>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2213" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2213" t="n">
+        <v>180394369</v>
+      </c>
+      <c r="E2213" t="n">
+        <v>2119357</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>57171</v>
+      </c>
+      <c r="G2213" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2213" t="inlineStr">
+        <is>
+          <t>00:48:54.542400</t>
+        </is>
+      </c>
+      <c r="I2213" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="inlineStr">
+        <is>
+          <t>3fg8pyLKvXE</t>
+        </is>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>BLACKPINK - DANCE PRACTICE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2214" t="inlineStr">
+        <is>
+          <t>Dance Practice Video</t>
+        </is>
+      </c>
+      <c r="D2214" t="n">
+        <v>87278472</v>
+      </c>
+      <c r="E2214" t="n">
+        <v>2898086</v>
+      </c>
+      <c r="F2214" t="n">
+        <v>90255</v>
+      </c>
+      <c r="G2214" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2214" t="inlineStr">
+        <is>
+          <t>00:48:54.542403</t>
+        </is>
+      </c>
+      <c r="I2214" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="inlineStr">
+        <is>
+          <t>eQNHDV7lKgE</t>
+        </is>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘You &amp; Me’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2215" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2215" t="n">
+        <v>9845145</v>
+      </c>
+      <c r="E2215" t="n">
+        <v>1605670</v>
+      </c>
+      <c r="F2215" t="n">
+        <v>117270</v>
+      </c>
+      <c r="G2215" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2215" t="inlineStr">
+        <is>
+          <t>00:48:54.542407</t>
+        </is>
+      </c>
+      <c r="I2215" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="inlineStr">
+        <is>
+          <t>VLpUsmBafMQ</t>
+        </is>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C2216" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2216" t="n">
+        <v>34885647</v>
+      </c>
+      <c r="E2216" t="n">
+        <v>725231</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>14373</v>
+      </c>
+      <c r="G2216" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2216" t="inlineStr">
+        <is>
+          <t>00:48:54.542411</t>
+        </is>
+      </c>
+      <c r="I2216" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="inlineStr">
+        <is>
+          <t>z9tifvQSu-g</t>
+        </is>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Typa Girl’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C2217" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2217" t="n">
+        <v>58753386</v>
+      </c>
+      <c r="E2217" t="n">
+        <v>1246195</v>
+      </c>
+      <c r="F2217" t="n">
+        <v>22110</v>
+      </c>
+      <c r="G2217" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2217" t="inlineStr">
+        <is>
+          <t>00:48:54.542415</t>
+        </is>
+      </c>
+      <c r="I2217" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="inlineStr">
+        <is>
+          <t>NpVJidAKOqc</t>
+        </is>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ Live at Coachella 2023</t>
+        </is>
+      </c>
+      <c r="C2218" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2218" t="n">
+        <v>24995998</v>
+      </c>
+      <c r="E2218" t="n">
+        <v>640545</v>
+      </c>
+      <c r="F2218" t="n">
+        <v>11478</v>
+      </c>
+      <c r="G2218" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2218" t="inlineStr">
+        <is>
+          <t>00:48:54.542418</t>
+        </is>
+      </c>
+      <c r="I2218" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="inlineStr">
+        <is>
+          <t>4XZz3WXRw0A</t>
+        </is>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>JISOO - ‘꽃(FLOWER)’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2219" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2219" t="n">
+        <v>125533520</v>
+      </c>
+      <c r="E2219" t="n">
+        <v>2984024</v>
+      </c>
+      <c r="F2219" t="n">
+        <v>97591</v>
+      </c>
+      <c r="G2219" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2219" t="inlineStr">
+        <is>
+          <t>00:48:54.782376</t>
+        </is>
+      </c>
+      <c r="I2219" t="inlineStr">
+        <is>
+          <t>JISOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="inlineStr">
+        <is>
+          <t>PjrAwC4TIPA</t>
+        </is>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Shut Down’ DANCE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2220" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2220" t="n">
+        <v>155551082</v>
+      </c>
+      <c r="E2220" t="n">
+        <v>3748176</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>98767</v>
+      </c>
+      <c r="G2220" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2220" t="inlineStr">
+        <is>
+          <t>00:48:54.782410</t>
+        </is>
+      </c>
+      <c r="I2220" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="inlineStr">
+        <is>
+          <t>RkKXbweBCcI</t>
+        </is>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pink Venom’ SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C2221" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2221" t="n">
+        <v>45231074</v>
+      </c>
+      <c r="E2221" t="n">
+        <v>2783883</v>
+      </c>
+      <c r="F2221" t="n">
+        <v>60676</v>
+      </c>
+      <c r="G2221" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2221" t="inlineStr">
+        <is>
+          <t>00:48:54.782419</t>
+        </is>
+      </c>
+      <c r="I2221" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="inlineStr">
+        <is>
+          <t>aEiznLJCb9o</t>
+        </is>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' 0926 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2222" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2222" t="n">
+        <v>21701092</v>
+      </c>
+      <c r="E2222" t="n">
+        <v>1461344</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>41786</v>
+      </c>
+      <c r="G2222" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2222" t="inlineStr">
+        <is>
+          <t>00:48:54.782426</t>
+        </is>
+      </c>
+      <c r="I2222" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="inlineStr">
+        <is>
+          <t>dNCWe_6HAM8</t>
+        </is>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>LISA - 'MONEY' EXCLUSIVE PERFORMANCE VIDEO</t>
+        </is>
+      </c>
+      <c r="C2223" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2223" t="n">
+        <v>910402694</v>
+      </c>
+      <c r="E2223" t="n">
+        <v>14025615</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>953325</v>
+      </c>
+      <c r="G2223" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2223" t="inlineStr">
+        <is>
+          <t>00:48:54.782434</t>
+        </is>
+      </c>
+      <c r="I2223" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="inlineStr">
+        <is>
+          <t>08x_TcTyw8o</t>
+        </is>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>LISA - 'LALISA' SPECIAL STAGE</t>
+        </is>
+      </c>
+      <c r="C2224" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2224" t="n">
+        <v>93634719</v>
+      </c>
+      <c r="E2224" t="n">
+        <v>3541787</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>94924</v>
+      </c>
+      <c r="G2224" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2224" t="inlineStr">
+        <is>
+          <t>00:48:54.782441</t>
+        </is>
+      </c>
+      <c r="I2224" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="inlineStr">
+        <is>
+          <t>kZZYkrDWUls</t>
+        </is>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0404 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2225" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2225" t="n">
+        <v>6097990</v>
+      </c>
+      <c r="E2225" t="n">
+        <v>553215</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>24565</v>
+      </c>
+      <c r="G2225" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2225" t="inlineStr">
+        <is>
+          <t>00:48:54.782449</t>
+        </is>
+      </c>
+      <c r="I2225" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" t="inlineStr">
+        <is>
+          <t>VFBj5sWfbH4</t>
+        </is>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0328 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2226" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2226" t="n">
+        <v>6145812</v>
+      </c>
+      <c r="E2226" t="n">
+        <v>581930</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>24762</v>
+      </c>
+      <c r="G2226" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2226" t="inlineStr">
+        <is>
+          <t>00:48:54.782456</t>
+        </is>
+      </c>
+      <c r="I2226" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="inlineStr">
+        <is>
+          <t>z6CSW2yu8Mg</t>
+        </is>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' Dance Performance</t>
+        </is>
+      </c>
+      <c r="C2227" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2227" t="n">
+        <v>109353066</v>
+      </c>
+      <c r="E2227" t="n">
+        <v>3343284</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>145780</v>
+      </c>
+      <c r="G2227" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2227" t="inlineStr">
+        <is>
+          <t>00:48:54.782463</t>
+        </is>
+      </c>
+      <c r="I2227" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" t="inlineStr">
+        <is>
+          <t>AkISOALL8Cw</t>
+        </is>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0321 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2228" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2228" t="n">
+        <v>10847216</v>
+      </c>
+      <c r="E2228" t="n">
+        <v>826842</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>29958</v>
+      </c>
+      <c r="G2228" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2228" t="inlineStr">
+        <is>
+          <t>00:48:54.782471</t>
+        </is>
+      </c>
+      <c r="I2228" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="inlineStr">
+        <is>
+          <t>Q88P1gpOJxA</t>
+        </is>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'On The Ground' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2229" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2229" t="n">
+        <v>27037146</v>
+      </c>
+      <c r="E2229" t="n">
+        <v>2005828</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>75625</v>
+      </c>
+      <c r="G2229" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2229" t="inlineStr">
+        <is>
+          <t>00:48:54.782478</t>
+        </is>
+      </c>
+      <c r="I2229" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="inlineStr">
+        <is>
+          <t>fjp4thii1WY</t>
+        </is>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>ROSÉ - 'Gone' 0314 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2230" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2230" t="n">
+        <v>14349414</v>
+      </c>
+      <c r="E2230" t="n">
+        <v>1440899</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>45868</v>
+      </c>
+      <c r="G2230" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2230" t="inlineStr">
+        <is>
+          <t>00:48:54.782485</t>
+        </is>
+      </c>
+      <c r="I2230" t="inlineStr">
+        <is>
+          <t>ROSÉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" t="inlineStr">
+        <is>
+          <t>MBStYsiE618</t>
+        </is>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1025 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2231" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2231" t="n">
+        <v>31363102</v>
+      </c>
+      <c r="E2231" t="n">
+        <v>1431936</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>52454</v>
+      </c>
+      <c r="G2231" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2231" t="inlineStr">
+        <is>
+          <t>00:48:54.782493</t>
+        </is>
+      </c>
+      <c r="I2231" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" t="inlineStr">
+        <is>
+          <t>3l5jwqPT2yk</t>
+        </is>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Lovesick Girls' Jimmy Kimmel Live</t>
+        </is>
+      </c>
+      <c r="C2232" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2232" t="n">
+        <v>56080045</v>
+      </c>
+      <c r="E2232" t="n">
+        <v>2213855</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>58829</v>
+      </c>
+      <c r="G2232" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2232" t="inlineStr">
+        <is>
+          <t>00:48:54.782500</t>
+        </is>
+      </c>
+      <c r="I2232" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="inlineStr">
+        <is>
+          <t>UcvYlihruvo</t>
+        </is>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1018 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2233" t="n">
+        <v>8771789</v>
+      </c>
+      <c r="E2233" t="n">
+        <v>759165</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>27509</v>
+      </c>
+      <c r="G2233" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2233" t="inlineStr">
+        <is>
+          <t>00:48:54.782507</t>
+        </is>
+      </c>
+      <c r="I2233" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" t="inlineStr">
+        <is>
+          <t>Fwg9-MXdBYA</t>
+        </is>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Lovesick Girls’ 1011 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2234" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2234" t="n">
+        <v>15886847</v>
+      </c>
+      <c r="E2234" t="n">
+        <v>1286456</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>35187</v>
+      </c>
+      <c r="G2234" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2234" t="inlineStr">
+        <is>
+          <t>00:48:54.782514</t>
+        </is>
+      </c>
+      <c r="I2234" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" t="inlineStr">
+        <is>
+          <t>gU2HqP4NxUs</t>
+        </is>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Pretty Savage’ 1011 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2235" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2235" t="n">
+        <v>326562500</v>
+      </c>
+      <c r="E2235" t="n">
+        <v>5164832</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>142934</v>
+      </c>
+      <c r="G2235" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2235" t="inlineStr">
+        <is>
+          <t>00:48:54.782521</t>
+        </is>
+      </c>
+      <c r="I2235" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" t="inlineStr">
+        <is>
+          <t>7PpUuLYWcs8</t>
+        </is>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0719 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2236" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2236" t="n">
+        <v>12827313</v>
+      </c>
+      <c r="E2236" t="n">
+        <v>811972</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>28746</v>
+      </c>
+      <c r="G2236" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2236" t="inlineStr">
+        <is>
+          <t>00:48:54.782529</t>
+        </is>
+      </c>
+      <c r="I2236" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="inlineStr">
+        <is>
+          <t>04lxLDmFaOE</t>
+        </is>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0712 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2237" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2237" t="n">
+        <v>10332037</v>
+      </c>
+      <c r="E2237" t="n">
+        <v>832022</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>37846</v>
+      </c>
+      <c r="G2237" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2237" t="inlineStr">
+        <is>
+          <t>00:48:54.782537</t>
+        </is>
+      </c>
+      <c r="I2237" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="inlineStr">
+        <is>
+          <t>JLOwA3o6Zr0</t>
+        </is>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0705 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2238" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2238" t="n">
+        <v>13441192</v>
+      </c>
+      <c r="E2238" t="n">
+        <v>971564</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>36146</v>
+      </c>
+      <c r="G2238" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2238" t="inlineStr">
+        <is>
+          <t>00:48:54.782544</t>
+        </is>
+      </c>
+      <c r="I2238" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="inlineStr">
+        <is>
+          <t>t0RcZWn085g</t>
+        </is>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'How You Like That' 0628 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2239" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2239" t="n">
+        <v>52068197</v>
+      </c>
+      <c r="E2239" t="n">
+        <v>2286509</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>59210</v>
+      </c>
+      <c r="G2239" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2239" t="inlineStr">
+        <is>
+          <t>00:48:55.018881</t>
+        </is>
+      </c>
+      <c r="I2239" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" t="inlineStr">
+        <is>
+          <t>tOCUE8wRQYY</t>
+        </is>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>BLACKPINK ‐ Kill This Love -JP Ver.- Live at BLACKPINK 2019-2020 WORLD TOUR IN YOUR AREA-TOKYO DOME-</t>
+        </is>
+      </c>
+      <c r="C2240" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2240" t="n">
+        <v>37089325</v>
+      </c>
+      <c r="E2240" t="n">
+        <v>1229058</v>
+      </c>
+      <c r="F2240" t="n">
+        <v>44950</v>
+      </c>
+      <c r="G2240" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2240" t="inlineStr">
+        <is>
+          <t>00:48:55.018906</t>
+        </is>
+      </c>
+      <c r="I2240" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" t="inlineStr">
+        <is>
+          <t>-6XwN_wu3KU</t>
+        </is>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'Kill This Love' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C2241" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2241" t="n">
+        <v>24892299</v>
+      </c>
+      <c r="E2241" t="n">
+        <v>1077541</v>
+      </c>
+      <c r="F2241" t="n">
+        <v>26095</v>
+      </c>
+      <c r="G2241" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2241" t="inlineStr">
+        <is>
+          <t>00:48:55.018911</t>
+        </is>
+      </c>
+      <c r="I2241" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" t="inlineStr">
+        <is>
+          <t>_HhAzr5DLik</t>
+        </is>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야 (BOOMBAYAH)' Live at Coachella 2019</t>
+        </is>
+      </c>
+      <c r="C2242" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2242" t="n">
+        <v>14555066</v>
+      </c>
+      <c r="E2242" t="n">
+        <v>700640</v>
+      </c>
+      <c r="F2242" t="n">
+        <v>22468</v>
+      </c>
+      <c r="G2242" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2242" t="inlineStr">
+        <is>
+          <t>00:48:55.018915</t>
+        </is>
+      </c>
+      <c r="I2242" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="inlineStr">
+        <is>
+          <t>a5gUds01aXY</t>
+        </is>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '뚜두뚜두 (DDU-DU DDU-DU)' 2019 Coachella Live Performance</t>
+        </is>
+      </c>
+      <c r="C2243" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2243" t="n">
+        <v>50681710</v>
+      </c>
+      <c r="E2243" t="n">
+        <v>1887151</v>
+      </c>
+      <c r="F2243" t="n">
+        <v>89546</v>
+      </c>
+      <c r="G2243" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2243" t="inlineStr">
+        <is>
+          <t>00:48:55.018920</t>
+        </is>
+      </c>
+      <c r="I2243" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" t="inlineStr">
+        <is>
+          <t>vx9CSpnROfs</t>
+        </is>
+      </c>
+      <c r="B2244" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0414 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2244" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2244" t="n">
+        <v>121417705</v>
+      </c>
+      <c r="E2244" t="n">
+        <v>2331840</v>
+      </c>
+      <c r="F2244" t="n">
+        <v>54728</v>
+      </c>
+      <c r="G2244" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2244" t="inlineStr">
+        <is>
+          <t>00:48:55.018924</t>
+        </is>
+      </c>
+      <c r="I2244" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" t="inlineStr">
+        <is>
+          <t>RgI8UNOqczE</t>
+        </is>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2245" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2245" t="n">
+        <v>11398330</v>
+      </c>
+      <c r="E2245" t="n">
+        <v>502690</v>
+      </c>
+      <c r="F2245" t="n">
+        <v>16973</v>
+      </c>
+      <c r="G2245" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2245" t="inlineStr">
+        <is>
+          <t>00:48:55.018928</t>
+        </is>
+      </c>
+      <c r="I2245" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" t="inlineStr">
+        <is>
+          <t>sL175y19MUU</t>
+        </is>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Don't Know What To Do' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2246" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2246" t="n">
+        <v>12358353</v>
+      </c>
+      <c r="E2246" t="n">
+        <v>463731</v>
+      </c>
+      <c r="F2246" t="n">
+        <v>11745</v>
+      </c>
+      <c r="G2246" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2246" t="inlineStr">
+        <is>
+          <t>00:48:55.018933</t>
+        </is>
+      </c>
+      <c r="I2246" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="inlineStr">
+        <is>
+          <t>GXBDwS2Tizo</t>
+        </is>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2247" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2247" t="n">
+        <v>22264469</v>
+      </c>
+      <c r="E2247" t="n">
+        <v>1033733</v>
+      </c>
+      <c r="F2247" t="n">
+        <v>26522</v>
+      </c>
+      <c r="G2247" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2247" t="inlineStr">
+        <is>
+          <t>00:48:55.018937</t>
+        </is>
+      </c>
+      <c r="I2247" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" t="inlineStr">
+        <is>
+          <t>rt6G9Vwt1xc</t>
+        </is>
+      </c>
+      <c r="B2248" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Kill This Love' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2248" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2248" t="n">
+        <v>17957581</v>
+      </c>
+      <c r="E2248" t="n">
+        <v>794147</v>
+      </c>
+      <c r="F2248" t="n">
+        <v>24512</v>
+      </c>
+      <c r="G2248" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2248" t="inlineStr">
+        <is>
+          <t>00:48:55.018941</t>
+        </is>
+      </c>
+      <c r="I2248" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" t="inlineStr">
+        <is>
+          <t>MkG24J87IUk</t>
+        </is>
+      </c>
+      <c r="B2249" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Kill This Love’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2249" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2249" t="n">
+        <v>49531929</v>
+      </c>
+      <c r="E2249" t="n">
+        <v>1710038</v>
+      </c>
+      <c r="F2249" t="n">
+        <v>46449</v>
+      </c>
+      <c r="G2249" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2249" t="inlineStr">
+        <is>
+          <t>00:48:55.018945</t>
+        </is>
+      </c>
+      <c r="I2249" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" t="inlineStr">
+        <is>
+          <t>o4GHoqGtRkg</t>
+        </is>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘Don't Know What To Do’ 0407 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2250" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2250" t="n">
+        <v>67742546</v>
+      </c>
+      <c r="E2250" t="n">
+        <v>1723158</v>
+      </c>
+      <c r="F2250" t="n">
+        <v>48439</v>
+      </c>
+      <c r="G2250" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2250" t="inlineStr">
+        <is>
+          <t>00:48:55.018950</t>
+        </is>
+      </c>
+      <c r="I2250" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" t="inlineStr">
+        <is>
+          <t>cxNIewNXpcg</t>
+        </is>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SOLO' + '뚜두뚜두(DDU-DU DDU-DU)' + 'FOREVER YOUNG' in 2018 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C2251" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2251" t="n">
+        <v>383935146</v>
+      </c>
+      <c r="E2251" t="n">
+        <v>6193604</v>
+      </c>
+      <c r="F2251" t="n">
+        <v>209156</v>
+      </c>
+      <c r="G2251" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2251" t="inlineStr">
+        <is>
+          <t>00:48:55.018954</t>
+        </is>
+      </c>
+      <c r="I2251" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" t="inlineStr">
+        <is>
+          <t>7nukOecMf-U</t>
+        </is>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1216 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2252" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2252" t="n">
+        <v>4909284</v>
+      </c>
+      <c r="E2252" t="n">
+        <v>224960</v>
+      </c>
+      <c r="F2252" t="n">
+        <v>7755</v>
+      </c>
+      <c r="G2252" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2252" t="inlineStr">
+        <is>
+          <t>00:48:55.018958</t>
+        </is>
+      </c>
+      <c r="I2252" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" t="inlineStr">
+        <is>
+          <t>CPSH3ljpkZ4</t>
+        </is>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1209 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2253" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2253" t="n">
+        <v>13097824</v>
+      </c>
+      <c r="E2253" t="n">
+        <v>413233</v>
+      </c>
+      <c r="F2253" t="n">
+        <v>13158</v>
+      </c>
+      <c r="G2253" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2253" t="inlineStr">
+        <is>
+          <t>00:48:55.018962</t>
+        </is>
+      </c>
+      <c r="I2253" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" t="inlineStr">
+        <is>
+          <t>hxDXhh2sE1g</t>
+        </is>
+      </c>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1202 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2254" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2254" t="n">
+        <v>5931227</v>
+      </c>
+      <c r="E2254" t="n">
+        <v>253777</v>
+      </c>
+      <c r="F2254" t="n">
+        <v>9493</v>
+      </c>
+      <c r="G2254" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2254" t="inlineStr">
+        <is>
+          <t>00:48:55.018966</t>
+        </is>
+      </c>
+      <c r="I2254" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" t="inlineStr">
+        <is>
+          <t>smimdoBjeAE</t>
+        </is>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>JENNIE - ‘SOLO’ 1125 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2255" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2255" t="n">
+        <v>17112921</v>
+      </c>
+      <c r="E2255" t="n">
+        <v>676708</v>
+      </c>
+      <c r="F2255" t="n">
+        <v>25621</v>
+      </c>
+      <c r="G2255" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2255" t="inlineStr">
+        <is>
+          <t>00:48:55.018970</t>
+        </is>
+      </c>
+      <c r="I2255" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" t="inlineStr">
+        <is>
+          <t>N1C_G3sfzXo</t>
+        </is>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>JENNIE - 'SOLO' PERFORMANCE [IN YOUR AREA] SEOUL</t>
+        </is>
+      </c>
+      <c r="C2256" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2256" t="n">
+        <v>29745495</v>
+      </c>
+      <c r="E2256" t="n">
+        <v>1035058</v>
+      </c>
+      <c r="F2256" t="n">
+        <v>26399</v>
+      </c>
+      <c r="G2256" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2256" t="inlineStr">
+        <is>
+          <t>00:48:55.018975</t>
+        </is>
+      </c>
+      <c r="I2256" t="inlineStr">
+        <is>
+          <t>JENNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" t="inlineStr">
+        <is>
+          <t>5hwepTxNKtE</t>
+        </is>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0805 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2257" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2257" t="n">
+        <v>72992150</v>
+      </c>
+      <c r="E2257" t="n">
+        <v>1184687</v>
+      </c>
+      <c r="F2257" t="n">
+        <v>44070</v>
+      </c>
+      <c r="G2257" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2257" t="inlineStr">
+        <is>
+          <t>00:48:55.018979</t>
+        </is>
+      </c>
+      <c r="I2257" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" t="inlineStr">
+        <is>
+          <t>4KRdmXcJWQU</t>
+        </is>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2258" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2258" t="n">
+        <v>8764163</v>
+      </c>
+      <c r="E2258" t="n">
+        <v>416012</v>
+      </c>
+      <c r="F2258" t="n">
+        <v>11732</v>
+      </c>
+      <c r="G2258" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2258" t="inlineStr">
+        <is>
+          <t>00:48:55.018983</t>
+        </is>
+      </c>
+      <c r="I2258" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" t="inlineStr">
+        <is>
+          <t>HhyRAPKiXi4</t>
+        </is>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2259" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2259" t="n">
+        <v>3986851</v>
+      </c>
+      <c r="E2259" t="n">
+        <v>203289</v>
+      </c>
+      <c r="F2259" t="n">
+        <v>7222</v>
+      </c>
+      <c r="G2259" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2259" t="inlineStr">
+        <is>
+          <t>00:48:55.300923</t>
+        </is>
+      </c>
+      <c r="I2259" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" t="inlineStr">
+        <is>
+          <t>PMsBMoc9eFg</t>
+        </is>
+      </c>
+      <c r="B2260" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0722 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2260" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2260" t="n">
+        <v>12215271</v>
+      </c>
+      <c r="E2260" t="n">
+        <v>439715</v>
+      </c>
+      <c r="F2260" t="n">
+        <v>19911</v>
+      </c>
+      <c r="G2260" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2260" t="inlineStr">
+        <is>
+          <t>00:48:55.300958</t>
+        </is>
+      </c>
+      <c r="I2260" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" t="inlineStr">
+        <is>
+          <t>xqWjJP_WT-0</t>
+        </is>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2261" t="n">
+        <v>13222029</v>
+      </c>
+      <c r="E2261" t="n">
+        <v>687815</v>
+      </c>
+      <c r="F2261" t="n">
+        <v>24670</v>
+      </c>
+      <c r="G2261" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2261" t="inlineStr">
+        <is>
+          <t>00:48:55.300966</t>
+        </is>
+      </c>
+      <c r="I2261" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="inlineStr">
+        <is>
+          <t>WaIGc9QmV2w</t>
+        </is>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ 'Forever Young' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2262" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2262" t="n">
+        <v>3359419</v>
+      </c>
+      <c r="E2262" t="n">
+        <v>185660</v>
+      </c>
+      <c r="F2262" t="n">
+        <v>7356</v>
+      </c>
+      <c r="G2262" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2262" t="inlineStr">
+        <is>
+          <t>00:48:55.300974</t>
+        </is>
+      </c>
+      <c r="I2262" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" t="inlineStr">
+        <is>
+          <t>67otJZ6qe9Y</t>
+        </is>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0715 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2263" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2263" t="n">
+        <v>44184427</v>
+      </c>
+      <c r="E2263" t="n">
+        <v>982515</v>
+      </c>
+      <c r="F2263" t="n">
+        <v>33586</v>
+      </c>
+      <c r="G2263" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2263" t="inlineStr">
+        <is>
+          <t>00:48:55.300982</t>
+        </is>
+      </c>
+      <c r="I2263" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" t="inlineStr">
+        <is>
+          <t>PZ5t29qgGAM</t>
+        </is>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JISOO '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2264" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2264" t="n">
+        <v>11337787</v>
+      </c>
+      <c r="E2264" t="n">
+        <v>511403</v>
+      </c>
+      <c r="F2264" t="n">
+        <v>18489</v>
+      </c>
+      <c r="G2264" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2264" t="inlineStr">
+        <is>
+          <t>00:48:55.300989</t>
+        </is>
+      </c>
+      <c r="I2264" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" t="inlineStr">
+        <is>
+          <t>dEnDjgoLLY4</t>
+        </is>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ROSÉ '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2265" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2265" t="n">
+        <v>6475661</v>
+      </c>
+      <c r="E2265" t="n">
+        <v>327066</v>
+      </c>
+      <c r="F2265" t="n">
+        <v>12289</v>
+      </c>
+      <c r="G2265" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2265" t="inlineStr">
+        <is>
+          <t>00:48:55.300996</t>
+        </is>
+      </c>
+      <c r="I2265" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" t="inlineStr">
+        <is>
+          <t>0uje7GB8Azk</t>
+        </is>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>BLACKPINK - JENNIE '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2266" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2266" t="n">
+        <v>10039627</v>
+      </c>
+      <c r="E2266" t="n">
+        <v>351915</v>
+      </c>
+      <c r="F2266" t="n">
+        <v>13478</v>
+      </c>
+      <c r="G2266" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2266" t="inlineStr">
+        <is>
+          <t>00:48:55.301004</t>
+        </is>
+      </c>
+      <c r="I2266" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" t="inlineStr">
+        <is>
+          <t>F6IR7luozPw</t>
+        </is>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0708 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2267" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2267" t="n">
+        <v>3909425</v>
+      </c>
+      <c r="E2267" t="n">
+        <v>226797</v>
+      </c>
+      <c r="F2267" t="n">
+        <v>12153</v>
+      </c>
+      <c r="G2267" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2267" t="inlineStr">
+        <is>
+          <t>00:48:55.301011</t>
+        </is>
+      </c>
+      <c r="I2267" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" t="inlineStr">
+        <is>
+          <t>rw2-h5JNLqM</t>
+        </is>
+      </c>
+      <c r="B2268" t="inlineStr">
+        <is>
+          <t>BLACKPINK - LISA '뚜두뚜두 (DDU-DU DDU-DU)' FOCUSED CAMERA</t>
+        </is>
+      </c>
+      <c r="C2268" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2268" t="n">
+        <v>15140401</v>
+      </c>
+      <c r="E2268" t="n">
+        <v>692846</v>
+      </c>
+      <c r="F2268" t="n">
+        <v>22351</v>
+      </c>
+      <c r="G2268" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2268" t="inlineStr">
+        <is>
+          <t>00:48:55.301018</t>
+        </is>
+      </c>
+      <c r="I2268" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" t="inlineStr">
+        <is>
+          <t>TIOCHR0OxOQ</t>
+        </is>
+      </c>
+      <c r="B2269" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0701 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2269" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2269" t="n">
+        <v>4463785</v>
+      </c>
+      <c r="E2269" t="n">
+        <v>260866</v>
+      </c>
+      <c r="F2269" t="n">
+        <v>14771</v>
+      </c>
+      <c r="G2269" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2269" t="inlineStr">
+        <is>
+          <t>00:48:55.301025</t>
+        </is>
+      </c>
+      <c r="I2269" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" t="inlineStr">
+        <is>
+          <t>PUcGXTSCRLA</t>
+        </is>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0624 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2270" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2270" t="n">
+        <v>7592912</v>
+      </c>
+      <c r="E2270" t="n">
+        <v>351491</v>
+      </c>
+      <c r="F2270" t="n">
+        <v>13061</v>
+      </c>
+      <c r="G2270" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2270" t="inlineStr">
+        <is>
+          <t>00:48:55.301033</t>
+        </is>
+      </c>
+      <c r="I2270" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" t="inlineStr">
+        <is>
+          <t>b5dUYf_uPaY</t>
+        </is>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘뚜두뚜두 (DDU-DU DDU-DU)’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2271" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2271" t="n">
+        <v>44095693</v>
+      </c>
+      <c r="E2271" t="n">
+        <v>1106084</v>
+      </c>
+      <c r="F2271" t="n">
+        <v>33819</v>
+      </c>
+      <c r="G2271" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2271" t="inlineStr">
+        <is>
+          <t>00:48:55.301040</t>
+        </is>
+      </c>
+      <c r="I2271" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" t="inlineStr">
+        <is>
+          <t>n7ukhNJvQ8s</t>
+        </is>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘FOREVER YOUNG’ 0617 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2272" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2272" t="n">
+        <v>63832547</v>
+      </c>
+      <c r="E2272" t="n">
+        <v>1131878</v>
+      </c>
+      <c r="F2272" t="n">
+        <v>40066</v>
+      </c>
+      <c r="G2272" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2272" t="inlineStr">
+        <is>
+          <t>00:48:55.301048</t>
+        </is>
+      </c>
+      <c r="I2272" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="inlineStr">
+        <is>
+          <t>f1xIeTCgoFk</t>
+        </is>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>BLACKPINK - INTRO +  ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2018 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C2273" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2273" t="n">
+        <v>35643158</v>
+      </c>
+      <c r="E2273" t="n">
+        <v>772969</v>
+      </c>
+      <c r="F2273" t="n">
+        <v>23945</v>
+      </c>
+      <c r="G2273" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2273" t="inlineStr">
+        <is>
+          <t>00:48:55.301055</t>
+        </is>
+      </c>
+      <c r="I2273" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" t="inlineStr">
+        <is>
+          <t>skIfzl96Gc0</t>
+        </is>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SO HOT' (THEBLACKLABEL Remix) in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C2274" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2274" t="n">
+        <v>87710539</v>
+      </c>
+      <c r="E2274" t="n">
+        <v>2155552</v>
+      </c>
+      <c r="F2274" t="n">
+        <v>63138</v>
+      </c>
+      <c r="G2274" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2274" t="inlineStr">
+        <is>
+          <t>00:48:55.301062</t>
+        </is>
+      </c>
+      <c r="I2274" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" t="inlineStr">
+        <is>
+          <t>PoHD4wfwC6Y</t>
+        </is>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ in 2017 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C2275" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2275" t="n">
+        <v>8401688</v>
+      </c>
+      <c r="E2275" t="n">
+        <v>300258</v>
+      </c>
+      <c r="F2275" t="n">
+        <v>7160</v>
+      </c>
+      <c r="G2275" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2275" t="inlineStr">
+        <is>
+          <t>00:48:55.301070</t>
+        </is>
+      </c>
+      <c r="I2275" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" t="inlineStr">
+        <is>
+          <t>wwuZtpS8FNI</t>
+        </is>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 1001 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2276" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2276" t="n">
+        <v>35356143</v>
+      </c>
+      <c r="E2276" t="n">
+        <v>580602</v>
+      </c>
+      <c r="F2276" t="n">
+        <v>15699</v>
+      </c>
+      <c r="G2276" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2276" t="inlineStr">
+        <is>
+          <t>00:48:55.301077</t>
+        </is>
+      </c>
+      <c r="I2276" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" t="inlineStr">
+        <is>
+          <t>GE7x2fVVsXM</t>
+        </is>
+      </c>
+      <c r="B2277" t="inlineStr">
+        <is>
+          <t>BLACKPINK - OPENING MEDLDY 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C2277" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2277" t="n">
+        <v>16263126</v>
+      </c>
+      <c r="E2277" t="n">
+        <v>446191</v>
+      </c>
+      <c r="F2277" t="n">
+        <v>10611</v>
+      </c>
+      <c r="G2277" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2277" t="inlineStr">
+        <is>
+          <t>00:48:55.301084</t>
+        </is>
+      </c>
+      <c r="I2277" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" t="inlineStr">
+        <is>
+          <t>_7TMluHVx4Y</t>
+        </is>
+      </c>
+      <c r="B2278" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'SURE THING (Miguel)' COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C2278" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2278" t="n">
+        <v>109738178</v>
+      </c>
+      <c r="E2278" t="n">
+        <v>1773826</v>
+      </c>
+      <c r="F2278" t="n">
+        <v>69476</v>
+      </c>
+      <c r="G2278" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2278" t="inlineStr">
+        <is>
+          <t>00:48:55.301091</t>
+        </is>
+      </c>
+      <c r="I2278" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" t="inlineStr">
+        <is>
+          <t>X3P6dnL2OyY</t>
+        </is>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'PARTITION (Beyonce)' DANCE COVER 0812 SBS PARTY PEOPLE</t>
+        </is>
+      </c>
+      <c r="C2279" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2279" t="n">
+        <v>48841255</v>
+      </c>
+      <c r="E2279" t="n">
+        <v>1228575</v>
+      </c>
+      <c r="F2279" t="n">
+        <v>30772</v>
+      </c>
+      <c r="G2279" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2279" t="inlineStr">
+        <is>
+          <t>00:48:55.643553</t>
+        </is>
+      </c>
+      <c r="I2279" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" t="inlineStr">
+        <is>
+          <t>RczrR4FVKzg</t>
+        </is>
+      </c>
+      <c r="B2280" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST) Remix ver.' 0723 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2280" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2280" t="n">
+        <v>20906131</v>
+      </c>
+      <c r="E2280" t="n">
+        <v>625205</v>
+      </c>
+      <c r="F2280" t="n">
+        <v>19586</v>
+      </c>
+      <c r="G2280" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2280" t="inlineStr">
+        <is>
+          <t>00:48:55.643587</t>
+        </is>
+      </c>
+      <c r="I2280" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" t="inlineStr">
+        <is>
+          <t>vW1PeCzs7Sg</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0716 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2281" t="n">
+        <v>4604523</v>
+      </c>
+      <c r="E2281" t="n">
+        <v>204569</v>
+      </c>
+      <c r="F2281" t="n">
+        <v>6755</v>
+      </c>
+      <c r="G2281" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2281" t="inlineStr">
+        <is>
+          <t>00:48:55.643596</t>
+        </is>
+      </c>
+      <c r="I2281" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" t="inlineStr">
+        <is>
+          <t>ZL8LqlKtpVE</t>
+        </is>
+      </c>
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0709 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2282" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2282" t="n">
+        <v>4523240</v>
+      </c>
+      <c r="E2282" t="n">
+        <v>211987</v>
+      </c>
+      <c r="F2282" t="n">
+        <v>6455</v>
+      </c>
+      <c r="G2282" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2282" t="inlineStr">
+        <is>
+          <t>00:48:55.643604</t>
+        </is>
+      </c>
+      <c r="I2282" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" t="inlineStr">
+        <is>
+          <t>fWOAe_xXTQs</t>
+        </is>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0702 SBS Inkigayo  : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2283" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2283" t="n">
+        <v>7133403</v>
+      </c>
+      <c r="E2283" t="n">
+        <v>308334</v>
+      </c>
+      <c r="F2283" t="n">
+        <v>11345</v>
+      </c>
+      <c r="G2283" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2283" t="inlineStr">
+        <is>
+          <t>00:48:55.643612</t>
+        </is>
+      </c>
+      <c r="I2283" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" t="inlineStr">
+        <is>
+          <t>TWRSR7y1288</t>
+        </is>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘마지막처럼 (AS IF IT’S YOUR LAST)’ 0625 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2284" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2284" t="n">
+        <v>31735186</v>
+      </c>
+      <c r="E2284" t="n">
+        <v>751102</v>
+      </c>
+      <c r="F2284" t="n">
+        <v>23565</v>
+      </c>
+      <c r="G2284" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2284" t="inlineStr">
+        <is>
+          <t>00:48:55.643619</t>
+        </is>
+      </c>
+      <c r="I2284" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" t="inlineStr">
+        <is>
+          <t>VQLn90MACUQ</t>
+        </is>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>BLACKPINK - ‘불장난 (PLAYING WITH FIRE)’ + ‘붐바야 (BOOMBAYAH)’  in 2017 Seoul Music Awards</t>
+        </is>
+      </c>
+      <c r="C2285" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2285" t="n">
+        <v>51536158</v>
+      </c>
+      <c r="E2285" t="n">
+        <v>1047417</v>
+      </c>
+      <c r="F2285" t="n">
+        <v>22135</v>
+      </c>
+      <c r="G2285" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2285" t="inlineStr">
+        <is>
+          <t>00:48:55.643626</t>
+        </is>
+      </c>
+      <c r="I2285" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" t="inlineStr">
+        <is>
+          <t>_paRxWTIyAo</t>
+        </is>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람 (WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 SBS Gayodaejun</t>
+        </is>
+      </c>
+      <c r="C2286" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2286" t="n">
+        <v>121819467</v>
+      </c>
+      <c r="E2286" t="n">
+        <v>1969316</v>
+      </c>
+      <c r="F2286" t="n">
+        <v>39485</v>
+      </c>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2286" t="inlineStr">
+        <is>
+          <t>00:48:55.643634</t>
+        </is>
+      </c>
+      <c r="I2286" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" t="inlineStr">
+        <is>
+          <t>FOv-Rsp1LS0</t>
+        </is>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - Interview(마지막 무대 인사) + '불장난(PLAYING WITH FIRE)' 1211 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2287" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2287" t="n">
+        <v>2833737</v>
+      </c>
+      <c r="E2287" t="n">
+        <v>127440</v>
+      </c>
+      <c r="F2287" t="n">
+        <v>5448</v>
+      </c>
+      <c r="G2287" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2287" t="inlineStr">
+        <is>
+          <t>00:48:55.643641</t>
+        </is>
+      </c>
+      <c r="I2287" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" t="inlineStr">
+        <is>
+          <t>hTDRE5d5A2M</t>
+        </is>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1204 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2288" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2288" t="n">
+        <v>4061336</v>
+      </c>
+      <c r="E2288" t="n">
+        <v>199399</v>
+      </c>
+      <c r="F2288" t="n">
+        <v>6801</v>
+      </c>
+      <c r="G2288" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2288" t="inlineStr">
+        <is>
+          <t>00:48:55.643653</t>
+        </is>
+      </c>
+      <c r="I2288" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" t="inlineStr">
+        <is>
+          <t>HoAdqZW4ptY</t>
+        </is>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1127 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2289" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2289" t="n">
+        <v>6881946</v>
+      </c>
+      <c r="E2289" t="n">
+        <v>269633</v>
+      </c>
+      <c r="F2289" t="n">
+        <v>7414</v>
+      </c>
+      <c r="G2289" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2289" t="inlineStr">
+        <is>
+          <t>00:48:55.643660</t>
+        </is>
+      </c>
+      <c r="I2289" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" t="inlineStr">
+        <is>
+          <t>TklpzjGlqFE</t>
+        </is>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1120 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2290" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2290" t="n">
+        <v>13629656</v>
+      </c>
+      <c r="E2290" t="n">
+        <v>366511</v>
+      </c>
+      <c r="F2290" t="n">
+        <v>8693</v>
+      </c>
+      <c r="G2290" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2290" t="inlineStr">
+        <is>
+          <t>00:48:55.643668</t>
+        </is>
+      </c>
+      <c r="I2290" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" t="inlineStr">
+        <is>
+          <t>ZwVTC_686Sw</t>
+        </is>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람(WHISTLE)' + '불장난 (PLAYING WITH FIRE)' in 2016 MELON MUSIC AWARDS</t>
+        </is>
+      </c>
+      <c r="C2291" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2291" t="n">
+        <v>77790599</v>
+      </c>
+      <c r="E2291" t="n">
+        <v>1373254</v>
+      </c>
+      <c r="F2291" t="n">
+        <v>35271</v>
+      </c>
+      <c r="G2291" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2291" t="inlineStr">
+        <is>
+          <t>00:48:55.643675</t>
+        </is>
+      </c>
+      <c r="I2291" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" t="inlineStr">
+        <is>
+          <t>_NVwS4mcVYg</t>
+        </is>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>BLACKPINK - 'STAY' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2292" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2292" t="n">
+        <v>22447437</v>
+      </c>
+      <c r="E2292" t="n">
+        <v>626932</v>
+      </c>
+      <c r="F2292" t="n">
+        <v>19904</v>
+      </c>
+      <c r="G2292" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2292" t="inlineStr">
+        <is>
+          <t>00:48:55.643682</t>
+        </is>
+      </c>
+      <c r="I2292" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="inlineStr">
+        <is>
+          <t>5LWCPzwiN28</t>
+        </is>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '불장난 (PLAYING WITH FIRE)' 1106 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2293" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2293" t="n">
+        <v>67345309</v>
+      </c>
+      <c r="E2293" t="n">
+        <v>964127</v>
+      </c>
+      <c r="F2293" t="n">
+        <v>32154</v>
+      </c>
+      <c r="G2293" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2293" t="inlineStr">
+        <is>
+          <t>00:48:55.643689</t>
+        </is>
+      </c>
+      <c r="I2293" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" t="inlineStr">
+        <is>
+          <t>o4rSRaqvHyc</t>
+        </is>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0911 SBS Inkigayo : NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2294" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2294" t="n">
+        <v>6195595</v>
+      </c>
+      <c r="E2294" t="n">
+        <v>253987</v>
+      </c>
+      <c r="F2294" t="n">
+        <v>6889</v>
+      </c>
+      <c r="G2294" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2294" t="inlineStr">
+        <is>
+          <t>00:48:55.643696</t>
+        </is>
+      </c>
+      <c r="I2294" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" t="inlineStr">
+        <is>
+          <t>6F0UWgSSQqU</t>
+        </is>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0904 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2295" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2295" t="n">
+        <v>9650094</v>
+      </c>
+      <c r="E2295" t="n">
+        <v>255378</v>
+      </c>
+      <c r="F2295" t="n">
+        <v>9288</v>
+      </c>
+      <c r="G2295" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2295" t="inlineStr">
+        <is>
+          <t>00:48:55.643704</t>
+        </is>
+      </c>
+      <c r="I2295" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="inlineStr">
+        <is>
+          <t>13XTnp3Lp84</t>
+        </is>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2296" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2296" t="n">
+        <v>31605883</v>
+      </c>
+      <c r="E2296" t="n">
+        <v>649807</v>
+      </c>
+      <c r="F2296" t="n">
+        <v>20488</v>
+      </c>
+      <c r="G2296" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2296" t="inlineStr">
+        <is>
+          <t>00:48:55.643711</t>
+        </is>
+      </c>
+      <c r="I2296" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="inlineStr">
+        <is>
+          <t>EKHdMwRaU60</t>
+        </is>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0828 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2297" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2297" t="n">
+        <v>60740695</v>
+      </c>
+      <c r="E2297" t="n">
+        <v>829158</v>
+      </c>
+      <c r="F2297" t="n">
+        <v>23108</v>
+      </c>
+      <c r="G2297" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2297" t="inlineStr">
+        <is>
+          <t>00:48:55.643718</t>
+        </is>
+      </c>
+      <c r="I2297" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="inlineStr">
+        <is>
+          <t>metZ_f8aqC0</t>
+        </is>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '휘파람(WHISTLE)' 0821 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2298" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2298" t="n">
+        <v>41608803</v>
+      </c>
+      <c r="E2298" t="n">
+        <v>892223</v>
+      </c>
+      <c r="F2298" t="n">
+        <v>26135</v>
+      </c>
+      <c r="G2298" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2298" t="inlineStr">
+        <is>
+          <t>00:48:55.643725</t>
+        </is>
+      </c>
+      <c r="I2298" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="inlineStr">
+        <is>
+          <t>RGmL76BBGZk</t>
+        </is>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>BLACKPINK​ - '붐바야(BOOMBAYAH)' 0821 SBS Inkigayo : '휘파람(WHISTLE)' NO.1 OF THE WEEK</t>
+        </is>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2299" t="n">
+        <v>17068076</v>
+      </c>
+      <c r="E2299" t="n">
+        <v>541168</v>
+      </c>
+      <c r="F2299" t="n">
+        <v>14614</v>
+      </c>
+      <c r="G2299" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2299" t="inlineStr">
+        <is>
+          <t>00:48:55.804925</t>
+        </is>
+      </c>
+      <c r="I2299" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="inlineStr">
+        <is>
+          <t>vAqAp1tJnkc</t>
+        </is>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '휘파람’(WHISTLE) 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2300" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2300" t="n">
+        <v>48104085</v>
+      </c>
+      <c r="E2300" t="n">
+        <v>858075</v>
+      </c>
+      <c r="F2300" t="n">
+        <v>29206</v>
+      </c>
+      <c r="G2300" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2300" t="inlineStr">
+        <is>
+          <t>00:48:55.804956</t>
+        </is>
+      </c>
+      <c r="I2300" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="inlineStr">
+        <is>
+          <t>LpSH8MrYCfg</t>
+        </is>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>BLACKPINK - '붐바야(BOOMBAYAH)' 0814 SBS Inkigayo</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="D2301" t="n">
+        <v>168713382</v>
+      </c>
+      <c r="E2301" t="n">
+        <v>2540374</v>
+      </c>
+      <c r="F2301" t="n">
+        <v>80133</v>
+      </c>
+      <c r="G2301" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H2301" t="inlineStr">
+        <is>
+          <t>00:48:55.804966</t>
+        </is>
+      </c>
+      <c r="I2301" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
